--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1066.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1066.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.7411809548974793</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.03705904774487397</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.03705904774487397</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.05929447639179835</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.07342854920846667</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02342854920846666</v>
+        <v>0.02397603617463352</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008128811734916775</v>
+        <v>0.008318768801216162</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0003000798043828051</v>
+        <v>0.00396727150230896</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007104966141958892</v>
+        <v>0.0007742630096918464</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.003078537751921066</v>
+        <v>0.010471963908051</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007739782232974769</v>
+        <v>0.0007692452685777365</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01017570478538454</v>
+        <v>0.01866698596869987</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007086940311276338</v>
+        <v>0.0007679436343872867</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01687631016397417</v>
+        <v>0.00396727150230896</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0006984723143603467</v>
+        <v>0.0007742630096918464</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002410212701974446</v>
+        <v>0.008190614196778356</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001420993228391778</v>
+        <v>0.001548526019383693</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.006503091578233464</v>
+        <v>0.02147740807451218</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001547956446594954</v>
+        <v>0.001538490537155473</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01994737332008392</v>
+        <v>0.03527861610646066</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001417388062255268</v>
+        <v>0.001535887268774573</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03086274368400715</v>
+        <v>0.008190614196778356</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001396944628720693</v>
+        <v>0.001548526019383693</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.008192091217251014</v>
+        <v>0.01189623320418255</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002131489842587668</v>
+        <v>0.002322789029075539</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.008999999999999994</v>
+        <v>0.03001016617607255</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002193475609756097</v>
+        <v>0.00230773580573321</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.0280798024792652</v>
+        <v>0.04399999999999998</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002126082093382901</v>
+        <v>0.002023331799355729</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04299999999999998</v>
+        <v>0.01189623320418255</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.001977346985734007</v>
+        <v>0.002322789029075539</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01111771432346219</v>
+        <v>0.01491033364529588</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002709603911638925</v>
+        <v>0.003097052038767385</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01147176326060931</v>
+        <v>0.03599999999999998</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003095912893189908</v>
+        <v>0.002839450627515981</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03699999999999998</v>
+        <v>0.05869682463602743</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003036236347211955</v>
+        <v>0.003071774537549147</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.05498978992705672</v>
+        <v>0.01491033364529588</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.002793889257441387</v>
+        <v>0.003097052038767385</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.002709603911638925</v>
+        <v>0.00487439024390244</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01111771432346219</v>
+        <v>0.02</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01154531857971929</v>
+        <v>0.01745912064089274</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003552483070979446</v>
+        <v>0.003871315048459232</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01388109183974223</v>
+        <v>0.04394394077426589</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003869891116487384</v>
+        <v>0.003846226342888683</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03991102689806841</v>
+        <v>0.07127918248368686</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003543470155638169</v>
+        <v>0.003839718171936434</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.06543979084537993</v>
+        <v>0.01745912064089274</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003492361571801733</v>
+        <v>0.003871315048459232</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.0134182350426961</v>
+        <v>0.02</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004262979685175336</v>
+        <v>0.00487439024390244</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01564163188732666</v>
+        <v>0.04916300463716095</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004643869339784862</v>
+        <v>0.004615471611466419</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04456703675829807</v>
+        <v>0.07943988172651018</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004252164186765803</v>
+        <v>0.00460766180632372</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.0729396707259734</v>
+        <v>0.02</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00419083388616208</v>
+        <v>0.00487439024390244</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01714681081490091</v>
+        <v>0.02067492940621345</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.004973476299371224</v>
+        <v>0.005419841067842925</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01755928690334908</v>
+        <v>0.05286669791773801</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005417847563082339</v>
+        <v>0.005384716880044156</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04974496177243476</v>
+        <v>0.08698622934710826</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.004960858217893437</v>
+        <v>0.005375605440711007</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.08237984082678157</v>
+        <v>0.02067492940621345</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.004889306200522426</v>
+        <v>0.005419841067842925</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01874449974562806</v>
+        <v>0.02149247483985313</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005683972913567113</v>
+        <v>0.006194104077534771</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01933996038779606</v>
+        <v>0.05730531343856893</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006191825786379815</v>
+        <v>0.006153962148621892</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05253846949703</v>
+        <v>0.09381567341634345</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005669552249021071</v>
+        <v>0.006141595365649973</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.08825071240574872</v>
+        <v>0.02149247483985313</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005587778514882773</v>
+        <v>0.006194104077534771</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01822475568417187</v>
+        <v>0.02242291498670722</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006394469527763002</v>
+        <v>0.006968367087226618</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02128955584065412</v>
+        <v>0.05889585479548851</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006965804009677292</v>
+        <v>0.006613143080770391</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0566412274886354</v>
+        <v>0.09736390419033764</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006378246280148704</v>
+        <v>0.00691149270948558</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.09381567341634345</v>
+        <v>0.02242291498670722</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006141595365649973</v>
+        <v>0.006968367087226618</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01860103247982667</v>
+        <v>0.02335079037854026</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007104966141958892</v>
+        <v>0.007742630096918463</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02251397676190978</v>
+        <v>0.06170401152350513</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007739782232974769</v>
+        <v>0.007692452685777365</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05889585479548851</v>
+        <v>0.1000215748328938</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.006880340781003541</v>
+        <v>0.007679436343872867</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.09973038796635908</v>
+        <v>0.02335079037854026</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.006984723143603467</v>
+        <v>0.007742630096918463</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02342854920846666</v>
+        <v>0.02397603617463352</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008128811734916775</v>
+        <v>0.008318768801216162</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
+        <v>0.06394297910918603</v>
+      </c>
+      <c r="K76" s="171" t="n">
+        <v>0.008461697954355101</v>
+      </c>
+      <c r="L76" s="172" t="n">
+        <v>0.1043985865550274</v>
+      </c>
+      <c r="M76" s="170" t="n">
+        <v>0.008447379978260153</v>
+      </c>
+      <c r="N76" s="171" t="n">
         <v>0.02397603617463352</v>
       </c>
-      <c r="K76" s="171" t="n">
+      <c r="O76" s="172" t="n">
         <v>0.008318768801216162</v>
-      </c>
-      <c r="L76" s="172" t="n">
-        <v>0.06232506333508267</v>
-      </c>
-      <c r="M76" s="170" t="n">
-        <v>0.007795634342403972</v>
-      </c>
-      <c r="N76" s="171" t="n">
-        <v>0.10382344223159</v>
-      </c>
-      <c r="O76" s="172" t="n">
-        <v>0.007683195457963812</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02210926322187513</v>
+        <v>0.02467884654494697</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008525959370350672</v>
+        <v>0.009291156116302157</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0253136664690759</v>
+        <v>0.06574193262202385</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009287738679569724</v>
+        <v>0.009230943222932839</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06500444126060476</v>
+        <v>0.1083949725359084</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008504328373531605</v>
+        <v>0.009215323612647441</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1085409277746663</v>
+        <v>0.02467884654494697</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00838166777232416</v>
+        <v>0.009291156116302157</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02134014904290779</v>
+        <v>0.02560421652580157</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00923645598454656</v>
+        <v>0.010065419125994</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02671652381897135</v>
+        <v>0.06860048367332305</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0100617169028672</v>
+        <v>0.01000018849151058</v>
       </c>
       <c r="L78" t="n">
-        <v>0.06868518362090673</v>
+        <v>0.1112107659547068</v>
       </c>
       <c r="M78" t="n">
-        <v>0.00921302240465924</v>
+        <v>0.009983267247034727</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1140736599187258</v>
+        <v>0.02560421652580157</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009080140086684507</v>
+        <v>0.010065419125994</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02658305766237697</v>
+        <v>0.02623426832733258</v>
       </c>
       <c r="G79" t="n">
-        <v>0.009946952598742448</v>
+        <v>0.01083968213568585</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02812467506869963</v>
+        <v>0.070118243874388</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01083569512616468</v>
+        <v>0.01076943376008831</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07075700260454099</v>
+        <v>0.1142459999905926</v>
       </c>
       <c r="M79" t="n">
-        <v>0.009921716435786874</v>
+        <v>0.01075121088142201</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1182124539869057</v>
+        <v>0.02623426832733258</v>
       </c>
       <c r="O79" t="n">
-        <v>0.009778612401044853</v>
+        <v>0.01083968213568585</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02483239764153154</v>
+        <v>0.02696799982384213</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01065744921293834</v>
+        <v>0.01161394514537769</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02953079539006079</v>
+        <v>0.07279482483652308</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01160967334946215</v>
+        <v>0.01153867902866605</v>
       </c>
       <c r="L80" t="n">
-        <v>0.07380961040005979</v>
+        <v>0.1187007078227357</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01063041046691451</v>
+        <v>0.0115191545158093</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1225481253023437</v>
+        <v>0.02696799982384213</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0104770847154052</v>
+        <v>0.01161394514537769</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02608257754162041</v>
+        <v>0.02740440888963236</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01136794582713423</v>
+        <v>0.01238820815506954</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03102755995485505</v>
+        <v>0.07382983817103272</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01238365157275963</v>
+        <v>0.01230792429724378</v>
       </c>
       <c r="L81" t="n">
-        <v>0.07673271919601546</v>
+        <v>0.1215749226303061</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01133910449804214</v>
+        <v>0.01228709815019659</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1273714891881774</v>
+        <v>0.02740440888963236</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01117555702976555</v>
+        <v>0.01238820815506954</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02932800592389248</v>
+        <v>0.02854249339900537</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01207844244133012</v>
+        <v>0.01316247116476139</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03270764393488246</v>
+        <v>0.07582289548922128</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01315762979605711</v>
+        <v>0.01307716956582152</v>
       </c>
       <c r="L82" t="n">
-        <v>0.08011604118096044</v>
+        <v>0.1236686775924736</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01204779852916978</v>
+        <v>0.01305504178458387</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1320733609675441</v>
+        <v>0.02854249339900537</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01187402934412589</v>
+        <v>0.01316247116476139</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02856309134959666</v>
+        <v>0.02898125122626333</v>
       </c>
       <c r="G83" t="n">
-        <v>0.012788939055526</v>
+        <v>0.01393673417445324</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03366372250194317</v>
+        <v>0.07817360840239312</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01393160801935458</v>
+        <v>0.01384641483439926</v>
       </c>
       <c r="L83" t="n">
-        <v>0.08214928854344697</v>
+        <v>0.1279820058884084</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01275649256029741</v>
+        <v>0.01382298541897116</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1363445559635817</v>
+        <v>0.02898125122626333</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01257250165848624</v>
+        <v>0.01393673417445324</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0307822423799818</v>
+        <v>0.02991968024570832</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0134994356697219</v>
+        <v>0.01471099718414508</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03498847082783735</v>
+        <v>0.08008158852185274</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01470558624265206</v>
+        <v>0.01461566010297699</v>
       </c>
       <c r="L84" t="n">
-        <v>0.0855221734720274</v>
+        <v>0.1315149406972802</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01346518659142504</v>
+        <v>0.01459092905335845</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1412758894994275</v>
+        <v>0.02991968024570832</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01327097397284659</v>
+        <v>0.01471099718414508</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.03097986757629685</v>
+        <v>0.03035677833164251</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01420993228391778</v>
+        <v>0.01548526019383693</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03647456408436507</v>
+        <v>0.08224644745890441</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01547956446594954</v>
+        <v>0.01538490537155473</v>
       </c>
       <c r="L85" t="n">
-        <v>0.08822440815525412</v>
+        <v>0.1334675151982591</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01417388062255268</v>
+        <v>0.01535887268774573</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1443581768982192</v>
+        <v>0.03035677833164251</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01396944628720693</v>
+        <v>0.01548526019383693</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03215037549979065</v>
+        <v>0.031091543358368</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01492042889811367</v>
+        <v>0.01625952320352878</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03751467744332647</v>
+        <v>0.08446779682485261</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01625354268924701</v>
+        <v>0.01615415064013247</v>
       </c>
       <c r="L86" t="n">
-        <v>0.09064570478167941</v>
+        <v>0.1370397625705149</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01488257465368031</v>
+        <v>0.01612681632213302</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1487822334830942</v>
+        <v>0.031091543358368</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01466791860156728</v>
+        <v>0.01625952320352878</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03628817471171217</v>
+        <v>0.03212297320018695</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01563092551230956</v>
+        <v>0.01703378621322062</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03880148607652167</v>
+        <v>0.08514524823100175</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01702752091254449</v>
+        <v>0.0169233959087102</v>
       </c>
       <c r="L87" t="n">
-        <v>0.09357577553985563</v>
+        <v>0.1399317159932178</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01559126868480794</v>
+        <v>0.01689475995652031</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1524388745771901</v>
+        <v>0.03212297320018695</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01536639091592762</v>
+        <v>0.01703378621322062</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03738767377331022</v>
+        <v>0.03295006573140147</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01634142212650545</v>
+        <v>0.01780804922291247</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03992766515575082</v>
+        <v>0.08787841328865612</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01780149913584197</v>
+        <v>0.01769264117728794</v>
       </c>
       <c r="L88" t="n">
-        <v>0.09610433261833512</v>
+        <v>0.1424434086455376</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01629996271593558</v>
+        <v>0.01766270359090759</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1557189155036446</v>
+        <v>0.03295006573140147</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01606486323028797</v>
+        <v>0.01780804922291247</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03844328124583375</v>
+        <v>0.03367181882631369</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01705191874070134</v>
+        <v>0.01858231223260431</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04128588985281401</v>
+        <v>0.08906690360912023</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01857547735913945</v>
+        <v>0.01846188644586568</v>
       </c>
       <c r="L89" t="n">
-        <v>0.09752108820567024</v>
+        <v>0.1455748737066443</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01700865674706321</v>
+        <v>0.01843064722529488</v>
       </c>
       <c r="N89" t="n">
-        <v>0.158113171585595</v>
+        <v>0.03367181882631369</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01676333554464832</v>
+        <v>0.01858231223260431</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03544940569053166</v>
+        <v>0.03408723035922576</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01776241535489723</v>
+        <v>0.01935657524229616</v>
       </c>
       <c r="J90" t="n">
-        <v>0.0419688353395114</v>
+        <v>0.09031033080369832</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01934945558243692</v>
+        <v>0.01923113171444342</v>
       </c>
       <c r="L90" t="n">
-        <v>0.1003157544904132</v>
+        <v>0.1475261443557078</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01771735077819084</v>
+        <v>0.01919859085968217</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1627124581461789</v>
+        <v>0.03408723035922576</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01746180785900867</v>
+        <v>0.01935657524229616</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.04040045566865282</v>
+        <v>0.03509529820443975</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01847291196909312</v>
+        <v>0.020130838251988</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04316917678764309</v>
+        <v>0.09230830648369495</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0201234338057344</v>
+        <v>0.02000037698302115</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1022780436611165</v>
+        <v>0.1489972537718981</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01842604480931848</v>
+        <v>0.01996653449406945</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1643075905085339</v>
+        <v>0.03509529820443975</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01816028017336901</v>
+        <v>0.020130838251988</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03929083974144611</v>
+        <v>0.03569502023625787</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01918340858328901</v>
+        <v>0.02090510126167985</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04377958936900921</v>
+        <v>0.09356044226041443</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02089741202903188</v>
+        <v>0.02076962225159889</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1039976679063324</v>
+        <v>0.152388235134385</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01913473884044611</v>
+        <v>0.02073447812845674</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1674893839957975</v>
+        <v>0.03569502023625787</v>
       </c>
       <c r="O92" t="n">
-        <v>0.01885875248772936</v>
+        <v>0.02090510126167985</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.04211496647016048</v>
+        <v>0.03648539432898222</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0198939051974849</v>
+        <v>0.0216793642713717</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04469274825540991</v>
+        <v>0.09566634974516114</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02167139025232935</v>
+        <v>0.02153886752017662</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1060643394146132</v>
+        <v>0.1544991216223386</v>
       </c>
       <c r="M93" t="n">
-        <v>0.01984343287157375</v>
+        <v>0.02150242176284403</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1696486539311074</v>
+        <v>0.03648539432898222</v>
       </c>
       <c r="O93" t="n">
-        <v>0.01955722480208971</v>
+        <v>0.0216793642713717</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.04286724441604477</v>
+        <v>0.03716541835691491</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02060440181168079</v>
+        <v>0.02245362728106355</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04520132861864529</v>
+        <v>0.09642564054923952</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02244536847562683</v>
+        <v>0.02230811278875436</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1076677703745113</v>
+        <v>0.156829946414929</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02055212690270138</v>
+        <v>0.02227036539723131</v>
       </c>
       <c r="N94" t="n">
-        <v>0.171476215637601</v>
+        <v>0.03716541835691491</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02025569711645005</v>
+        <v>0.02245362728106355</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.04054208214034792</v>
+        <v>0.03753409019435808</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02131489842587668</v>
+        <v>0.02322789029075539</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04579800563051546</v>
+        <v>0.09813792628395396</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02321934669892431</v>
+        <v>0.0230773580573321</v>
       </c>
       <c r="L95" t="n">
-        <v>0.108697672974579</v>
+        <v>0.1587807426913259</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02126082093382902</v>
+        <v>0.0230383090316186</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1740628844384158</v>
+        <v>0.03753409019435808</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0209541694308104</v>
+        <v>0.02322789029075539</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.04013388820431879</v>
+        <v>0.03829040771561386</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02202539504007257</v>
+        <v>0.02400215330044724</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04577545446282058</v>
+        <v>0.1002028185606088</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02399332492222178</v>
+        <v>0.02384660332590983</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1106437594033686</v>
+        <v>0.1599515436306992</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02196951496495665</v>
+        <v>0.02380625266600589</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1748994756566895</v>
+        <v>0.03829040771561386</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02165264174517074</v>
+        <v>0.02400215330044724</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0446370711692063</v>
+        <v>0.03883336879498439</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02273589165426845</v>
+        <v>0.02477641631013908</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04642635028736075</v>
+        <v>0.1011199289905084</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02476730314551926</v>
+        <v>0.02461584859448757</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1118957418494326</v>
+        <v>0.1622423824122192</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02267820899608428</v>
+        <v>0.02457419630039318</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1763768046155596</v>
+        <v>0.03883336879498439</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02235111405953109</v>
+        <v>0.02477641631013908</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.04504603959625936</v>
+        <v>0.03936197130677178</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02344638826846434</v>
+        <v>0.02555067931983093</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04654336827593611</v>
+        <v>0.1024888691849574</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02554128136881674</v>
+        <v>0.0253850938630653</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1118433325013231</v>
+        <v>0.1648532922150555</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02338690302721192</v>
+        <v>0.02534213993478046</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1775856866381635</v>
+        <v>0.03936197130677178</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02304958637389144</v>
+        <v>0.02555067931983093</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.0423552020467268</v>
+        <v>0.03997521312527816</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02415688488266023</v>
+        <v>0.02632494232952278</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04651860584342582</v>
+        <v>0.1040092507552599</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02631525959211422</v>
+        <v>0.02615433913164304</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1133762435475926</v>
+        <v>0.1665843062183782</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02409559705833955</v>
+        <v>0.02611008356916775</v>
       </c>
       <c r="N99" t="n">
-        <v>0.179516937047639</v>
+        <v>0.03997521312527816</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02374805868825179</v>
+        <v>0.02632494232952278</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04255896708185759</v>
+        <v>0.04077209212480568</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02486738149685612</v>
+        <v>0.02709920533921462</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04615581960511098</v>
+        <v>0.1045806853127204</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02708923781541169</v>
+        <v>0.02692358440022078</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1137841871767934</v>
+        <v>0.1684354576013573</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02480429108946718</v>
+        <v>0.02687802720355503</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1805613711671233</v>
+        <v>0.04077209212480568</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02444653100261213</v>
+        <v>0.02709920533921462</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04365174326290057</v>
+        <v>0.04135160617965646</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02557787811105201</v>
+        <v>0.02787346834890647</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04607506180657082</v>
+        <v>0.1060027844686433</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02786321603870917</v>
+        <v>0.02769282966879852</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1139568755774779</v>
+        <v>0.1700067795431627</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02551298512059482</v>
+        <v>0.02764597083794232</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1804098043197543</v>
+        <v>0.04135160617965646</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02514500331697248</v>
+        <v>0.02787346834890647</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04364683821870299</v>
+        <v>0.04181275316413265</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0262883747252479</v>
+        <v>0.02864773135859832</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0452970535237313</v>
+        <v>0.107375159834333</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02863719426200664</v>
+        <v>0.02846207493737625</v>
       </c>
       <c r="L102" t="n">
-        <v>0.113620131731397</v>
+        <v>0.1721983052229643</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02622167915172245</v>
+        <v>0.02841391447232961</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1805582145981344</v>
+        <v>0.04181275316413265</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02584347563133283</v>
+        <v>0.02864773135859832</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04459802578690623</v>
+        <v>0.04255453095253632</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02699887133944379</v>
+        <v>0.02942199436829016</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04524251583251838</v>
+        <v>0.107797423021094</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02941117248530412</v>
+        <v>0.02923132020595399</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1127518036560785</v>
+        <v>0.1725100678199321</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02693037318285009</v>
+        <v>0.02918185810671689</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1807643635201064</v>
+        <v>0.04255453095253632</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02654194794569317</v>
+        <v>0.02942199436829016</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04151203045529875</v>
+        <v>0.04287593741916966</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02770936795363968</v>
+        <v>0.03019625737798201</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04433216980885804</v>
+        <v>0.1082691856402304</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0301851507086016</v>
+        <v>0.03000056547453172</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1125650251614391</v>
+        <v>0.1750421005132361</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02763906721397772</v>
+        <v>0.02994980174110418</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1796614346799749</v>
+        <v>0.04287593741916966</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02724042026005352</v>
+        <v>0.03019625737798201</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04439218672502576</v>
+        <v>0.04367597043833477</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02841986456783557</v>
+        <v>0.03097052038767385</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04378673652867619</v>
+        <v>0.1101900593030469</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03095912893189907</v>
+        <v>0.03076981074310946</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1120705518655802</v>
+        <v>0.1751944364820461</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02834776124510536</v>
+        <v>0.03071774537549147</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1796681231001119</v>
+        <v>0.04367597043833477</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02793889257441387</v>
+        <v>0.03097052038767385</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04124182909723238</v>
+        <v>0.04385362788433379</v>
       </c>
       <c r="G106" t="n">
-        <v>0.02913036118203146</v>
+        <v>0.0317447833973657</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04362693706789883</v>
+        <v>0.1105596556208477</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03173310715519655</v>
+        <v>0.0315390560116872</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1114791393866033</v>
+        <v>0.1779671089055323</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02905645527623299</v>
+        <v>0.03148568900987875</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1777031238028897</v>
+        <v>0.04385362788433379</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02863736488877421</v>
+        <v>0.0317447833973657</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04406429207306384</v>
+        <v>0.04440790763146886</v>
       </c>
       <c r="G107" t="n">
-        <v>0.02984085779622735</v>
+        <v>0.03251904640705755</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04277349250245191</v>
+        <v>0.1114775862049373</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03250708537849403</v>
+        <v>0.03230830128026493</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1115015433426098</v>
+        <v>0.1784601509628643</v>
       </c>
       <c r="M107" t="n">
-        <v>0.02976514930736062</v>
+        <v>0.03225363264426604</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1772851318106802</v>
+        <v>0.04440790763146886</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02933583720313456</v>
+        <v>0.03251904640705755</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04386291015366528</v>
+        <v>0.04493780755404207</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03055135441042324</v>
+        <v>0.03329330941674939</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04224712390826138</v>
+        <v>0.11214346266662</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03328106360179151</v>
+        <v>0.03307754654884267</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1109485193517012</v>
+        <v>0.1795735958332125</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03047384333848826</v>
+        <v>0.03302157627865333</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1768328421458558</v>
+        <v>0.04493780755404207</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03003430951749491</v>
+        <v>0.03329330941674939</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04364101784018187</v>
+        <v>0.0454423255263556</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03126185102461913</v>
+        <v>0.03406757242644124</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04186855236125317</v>
+        <v>0.1129568966172002</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03405504182508898</v>
+        <v>0.0338467918174204</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1096308230319791</v>
+        <v>0.1801074766957464</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03118253736961589</v>
+        <v>0.03378951991304061</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1745649498307886</v>
+        <v>0.0454423255263556</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03073278183185525</v>
+        <v>0.03406757242644124</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04240194963375879</v>
+        <v>0.04582045942271157</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03197234763881501</v>
+        <v>0.03484183543613308</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04155849893735329</v>
+        <v>0.1137174996679824</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03482902004838646</v>
+        <v>0.03461603708599814</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1092592100015448</v>
+        <v>0.1813618267296363</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03189123140074352</v>
+        <v>0.0345574635474279</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1737001498878507</v>
+        <v>0.04582045942271157</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03143125414621559</v>
+        <v>0.03484183543613308</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04114904003554121</v>
+        <v>0.04587120711741206</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03268284425301091</v>
+        <v>0.03561609844582494</v>
       </c>
       <c r="J111" t="n">
-        <v>0.04133768471248769</v>
+        <v>0.113624883430271</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03560299827168394</v>
+        <v>0.03538528235457588</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1083444358784998</v>
+        <v>0.181436679114052</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03259992543187116</v>
+        <v>0.03532540718181518</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1730571373394142</v>
+        <v>0.04587120711741206</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03212972646057594</v>
+        <v>0.03561609844582494</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04288562354667429</v>
+        <v>0.04629356648475923</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03339334086720679</v>
+        <v>0.03639036145551678</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04112683076258229</v>
+        <v>0.1152786595153703</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03637697649498142</v>
+        <v>0.03615452762315361</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1070972562809454</v>
+        <v>0.1826320670281634</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03330861946299879</v>
+        <v>0.03609335081620248</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1705546072078514</v>
+        <v>0.04629356648475923</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03282819877493629</v>
+        <v>0.03639036145551678</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0416150346683032</v>
+        <v>0.04638653539905527</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03410383748140269</v>
+        <v>0.03716462446520863</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04084665816356309</v>
+        <v>0.1151784395345847</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03715095471827889</v>
+        <v>0.03692377289173136</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1069284268269833</v>
+        <v>0.1846480236511406</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03401731349412642</v>
+        <v>0.03686129445058976</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1691112545155343</v>
+        <v>0.04638653539905527</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03352667108929664</v>
+        <v>0.03716462446520863</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04034060790157314</v>
+        <v>0.04674911173460221</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03481433409559857</v>
+        <v>0.03793888747490047</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04076519584303746</v>
+        <v>0.1157238350992185</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03792493294157637</v>
+        <v>0.03769301816030909</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1059487031347149</v>
+        <v>0.1850845821621534</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03472600752525406</v>
+        <v>0.03762923808497705</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1680457742848351</v>
+        <v>0.04674911173460221</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03422514340365699</v>
+        <v>0.03793888747490047</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04006567774762924</v>
+        <v>0.04708029336570223</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03552483070979446</v>
+        <v>0.03871315048459232</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04102388523016982</v>
+        <v>0.1161144578205763</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03869891116487385</v>
+        <v>0.03846226342888683</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1051688408222415</v>
+        <v>0.1859417757403718</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03543470155638169</v>
+        <v>0.03839718171936433</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1661768615381259</v>
+        <v>0.04708029336570223</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03492361571801733</v>
+        <v>0.03871315048459232</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03879357870761671</v>
+        <v>0.04737907816665744</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03623532732399035</v>
+        <v>0.03948741349428417</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04111984631415509</v>
+        <v>0.1165499193099624</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03947288938817133</v>
+        <v>0.03923150869746456</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1043995955076648</v>
+        <v>0.1855196375649659</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03614339558750932</v>
+        <v>0.03916512535375162</v>
       </c>
       <c r="N116" t="n">
-        <v>0.166123211297779</v>
+        <v>0.04737907816665744</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03562208803237768</v>
+        <v>0.03948741349428417</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03952764528268071</v>
+        <v>0.04744446401176999</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03694582393818624</v>
+        <v>0.04026167650397601</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04115034800240427</v>
+        <v>0.1172298311786812</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0402468676114688</v>
+        <v>0.0400007539660423</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1034517228090861</v>
+        <v>0.1862182008151054</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03685208961863696</v>
+        <v>0.03993306898813891</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1637035185861663</v>
+        <v>0.04744446401176999</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03632056034673803</v>
+        <v>0.04026167650397601</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.0422712119739664</v>
+        <v>0.04737544877534203</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03765632055238213</v>
+        <v>0.04103593951366786</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04131265920232842</v>
+        <v>0.1170538050380371</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04102084583476628</v>
+        <v>0.04076999923462004</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1019359783446069</v>
+        <v>0.1864374986699605</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03756078364976459</v>
+        <v>0.04070101262252619</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1634364784256602</v>
+        <v>0.04737544877534203</v>
       </c>
       <c r="O118" t="n">
-        <v>0.03701903266109837</v>
+        <v>0.04103593951366786</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03902761328261894</v>
+        <v>0.04767103033167563</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03836681716657802</v>
+        <v>0.04181020252335971</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04130404882133856</v>
+        <v>0.1176214524993344</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04179482405806376</v>
+        <v>0.04153924450319777</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1013631177323286</v>
+        <v>0.1873775643087009</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03826947768089223</v>
+        <v>0.04146895625691348</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1614407858386327</v>
+        <v>0.04767103033167563</v>
       </c>
       <c r="O119" t="n">
-        <v>0.03771750497545872</v>
+        <v>0.04181020252335971</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04080018370978354</v>
+        <v>0.04795207234926704</v>
       </c>
       <c r="G120" t="n">
-        <v>0.03907731378077391</v>
+        <v>0.04258446553305155</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04182178576684573</v>
+        <v>0.1168323851738776</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04256880228136123</v>
+        <v>0.04230848977177551</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1004438965903528</v>
+        <v>0.1860384309104968</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03897817171201987</v>
+        <v>0.04223689989130077</v>
       </c>
       <c r="N120" t="n">
-        <v>0.160735135847456</v>
+        <v>0.04795207234926704</v>
       </c>
       <c r="O120" t="n">
-        <v>0.03841597728981907</v>
+        <v>0.04258446553305155</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03859225775660534</v>
+        <v>0.04785197531983616</v>
       </c>
       <c r="G121" t="n">
-        <v>0.03978781039496979</v>
+        <v>0.0433587285427434</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04196313894626098</v>
+        <v>0.117791709590977</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04334278050465871</v>
+        <v>0.04307773504035325</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1000890705367808</v>
+        <v>0.187631346832687</v>
       </c>
       <c r="M121" t="n">
-        <v>0.0396868657431475</v>
+        <v>0.04300484352568806</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1590382234745022</v>
+        <v>0.04785197531983616</v>
       </c>
       <c r="O121" t="n">
-        <v>0.03911444960417941</v>
+        <v>0.0433587285427434</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03940716992422953</v>
+        <v>0.04774572507528017</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04049830700916569</v>
+        <v>0.04413299155243524</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04232537726699533</v>
+        <v>0.1173886401480926</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04411675872795619</v>
+        <v>0.04384698030893099</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0994093951897142</v>
+        <v>0.1866298116764788</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04039555977427513</v>
+        <v>0.04377278716007534</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1577687437421434</v>
+        <v>0.04774572507528017</v>
       </c>
       <c r="O122" t="n">
-        <v>0.03981292191853976</v>
+        <v>0.04413299155243524</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.03824825471380126</v>
+        <v>0.04772509903982511</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04120880362336157</v>
+        <v>0.0449072545621271</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0425057696364598</v>
+        <v>0.117368246277564</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04489073695125366</v>
+        <v>0.04461622557750872</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09881562616725434</v>
+        <v>0.1860162686578385</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04110425380540277</v>
+        <v>0.04454073079446263</v>
       </c>
       <c r="N123" t="n">
-        <v>0.156445391672752</v>
+        <v>0.04772509903982511</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04051139423290011</v>
+        <v>0.0449072545621271</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03911884662646573</v>
+        <v>0.04769079249656842</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04191930023755747</v>
+        <v>0.04568151757181894</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04260158496206548</v>
+        <v>0.116629114928011</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04566471517455114</v>
+        <v>0.04538547084608646</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09911851908750272</v>
+        <v>0.1872888491404873</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0418129478365304</v>
+        <v>0.04530867442884991</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1569868622886998</v>
+        <v>0.04769079249656842</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04120986654726046</v>
+        <v>0.04568151757181894</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04102228016336808</v>
+        <v>0.04774344134878396</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04262979685175335</v>
+        <v>0.04645578058151078</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04291009215122336</v>
+        <v>0.116871693317516</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04643869339784862</v>
+        <v>0.04615471611466419</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09892882956856083</v>
+        <v>0.1857476813430903</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04252164186765803</v>
+        <v>0.0460766180632372</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1568118506123591</v>
+        <v>0.04774344134878396</v>
       </c>
       <c r="O125" t="n">
-        <v>0.0419083388616208</v>
+        <v>0.04645578058151078</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03696188982565349</v>
+        <v>0.04768368149974547</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04334029346594924</v>
+        <v>0.04723004359120263</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04322856011134449</v>
+        <v>0.1175964286641614</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04721267162114609</v>
+        <v>0.04692396138324193</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09865731322853008</v>
+        <v>0.1857928934843125</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04323033589878567</v>
+        <v>0.04684456169762449</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1563390516661022</v>
+        <v>0.04768368149974547</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04260681117598114</v>
+        <v>0.04723004359120263</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03994101011446714</v>
+        <v>0.04751214885272678</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04405079008014513</v>
+        <v>0.04800430660089448</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0435542577498399</v>
+        <v>0.1169037681860298</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04798664984444357</v>
+        <v>0.04769320665181966</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09821550087620243</v>
+        <v>0.1874246137828187</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0439390299299133</v>
+        <v>0.04761250533201177</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1565865290044461</v>
+        <v>0.04751214885272678</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04330528349034149</v>
+        <v>0.04800430660089448</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04096245500103096</v>
+        <v>0.04762947931100171</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04476128669434102</v>
+        <v>0.04877856961058633</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04398445397412064</v>
+        <v>0.1171941591012033</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04876062806774104</v>
+        <v>0.0484624519203974</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09903803406010839</v>
+        <v>0.1864429704572738</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04464772396104093</v>
+        <v>0.04838044896639906</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1551520773536832</v>
+        <v>0.04762947931100171</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04400375580470184</v>
+        <v>0.04877856961058633</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04102485110532093</v>
+        <v>0.04733630877784401</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04547178330853691</v>
+        <v>0.04955283262027817</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04461641769159773</v>
+        <v>0.1169680486277647</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04953460629103852</v>
+        <v>0.04923169718897514</v>
       </c>
       <c r="L129" t="n">
-        <v>0.09932811642909908</v>
+        <v>0.1856480917263431</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04535641799216857</v>
+        <v>0.04914839260078635</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1569192479289168</v>
+        <v>0.04733630877784401</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04470222811906219</v>
+        <v>0.04955283262027817</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03912525095128495</v>
+        <v>0.04733327315652752</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0461822799227328</v>
+        <v>0.05032709562997001</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04484741780968221</v>
+        <v>0.1167258839837963</v>
       </c>
       <c r="K130" t="n">
-        <v>0.050308584514336</v>
+        <v>0.05000094245755288</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09977076034921747</v>
+        <v>0.1867401058086911</v>
       </c>
       <c r="M130" t="n">
-        <v>0.0460651120232962</v>
+        <v>0.04991633623517364</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1563730941292223</v>
+        <v>0.04733327315652752</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04540070043342254</v>
+        <v>0.05032709562997001</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03926070706282321</v>
+        <v>0.04702100835032602</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04689277653692869</v>
+        <v>0.05110135863966186</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04517472323578513</v>
+        <v>0.1165681123873805</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05108256273763347</v>
+        <v>0.05077018772613061</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1000509781865064</v>
+        <v>0.1855191409229832</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04677380605442383</v>
+        <v>0.05068427986956092</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1573986693536748</v>
+        <v>0.04702100835032602</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04609917274778288</v>
+        <v>0.05110135863966186</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03742827196383591</v>
+        <v>0.0469001502625133</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04760327315112458</v>
+        <v>0.05187562164935371</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04539560287731752</v>
+        <v>0.1165951810565998</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05185654096093095</v>
+        <v>0.05153943299470835</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1002537823070088</v>
+        <v>0.1867853252878842</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04748250008555147</v>
+        <v>0.05145222350394821</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1580810270013496</v>
+        <v>0.0469001502625133</v>
       </c>
       <c r="O132" t="n">
-        <v>0.04679764506214323</v>
+        <v>0.05187562164935371</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04162499817822324</v>
+        <v>0.04677133479636318</v>
       </c>
       <c r="G133" t="n">
-        <v>0.04831376976532047</v>
+        <v>0.05264988465904556</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04590732564169041</v>
+        <v>0.1156075372095366</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05263051918422843</v>
+        <v>0.05230867826328608</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1017641850767675</v>
+        <v>0.186038787122059</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0481911941166791</v>
+        <v>0.05222016713833549</v>
       </c>
       <c r="N133" t="n">
-        <v>0.158905220471322</v>
+        <v>0.04677133479636318</v>
       </c>
       <c r="O133" t="n">
-        <v>0.04749611737650358</v>
+        <v>0.05264988465904556</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0398479382298854</v>
+        <v>0.04683519785514945</v>
       </c>
       <c r="G134" t="n">
-        <v>0.04902426637951635</v>
+        <v>0.0534241476687374</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04600716043631482</v>
+        <v>0.1158056280642733</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05340449740752591</v>
+        <v>0.05307792353186382</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1020671988618256</v>
+        <v>0.1860796546441726</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04889988814780673</v>
+        <v>0.05298811077272279</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1605563031626671</v>
+        <v>0.04683519785514945</v>
       </c>
       <c r="O134" t="n">
-        <v>0.04819458969086392</v>
+        <v>0.0534241476687374</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04009414464272258</v>
+        <v>0.0465923753421459</v>
       </c>
       <c r="G135" t="n">
-        <v>0.04973476299371225</v>
+        <v>0.05419841067842925</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04649237616860183</v>
+        <v>0.1150899008388924</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05417847563082338</v>
+        <v>0.05384716880044155</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1030478360282258</v>
+        <v>0.18640805607289</v>
       </c>
       <c r="M135" t="n">
-        <v>0.04960858217893437</v>
+        <v>0.05375605440711007</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1611193284744603</v>
+        <v>0.0465923753421459</v>
       </c>
       <c r="O135" t="n">
-        <v>0.04889306200522427</v>
+        <v>0.05419841067842925</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.042360669940635</v>
+        <v>0.04654350316062635</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05044525960790813</v>
+        <v>0.05497267368812109</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04646024174596246</v>
+        <v>0.1154608027514763</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05495245385412086</v>
+        <v>0.05461641406901929</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1041911089420111</v>
+        <v>0.1845241196268761</v>
       </c>
       <c r="M136" t="n">
-        <v>0.050317276210062</v>
+        <v>0.05452399804149736</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1642793498057768</v>
+        <v>0.04654350316062635</v>
       </c>
       <c r="O136" t="n">
-        <v>0.04959153431958461</v>
+        <v>0.05497267368812109</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03864456664752285</v>
+        <v>0.04628921721386459</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05115575622210402</v>
+        <v>0.05574693669781294</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04660802607580772</v>
+        <v>0.1151187810201075</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05572643207741833</v>
+        <v>0.05538565933759703</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1052820299692244</v>
+        <v>0.1852279735247959</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05102597024118963</v>
+        <v>0.05529194167588464</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1652214205556919</v>
+        <v>0.04628921721386459</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05029000663394496</v>
+        <v>0.05574693669781294</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03994288728728632</v>
+        <v>0.04603015340513444</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05186625283629991</v>
+        <v>0.05652119970750479</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04723299806554866</v>
+        <v>0.1147642828628684</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05650041030071582</v>
+        <v>0.05615490460617476</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1068056114759085</v>
+        <v>0.1850197459853145</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05173466427231727</v>
+        <v>0.05605988531027193</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1671305941232807</v>
+        <v>0.04603015340513444</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05098847894830531</v>
+        <v>0.05652119970750479</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04325268438382561</v>
+        <v>0.04616694763770966</v>
       </c>
       <c r="G139" t="n">
-        <v>0.0525767494504958</v>
+        <v>0.05729546271719663</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04723242662259632</v>
+        <v>0.1149977554978415</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05727438852401329</v>
+        <v>0.0569241498747525</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1072468658281064</v>
+        <v>0.1839995652270967</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0524433583034449</v>
+        <v>0.05682782894465922</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1687919239076185</v>
+        <v>0.04616694763770966</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05168695126266565</v>
+        <v>0.05729546271719663</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04057101046104092</v>
+        <v>0.04590023581486406</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05328724606469169</v>
+        <v>0.05806972572688848</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04760358065436174</v>
+        <v>0.114419646143109</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05804836674731077</v>
+        <v>0.05769339514333024</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1086908053918611</v>
+        <v>0.1850675594688074</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05315205233457254</v>
+        <v>0.05759577257904649</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1689904633077807</v>
+        <v>0.04590023581486406</v>
       </c>
       <c r="O140" t="n">
-        <v>0.052385423577026</v>
+        <v>0.05806972572688848</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04389491804283246</v>
+        <v>0.04583065383987148</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05399774267888759</v>
+        <v>0.05884398873658032</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04754372906825595</v>
+        <v>0.1137304020167536</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05882234497060825</v>
+        <v>0.05846264041190798</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1102224425332153</v>
+        <v>0.1839238569291118</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05386074636570017</v>
+        <v>0.05836371621343379</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1712112657228424</v>
+        <v>0.04583065383987148</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05308389589138635</v>
+        <v>0.05884398873658032</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04122145965310041</v>
+        <v>0.04535883761600566</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05470823929308347</v>
+        <v>0.05961825174627217</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04775014077169001</v>
+        <v>0.1137304703368576</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05959632319390572</v>
+        <v>0.05923188568048571</v>
       </c>
       <c r="L142" t="n">
-        <v>0.111326789618212</v>
+        <v>0.1830685858266747</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05456944039682781</v>
+        <v>0.05913165984782107</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1726393845518789</v>
+        <v>0.04535883761600566</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05378236820574669</v>
+        <v>0.05961825174627217</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04354768781574499</v>
+        <v>0.04508542304654042</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05541873590727936</v>
+        <v>0.06039251475596402</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04752008467207493</v>
+        <v>0.1140202983215035</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0603703014172032</v>
+        <v>0.06000113094906345</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1119888590128941</v>
+        <v>0.1840018743801611</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05527813442795544</v>
+        <v>0.05989960348220837</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1735598731939655</v>
+        <v>0.04508542304654042</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05448084052010704</v>
+        <v>0.06039251475596402</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04387065505466636</v>
+        <v>0.04511104603474958</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05612923252147525</v>
+        <v>0.06116677776565586</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04795207234926704</v>
+        <v>0.1126003331887738</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06114427964050068</v>
+        <v>0.06077037621764118</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1124936630833046</v>
+        <v>0.183923850808236</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05598682845908307</v>
+        <v>0.06066754711659565</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1760577850481773</v>
+        <v>0.04511104603474958</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05517931283446739</v>
+        <v>0.06116677776565586</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04318741389376476</v>
+        <v>0.04483634248390694</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05683972913567114</v>
+        <v>0.06194104077534771</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04765192724941959</v>
+        <v>0.1127710221567507</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06191825786379815</v>
+        <v>0.06153962148621892</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1137262141954862</v>
+        <v>0.1839346433295643</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05669552249021071</v>
+        <v>0.06143549075098294</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1770181735135897</v>
+        <v>0.04483634248390694</v>
       </c>
       <c r="O145" t="n">
-        <v>0.05587778514882773</v>
+        <v>0.06194104077534771</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04249501685694038</v>
+        <v>0.04466194829728629</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05755022574986703</v>
+        <v>0.06271530378503955</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04785129492397384</v>
+        <v>0.1128328124435169</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06269223608709563</v>
+        <v>0.06230886675479665</v>
       </c>
       <c r="L146" t="n">
-        <v>0.114771524715482</v>
+        <v>0.182634380162811</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05740421652133834</v>
+        <v>0.06220343438537022</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1798260919892778</v>
+        <v>0.04466194829728629</v>
       </c>
       <c r="O146" t="n">
-        <v>0.05657625746318808</v>
+        <v>0.06271530378503955</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04279051646809338</v>
+        <v>0.0443884993781614</v>
       </c>
       <c r="G147" t="n">
-        <v>0.05826072236406292</v>
+        <v>0.0634895667947314</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04765016687344474</v>
+        <v>0.1116861512671548</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06346621431039311</v>
+        <v>0.06307811202337439</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1154146070093348</v>
+        <v>0.1822231895266411</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05811291055246598</v>
+        <v>0.06297137801975751</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1805665938743169</v>
+        <v>0.0443884993781614</v>
       </c>
       <c r="O147" t="n">
-        <v>0.05727472977754842</v>
+        <v>0.0634895667947314</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04207096525112401</v>
+        <v>0.04441663162980609</v>
       </c>
       <c r="G148" t="n">
-        <v>0.0589712189782588</v>
+        <v>0.06426382980442324</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0478485494813828</v>
+        <v>0.1114314858457466</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06424019253369058</v>
+        <v>0.06384735729195212</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1160404734430874</v>
+        <v>0.1830011996397195</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05882160458359361</v>
+        <v>0.0637393216541448</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1817247325677825</v>
+        <v>0.04441663162980609</v>
       </c>
       <c r="O148" t="n">
-        <v>0.05797320209190877</v>
+        <v>0.06426382980442324</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04233341572993246</v>
+        <v>0.04444698095549419</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0596817155924547</v>
+        <v>0.0650380928141151</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04784644913133855</v>
+        <v>0.111369263397375</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06501417075698805</v>
+        <v>0.06461660256052987</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1161341363827829</v>
+        <v>0.1824685387207112</v>
       </c>
       <c r="M149" t="n">
-        <v>0.05953029861472124</v>
+        <v>0.06450726528853208</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1834855614687494</v>
+        <v>0.04444698095549419</v>
       </c>
       <c r="O149" t="n">
-        <v>0.05867167440626912</v>
+        <v>0.0650380928141151</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04357492042841891</v>
+        <v>0.04398018325849946</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06039221220665058</v>
+        <v>0.06581235582380694</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04764387220686253</v>
+        <v>0.1109999311401223</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06578814898028554</v>
+        <v>0.0653858478291076</v>
       </c>
       <c r="L150" t="n">
-        <v>0.116680608194464</v>
+        <v>0.1806253349882811</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06023899264584888</v>
+        <v>0.06527520892291937</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1841341339762932</v>
+        <v>0.04398018325849946</v>
       </c>
       <c r="O150" t="n">
-        <v>0.05937014672062946</v>
+        <v>0.06581235582380694</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04685709841693332</v>
+        <v>0.04381687444209571</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06110270882084647</v>
+        <v>0.06658661883349878</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04784082509150527</v>
+        <v>0.111023936292071</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06656212720358301</v>
+        <v>0.06615509309768534</v>
       </c>
       <c r="L151" t="n">
-        <v>0.117791709590977</v>
+        <v>0.1803717166610944</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06094768667697651</v>
+        <v>0.06604315255730665</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1846555034894891</v>
+        <v>0.04381687444209571</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06006861903498981</v>
+        <v>0.06658661883349878</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04299158089029147</v>
+        <v>0.04365769040955675</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06181320543504236</v>
+        <v>0.06736088184319064</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04763731416881729</v>
+        <v>0.1097417260713035</v>
       </c>
       <c r="K152" t="n">
-        <v>0.0673361054268805</v>
+        <v>0.06692433836626308</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1168898518443633</v>
+        <v>0.1807078119578157</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06165638070810414</v>
+        <v>0.06681109619169394</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1858347234074121</v>
+        <v>0.04365769040955675</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06076709134935016</v>
+        <v>0.06736088184319064</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04319582147542883</v>
+        <v>0.04380326706415637</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06252370204923825</v>
+        <v>0.06813514485288248</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04763334582234914</v>
+        <v>0.1096537476959022</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06811008365017797</v>
+        <v>0.06769358363484081</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1177731771070157</v>
+        <v>0.1809337490971102</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06236507473923178</v>
+        <v>0.06757903982608122</v>
       </c>
       <c r="N153" t="n">
-        <v>0.187631346832687</v>
+        <v>0.04380326706415637</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0614655636637105</v>
+        <v>0.06813514485288248</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04640585344061393</v>
+        <v>0.04365424030916837</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06323419866343413</v>
+        <v>0.06890940786257432</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04782892643565133</v>
+        <v>0.1099604483839497</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06888406187347544</v>
+        <v>0.06846282890341855</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1174398604273741</v>
+        <v>0.1795496562976429</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06307376877035942</v>
+        <v>0.06834698346046852</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1868344895221484</v>
+        <v>0.04365424030916837</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06216403597807085</v>
+        <v>0.06890940786257432</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04362043305734435</v>
+        <v>0.04350954955227339</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06394469527763003</v>
+        <v>0.06968367087226617</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04772406239227441</v>
+        <v>0.1085622753535284</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06965804009677291</v>
+        <v>0.06923207417199628</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1169907163896824</v>
+        <v>0.1795556617780786</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06378246280148704</v>
+        <v>0.0691149270948558</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1886113913451212</v>
+        <v>0.04350954955227339</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06286250829243119</v>
+        <v>0.06968367087226617</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04383831659711769</v>
+        <v>0.04296366389351609</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06465519189182592</v>
+        <v>0.07045793388195802</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04781876007576891</v>
+        <v>0.1092596758227205</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0704320183200704</v>
+        <v>0.07000131944057401</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1171265595781846</v>
+        <v>0.1792518937570824</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06449115683261468</v>
+        <v>0.0698828707292431</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1885881633293327</v>
+        <v>0.04296366389351609</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06356098060679155</v>
+        <v>0.07045793388195802</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04605826033143158</v>
+        <v>0.04321615619174501</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06536568850602181</v>
+        <v>0.07123219689164988</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04791302586968536</v>
+        <v>0.1078530970096086</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07120599654336787</v>
+        <v>0.07077056470915176</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1172482045771244</v>
+        <v>0.1788384804533192</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06519985086374232</v>
+        <v>0.07065081436363037</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1888621934557083</v>
+        <v>0.04321615619174501</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06425945292115189</v>
+        <v>0.07123219689164988</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04627902053178362</v>
+        <v>0.04276709375254022</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06607618512021769</v>
+        <v>0.07200645990134172</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04780686615757426</v>
+        <v>0.1075429861322752</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07197997476666536</v>
+        <v>0.07153980997772949</v>
       </c>
       <c r="L158" t="n">
-        <v>0.117156465970746</v>
+        <v>0.178815550085454</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06590854489486994</v>
+        <v>0.07141875799801765</v>
       </c>
       <c r="N158" t="n">
-        <v>0.189630869705174</v>
+        <v>0.04276709375254022</v>
       </c>
       <c r="O158" t="n">
-        <v>0.06495792523551225</v>
+        <v>0.07200645990134172</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04549935346967139</v>
+        <v>0.04281654388148171</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06678668173441359</v>
+        <v>0.07278072291103356</v>
       </c>
       <c r="J159" t="n">
-        <v>0.0477002873229862</v>
+        <v>0.1069297904088027</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07275395298996283</v>
+        <v>0.07230905524630722</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1168521583432933</v>
+        <v>0.1779832308721517</v>
       </c>
       <c r="M159" t="n">
-        <v>0.06661723892599758</v>
+        <v>0.07218670163240495</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1904915800586552</v>
+        <v>0.04281654388148171</v>
       </c>
       <c r="O159" t="n">
-        <v>0.06565639754987258</v>
+        <v>0.07278072291103356</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04871801541659256</v>
+        <v>0.04276457388414956</v>
       </c>
       <c r="G160" t="n">
-        <v>0.06749717834860947</v>
+        <v>0.0735549859207254</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04749329574947167</v>
+        <v>0.1067139570572735</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0735279312132603</v>
+        <v>0.07307830051488497</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1161360962790101</v>
+        <v>0.1782416510320774</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06732593295712522</v>
+        <v>0.07295464526679223</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1918417124970779</v>
+        <v>0.04276457388414956</v>
       </c>
       <c r="O160" t="n">
-        <v>0.06635486986423293</v>
+        <v>0.0735549859207254</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04493376264404468</v>
+        <v>0.04261125106612382</v>
       </c>
       <c r="G161" t="n">
-        <v>0.06820767496280537</v>
+        <v>0.07432924893041726</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04778589782058122</v>
+        <v>0.1064959332957701</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07430190943655779</v>
+        <v>0.07384754578346271</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1171090943621405</v>
+        <v>0.1773909387838959</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06803462698825284</v>
+        <v>0.07372258890117953</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1928786550013677</v>
+        <v>0.04261125106612382</v>
       </c>
       <c r="O161" t="n">
-        <v>0.06705334217859328</v>
+        <v>0.07432924893041726</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04814535142352538</v>
+        <v>0.04245664273298452</v>
       </c>
       <c r="G162" t="n">
-        <v>0.06891817157700125</v>
+        <v>0.0751035119401091</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04767809991986535</v>
+        <v>0.1058761663423748</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07507588765985526</v>
+        <v>0.07461679105204044</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1167719671769282</v>
+        <v>0.1770312223462723</v>
       </c>
       <c r="M162" t="n">
-        <v>0.06874332101938048</v>
+        <v>0.07449053253556681</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1919997955524503</v>
+        <v>0.04245664273298452</v>
       </c>
       <c r="O162" t="n">
-        <v>0.06775181449295362</v>
+        <v>0.0751035119401091</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04935153802653225</v>
+        <v>0.04210081619031174</v>
       </c>
       <c r="G163" t="n">
-        <v>0.06962866819119715</v>
+        <v>0.07587777494980094</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04746990843087463</v>
+        <v>0.1053551034151702</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07584986588315275</v>
+        <v>0.07538603632061819</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1166255293076173</v>
+        <v>0.1766626299378715</v>
       </c>
       <c r="M163" t="n">
-        <v>0.06945201505050812</v>
+        <v>0.0752584761699541</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1927025221312515</v>
+        <v>0.04210081619031174</v>
       </c>
       <c r="O163" t="n">
-        <v>0.06845028680731398</v>
+        <v>0.07587777494980094</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04555107872456293</v>
+        <v>0.04214383874368549</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07033916480539303</v>
+        <v>0.07665203795949278</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04766132973715957</v>
+        <v>0.1049331917322386</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07662384410645022</v>
+        <v>0.07615528158919592</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1162705953384516</v>
+        <v>0.1749852897773584</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07016070908163574</v>
+        <v>0.07602641980434138</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1932842227186968</v>
+        <v>0.04214383874368549</v>
       </c>
       <c r="O164" t="n">
-        <v>0.06914875912167431</v>
+        <v>0.07665203795949278</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04774272978911501</v>
+        <v>0.04168577769868585</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07104966141958892</v>
+        <v>0.07742630096918464</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04755237022227073</v>
+        <v>0.1054108785116625</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07739782232974769</v>
+        <v>0.07692452685777366</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1154079798536753</v>
+        <v>0.1753993300833981</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07086940311276338</v>
+        <v>0.07679436343872867</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1953422852957122</v>
+        <v>0.04168577769868585</v>
       </c>
       <c r="O165" t="n">
-        <v>0.06984723143603466</v>
+        <v>0.07742630096918464</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.0459252474916861</v>
+        <v>0.04152670036089283</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07176015803378481</v>
+        <v>0.07820056397887649</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04764303626975859</v>
+        <v>0.1048713854177016</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07817180055304516</v>
+        <v>0.0776937721263514</v>
       </c>
       <c r="L166" t="n">
-        <v>0.115638497437532</v>
+        <v>0.1752048790746555</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07157809714389102</v>
+        <v>0.07756230707311595</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1951740978432231</v>
+        <v>0.04152670036089283</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07054570375039501</v>
+        <v>0.07820056397887649</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05009738810377377</v>
+        <v>0.04146667403588652</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07247065464798071</v>
+        <v>0.07897482698856834</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04763333426317372</v>
+        <v>0.1039863837684003</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07894577877634265</v>
+        <v>0.07846301739492913</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1158629626742658</v>
+        <v>0.1748020649697956</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07228679117501864</v>
+        <v>0.07833025070750324</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1957770483421556</v>
+        <v>0.04146667403588652</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07124417606475536</v>
+        <v>0.07897482698856834</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.05025790789687569</v>
+        <v>0.04110576602924695</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07318115126217659</v>
+        <v>0.07974908999826018</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04762327058606665</v>
+        <v>0.1033582064599299</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07971975699964012</v>
+        <v>0.07923226266350687</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1156821901481207</v>
+        <v>0.1729910159874833</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07299548520614628</v>
+        <v>0.07909819434189053</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1965485247734352</v>
+        <v>0.04110576602924695</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07194264837911571</v>
+        <v>0.07974908999826018</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04840556314248942</v>
+        <v>0.04134404364655414</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07389164787637248</v>
+        <v>0.08052335300795202</v>
       </c>
       <c r="J169" t="n">
-        <v>0.0478128516219879</v>
+        <v>0.103089752741325</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08049373522293761</v>
+        <v>0.0800015079320846</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1153969944433405</v>
+        <v>0.1731718603463837</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07370417923727392</v>
+        <v>0.07986613797627781</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1955859151179875</v>
+        <v>0.04134404364655414</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07264112069347606</v>
+        <v>0.08052335300795202</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04853911011211261</v>
+        <v>0.04098157419338817</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07460214449056836</v>
+        <v>0.08129761601764386</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04760208375448799</v>
+        <v>0.1024839218616201</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08126771344623507</v>
+        <v>0.08077075320066233</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1155081901441692</v>
+        <v>0.1727447262651615</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07441287326840156</v>
+        <v>0.0806340816106651</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1974866073567383</v>
+        <v>0.04098157419338817</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07333959300783639</v>
+        <v>0.08129761601764386</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04665730507724283</v>
+        <v>0.0407184249753291</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07531264110476425</v>
+        <v>0.08207187902733572</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04759097336711747</v>
+        <v>0.1020436130698495</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08204169166953255</v>
+        <v>0.08153999846924008</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1144165918348506</v>
+        <v>0.1724097419624819</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07512156729952918</v>
+        <v>0.08140202524505238</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1970479894706135</v>
+        <v>0.0407184249753291</v>
       </c>
       <c r="O171" t="n">
-        <v>0.07403806532219674</v>
+        <v>0.08207187902733572</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.0497589043093777</v>
+        <v>0.04065466329795693</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07602313771896015</v>
+        <v>0.08284614203702756</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04747952684342689</v>
+        <v>0.1014717256150479</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08281566989283003</v>
+        <v>0.08230924373781781</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1151230140996288</v>
+        <v>0.1722213750943858</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07583026133065683</v>
+        <v>0.08216996887943968</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1976674494405385</v>
+        <v>0.04065466329795693</v>
       </c>
       <c r="O172" t="n">
-        <v>0.07473653763655709</v>
+        <v>0.08284614203702756</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04884266408001484</v>
+        <v>0.04059035646685175</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07673363433315604</v>
+        <v>0.08362040504671941</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04756775056696674</v>
+        <v>0.1005711587462496</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08358964811612751</v>
+        <v>0.08307848900639554</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1149282715227477</v>
+        <v>0.171078528617692</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07653895536178446</v>
+        <v>0.08293791251382696</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1983423752474394</v>
+        <v>0.04059035646685175</v>
       </c>
       <c r="O173" t="n">
-        <v>0.07543500995091744</v>
+        <v>0.08362040504671941</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.05090734066065183</v>
+        <v>0.04032557178759358</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07744413094735192</v>
+        <v>0.08439466805641126</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04734854691906767</v>
+        <v>0.09934481171248913</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08436362633942499</v>
+        <v>0.08384773427497329</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1148331786884512</v>
+        <v>0.1703859472612843</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07724764939291209</v>
+        <v>0.08370585614821426</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1989701548722415</v>
+        <v>0.04032557178759358</v>
       </c>
       <c r="O174" t="n">
-        <v>0.07613348226527779</v>
+        <v>0.08439466805641126</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0479516903227863</v>
+        <v>0.04026037656576248</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07815462756154781</v>
+        <v>0.0851689310661031</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04751032341712795</v>
+        <v>0.09919558376280108</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08513760456272246</v>
+        <v>0.08461697954355102</v>
       </c>
       <c r="L175" t="n">
-        <v>0.114338550180983</v>
+        <v>0.1686527425190543</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07795634342403973</v>
+        <v>0.08447379978260154</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1984481762958708</v>
+        <v>0.04026037656576248</v>
       </c>
       <c r="O175" t="n">
-        <v>0.07683195457963814</v>
+        <v>0.0851689310661031</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04897446933791585</v>
+        <v>0.04019483810693851</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07886512417574369</v>
+        <v>0.08594319407579495</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04725411496166544</v>
+        <v>0.09782637414621986</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08591158278601993</v>
+        <v>0.08538622481212876</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1135452005845876</v>
+        <v>0.1685880258848934</v>
       </c>
       <c r="M176" t="n">
-        <v>0.07866503745516736</v>
+        <v>0.08524174341698881</v>
       </c>
       <c r="N176" t="n">
-        <v>0.198573827499253</v>
+        <v>0.04019483810693851</v>
       </c>
       <c r="O176" t="n">
-        <v>0.07753042689399849</v>
+        <v>0.08594319407579495</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04697416806604753</v>
+        <v>0.0397290237167017</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07957562078993959</v>
+        <v>0.0867174570854868</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04748118022672579</v>
+        <v>0.09764008211177999</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08668556100931742</v>
+        <v>0.08615547008070649</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1132539444835084</v>
+        <v>0.1655009088526929</v>
       </c>
       <c r="M177" t="n">
-        <v>0.07937373148629499</v>
+        <v>0.08600968705137611</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1975444964633135</v>
+        <v>0.0397290237167017</v>
       </c>
       <c r="O177" t="n">
-        <v>0.07822889920835882</v>
+        <v>0.0867174570854868</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0479488724174119</v>
+        <v>0.03976300070063209</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08028611740413548</v>
+        <v>0.08749172009517864</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0474927778863547</v>
+        <v>0.09623960690851591</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08745953923261489</v>
+        <v>0.08692471534928423</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1140655964619895</v>
+        <v>0.1654005029163444</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08008242551742263</v>
+        <v>0.08677763068576339</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1976575183388393</v>
+        <v>0.03976300070063209</v>
       </c>
       <c r="O178" t="n">
-        <v>0.07892737152271917</v>
+        <v>0.08749172009517864</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04689944883031756</v>
+        <v>0.03969683636430975</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08099661401833137</v>
+        <v>0.08826598310487048</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04729016661459783</v>
+        <v>0.09592784778546212</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08823351745591237</v>
+        <v>0.08769396061786197</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1130809711042749</v>
+        <v>0.1629959195697391</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08079111954855027</v>
+        <v>0.08754557432015068</v>
       </c>
       <c r="N179" t="n">
-        <v>0.198910561718884</v>
+        <v>0.03969683636430975</v>
       </c>
       <c r="O179" t="n">
-        <v>0.07962584383707952</v>
+        <v>0.08826598310487048</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.05082713482916372</v>
+        <v>0.03923059801331472</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08170711063252725</v>
+        <v>0.08904024611456234</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04707460508550082</v>
+        <v>0.0954077039916531</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08900749567920985</v>
+        <v>0.0884632058864397</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1132008829946085</v>
+        <v>0.1619962703067687</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08149981357967789</v>
+        <v>0.08831351795453797</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1979048298213113</v>
+        <v>0.03923059801331472</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08032431615143987</v>
+        <v>0.08904024611456234</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.04973316793834962</v>
+        <v>0.03916435295322704</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08241760724672315</v>
+        <v>0.08981450912425419</v>
       </c>
       <c r="J181" t="n">
-        <v>0.0471473519731094</v>
+        <v>0.09418207477612334</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08978147390250732</v>
+        <v>0.08923245115501743</v>
       </c>
       <c r="L181" t="n">
-        <v>0.1129261467172342</v>
+        <v>0.1594106666213245</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08220850761080553</v>
+        <v>0.08908146158892526</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1984422828415487</v>
+        <v>0.03916435295322704</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08102278846580022</v>
+        <v>0.08981450912425419</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.04961878568227449</v>
+        <v>0.03879816848962676</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08312810386091903</v>
+        <v>0.09058877213394603</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04700966595146922</v>
+        <v>0.09295385938790737</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09055545212580479</v>
+        <v>0.09000169642359518</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1123575768563959</v>
+        <v>0.1591482200072979</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08291720164193317</v>
+        <v>0.08984940522331254</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1970248809750235</v>
+        <v>0.03879816848962676</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08172126078016055</v>
+        <v>0.09058877213394603</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.04948522558533755</v>
+        <v>0.03873211192809393</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08383860047511493</v>
+        <v>0.09136303514363787</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04656280569462593</v>
+        <v>0.09182595707603963</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09132943034910228</v>
+        <v>0.09077094169217291</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1127899919419529</v>
+        <v>0.1561180419585803</v>
       </c>
       <c r="M183" t="n">
-        <v>0.08362589567306079</v>
+        <v>0.09061734885769983</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1974545844171635</v>
+        <v>0.03873211192809393</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08241973309452091</v>
+        <v>0.09136303514363787</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.04733372517193805</v>
+        <v>0.0384662505742086</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08454909708931081</v>
+        <v>0.09213729815332972</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04650802987662522</v>
+        <v>0.09210126708955457</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09210340857239975</v>
+        <v>0.09154018696075066</v>
       </c>
       <c r="L184" t="n">
-        <v>0.112210550755134</v>
+        <v>0.1553292439690632</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08433458970418843</v>
+        <v>0.09138529249208711</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1980333533633959</v>
+        <v>0.0384662505742086</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08311820540888125</v>
+        <v>0.09213729815332972</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.04716552196647525</v>
+        <v>0.0386006517335508</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08525959370350671</v>
+        <v>0.09291156116302156</v>
       </c>
       <c r="J185" t="n">
-        <v>0.0461465971715128</v>
+        <v>0.09058268867748676</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09287738679569724</v>
+        <v>0.09230943222932839</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1124196962033291</v>
+        <v>0.152690937532638</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08504328373531607</v>
+        <v>0.0921532361264744</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1964631480091483</v>
+        <v>0.0386006517335508</v>
       </c>
       <c r="O185" t="n">
-        <v>0.0838166777232416</v>
+        <v>0.09291156116302156</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.04798185349334833</v>
+        <v>0.03823538271170061</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08597009031770259</v>
+        <v>0.09368582417271341</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04627976625333428</v>
+        <v>0.08957312108887064</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0936513650189947</v>
+        <v>0.09307867749790612</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1123184142170084</v>
+        <v>0.1502122341431961</v>
       </c>
       <c r="M186" t="n">
-        <v>0.08575197776644369</v>
+        <v>0.09292117976086169</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1965459285498483</v>
+        <v>0.03823538271170061</v>
       </c>
       <c r="O186" t="n">
-        <v>0.08451515003760195</v>
+        <v>0.09368582417271341</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.04678395727695656</v>
+        <v>0.03807051081423807</v>
       </c>
       <c r="G187" t="n">
-        <v>0.08668058693189848</v>
+        <v>0.09446008718240526</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04610879579613536</v>
+        <v>0.08927546357274066</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09442534324229218</v>
+        <v>0.09384792276648386</v>
       </c>
       <c r="L187" t="n">
-        <v>0.1113076907266423</v>
+        <v>0.1487022452946291</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08646067179757133</v>
+        <v>0.09368912339524897</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1960836551809233</v>
+        <v>0.03807051081423807</v>
       </c>
       <c r="O187" t="n">
-        <v>0.08521362235196228</v>
+        <v>0.09446008718240526</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.04957307084169917</v>
+        <v>0.03800610334674318</v>
       </c>
       <c r="G188" t="n">
-        <v>0.08739108354609437</v>
+        <v>0.0952343501920971</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04563494447396176</v>
+        <v>0.08869261537813142</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09519932146558965</v>
+        <v>0.09461716803506159</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1121885116627012</v>
+        <v>0.146570082480828</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08716936582869897</v>
+        <v>0.09445706702963626</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1948782880978009</v>
+        <v>0.03800610334674318</v>
       </c>
       <c r="O188" t="n">
-        <v>0.08591209466632264</v>
+        <v>0.0952343501920971</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.04535043171197538</v>
+        <v>0.03774222761479605</v>
       </c>
       <c r="G189" t="n">
-        <v>0.08810158016029027</v>
+        <v>0.09600861320178895</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04565947096085905</v>
+        <v>0.08762747575407728</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09597329968888714</v>
+        <v>0.09538641330363933</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1116618629556554</v>
+        <v>0.1445248571956847</v>
       </c>
       <c r="M189" t="n">
-        <v>0.08787805985982659</v>
+        <v>0.09522501066402354</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1956317874959084</v>
+        <v>0.03774222761479605</v>
       </c>
       <c r="O189" t="n">
-        <v>0.08661056698068298</v>
+        <v>0.09600861320178895</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.04711727741218442</v>
+        <v>0.03767890780885361</v>
       </c>
       <c r="G190" t="n">
-        <v>0.08881207677448615</v>
+        <v>0.0967828762114808</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04528363393087301</v>
+        <v>0.08628294394961278</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09674727791218461</v>
+        <v>0.09615565857221707</v>
       </c>
       <c r="L190" t="n">
-        <v>0.1112287305359755</v>
+        <v>0.1425756809330904</v>
       </c>
       <c r="M190" t="n">
-        <v>0.08858675389095423</v>
+        <v>0.09599295429841084</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1943461135706736</v>
+        <v>0.03767890780885361</v>
       </c>
       <c r="O190" t="n">
-        <v>0.08730903929504334</v>
+        <v>0.0967828762114808</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.04587484546672554</v>
+        <v>0.0375159811918047</v>
       </c>
       <c r="G191" t="n">
-        <v>0.08952257338868204</v>
+        <v>0.09755713922117265</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04540869205804926</v>
+        <v>0.08666191921377239</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09752125613548208</v>
+        <v>0.0969249038407948</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1107901003341318</v>
+        <v>0.1413316651869366</v>
       </c>
       <c r="M191" t="n">
-        <v>0.08929544792208187</v>
+        <v>0.09676089793279812</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1929232265175237</v>
+        <v>0.0375159811918047</v>
       </c>
       <c r="O191" t="n">
-        <v>0.08800751160940368</v>
+        <v>0.09755713922117265</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.04662437339999798</v>
+        <v>0.0372533510639806</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09023307000287792</v>
+        <v>0.09833140223086449</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04513590401643347</v>
+        <v>0.08515436272532326</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09829523435877956</v>
+        <v>0.09769414910937253</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1107469582805944</v>
+        <v>0.1383019214511145</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09000414195320949</v>
+        <v>0.09752884156718541</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1939650865318864</v>
+        <v>0.0372533510639806</v>
       </c>
       <c r="O192" t="n">
-        <v>0.08870598392376403</v>
+        <v>0.09833140223086449</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.04736709873640096</v>
+        <v>0.03719093295186711</v>
       </c>
       <c r="G193" t="n">
-        <v>0.09094356661707381</v>
+        <v>0.09910566524055633</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04496652848007132</v>
+        <v>0.08493124929730506</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09906921258207704</v>
+        <v>0.09846339437795028</v>
       </c>
       <c r="L193" t="n">
-        <v>0.110300290305834</v>
+        <v>0.1360955612195158</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09071283598433713</v>
+        <v>0.0982967852015727</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1917736538091891</v>
+        <v>0.03719093295186711</v>
       </c>
       <c r="O193" t="n">
-        <v>0.08940445623812437</v>
+        <v>0.09910566524055633</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0471042590003337</v>
+        <v>0.03702864238195001</v>
       </c>
       <c r="G194" t="n">
-        <v>0.09165406323126972</v>
+        <v>0.09987992825024818</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04480182412300851</v>
+        <v>0.0837931402547831</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09984319080537453</v>
+        <v>0.09923263964652801</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1098510823403206</v>
+        <v>0.1349216959860319</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09142153001546477</v>
+        <v>0.09906472883595997</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1913508885448593</v>
+        <v>0.03702864238195001</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09010292855248471</v>
+        <v>0.09987992825024818</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.04583709171619546</v>
+        <v>0.03696639488071508</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0923645598454656</v>
+        <v>0.10065419125994</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04464304961929066</v>
+        <v>0.08314199919097801</v>
       </c>
       <c r="K195" t="n">
-        <v>0.100617169028672</v>
+        <v>0.1000018849151058</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1098003203145251</v>
+        <v>0.1332894372445541</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09213022404659239</v>
+        <v>0.09983267247034727</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1914987509343246</v>
+        <v>0.03696639488071508</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09080140086684507</v>
+        <v>0.10065419125994</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.04756683440838547</v>
+        <v>0.03680410597464809</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09307505645966149</v>
+        <v>0.1014284542696319</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04439146364296349</v>
+        <v>0.08197978969911024</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1013911472519695</v>
+        <v>0.1007711301836835</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1094489901589174</v>
+        <v>0.1310078964889739</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09283891807772003</v>
+        <v>0.1006006161047345</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1897192011730124</v>
+        <v>0.03680410597464809</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09149987318120541</v>
+        <v>0.1014284542696319</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.04529472460130295</v>
+        <v>0.03664169119023485</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09378555307385737</v>
+        <v>0.1022027172793237</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04454832486807267</v>
+        <v>0.08160847537240049</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1021651254752669</v>
+        <v>0.1015403754522612</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1096980778039681</v>
+        <v>0.1281861852131827</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09354761210884767</v>
+        <v>0.1013685597391218</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1890141994563502</v>
+        <v>0.03664169119023485</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09219834549556576</v>
+        <v>0.1022027172793237</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.04502199981934714</v>
+        <v>0.0362790660539611</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09449604968805327</v>
+        <v>0.1029769802890156</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04431489196866384</v>
+        <v>0.08133001980406931</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1029391036985644</v>
+        <v>0.102309620720839</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1088485691801476</v>
+        <v>0.126433414911072</v>
       </c>
       <c r="M198" t="n">
-        <v>0.09425630613997531</v>
+        <v>0.1021365033735091</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1883857059797657</v>
+        <v>0.0362790660539611</v>
       </c>
       <c r="O198" t="n">
-        <v>0.0928968178099261</v>
+        <v>0.1029769802890156</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.04574989758691726</v>
+        <v>0.0363161460923126</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09520654630224916</v>
+        <v>0.1037512432987074</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04389242361878271</v>
+        <v>0.07974638658733724</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1037130819218619</v>
+        <v>0.1030788659894167</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1093014502179261</v>
+        <v>0.125328687070382</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09496500017110293</v>
+        <v>0.1029044470078964</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1873356809386861</v>
+        <v>0.0363161460923126</v>
       </c>
       <c r="O199" t="n">
-        <v>0.09359529012428645</v>
+        <v>0.1037512432987074</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.04447965542841258</v>
+        <v>0.03595284683177519</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09591704291644505</v>
+        <v>0.1045255063083993</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04378217849247491</v>
+        <v>0.07885953931542491</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1044870601451594</v>
+        <v>0.1038481112579944</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1081577068477741</v>
+        <v>0.1227888986403046</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09567369420223057</v>
+        <v>0.1036723906422837</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1872660845285391</v>
+        <v>0.03595284683177519</v>
       </c>
       <c r="O200" t="n">
-        <v>0.0942937624386468</v>
+        <v>0.1045255063083993</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.0422125108682323</v>
+        <v>0.03608908379883458</v>
       </c>
       <c r="G201" t="n">
-        <v>0.09662753953064093</v>
+        <v>0.1052997693180911</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04388541526378614</v>
+        <v>0.07897144158155289</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1052610383684569</v>
+        <v>0.1046173565265722</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1086183250001619</v>
+        <v>0.1214117819623404</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09638238823335821</v>
+        <v>0.104440334276671</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1855788769447521</v>
+        <v>0.03608908379883458</v>
       </c>
       <c r="O201" t="n">
-        <v>0.09499223475300715</v>
+        <v>0.1052997693180911</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.04594970143077566</v>
+        <v>0.03582477251997661</v>
       </c>
       <c r="G202" t="n">
-        <v>0.09733803614483683</v>
+        <v>0.106074032327783</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0438033926067621</v>
+        <v>0.07728405697894178</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1060350165917543</v>
+        <v>0.1053866017951499</v>
       </c>
       <c r="L202" t="n">
-        <v>0.10778429060556</v>
+        <v>0.1189340210693131</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09709108226448583</v>
+        <v>0.1052082779110583</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1856760183827527</v>
+        <v>0.03582477251997661</v>
       </c>
       <c r="O202" t="n">
-        <v>0.09569070706736749</v>
+        <v>0.106074032327783</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.04369246464044191</v>
+        <v>0.03575982852168702</v>
       </c>
       <c r="G203" t="n">
-        <v>0.09804853275903271</v>
+        <v>0.1068482953374748</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04393736919544843</v>
+        <v>0.07739934910081214</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1068089948150518</v>
+        <v>0.1061558470637276</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1075565895944386</v>
+        <v>0.1177922999940468</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09779977629561347</v>
+        <v>0.1059762215454456</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1837594690379683</v>
+        <v>0.03575982852168702</v>
       </c>
       <c r="O203" t="n">
-        <v>0.09638917938172784</v>
+        <v>0.1068482953374748</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.04144203802163027</v>
+        <v>0.03519416733045162</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0987590293732286</v>
+        <v>0.1076225583471666</v>
       </c>
       <c r="J204" t="n">
-        <v>0.0435886037038908</v>
+        <v>0.07581928154038453</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1075829730383493</v>
+        <v>0.1069250923323054</v>
       </c>
       <c r="L204" t="n">
-        <v>0.1074362078972683</v>
+        <v>0.1146233027693657</v>
       </c>
       <c r="M204" t="n">
-        <v>0.09850847032674111</v>
+        <v>0.1067441651798328</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1826311891058264</v>
+        <v>0.03519416733045162</v>
       </c>
       <c r="O204" t="n">
-        <v>0.09708765169608818</v>
+        <v>0.1076225583471666</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.04519965909873998</v>
+        <v>0.03522770447275615</v>
       </c>
       <c r="G205" t="n">
-        <v>0.09946952598742449</v>
+        <v>0.1083968213568585</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0438583548061349</v>
+        <v>0.07524581789087961</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1083569512616468</v>
+        <v>0.1076943376008831</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1074241314445192</v>
+        <v>0.1129637134280937</v>
       </c>
       <c r="M205" t="n">
-        <v>0.09921716435786873</v>
+        <v>0.1075121088142201</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1819931387817547</v>
+        <v>0.03522770447275615</v>
       </c>
       <c r="O205" t="n">
-        <v>0.09778612401044853</v>
+        <v>0.1083968213568585</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.04196656539617026</v>
+        <v>0.03516035547508643</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1001800226016204</v>
+        <v>0.1091710843665503</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04364788117622638</v>
+        <v>0.07408092174551792</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1091309294849442</v>
+        <v>0.1084635828694609</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1075213461666618</v>
+        <v>0.1103502160030548</v>
       </c>
       <c r="M206" t="n">
-        <v>0.09992585838899637</v>
+        <v>0.1082800524486074</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1807472782611804</v>
+        <v>0.03516035547508643</v>
       </c>
       <c r="O206" t="n">
-        <v>0.09848459632480888</v>
+        <v>0.1091710843665503</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.04374399443832036</v>
+        <v>0.03509203586392821</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1008905192158163</v>
+        <v>0.1099453473762422</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04374788179289879</v>
+        <v>0.07352655669752001</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1099049077082417</v>
+        <v>0.1092328281380386</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1067288379941665</v>
+        <v>0.1094194945270731</v>
       </c>
       <c r="M207" t="n">
-        <v>0.100634552420124</v>
+        <v>0.1090479960829947</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1802955677395311</v>
+        <v>0.03509203586392821</v>
       </c>
       <c r="O207" t="n">
-        <v>0.09918306863916922</v>
+        <v>0.1099453473762422</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.04453318374958951</v>
+        <v>0.03472266116576725</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1016010158300122</v>
+        <v>0.110719610385934</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04344789084085723</v>
+        <v>0.0733846863401065</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1106788859315392</v>
+        <v>0.1100020734066163</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1068475928575037</v>
+        <v>0.1077082330329726</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1013432464512516</v>
+        <v>0.109815939717382</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1793399674122345</v>
+        <v>0.03472266116576725</v>
       </c>
       <c r="O208" t="n">
-        <v>0.09988154095352958</v>
+        <v>0.110719610385934</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.04433537085437692</v>
+        <v>0.03435214690708938</v>
       </c>
       <c r="G209" t="n">
-        <v>0.102311512444208</v>
+        <v>0.1114938733956259</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04384791549658051</v>
+        <v>0.07295727426649801</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1114528641548367</v>
+        <v>0.1107713186751941</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1064785966871437</v>
+        <v>0.1045531155535775</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1020519404823793</v>
+        <v>0.1105838833517693</v>
       </c>
       <c r="N209" t="n">
-        <v>0.178182437474718</v>
+        <v>0.03435214690708938</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1005800132678899</v>
+        <v>0.1114938733956259</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.04315179327708187</v>
+        <v>0.03418040861438033</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1030220090584039</v>
+        <v>0.1122681364053177</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04354796359494176</v>
+        <v>0.07154628406991503</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1122268423781341</v>
+        <v>0.1115405639437718</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1071228354135569</v>
+        <v>0.1031908261217115</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1027606345135069</v>
+        <v>0.1113518269861566</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1767249381224089</v>
+        <v>0.03418040861438033</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1012784855822503</v>
+        <v>0.1122681364053177</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.04098368854210356</v>
+        <v>0.03410736181412594</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1037325056725998</v>
+        <v>0.1130423994150096</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04344804297081403</v>
+        <v>0.0705536793435782</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1130008206014316</v>
+        <v>0.1123098092123495</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1062812949672136</v>
+        <v>0.1029580487701988</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1034693285446345</v>
+        <v>0.1121197706205439</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1771694295507348</v>
+        <v>0.03410736181412594</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1019769578966106</v>
+        <v>0.1130423994150096</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03983229417384122</v>
+        <v>0.03413292203281189</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1044430022867957</v>
+        <v>0.1138166624247014</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04374816145907044</v>
+        <v>0.0703814236807081</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1137747988247291</v>
+        <v>0.1130790544809273</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1068549612785843</v>
+        <v>0.1011914675318635</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1041780225757622</v>
+        <v>0.1128877142549311</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1759178719551234</v>
+        <v>0.03413292203281189</v>
       </c>
       <c r="O212" t="n">
-        <v>0.102675430210971</v>
+        <v>0.1138166624247014</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03969884769669411</v>
+        <v>0.03395709665725731</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1051534989009916</v>
+        <v>0.1145909254343933</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04354832689458407</v>
+        <v>0.06953148067452533</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1145487770480266</v>
+        <v>0.113848299749505</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1057448202781393</v>
+        <v>0.1006277664395296</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1048867166068898</v>
+        <v>0.1136556578893184</v>
       </c>
       <c r="N213" t="n">
-        <v>0.175572225531002</v>
+        <v>0.03395709665725731</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1033739025253313</v>
+        <v>0.1145909254343933</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.04058458663506145</v>
+        <v>0.03368060310493316</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1058639955151875</v>
+        <v>0.1153651884440851</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04344854711222802</v>
+        <v>0.06920581391825043</v>
       </c>
       <c r="K214" t="n">
-        <v>0.115322755271324</v>
+        <v>0.1146175450180827</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1066518578963489</v>
+        <v>0.09940362952602105</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1055954106380174</v>
+        <v>0.1144236015237057</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1730344504737981</v>
+        <v>0.03368060310493316</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1040723748396916</v>
+        <v>0.1153651884440851</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.04149074851334246</v>
+        <v>0.03350360720718655</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1065744921293834</v>
+        <v>0.116139451453777</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04374882994687537</v>
+        <v>0.06890638700510404</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1160967334946215</v>
+        <v>0.1153867902866605</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1064770600636836</v>
+        <v>0.09952227957477633</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1063041046691451</v>
+        <v>0.115191545158093</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1737065069789394</v>
+        <v>0.03350360720718655</v>
       </c>
       <c r="O215" t="n">
-        <v>0.104770847154052</v>
+        <v>0.116139451453777</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.04241857085593641</v>
+        <v>0.03342610373026045</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1072849887435793</v>
+        <v>0.1169137144634688</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04384918323339924</v>
+        <v>0.06823516352830669</v>
       </c>
       <c r="K216" t="n">
-        <v>0.116870711717919</v>
+        <v>0.1161560355552382</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1060214127106138</v>
+        <v>0.09995117459067504</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1070127987002727</v>
+        <v>0.1159594887924803</v>
       </c>
       <c r="N216" t="n">
-        <v>0.172490355241853</v>
+        <v>0.03342610373026045</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1054693194684124</v>
+        <v>0.1169137144634688</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.04336929118724249</v>
+        <v>0.03304808744039776</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1079954853577752</v>
+        <v>0.1176879774731606</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04384961480667271</v>
+        <v>0.06699410708107897</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1176446899412165</v>
+        <v>0.116925280823816</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1060859017676097</v>
+        <v>0.09888481175574398</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1077214927314003</v>
+        <v>0.1167274324268676</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1716879554579669</v>
+        <v>0.03304808744039776</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1061677917827727</v>
+        <v>0.1176879774731606</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03934414703165996</v>
+        <v>0.03316955310384143</v>
       </c>
       <c r="G218" t="n">
-        <v>0.108705981971971</v>
+        <v>0.1184622404828525</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04365013250156886</v>
+        <v>0.0668851812566415</v>
       </c>
       <c r="K218" t="n">
-        <v>0.118418668164514</v>
+        <v>0.1176945260923937</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1058715131651419</v>
+        <v>0.09882313994344499</v>
       </c>
       <c r="M218" t="n">
-        <v>0.108430186762528</v>
+        <v>0.1174953760612549</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1695012678227082</v>
+        <v>0.03316955310384143</v>
       </c>
       <c r="O218" t="n">
-        <v>0.106866264097133</v>
+        <v>0.1184622404828525</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.04034101237964792</v>
+        <v>0.03279049548683437</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1094164785861669</v>
+        <v>0.1192365034925443</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0437507441529608</v>
+        <v>0.06581034964821486</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1191926463878114</v>
+        <v>0.1184637713609714</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1065739590061868</v>
+        <v>0.09896610802724032</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1091388807936556</v>
+        <v>0.1182633196956421</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1699322525315047</v>
+        <v>0.03279049548683437</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1075647364114934</v>
+        <v>0.1192365034925443</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.04334102468810326</v>
+        <v>0.03261090935561953</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1101269752003628</v>
+        <v>0.1200107665022362</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04365145759572162</v>
+        <v>0.06637157584901957</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1199666246111089</v>
+        <v>0.1192330166295492</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1065842907789809</v>
+        <v>0.09831366488059179</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1098475748247832</v>
+        <v>0.1190312633300294</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1685828667280403</v>
+        <v>0.03261090935561953</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1082632087258537</v>
+        <v>0.1200107665022362</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.04034107080917776</v>
+        <v>0.03223078947643984</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1108374718145587</v>
+        <v>0.120785029511928</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04345228066472441</v>
+        <v>0.06547082345227628</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1207406028344064</v>
+        <v>0.1200022618981269</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1060023833770034</v>
+        <v>0.0996657593769617</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1105562688559109</v>
+        <v>0.1197992069644167</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1684386859704346</v>
+        <v>0.03223078947643984</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1089616810402141</v>
+        <v>0.120785029511928</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.042341173182544</v>
+        <v>0.03225013061553822</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1115479684287546</v>
+        <v>0.1215592925216199</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04375322119484225</v>
+        <v>0.06560962751007082</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1215145810577039</v>
+        <v>0.1207715071667046</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1059282927110576</v>
+        <v>0.09972234038981187</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1112649628870385</v>
+        <v>0.120567150598804</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1675848980346777</v>
+        <v>0.03225013061553822</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1096601533545744</v>
+        <v>0.1215592925216199</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.04234135424787452</v>
+        <v>0.03226892753915762</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1122584650429505</v>
+        <v>0.1223335555313117</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04355428702094827</v>
+        <v>0.06506413114789605</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1222885592810014</v>
+        <v>0.1215407524352824</v>
       </c>
       <c r="L223" t="n">
-        <v>0.105962074691947</v>
+        <v>0.09938335679260429</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1119736569181661</v>
+        <v>0.1213350942331913</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1666215845060568</v>
+        <v>0.03226892753915762</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1103586256689348</v>
+        <v>0.1223335555313117</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.04334163644484187</v>
+        <v>0.03208717501354096</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1129689616571464</v>
+        <v>0.1231078185410036</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04345548597791551</v>
+        <v>0.06421995439520259</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1230625375042988</v>
+        <v>0.1223099977038601</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1059037852304752</v>
+        <v>0.09864875745880131</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1126823509492938</v>
+        <v>0.1221030378675786</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1649488269698594</v>
+        <v>0.03208717501354096</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1110570979832951</v>
+        <v>0.1231078185410036</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0393420422131186</v>
+        <v>0.03170486780493115</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1136794582713423</v>
+        <v>0.1238820815506954</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04365682590061712</v>
+        <v>0.06457744322490042</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1238365157275963</v>
+        <v>0.1230792429724378</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1059534802374456</v>
+        <v>0.09801849126186457</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1133910449804214</v>
+        <v>0.1228709815019659</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1646667070113725</v>
+        <v>0.03170486780493115</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1117555702976555</v>
+        <v>0.1238820815506954</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.04134259399237726</v>
+        <v>0.03132200067957118</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1143899548855382</v>
+        <v>0.1246563445603873</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04385831462392616</v>
+        <v>0.06413694360989947</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1246104939508938</v>
+        <v>0.1238484882410156</v>
       </c>
       <c r="L226" t="n">
-        <v>0.1061112156236618</v>
+        <v>0.09829250707525633</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1140997390115491</v>
+        <v>0.1236389251363532</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1629753062158838</v>
+        <v>0.03132200067957118</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1124540426120158</v>
+        <v>0.1246563445603873</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.04134331422229043</v>
+        <v>0.0314385684037039</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1151004514997341</v>
+        <v>0.1254306075700791</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04385995998271572</v>
+        <v>0.06289880152310984</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1253844721741913</v>
+        <v>0.1246177335095933</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1063770472999273</v>
+        <v>0.09897075377243852</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1148084330426767</v>
+        <v>0.1244068687707404</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1625747061686802</v>
+        <v>0.0314385684037039</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1131525149263762</v>
+        <v>0.1254306075700791</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03934422534253061</v>
+        <v>0.03115456574357228</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1158109481139299</v>
+        <v>0.126204870579771</v>
       </c>
       <c r="J228" t="n">
-        <v>0.0436617698118589</v>
+        <v>0.0626633629374414</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1261584503974887</v>
+        <v>0.1253869787781711</v>
       </c>
       <c r="L228" t="n">
-        <v>0.1067510311770455</v>
+        <v>0.09885318022687328</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1155171270738043</v>
+        <v>0.1251748124051277</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1621649884550492</v>
+        <v>0.03115456574357228</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1138509872407365</v>
+        <v>0.126204870579771</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.04334534979277041</v>
+        <v>0.0311699874654193</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1165214447281258</v>
+        <v>0.1269791335894628</v>
       </c>
       <c r="J229" t="n">
-        <v>0.04346375194622881</v>
+        <v>0.06243097382580426</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1269324286207862</v>
+        <v>0.1261562240467488</v>
       </c>
       <c r="L229" t="n">
-        <v>0.1063332231658198</v>
+        <v>0.09773973531202251</v>
       </c>
       <c r="M229" t="n">
-        <v>0.116225821104932</v>
+        <v>0.125942756039515</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1606462346602781</v>
+        <v>0.0311699874654193</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1145494595550968</v>
+        <v>0.1269791335894628</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.04034671001268234</v>
+        <v>0.03078482833548782</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1172319413423217</v>
+        <v>0.1277533965991547</v>
       </c>
       <c r="J230" t="n">
-        <v>0.04356591422069854</v>
+        <v>0.06280198016110841</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1277064068440837</v>
+        <v>0.1269254693153265</v>
       </c>
       <c r="L230" t="n">
-        <v>0.1062236791770538</v>
+        <v>0.09873036790134826</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1169345151360596</v>
+        <v>0.1267106996739023</v>
       </c>
       <c r="N230" t="n">
-        <v>0.160318526369654</v>
+        <v>0.03078482833548782</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1152479318694572</v>
+        <v>0.1277533965991547</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.04134832844193895</v>
+        <v>0.03079908312002079</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1179424379565176</v>
+        <v>0.1285276596088465</v>
       </c>
       <c r="J231" t="n">
-        <v>0.04386826447014115</v>
+        <v>0.06217672791626383</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1284803850673812</v>
+        <v>0.1276947145839042</v>
       </c>
       <c r="L231" t="n">
-        <v>0.1066224551215511</v>
+        <v>0.09702502686831266</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1176432091671872</v>
+        <v>0.1274786433082896</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1594819451684644</v>
+        <v>0.03079908312002079</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1159464041838175</v>
+        <v>0.1285276596088465</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.04235022752021282</v>
+        <v>0.03061274658526117</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1186529345707135</v>
+        <v>0.1293019226185383</v>
       </c>
       <c r="J232" t="n">
-        <v>0.04387081052942976</v>
+        <v>0.06135556306418047</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1292543632906786</v>
+        <v>0.128463959852482</v>
       </c>
       <c r="L232" t="n">
-        <v>0.106629606910115</v>
+        <v>0.09682366108637763</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1183519031983149</v>
+        <v>0.1282465869426769</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1579365726419966</v>
+        <v>0.03061274658526117</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1166448764981779</v>
+        <v>0.1293019226185383</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.04335242968717649</v>
+        <v>0.03002581349745187</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1193634311849094</v>
+        <v>0.1300761856282302</v>
       </c>
       <c r="J233" t="n">
-        <v>0.04387356023343746</v>
+        <v>0.06093883157776842</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1300283415139761</v>
+        <v>0.1292332051210597</v>
       </c>
       <c r="L233" t="n">
-        <v>0.1065451904535491</v>
+        <v>0.09792621942900531</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1190605972294425</v>
+        <v>0.1290145305770642</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1557824903755377</v>
+        <v>0.03002581349745187</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1173433488125382</v>
+        <v>0.1300761856282302</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.04235495738250251</v>
+        <v>0.0301382786228358</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1200739277991053</v>
+        <v>0.130850448637922</v>
       </c>
       <c r="J234" t="n">
-        <v>0.04347652141703735</v>
+        <v>0.06082687942993759</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1308023197372736</v>
+        <v>0.1300024503896375</v>
       </c>
       <c r="L234" t="n">
-        <v>0.1074692616626569</v>
+        <v>0.0966326507696576</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1197692912605701</v>
+        <v>0.1297824742114514</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1554197799543752</v>
+        <v>0.0301382786228358</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1180418211268986</v>
+        <v>0.130850448637922</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.04335783304586344</v>
+        <v>0.02985013672765592</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1207844244133012</v>
+        <v>0.1316247116476139</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0437797019151025</v>
+        <v>0.06122005259359803</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1315762979605711</v>
+        <v>0.1307716956582152</v>
       </c>
       <c r="L235" t="n">
-        <v>0.1066018764482418</v>
+        <v>0.09834290398179668</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1204779852916978</v>
+        <v>0.1305504178458387</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1548485229637963</v>
+        <v>0.02985013672765592</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1187402934412589</v>
+        <v>0.1316247116476139</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0393610791169318</v>
+        <v>0.02966138257815515</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1214949210274971</v>
+        <v>0.1323989746573057</v>
       </c>
       <c r="J236" t="n">
-        <v>0.04388310956250603</v>
+        <v>0.06071869704165969</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1323502761838685</v>
+        <v>0.1315409409267929</v>
       </c>
       <c r="L236" t="n">
-        <v>0.1071430907211073</v>
+        <v>0.09765692793888442</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1211866793228254</v>
+        <v>0.131318361480226</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1529688009890883</v>
+        <v>0.02966138257815515</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1194387657556193</v>
+        <v>0.1323989746573057</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.03936471803538019</v>
+        <v>0.02927201094057644</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1222054176416929</v>
+        <v>0.1331732376669976</v>
       </c>
       <c r="J237" t="n">
-        <v>0.04358675219412103</v>
+        <v>0.06082315874703267</v>
       </c>
       <c r="K237" t="n">
-        <v>0.133124254407166</v>
+        <v>0.1323101861953707</v>
       </c>
       <c r="L237" t="n">
-        <v>0.106992960392057</v>
+        <v>0.09787467151438289</v>
       </c>
       <c r="M237" t="n">
-        <v>0.121895373353953</v>
+        <v>0.1320863051146133</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1529806956155385</v>
+        <v>0.02927201094057644</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1201372380699796</v>
+        <v>0.1331732376669976</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.03936877224088113</v>
+        <v>0.02918201658116269</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1229159142558888</v>
+        <v>0.1339475006766894</v>
       </c>
       <c r="J238" t="n">
-        <v>0.04369063764482056</v>
+        <v>0.0600337836826268</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1338982326304635</v>
+        <v>0.1330794314639484</v>
       </c>
       <c r="L238" t="n">
-        <v>0.1075515413718943</v>
+        <v>0.09689608358175433</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1226040673850807</v>
+        <v>0.1328542487490006</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1514842884284342</v>
+        <v>0.02918201658116269</v>
       </c>
       <c r="O238" t="n">
-        <v>0.12083571038434</v>
+        <v>0.1339475006766894</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.03937326417310717</v>
+        <v>0.02909139426615684</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1236264108700847</v>
+        <v>0.1347217636863813</v>
       </c>
       <c r="J239" t="n">
-        <v>0.04389477374947776</v>
+        <v>0.05985091782135224</v>
       </c>
       <c r="K239" t="n">
-        <v>0.134672210853761</v>
+        <v>0.1338486767325262</v>
       </c>
       <c r="L239" t="n">
-        <v>0.1072188895714227</v>
+        <v>0.0967211130144604</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1233127614162083</v>
+        <v>0.1336221923833879</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1516796610130626</v>
+        <v>0.02909139426615684</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1215341826987003</v>
+        <v>0.1347217636863813</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.04137821627173088</v>
+        <v>0.02890013876180184</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1243369074842806</v>
+        <v>0.1354960266960731</v>
       </c>
       <c r="J240" t="n">
-        <v>0.0434991683429657</v>
+        <v>0.05927490713611894</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1354461890770585</v>
+        <v>0.1346179220011039</v>
       </c>
       <c r="L240" t="n">
-        <v>0.1082950609014457</v>
+        <v>0.09734970868596354</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1240214554473359</v>
+        <v>0.1343901360177752</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1500668949547111</v>
+        <v>0.02890013876180184</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1222326550130607</v>
+        <v>0.1354960266960731</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.04038365097642481</v>
+        <v>0.02860824483434062</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1250474040984765</v>
+        <v>0.136270289705765</v>
       </c>
       <c r="J241" t="n">
-        <v>0.04360382926015746</v>
+        <v>0.05930609759983688</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1362201673003559</v>
+        <v>0.1353871672696816</v>
       </c>
       <c r="L241" t="n">
-        <v>0.1079801112727669</v>
+        <v>0.09618181946972537</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1247301494784636</v>
+        <v>0.1351580796521624</v>
       </c>
       <c r="N241" t="n">
-        <v>0.148846071838667</v>
+        <v>0.02860824483434062</v>
       </c>
       <c r="O241" t="n">
-        <v>0.122931127327421</v>
+        <v>0.136270289705765</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.04238959072686149</v>
+        <v>0.02841570725001609</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1257579007126724</v>
+        <v>0.1370445527154568</v>
       </c>
       <c r="J242" t="n">
-        <v>0.04390876433592616</v>
+        <v>0.05894483518541607</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1369941455236534</v>
+        <v>0.1361564125382594</v>
       </c>
       <c r="L242" t="n">
-        <v>0.1088740965961896</v>
+        <v>0.09651739423920819</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1254388435095912</v>
+        <v>0.1359260232865497</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1484172732502177</v>
+        <v>0.02841570725001609</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1236295996417814</v>
+        <v>0.1370445527154568</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.04239605796271351</v>
+        <v>0.02842252077507117</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1264683973268683</v>
+        <v>0.1378188157251486</v>
       </c>
       <c r="J243" t="n">
-        <v>0.04371398140514487</v>
+        <v>0.05879146586576647</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1377681237469509</v>
+        <v>0.1369256578068371</v>
       </c>
       <c r="L243" t="n">
-        <v>0.1090770727825173</v>
+        <v>0.09715638186787401</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1261475375407188</v>
+        <v>0.136693966920937</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1464805807746502</v>
+        <v>0.02842252077507117</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1243280719561417</v>
+        <v>0.1378188157251486</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.04340307512365338</v>
+        <v>0.02822868017574884</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1271788939410642</v>
+        <v>0.1385930787348405</v>
       </c>
       <c r="J244" t="n">
-        <v>0.04361948830268671</v>
+        <v>0.05824633561379811</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1385421019702484</v>
+        <v>0.1376949030754148</v>
       </c>
       <c r="L244" t="n">
-        <v>0.1088890957425536</v>
+        <v>0.09619873122918465</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1268562315718464</v>
+        <v>0.1374619105553243</v>
       </c>
       <c r="N244" t="n">
-        <v>0.145536075997252</v>
+        <v>0.02822868017574884</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1250265442705021</v>
+        <v>0.1385930787348405</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.04141066464935367</v>
+        <v>0.02773418021829199</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1278893905552601</v>
+        <v>0.1393673417445323</v>
       </c>
       <c r="J245" t="n">
-        <v>0.04352529286342474</v>
+        <v>0.05850979040242099</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1393160801935458</v>
+        <v>0.1384641483439926</v>
       </c>
       <c r="L245" t="n">
-        <v>0.108810221387102</v>
+        <v>0.09604439119660252</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1275649256029741</v>
+        <v>0.1382298541897116</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1444838405033104</v>
+        <v>0.02773418021829199</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1257250165848624</v>
+        <v>0.1393673417445323</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.04041884897948694</v>
+        <v>0.02773901566894357</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1285998871694559</v>
+        <v>0.1401416047542242</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0436314029222321</v>
+        <v>0.05738217620454514</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1400900584168433</v>
+        <v>0.1392333936125703</v>
       </c>
       <c r="L246" t="n">
-        <v>0.1089405056269659</v>
+        <v>0.0957933106435892</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1282736196341017</v>
+        <v>0.1389977978240989</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1426239558781126</v>
+        <v>0.02773901566894357</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1264234888992228</v>
+        <v>0.1401416047542242</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.04042765055372573</v>
+        <v>0.02734318129394651</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1293103837836518</v>
+        <v>0.140915867763916</v>
       </c>
       <c r="J247" t="n">
-        <v>0.04373782631398181</v>
+        <v>0.05756383899308049</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1408640366401408</v>
+        <v>0.140002638881148</v>
       </c>
       <c r="L247" t="n">
-        <v>0.1091800043729489</v>
+        <v>0.09704543844360713</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1289823136652294</v>
+        <v>0.1397657414584862</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1415565037069458</v>
+        <v>0.02734318129394651</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1271219612135831</v>
+        <v>0.140915867763916</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0434370918117426</v>
+        <v>0.02724667185954373</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1300208803978477</v>
+        <v>0.1416901307736079</v>
       </c>
       <c r="J248" t="n">
-        <v>0.04354457087354704</v>
+        <v>0.05745512474093709</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1416380148634383</v>
+        <v>0.1407718841497258</v>
       </c>
       <c r="L248" t="n">
-        <v>0.1098287735358544</v>
+        <v>0.09570072347011799</v>
       </c>
       <c r="M248" t="n">
-        <v>0.129691007696357</v>
+        <v>0.1405336850928735</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1412815655750976</v>
+        <v>0.02724667185954373</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1278204335279435</v>
+        <v>0.1416901307736079</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.04244719519321009</v>
+        <v>0.02694948213197815</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1307313770120436</v>
+        <v>0.1424643937832998</v>
       </c>
       <c r="J249" t="n">
-        <v>0.04365164443580084</v>
+        <v>0.05765637942102489</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1424119930867357</v>
+        <v>0.1415411294183035</v>
       </c>
       <c r="L249" t="n">
-        <v>0.1099868690264859</v>
+        <v>0.09745911459658407</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1303997017274846</v>
+        <v>0.1413016287272607</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1398992230678551</v>
+        <v>0.02694948213197815</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1285189058423038</v>
+        <v>0.1424643937832998</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.03945798313780077</v>
+        <v>0.02715160687749274</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1314418736262395</v>
+        <v>0.1432386567929916</v>
       </c>
       <c r="J250" t="n">
-        <v>0.04365905483561631</v>
+        <v>0.05696794900625393</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1431859713100332</v>
+        <v>0.1423103746868813</v>
       </c>
       <c r="L250" t="n">
-        <v>0.110054346755647</v>
+        <v>0.09732056069646738</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1311083957586122</v>
+        <v>0.142069572361648</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1393095577705056</v>
+        <v>0.02715160687749274</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1292173781566641</v>
+        <v>0.1432386567929916</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.04346947808518718</v>
+        <v>0.0269530408623304</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1321523702404354</v>
+        <v>0.1440129198026834</v>
       </c>
       <c r="J251" t="n">
-        <v>0.04376680990786655</v>
+        <v>0.05749017946953422</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1439599495333307</v>
+        <v>0.143079619955459</v>
       </c>
       <c r="L251" t="n">
-        <v>0.1109312626341409</v>
+        <v>0.09588501064322974</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1318170897897399</v>
+        <v>0.1428375159960353</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1385126512683365</v>
+        <v>0.0269530408623304</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1299158504710245</v>
+        <v>0.1440129198026834</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.04348170247504188</v>
+        <v>0.02645377885273409</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1328628668546313</v>
+        <v>0.1447871828123753</v>
       </c>
       <c r="J252" t="n">
-        <v>0.04357491748742466</v>
+        <v>0.05632341678377573</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1447339277566282</v>
+        <v>0.1438488652240367</v>
       </c>
       <c r="L252" t="n">
-        <v>0.1105176725727714</v>
+        <v>0.09685241331033334</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1325257838208675</v>
+        <v>0.1436054596304226</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1365085851466348</v>
+        <v>0.02645377885273409</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1306143227853848</v>
+        <v>0.1447871828123753</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0424946787470374</v>
+        <v>0.0261538156149467</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1335733634688272</v>
+        <v>0.1455614458220671</v>
       </c>
       <c r="J253" t="n">
-        <v>0.0438833854091637</v>
+        <v>0.05696800692188844</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1455079059799257</v>
+        <v>0.1446181104926144</v>
       </c>
       <c r="L253" t="n">
-        <v>0.1114136324823419</v>
+        <v>0.09662271757124025</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1332344778519952</v>
+        <v>0.1443734032648099</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1361974409906882</v>
+        <v>0.0261538156149467</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1313127950997452</v>
+        <v>0.1455614458220671</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.04350842934084632</v>
+        <v>0.0261531459152112</v>
       </c>
       <c r="G254" t="n">
-        <v>0.134283860083023</v>
+        <v>0.1463357088317589</v>
       </c>
       <c r="J254" t="n">
-        <v>0.04359222150795682</v>
+        <v>0.0560242958567824</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1462818842032231</v>
+        <v>0.1453873557611922</v>
       </c>
       <c r="L254" t="n">
-        <v>0.1113191982736558</v>
+        <v>0.09549587229941237</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1339431718831228</v>
+        <v>0.1451413468991972</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1342793003857836</v>
+        <v>0.0261531459152112</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1320112674141055</v>
+        <v>0.1463357088317589</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.03952297669614117</v>
+        <v>0.02615176451977048</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1349943566972189</v>
+        <v>0.1471099718414508</v>
       </c>
       <c r="J255" t="n">
-        <v>0.04390143361867704</v>
+        <v>0.05639262956136756</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1470558624265206</v>
+        <v>0.1461566010297699</v>
       </c>
       <c r="L255" t="n">
-        <v>0.1113344258575167</v>
+        <v>0.09717182636831184</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1346518659142504</v>
+        <v>0.1459092905335845</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1337542449172086</v>
+        <v>0.02615176451977048</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1327097397284659</v>
+        <v>0.1471099718414508</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.04353834325259452</v>
+        <v>0.02574966619486752</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1357048533114148</v>
+        <v>0.1478842348511427</v>
       </c>
       <c r="J256" t="n">
-        <v>0.04371102957619752</v>
+        <v>0.05607335400855396</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1478298406498181</v>
+        <v>0.1469258462983477</v>
       </c>
       <c r="L256" t="n">
-        <v>0.111859371144728</v>
+        <v>0.09555052865140062</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1353605599453781</v>
+        <v>0.1466772341679718</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1318223561702505</v>
+        <v>0.02574966619486752</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1334082120428262</v>
+        <v>0.1478842348511427</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.04155455144987891</v>
+        <v>0.0255468457067452</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1364153499256107</v>
+        <v>0.1486584978608345</v>
       </c>
       <c r="J257" t="n">
-        <v>0.04382101721539131</v>
+        <v>0.05566681517125158</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1486038188731156</v>
+        <v>0.1476950915669254</v>
       </c>
       <c r="L257" t="n">
-        <v>0.1124940900460933</v>
+        <v>0.09653192802214078</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1360692539765057</v>
+        <v>0.1474451778023591</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1322837157301963</v>
+        <v>0.0255468457067452</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1341066843571866</v>
+        <v>0.1486584978608345</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.03957162372766689</v>
+        <v>0.02514329782164651</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1371258465398066</v>
+        <v>0.1494327608705264</v>
       </c>
       <c r="J258" t="n">
-        <v>0.04383140437113153</v>
+        <v>0.05627335902237041</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1493777970964131</v>
+        <v>0.1484643368355031</v>
       </c>
       <c r="L258" t="n">
-        <v>0.1125386384724161</v>
+        <v>0.09601597335399437</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1367779480076333</v>
+        <v>0.1482131214367463</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1298384051823335</v>
+        <v>0.02514329782164651</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1348051566715469</v>
+        <v>0.1494327608705264</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.04358958252563103</v>
+        <v>0.02533901730581434</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1378363431540025</v>
+        <v>0.1502070238802182</v>
       </c>
       <c r="J259" t="n">
-        <v>0.04404219887829126</v>
+        <v>0.05549333153482039</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1501517753197105</v>
+        <v>0.1492335821040809</v>
       </c>
       <c r="L259" t="n">
-        <v>0.1127930723344996</v>
+        <v>0.09720261352042331</v>
       </c>
       <c r="M259" t="n">
-        <v>0.137486642038761</v>
+        <v>0.1489810650711336</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1287865061119494</v>
+        <v>0.02533901730581434</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1355036289859072</v>
+        <v>0.1502070238802182</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.04160845028344384</v>
+        <v>0.02513399892549162</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1385468397681984</v>
+        <v>0.1509812868899101</v>
       </c>
       <c r="J260" t="n">
-        <v>0.04385340857174359</v>
+        <v>0.05642707868151162</v>
       </c>
       <c r="K260" t="n">
-        <v>0.150925753543008</v>
+        <v>0.1500028273726586</v>
       </c>
       <c r="L260" t="n">
-        <v>0.1131574475431477</v>
+        <v>0.0971917973948897</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1381953360698886</v>
+        <v>0.1497490087055209</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1275281001043312</v>
+        <v>0.02513399892549162</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1362021013002676</v>
+        <v>0.1509812868899101</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.03962824944077793</v>
+        <v>0.02472823744692129</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1392573363823943</v>
+        <v>0.1517555498996019</v>
       </c>
       <c r="J261" t="n">
-        <v>0.04396504128636163</v>
+        <v>0.05607494643535407</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1516997317663055</v>
+        <v>0.1507720726412364</v>
       </c>
       <c r="L261" t="n">
-        <v>0.1140318200091636</v>
+        <v>0.09668347385085563</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1389040301010162</v>
+        <v>0.1505169523399082</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1269632687447664</v>
+        <v>0.02472823744692129</v>
       </c>
       <c r="O261" t="n">
-        <v>0.136900573614628</v>
+        <v>0.1517555498996019</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.04064900243730581</v>
+        <v>0.0243217276363463</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1399678329965902</v>
+        <v>0.1525298129092937</v>
       </c>
       <c r="J262" t="n">
-        <v>0.04387710485701844</v>
+        <v>0.05573728076925777</v>
       </c>
       <c r="K262" t="n">
-        <v>0.152473709989603</v>
+        <v>0.1515413179098141</v>
       </c>
       <c r="L262" t="n">
-        <v>0.1147162456433509</v>
+        <v>0.09657759176178304</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1396127241321439</v>
+        <v>0.1512848959742955</v>
       </c>
       <c r="N262" t="n">
-        <v>0.125792093618542</v>
+        <v>0.0243217276363463</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1375990459289883</v>
+        <v>0.1525298129092937</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.04367073171270004</v>
+        <v>0.02451446426000954</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1406783296107861</v>
+        <v>0.1533040759189856</v>
       </c>
       <c r="J263" t="n">
-        <v>0.04398960711858715</v>
+        <v>0.05531442765613259</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1532476882129004</v>
+        <v>0.1523105631783918</v>
       </c>
       <c r="L263" t="n">
-        <v>0.1151107803565131</v>
+        <v>0.09537410000113394</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1403214181632715</v>
+        <v>0.1520528396086828</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1253146563109455</v>
+        <v>0.02451446426000954</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1382975182433486</v>
+        <v>0.1533040759189856</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.04269345970663319</v>
+        <v>0.02400644208415399</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1413888262249819</v>
+        <v>0.1540783389286774</v>
       </c>
       <c r="J264" t="n">
-        <v>0.04380255590594086</v>
+        <v>0.05540673306888863</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1540216664361979</v>
+        <v>0.1530798084469696</v>
       </c>
       <c r="L264" t="n">
-        <v>0.1150154800594537</v>
+        <v>0.09577294744237053</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1410301121943991</v>
+        <v>0.1528207832430701</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1237310384072641</v>
+        <v>0.02400644208415399</v>
       </c>
       <c r="O264" t="n">
-        <v>0.138995990557709</v>
+        <v>0.1540783389286774</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1066.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1066.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.7411809548974793</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.03705904774487397</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.03705904774487397</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.05929447639179835</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.07723542864692438</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02397603617463352</v>
+        <v>0.02723542864692438</v>
       </c>
       <c r="B65" t="n">
-        <v>0.008318768801216162</v>
+        <v>0.005592231263097079</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.00396727150230896</v>
+        <v>0.0001179314200558113</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007742630096918464</v>
+        <v>0.0004602245582131018</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.010471963908051</v>
+        <v>0.002999999999999996</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007692452685777365</v>
+        <v>0.0007311585365853649</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01866698596869987</v>
+        <v>0.01299999999999998</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007679436343872867</v>
+        <v>0.0009963376284706229</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.00396727150230896</v>
+        <v>0.01860581382100468</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007742630096918464</v>
+        <v>0.0007674708377240361</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.008190614196778356</v>
+        <v>0.000487478615513473</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001548526019383693</v>
+        <v>0.0009204491164262037</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.02147740807451218</v>
+        <v>0.005450185985215628</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001538490537155473</v>
+        <v>0.001548526019383693</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.03527861610646066</v>
+        <v>0.01885287421723003</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001535887268774573</v>
+        <v>0.001537468540142812</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.008190614196778356</v>
+        <v>0.03463397141365393</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001548526019383693</v>
+        <v>0.001534941675448072</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.01189623320418255</v>
+        <v>0.001132270989308314</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002322789029075539</v>
+        <v>0.001380673674639306</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.03001016617607255</v>
+        <v>0.008418649336608491</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.00230773580573321</v>
+        <v>0.002322789029075539</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.04399999999999998</v>
+        <v>0.02658737736007533</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002023331799355729</v>
+        <v>0.002306202810214217</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01189623320418255</v>
+        <v>0.04599999999999999</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002322789029075539</v>
+        <v>0.002057082121279928</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.01491033364529588</v>
+        <v>0.002075937944375661</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003097052038767385</v>
+        <v>0.001840898232852407</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.03599999999999998</v>
+        <v>0.01111811998964729</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.002839450627515981</v>
+        <v>0.003097052038767385</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.05869682463602743</v>
+        <v>0.03408701182643684</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003071774537549147</v>
+        <v>0.003074937080285623</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.01491033364529588</v>
+        <v>0.06032893791279725</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003097052038767385</v>
+        <v>0.003069883350896144</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.00487439024390244</v>
+        <v>0.005592231263097079</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02</v>
+        <v>0.02723542864692438</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.01745912064089274</v>
+        <v>0.003342108883650857</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003871315048459232</v>
+        <v>0.002301122791065509</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.04394394077426589</v>
+        <v>0.0132108705421228</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003846226342888683</v>
+        <v>0.003871315048459232</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.07127918248368686</v>
+        <v>0.04178459345839533</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003839718171936434</v>
+        <v>0.003843671350357029</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.01745912064089274</v>
+        <v>0.07185824979815797</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003871315048459232</v>
+        <v>0.003837354188620181</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.02</v>
+        <v>0.004954413210069238</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.00487439024390244</v>
+        <v>0.002761347349278612</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.04916300463716095</v>
+        <v>0.01555917359182586</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004615471611466419</v>
+        <v>0.004645578058151079</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.07943988172651018</v>
+        <v>0.04841293809803171</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.00460766180632372</v>
+        <v>0.004612405620428434</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.02</v>
+        <v>0.08202335652849341</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.00487439024390244</v>
+        <v>0.004604825026344217</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.02067492940621345</v>
+        <v>0.00693648032656613</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005419841067842925</v>
+        <v>0.003221571907491713</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.05286669791773801</v>
+        <v>0.0177253017365472</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005384716880044156</v>
+        <v>0.005419841067842925</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.08698622934710826</v>
+        <v>0.05290486158742677</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005375605440711007</v>
+        <v>0.005381139890499841</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.02067492940621345</v>
+        <v>0.0886809658254003</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005419841067842925</v>
+        <v>0.005372295864068253</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.02149247483985313</v>
+        <v>0.009311939636076863</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006194104077534771</v>
+        <v>0.003681796465704815</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.05730531343856893</v>
+        <v>0.02007152757407765</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006153962148621892</v>
+        <v>0.006194104077534771</v>
       </c>
       <c r="L73" s="172" t="n">
+        <v>0.05889585479548851</v>
+      </c>
+      <c r="M73" s="170" t="n">
+        <v>0.006425978653956135</v>
+      </c>
+      <c r="N73" s="171" t="n">
         <v>0.09381567341634345</v>
       </c>
-      <c r="M73" s="170" t="n">
-        <v>0.006141595365649973</v>
-      </c>
-      <c r="N73" s="171" t="n">
-        <v>0.02149247483985313</v>
-      </c>
       <c r="O73" s="172" t="n">
-        <v>0.006194104077534771</v>
+        <v>0.005972560630815571</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.02242291498670722</v>
+        <v>0.01210442054153677</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006968367087226618</v>
+        <v>0.004142021023917916</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.05889585479548851</v>
+        <v>0.02166012370220799</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006613143080770391</v>
+        <v>0.006968367087226618</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.09736390419033764</v>
+        <v>0.06037421024337214</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.00691149270948558</v>
+        <v>0.006918608430642651</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.02242291498670722</v>
+        <v>0.0977843321603023</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006968367087226618</v>
+        <v>0.006907237539516325</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.02335079037854026</v>
+        <v>0.0153375524458812</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007742630096918463</v>
+        <v>0.004602245582131018</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.06170401152350513</v>
+        <v>0.02315336271872905</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007692452685777365</v>
+        <v>0.007742630096918463</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.1000215748328938</v>
+        <v>0.06269331315923146</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007679436343872867</v>
+        <v>0.007687342700714058</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.02335079037854026</v>
+        <v>0.100427114143092</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007742630096918463</v>
+        <v>0.007674708377240361</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.02397603617463352</v>
+        <v>0.01903496475204547</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008318768801216162</v>
+        <v>0.00506247014034412</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.06394297910918603</v>
+        <v>0.02397603617463352</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008461697954355101</v>
+        <v>0.008318768801216162</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.1043985865550274</v>
+        <v>0.06465901097173701</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008447379978260153</v>
+        <v>0.008456076970785464</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.02397603617463352</v>
+        <v>0.1047882138890759</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008318768801216162</v>
+        <v>0.008442179214964396</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02467884654494697</v>
+        <v>0.02723542864692438</v>
       </c>
       <c r="G77" t="n">
+        <v>0.005592231263097079</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.02508743976538684</v>
+      </c>
+      <c r="K77" t="n">
         <v>0.009291156116302157</v>
       </c>
-      <c r="J77" t="n">
-        <v>0.06574193262202385</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.009230943222932839</v>
-      </c>
       <c r="L77" t="n">
-        <v>0.1083949725359084</v>
+        <v>0.06657138662903292</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009215323612647441</v>
+        <v>0.009224811240856869</v>
       </c>
       <c r="N77" t="n">
-        <v>0.02467884654494697</v>
+        <v>0.1080677252815481</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009291156116302157</v>
+        <v>0.009209650052688433</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.02560421652580157</v>
+        <v>0.0278870968443948</v>
       </c>
       <c r="G78" t="n">
+        <v>0.005982919256770324</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.02593365705205503</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.010065419125994</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.06860048367332305</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.01000018849151058</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.1112107659547068</v>
+        <v>0.06923052307926369</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009983267247034727</v>
+        <v>0.009993545510928275</v>
       </c>
       <c r="N78" t="n">
-        <v>0.02560421652580157</v>
+        <v>0.1113657422038029</v>
       </c>
       <c r="O78" t="n">
-        <v>0.010065419125994</v>
+        <v>0.009977120890412468</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02623426832733258</v>
+        <v>0.02860068975351152</v>
       </c>
       <c r="G79" t="n">
+        <v>0.006443143814983426</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.02706333107021935</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01083968213568585</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.070118243874388</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01076943376008831</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.1142459999905926</v>
+        <v>0.07193650327057363</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01075121088142201</v>
+        <v>0.01076227978099968</v>
       </c>
       <c r="N79" t="n">
-        <v>0.02623426832733258</v>
+        <v>0.1146823585391345</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01083968213568585</v>
+        <v>0.01074459172813651</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02696799982384213</v>
+        <v>0.02925831210884525</v>
       </c>
       <c r="G80" t="n">
+        <v>0.006903368373196528</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.02787621876157695</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01161394514537769</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.07279482483652308</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01153867902866605</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.1187007078227357</v>
+        <v>0.07418941015110694</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0115191545158093</v>
+        <v>0.01153101405107109</v>
       </c>
       <c r="N80" t="n">
-        <v>0.02696799982384213</v>
+        <v>0.119017668170837</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01161394514537769</v>
+        <v>0.01151206256586054</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02740440888963236</v>
+        <v>0.02986260683225719</v>
       </c>
       <c r="G81" t="n">
+        <v>0.00736359293140963</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.02877207706782492</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.01238820815506954</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.07382983817103272</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01230792429724378</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.1215749226303061</v>
+        <v>0.07568932666900804</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01228709815019659</v>
+        <v>0.01229974832114249</v>
       </c>
       <c r="N81" t="n">
-        <v>0.02740440888963236</v>
+        <v>0.1227717649822048</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01238820815506954</v>
+        <v>0.01227953340358458</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02854249339900537</v>
+        <v>0.03041621684560858</v>
       </c>
       <c r="G82" t="n">
+        <v>0.007823817489622732</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.02945066293066043</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01316247116476139</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.07582289548922128</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01307716956582152</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.1236686775924736</v>
+        <v>0.07803633577242125</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01305504178458387</v>
+        <v>0.0130684825912139</v>
       </c>
       <c r="N82" t="n">
-        <v>0.02854249339900537</v>
+        <v>0.1252447428565321</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01316247116476139</v>
+        <v>0.01304700424130861</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02898125122626333</v>
+        <v>0.0309217850707606</v>
       </c>
       <c r="G83" t="n">
+        <v>0.008284042047835833</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.03021173329178053</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01393673417445324</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.07817360840239312</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01384641483439926</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.1279820058884084</v>
+        <v>0.07973052040949088</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01382298541897116</v>
+        <v>0.0138372168612853</v>
       </c>
       <c r="N83" t="n">
-        <v>0.02898125122626333</v>
+        <v>0.128936695677113</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01393673417445324</v>
+        <v>0.01381447507903265</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02991968024570832</v>
+        <v>0.03138195442957448</v>
       </c>
       <c r="G84" t="n">
+        <v>0.008744266606048936</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.03105504509288237</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01471099718414508</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.08008158852185274</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01461566010297699</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.1315149406972802</v>
+        <v>0.08117196352836126</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01459092905335845</v>
+        <v>0.01460595113135671</v>
       </c>
       <c r="N84" t="n">
-        <v>0.02991968024570832</v>
+        <v>0.1319477173272419</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01471099718414508</v>
+        <v>0.01458194591675669</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.03035677833164251</v>
+        <v>0.03179936784391139</v>
       </c>
       <c r="G85" t="n">
+        <v>0.009204491164262037</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.03198035527566309</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01548526019383693</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.08224644745890441</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01538490537155473</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.1334675151982591</v>
+        <v>0.08326074807717668</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01535887268774573</v>
+        <v>0.01537468540142812</v>
       </c>
       <c r="N85" t="n">
-        <v>0.03035677833164251</v>
+        <v>0.1340779016902129</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01548526019383693</v>
+        <v>0.01534941675448072</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.031091543358368</v>
+        <v>0.03217666823563257</v>
       </c>
       <c r="G86" t="n">
+        <v>0.00966471572247514</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.03268742078181978</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01625952320352878</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.08446779682485261</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01615415064013247</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.1370397625705149</v>
+        <v>0.08509695700408151</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01612681632213302</v>
+        <v>0.01614341967149952</v>
       </c>
       <c r="N86" t="n">
-        <v>0.031091543358368</v>
+        <v>0.1379273426493203</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01625952320352878</v>
+        <v>0.01611688759220476</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.03212297320018695</v>
+        <v>0.0325164985265992</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01012494028068824</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.03367599855304958</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01703378621322062</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.08514524823100175</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.0169233959087102</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.1399317159932178</v>
+        <v>0.08728067325722008</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01689475995652031</v>
+        <v>0.01691215394157093</v>
       </c>
       <c r="N87" t="n">
-        <v>0.03212297320018695</v>
+        <v>0.1398961340878582</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01703378621322062</v>
+        <v>0.01688435842992879</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03295006573140147</v>
+        <v>0.03282150163867251</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01058516483890134</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.03434584553104958</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01780804922291247</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.08787841328865612</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01769264117728794</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.1424434086455376</v>
+        <v>0.0886119797847367</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01766270359090759</v>
+        <v>0.01768088821164233</v>
       </c>
       <c r="N88" t="n">
-        <v>0.03295006573140147</v>
+        <v>0.1416843698891209</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01780804922291247</v>
+        <v>0.01765182926765283</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03367181882631369</v>
+        <v>0.03309432049371366</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01104538939711445</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.03519671865751692</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01858231223260431</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.08906690360912023</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01846188644586568</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.1455748737066443</v>
+        <v>0.09089095953477569</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01843064722529488</v>
+        <v>0.01844962248171374</v>
       </c>
       <c r="N89" t="n">
-        <v>0.03367181882631369</v>
+        <v>0.1448921439364027</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01858231223260431</v>
+        <v>0.01841930010537687</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03408723035922576</v>
+        <v>0.03333759801358389</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01150561395532755</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.03582837487414872</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.01935657524229616</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.09031033080369832</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.01923113171444342</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.1475261443557078</v>
+        <v>0.09221769545548134</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01919859085968217</v>
+        <v>0.01921835675178514</v>
       </c>
       <c r="N90" t="n">
-        <v>0.03408723035922576</v>
+        <v>0.1481195501129977</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01935657524229616</v>
+        <v>0.0191867709431009</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03509529820443975</v>
+        <v>0.03355397712014442</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01196583851354065</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.0364405711226421</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.020130838251988</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.09230830648369495</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.02000037698302115</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.1489972537718981</v>
+        <v>0.09399227049499803</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01996653449406945</v>
+        <v>0.01998709102185655</v>
       </c>
       <c r="N91" t="n">
-        <v>0.03509529820443975</v>
+        <v>0.1499666823022002</v>
       </c>
       <c r="O91" t="n">
-        <v>0.020130838251988</v>
+        <v>0.01995424178082494</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03569502023625787</v>
+        <v>0.03374610073525643</v>
       </c>
       <c r="G92" t="n">
+        <v>0.01242606307175375</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.03723306434469416</v>
+      </c>
+      <c r="K92" t="n">
         <v>0.02090510126167985</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.09356044226041443</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02076962225159889</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.152388235134385</v>
+        <v>0.09531476760147009</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02073447812845674</v>
+        <v>0.02075582529192796</v>
       </c>
       <c r="N92" t="n">
-        <v>0.03569502023625787</v>
+        <v>0.1527336343873044</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02090510126167985</v>
+        <v>0.02072171261854897</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03648539432898222</v>
+        <v>0.03391661178078113</v>
       </c>
       <c r="G93" t="n">
+        <v>0.01288628762996685</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.03780561148200202</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.0216793642713717</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.09566634974516114</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02153886752017662</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1544991216223386</v>
+        <v>0.09678526972304186</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02150242176284403</v>
+        <v>0.02152455956199936</v>
       </c>
       <c r="N93" t="n">
-        <v>0.03648539432898222</v>
+        <v>0.1557205002516045</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0216793642713717</v>
+        <v>0.02148918345627301</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03716541835691491</v>
+        <v>0.03406815317857971</v>
       </c>
       <c r="G94" t="n">
+        <v>0.01334651218817995</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.03875796947626281</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02245362728106355</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.09642564054923952</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02230811278875436</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.156829946414929</v>
+        <v>0.09880385980785752</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02227036539723131</v>
+        <v>0.02229329383207077</v>
       </c>
       <c r="N94" t="n">
-        <v>0.03716541835691491</v>
+        <v>0.1575273737783947</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02245362728106355</v>
+        <v>0.02225665429399705</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03753409019435808</v>
+        <v>0.03420336785051341</v>
       </c>
       <c r="G95" t="n">
+        <v>0.01380673674639306</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.03938989526917366</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02322789029075539</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.09813792628395396</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.0230773580573321</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.1587807426913259</v>
+        <v>0.09917062080406158</v>
       </c>
       <c r="M95" t="n">
-        <v>0.0230383090316186</v>
+        <v>0.02306202810214217</v>
       </c>
       <c r="N95" t="n">
-        <v>0.03753409019435808</v>
+        <v>0.1596543488509693</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02322789029075539</v>
+        <v>0.02302412513172108</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03829040771561386</v>
+        <v>0.03432489871844339</v>
       </c>
       <c r="G96" t="n">
+        <v>0.01426696130460616</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.03970114580243167</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02400215330044724</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.1002028185606088</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02384660332590983</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1599515436306992</v>
+        <v>0.1011856356597982</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02380625266600589</v>
+        <v>0.02383076237221358</v>
       </c>
       <c r="N96" t="n">
-        <v>0.03829040771561386</v>
+        <v>0.1621015193526225</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02400215330044724</v>
+        <v>0.02379159596944512</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03883336879498439</v>
+        <v>0.03443538870423089</v>
       </c>
       <c r="G97" t="n">
+        <v>0.01472718586281926</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.04059147801773397</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02477641631013908</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.1011199289905084</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02461584859448757</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1622423824122192</v>
+        <v>0.1017489873232119</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02457419630039318</v>
+        <v>0.02459949664228498</v>
       </c>
       <c r="N97" t="n">
-        <v>0.03883336879498439</v>
+        <v>0.1634689791666485</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02477641631013908</v>
+        <v>0.02455906680716916</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03936197130677178</v>
+        <v>0.03453748072973711</v>
       </c>
       <c r="G98" t="n">
+        <v>0.01518741042103236</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.04106064885677765</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02555067931983093</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.1024888691849574</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.0253850938630653</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1648532922150555</v>
+        <v>0.1033607587424469</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02534213993478046</v>
+        <v>0.02536823091235639</v>
       </c>
       <c r="N98" t="n">
-        <v>0.03936197130677178</v>
+        <v>0.1650568221763416</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02555067931983093</v>
+        <v>0.02532653764489319</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03997521312527816</v>
+        <v>0.03463381771682326</v>
       </c>
       <c r="G99" t="n">
+        <v>0.01564763497924546</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.04160841526125987</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.02632494232952278</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.1040092507552599</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02615433913164304</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1665843062183782</v>
+        <v>0.1042210328656475</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02611008356916775</v>
+        <v>0.0261369651824278</v>
       </c>
       <c r="N99" t="n">
-        <v>0.03997521312527816</v>
+        <v>0.1659651422649959</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02632494232952278</v>
+        <v>0.02609400848261723</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.04077209212480568</v>
+        <v>0.03472704258735054</v>
       </c>
       <c r="G100" t="n">
+        <v>0.01610785953745857</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.04193453417287774</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02709920533921462</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.1045806853127204</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02692358440022078</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1684354576013573</v>
+        <v>0.105629892640958</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02687802720355503</v>
+        <v>0.0269056994524992</v>
       </c>
       <c r="N100" t="n">
-        <v>0.04077209212480568</v>
+        <v>0.1679940333159057</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02709920533921462</v>
+        <v>0.02686147932034126</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.04135160617965646</v>
+        <v>0.03481979826318016</v>
       </c>
       <c r="G101" t="n">
+        <v>0.01656808409567167</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.04273876253332835</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02787346834890647</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.1060027844686433</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02769282966879852</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1700067795431627</v>
+        <v>0.1062874210165228</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02764597083794232</v>
+        <v>0.02767443372257061</v>
       </c>
       <c r="N101" t="n">
-        <v>0.04135160617965646</v>
+        <v>0.1711435892123652</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02787346834890647</v>
+        <v>0.0276289501580653</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.04181275316413265</v>
+        <v>0.03491472766617329</v>
       </c>
       <c r="G102" t="n">
+        <v>0.01702830865388477</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.04292085728430885</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.02864773135859832</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.107375159834333</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.02846207493737625</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1721983052229643</v>
+        <v>0.1080937009404863</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02841391447232961</v>
+        <v>0.02844316799264202</v>
       </c>
       <c r="N102" t="n">
-        <v>0.04181275316413265</v>
+        <v>0.1725139038376687</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02864773135859832</v>
+        <v>0.02839642099578934</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.04255453095253632</v>
+        <v>0.03501447371819116</v>
       </c>
       <c r="G103" t="n">
+        <v>0.01748853321209787</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.04378057536751634</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.02942199436829016</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.107797423021094</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.02923132020595399</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1725100678199321</v>
+        <v>0.1090488153609926</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02918185810671689</v>
+        <v>0.02921190226271342</v>
       </c>
       <c r="N103" t="n">
-        <v>0.04255453095253632</v>
+        <v>0.1739050710751102</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02942199436829016</v>
+        <v>0.02916389183351337</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.04287593741916966</v>
+        <v>0.035121679341095</v>
       </c>
       <c r="G104" t="n">
+        <v>0.01794875777031097</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.04411767372464794</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03019625737798201</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.1082691856402304</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.03000056547453172</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1750421005132361</v>
+        <v>0.1101528472261862</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02994980174110418</v>
+        <v>0.02998063653278482</v>
       </c>
       <c r="N104" t="n">
-        <v>0.04287593741916966</v>
+        <v>0.1740171848079842</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03019625737798201</v>
+        <v>0.02993136267123741</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04367597043833477</v>
+        <v>0.03523898745674599</v>
       </c>
       <c r="G105" t="n">
+        <v>0.01840898232852407</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.04463190929740078</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03097052038767385</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.1101900593030469</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03076981074310946</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1751944364820461</v>
+        <v>0.1105058794842114</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03071774537549147</v>
+        <v>0.03074937080285623</v>
       </c>
       <c r="N105" t="n">
-        <v>0.04367597043833477</v>
+        <v>0.1769503389195847</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03097052038767385</v>
+        <v>0.03069883350896144</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04385362788433379</v>
+        <v>0.03536904098700532</v>
       </c>
       <c r="G106" t="n">
+        <v>0.01886920688673718</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.04472303902747199</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.0317447833973657</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.1105596556208477</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.0315390560116872</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1779671089055323</v>
+        <v>0.1117079950832124</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03148568900987875</v>
+        <v>0.03151810507292764</v>
       </c>
       <c r="N106" t="n">
-        <v>0.04385362788433379</v>
+        <v>0.1773046272932061</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0317447833973657</v>
+        <v>0.03146630434668548</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04440790763146886</v>
+        <v>0.03551357092771459</v>
       </c>
       <c r="G107" t="n">
+        <v>0.01932943144495028</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.04499081985655864</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03251904640705755</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.1114775862049373</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03230830128026493</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1784601509628643</v>
+        <v>0.1120592769713337</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03225363264426604</v>
+        <v>0.03228683934299904</v>
       </c>
       <c r="N107" t="n">
-        <v>0.04440790763146886</v>
+        <v>0.1776801438121426</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03251904640705755</v>
+        <v>0.03223377518440951</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04493780755404207</v>
+        <v>0.03566152966845265</v>
       </c>
       <c r="G108" t="n">
+        <v>0.01978965600316338</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.0453350087263579</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03329330941674939</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.11214346266662</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03307754654884267</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1795735958332125</v>
+        <v>0.1131598080967195</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03302157627865333</v>
+        <v>0.03305557361307045</v>
       </c>
       <c r="N108" t="n">
-        <v>0.04493780755404207</v>
+        <v>0.1790769823596882</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03329330941674939</v>
+        <v>0.03300124602213355</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0454423255263556</v>
+        <v>0.03580887394655867</v>
       </c>
       <c r="G109" t="n">
+        <v>0.02024988056137648</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.04575536257856687</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03406757242644124</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.1129568966172002</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.0338467918174204</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1801074766957464</v>
+        <v>0.1132096714075143</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03378951991304061</v>
+        <v>0.03382430788314186</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0454423255263556</v>
+        <v>0.1807952368191376</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03406757242644124</v>
+        <v>0.03376871685985759</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04582045942271157</v>
+        <v>0.03595553153394583</v>
       </c>
       <c r="G110" t="n">
+        <v>0.02071010511958958</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.04625163835488263</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03484183543613308</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.1137174996679824</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03461603708599814</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1813618267296363</v>
+        <v>0.1136089498518622</v>
       </c>
       <c r="M110" t="n">
-        <v>0.0345574635474279</v>
+        <v>0.03459304215321326</v>
       </c>
       <c r="N110" t="n">
-        <v>0.04582045942271157</v>
+        <v>0.1814350010737845</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03484183543613308</v>
+        <v>0.03453618769758162</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04587120711741206</v>
+        <v>0.0361014302025274</v>
       </c>
       <c r="G111" t="n">
+        <v>0.02117032967780268</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.0464235929970024</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03561609844582494</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.113624883430271</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03538528235457588</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.181436679114052</v>
+        <v>0.1148577263779076</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03532540718181518</v>
+        <v>0.03536177642328466</v>
       </c>
       <c r="N111" t="n">
-        <v>0.04587120711741206</v>
+        <v>0.1825963690069233</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03561609844582494</v>
+        <v>0.03530365853530566</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04629356648475923</v>
+        <v>0.03624649772421665</v>
       </c>
       <c r="G112" t="n">
+        <v>0.02163055423601579</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.04657098344662318</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03639036145551678</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.1152786595153703</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03615452762315361</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1826320670281634</v>
+        <v>0.1147560839337949</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03609335081620248</v>
+        <v>0.03613051069335606</v>
       </c>
       <c r="N112" t="n">
-        <v>0.04629356648475923</v>
+        <v>0.1831794345018483</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03639036145551678</v>
+        <v>0.03607112937302969</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04638653539905527</v>
+        <v>0.03639066187092675</v>
       </c>
       <c r="G113" t="n">
+        <v>0.02209077879422889</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.04699356664544217</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03716462446520863</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.1151784395345847</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03692377289173136</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1846480236511406</v>
+        <v>0.1159041054676684</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03686129445058976</v>
+        <v>0.03689924496342747</v>
       </c>
       <c r="N113" t="n">
-        <v>0.04638653539905527</v>
+        <v>0.1845842914418538</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03716462446520863</v>
+        <v>0.03683860021075373</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04674911173460221</v>
+        <v>0.03653385041457101</v>
       </c>
       <c r="G114" t="n">
+        <v>0.02255100335244199</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.04709109953515644</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.03793888747490047</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.1157238350992185</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03769301816030909</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1850845821621534</v>
+        <v>0.1161018739276724</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03762923808497705</v>
+        <v>0.03766797923349888</v>
       </c>
       <c r="N114" t="n">
-        <v>0.04674911173460221</v>
+        <v>0.1836110337102338</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03793888747490047</v>
+        <v>0.03760607104847777</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04708029336570223</v>
+        <v>0.0366759911270626</v>
       </c>
       <c r="G115" t="n">
+        <v>0.0230112279106551</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.04726333905746315</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.03871315048459232</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.1161144578205763</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.03846226342888683</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1859417757403718</v>
+        <v>0.1165494722619512</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03839718171936433</v>
+        <v>0.03843671350357029</v>
       </c>
       <c r="N115" t="n">
-        <v>0.04708029336570223</v>
+        <v>0.1846597551902827</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03871315048459232</v>
+        <v>0.0383735418862018</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04737907816665744</v>
+        <v>0.03681701178031482</v>
       </c>
       <c r="G116" t="n">
+        <v>0.0234714524688682</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.04731004215405939</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.03948741349428417</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.1165499193099624</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.03923150869746456</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1855196375649659</v>
+        <v>0.1165469834186491</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03916512535375162</v>
+        <v>0.03920544777364169</v>
       </c>
       <c r="N116" t="n">
-        <v>0.04737907816665744</v>
+        <v>0.1857305497652946</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03948741349428417</v>
+        <v>0.03914101272392584</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04744446401176999</v>
+        <v>0.03695684014624087</v>
       </c>
       <c r="G117" t="n">
+        <v>0.0239316770270813</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0.0476309657666423</v>
+      </c>
+      <c r="K117" t="n">
         <v>0.04026167650397601</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.1172298311786812</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.0400007539660423</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1862182008151054</v>
+        <v>0.1172944903459106</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03993306898813891</v>
+        <v>0.0399741820437131</v>
       </c>
       <c r="N117" t="n">
-        <v>0.04744446401176999</v>
+        <v>0.1860235113185638</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04026167650397601</v>
+        <v>0.03990848356164987</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04737544877534203</v>
+        <v>0.03709540399675403</v>
       </c>
       <c r="G118" t="n">
+        <v>0.0243919015852944</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.04772586683690896</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04103593951366786</v>
       </c>
-      <c r="J118" t="n">
-        <v>0.1170538050380371</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.04076999923462004</v>
-      </c>
       <c r="L118" t="n">
-        <v>0.1864374986699605</v>
+        <v>0.1165920759918798</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04070101262252619</v>
+        <v>0.04074291631378451</v>
       </c>
       <c r="N118" t="n">
-        <v>0.04737544877534203</v>
+        <v>0.1864387337333845</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04103593951366786</v>
+        <v>0.04067595439937391</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04767103033167563</v>
+        <v>0.03723263110376751</v>
       </c>
       <c r="G119" t="n">
+        <v>0.0248521261435075</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.04749450230655655</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04181020252335971</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.1176214524993344</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04153924450319777</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1873775643087009</v>
+        <v>0.1173398233047012</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04146895625691348</v>
+        <v>0.04151165058385591</v>
       </c>
       <c r="N119" t="n">
-        <v>0.04767103033167563</v>
+        <v>0.186276310893051</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04181020252335971</v>
+        <v>0.04144342523709794</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
+        <v>0.03736844923919454</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0.0253123507017206</v>
+      </c>
+      <c r="J120" t="n">
         <v>0.04795207234926704</v>
       </c>
-      <c r="G120" t="n">
+      <c r="K120" t="n">
         <v>0.04258446553305155</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.1168323851738776</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04230848977177551</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1860384309104968</v>
+        <v>0.117637815232519</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04223689989130077</v>
+        <v>0.04228038485392731</v>
       </c>
       <c r="N120" t="n">
-        <v>0.04795207234926704</v>
+        <v>0.1869363366808575</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04258446553305155</v>
+        <v>0.04221089607482199</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04785197531983616</v>
+        <v>0.03750278617494836</v>
       </c>
       <c r="G121" t="n">
+        <v>0.02577257525993371</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.04765200421078285</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.0433587285427434</v>
       </c>
-      <c r="J121" t="n">
+      <c r="L121" t="n">
         <v>0.117791709590977</v>
       </c>
-      <c r="K121" t="n">
-        <v>0.04307773504035325</v>
-      </c>
-      <c r="L121" t="n">
+      <c r="M121" t="n">
+        <v>0.04304911912399872</v>
+      </c>
+      <c r="N121" t="n">
         <v>0.187631346832687</v>
       </c>
-      <c r="M121" t="n">
-        <v>0.04300484352568806</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.04785197531983616</v>
-      </c>
       <c r="O121" t="n">
-        <v>0.0433587285427434</v>
+        <v>0.04297836691254602</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04774572507528017</v>
+        <v>0.03763556968294225</v>
       </c>
       <c r="G122" t="n">
+        <v>0.02623279981814681</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.04754679567057915</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04413299155243524</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.1173886401480926</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04384698030893099</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1866298116764788</v>
+        <v>0.1177885426420821</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04377278716007534</v>
+        <v>0.04381785339407013</v>
       </c>
       <c r="N122" t="n">
-        <v>0.04774572507528017</v>
+        <v>0.186324639431286</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04413299155243524</v>
+        <v>0.04374583775027006</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04772509903982511</v>
+        <v>0.0377667275350894</v>
       </c>
       <c r="G123" t="n">
+        <v>0.02669302437635991</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.04752961181553492</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.0449072545621271</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.117368246277564</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04461622557750872</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1860162686578385</v>
+        <v>0.1171653393732248</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04454073079446263</v>
+        <v>0.04458658766414153</v>
       </c>
       <c r="N123" t="n">
-        <v>0.04772509903982511</v>
+        <v>0.187358879929705</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0449072545621271</v>
+        <v>0.04451330858799409</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04769079249656842</v>
+        <v>0.03789618750330308</v>
       </c>
       <c r="G124" t="n">
+        <v>0.02715324893457301</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.04790095881570759</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.04568151757181894</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.116629114928011</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04538547084608646</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.1872888491404873</v>
+        <v>0.117720277717859</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04530867442884991</v>
+        <v>0.04535532193421293</v>
       </c>
       <c r="N124" t="n">
-        <v>0.04769079249656842</v>
+        <v>0.1869254744891956</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04568151757181894</v>
+        <v>0.04528077942571813</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04774344134878396</v>
+        <v>0.03802387735949654</v>
       </c>
       <c r="G125" t="n">
+        <v>0.02761347349278611</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.04776130595198816</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04645578058151078</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.116871693317516</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04615471611466419</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1857476813430903</v>
+        <v>0.1169541429661463</v>
       </c>
       <c r="M125" t="n">
-        <v>0.0460766180632372</v>
+        <v>0.04612405620428434</v>
       </c>
       <c r="N125" t="n">
-        <v>0.04774344134878396</v>
+        <v>0.1856275219142067</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04645578058151078</v>
+        <v>0.04604825026344216</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04768368149974547</v>
+        <v>0.03814972487558296</v>
       </c>
       <c r="G126" t="n">
+        <v>0.02807369805099921</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.04781112250526755</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.04723004359120263</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.1175964286641614</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04692396138324193</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1857928934843125</v>
+        <v>0.1166677204082484</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04684456169762449</v>
+        <v>0.04689279047435575</v>
       </c>
       <c r="N126" t="n">
-        <v>0.04768368149974547</v>
+        <v>0.1862681210091873</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04723004359120263</v>
+        <v>0.0468157211011662</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04751214885272678</v>
+        <v>0.03827365782347565</v>
       </c>
       <c r="G127" t="n">
+        <v>0.02853392260921232</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.04765087775643674</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.04800430660089448</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.1169037681860298</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.04769320665181966</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1874246137828187</v>
+        <v>0.1172617953343267</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04761250533201177</v>
+        <v>0.04766152474442716</v>
       </c>
       <c r="N127" t="n">
-        <v>0.04751214885272678</v>
+        <v>0.1863503705785859</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04800430660089448</v>
+        <v>0.04758319193889023</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04762947931100171</v>
+        <v>0.03839560397508782</v>
       </c>
       <c r="G128" t="n">
+        <v>0.02899414716742542</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.04768104098638665</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.04877856961058633</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.1171941591012033</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.0484624519203974</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1864429704572738</v>
+        <v>0.1168371530345428</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04838044896639906</v>
+        <v>0.04843025901449856</v>
       </c>
       <c r="N128" t="n">
-        <v>0.04762947931100171</v>
+        <v>0.1855773694268518</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04877856961058633</v>
+        <v>0.04835066277661428</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04733630877784401</v>
+        <v>0.0385154911023327</v>
       </c>
       <c r="G129" t="n">
+        <v>0.02945437172563852</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.04730208147600824</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.04955283262027817</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.1169680486277647</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.04923169718897514</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1856480917263431</v>
+        <v>0.1162945787990583</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04914839260078635</v>
+        <v>0.04919899328456997</v>
       </c>
       <c r="N129" t="n">
-        <v>0.04733630877784401</v>
+        <v>0.1858522163584335</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04955283262027817</v>
+        <v>0.04911813361433831</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04733327315652752</v>
+        <v>0.03863324697712354</v>
       </c>
       <c r="G130" t="n">
+        <v>0.02991459628385162</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.04731446850619248</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05032709562997001</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.1167258839837963</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.05000094245755288</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1867401058086911</v>
+        <v>0.1161348579180348</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04991633623517364</v>
+        <v>0.04996772755464138</v>
       </c>
       <c r="N130" t="n">
-        <v>0.04733327315652752</v>
+        <v>0.1842780101777801</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05032709562997001</v>
+        <v>0.04988560445206234</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04702100835032602</v>
+        <v>0.03874879937137357</v>
       </c>
       <c r="G131" t="n">
+        <v>0.03037482084206472</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.04711867135783031</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05110135863966186</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.1165681123873805</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05077018772613061</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1855191409229832</v>
+        <v>0.1161587756816338</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05068427986956092</v>
+        <v>0.05073646182471278</v>
       </c>
       <c r="N131" t="n">
-        <v>0.04702100835032602</v>
+        <v>0.1838578496893403</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05110135863966186</v>
+        <v>0.05065307528978638</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0469001502625133</v>
+        <v>0.03886207605699604</v>
       </c>
       <c r="G132" t="n">
+        <v>0.03083504540027783</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.04711515931181265</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05187562164935371</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.1165951810565998</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05153943299470835</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1867853252878842</v>
+        <v>0.1156671173800169</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05145222350394821</v>
+        <v>0.05150519609478418</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0469001502625133</v>
+        <v>0.1825948336975631</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05187562164935371</v>
+        <v>0.05142054612751042</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04677133479636318</v>
+        <v>0.0389730048059042</v>
       </c>
       <c r="G133" t="n">
+        <v>0.03129526995849093</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.0470044016490305</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.05264988465904556</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.1156075372095366</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05230867826328608</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.186038787122059</v>
+        <v>0.1154606683033456</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05222016713833549</v>
+        <v>0.05227393036485559</v>
       </c>
       <c r="N133" t="n">
-        <v>0.04677133479636318</v>
+        <v>0.1827920610068972</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05264988465904556</v>
+        <v>0.05218801696523445</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04683519785514945</v>
+        <v>0.03908151339001126</v>
       </c>
       <c r="G134" t="n">
+        <v>0.03175549451670403</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.04688686765037477</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.0534241476687374</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.1158056280642733</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05307792353186382</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1860796546441726</v>
+        <v>0.1156402137417816</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05298811077272279</v>
+        <v>0.053042664634927</v>
       </c>
       <c r="N134" t="n">
-        <v>0.04683519785514945</v>
+        <v>0.1817526304217916</v>
       </c>
       <c r="O134" t="n">
-        <v>0.0534241476687374</v>
+        <v>0.05295548780295849</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0465923753421459</v>
+        <v>0.03918752958123047</v>
       </c>
       <c r="G135" t="n">
+        <v>0.03221571907491713</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.04686302659673644</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05419841067842925</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.1150899008388924</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05384716880044155</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.18640805607289</v>
+        <v>0.1155065389854863</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05375605440711007</v>
+        <v>0.0538113989049984</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0465923753421459</v>
+        <v>0.1811796407466952</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05419841067842925</v>
+        <v>0.05372295864068252</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04654350316062635</v>
+        <v>0.03929098115147509</v>
       </c>
       <c r="G136" t="n">
+        <v>0.03267594363313023</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.04663334776900645</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05497267368812109</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.1154608027514763</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05461641406901929</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.1845241196268761</v>
+        <v>0.1157604293246214</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05452399804149736</v>
+        <v>0.0545801331750698</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04654350316062635</v>
+        <v>0.1810761907860567</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05497267368812109</v>
+        <v>0.05449042947840656</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04628921721386459</v>
+        <v>0.03939179587265833</v>
       </c>
       <c r="G137" t="n">
+        <v>0.03313616819134333</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.04649830044807575</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05574693669781294</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.1151187810201075</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05538565933759703</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1852279735247959</v>
+        <v>0.1153026700493484</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05529194167588464</v>
+        <v>0.05534886744514121</v>
       </c>
       <c r="N137" t="n">
-        <v>0.04628921721386459</v>
+        <v>0.179845379344325</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05574693669781294</v>
+        <v>0.0552579003161306</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.04603015340513444</v>
+        <v>0.03948990151669345</v>
       </c>
       <c r="G138" t="n">
+        <v>0.03359639274955644</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.04625835391483532</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05652119970750479</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.1147642828628684</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05615490460617476</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1850197459853145</v>
+        <v>0.1144340464498289</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05605988531027193</v>
+        <v>0.05611760171521262</v>
       </c>
       <c r="N138" t="n">
-        <v>0.04603015340513444</v>
+        <v>0.179090305225949</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05652119970750479</v>
+        <v>0.05602537115385463</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.04616694763770966</v>
+        <v>0.03958522585549369</v>
       </c>
       <c r="G139" t="n">
+        <v>0.03405661730776954</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.04641397745017604</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.05729546271719663</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.1149977554978415</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.0569241498747525</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1839995652270967</v>
+        <v>0.1142553438162244</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05682782894465922</v>
+        <v>0.05688633598528403</v>
       </c>
       <c r="N139" t="n">
-        <v>0.04616694763770966</v>
+        <v>0.1786140672353776</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05729546271719663</v>
+        <v>0.05679284199157867</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.04590023581486406</v>
+        <v>0.03967769666097228</v>
       </c>
       <c r="G140" t="n">
+        <v>0.03451684186598264</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.04616564033498892</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.05806972572688848</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.114419646143109</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.05769339514333024</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.1850675594688074</v>
+        <v>0.1138673474386965</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05759577257904649</v>
+        <v>0.05765507025535543</v>
       </c>
       <c r="N140" t="n">
-        <v>0.04590023581486406</v>
+        <v>0.1777197641770596</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05806972572688848</v>
+        <v>0.05756031282930271</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.04583065383987148</v>
+        <v>0.03976724170504246</v>
       </c>
       <c r="G141" t="n">
+        <v>0.03497706642419574</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.04571381185016489</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.05884398873658032</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.1137304020167536</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.05846264041190798</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1839238569291118</v>
+        <v>0.1140708426074068</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05836371621343379</v>
+        <v>0.05842380452542684</v>
       </c>
       <c r="N141" t="n">
-        <v>0.04583065383987148</v>
+        <v>0.176410494855444</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05884398873658032</v>
+        <v>0.05832778366702674</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.04535883761600566</v>
+        <v>0.03985378875961747</v>
       </c>
       <c r="G142" t="n">
+        <v>0.03543729098240885</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.04585896127659492</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.05961825174627217</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.1137304703368576</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.05923188568048571</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.1830685858266747</v>
+        <v>0.1132666146125168</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05913165984782107</v>
+        <v>0.05919253879549825</v>
       </c>
       <c r="N142" t="n">
-        <v>0.04535883761600566</v>
+        <v>0.1768893580749794</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05961825174627217</v>
+        <v>0.05909525450475078</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.04508542304654042</v>
+        <v>0.03993726559661055</v>
       </c>
       <c r="G143" t="n">
+        <v>0.03589751554062195</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.04580155789516993</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06039251475596402</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.1140202983215035</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06000113094906345</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.1840018743801611</v>
+        <v>0.1132554487441881</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05989960348220837</v>
+        <v>0.05996127306556964</v>
       </c>
       <c r="N143" t="n">
-        <v>0.04508542304654042</v>
+        <v>0.1746594526401148</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06039251475596402</v>
+        <v>0.05986272534247481</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04511104603474958</v>
+        <v>0.04001759998793493</v>
       </c>
       <c r="G144" t="n">
+        <v>0.03635774009883505</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.04534207098678089</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06116677776565586</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.1126003331887738</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06077037621764118</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.183923850808236</v>
+        <v>0.1132381302925823</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06066754711659565</v>
+        <v>0.06073000733564105</v>
       </c>
       <c r="N144" t="n">
-        <v>0.04511104603474958</v>
+        <v>0.1735238773552992</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06116677776565586</v>
+        <v>0.06063019618019885</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04483634248390694</v>
+        <v>0.04009471970550389</v>
       </c>
       <c r="G145" t="n">
+        <v>0.03681796465704815</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.04528096983231875</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06194104077534771</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.1127710221567507</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06153962148621892</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1839346433295643</v>
+        <v>0.112915444547861</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06143549075098294</v>
+        <v>0.06149874160571246</v>
       </c>
       <c r="N145" t="n">
-        <v>0.04483634248390694</v>
+        <v>0.1738857310249812</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06194104077534771</v>
+        <v>0.06139766701792289</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04466194829728629</v>
+        <v>0.04016855252123061</v>
       </c>
       <c r="G146" t="n">
+        <v>0.03727818921526125</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.04501872371267447</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06271530378503955</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.1128328124435169</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06230886675479665</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.182634380162811</v>
+        <v>0.1124881768001856</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06220343438537022</v>
+        <v>0.06226747587578387</v>
       </c>
       <c r="N146" t="n">
-        <v>0.04466194829728629</v>
+        <v>0.1726481124536098</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06271530378503955</v>
+        <v>0.06216513785564692</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.0443884993781614</v>
+        <v>0.04023902620702836</v>
       </c>
       <c r="G147" t="n">
+        <v>0.03773841377347435</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.04475580190873897</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.0634895667947314</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.1116861512671548</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06307811202337439</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1822231895266411</v>
+        <v>0.1116571123397177</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06297137801975751</v>
+        <v>0.06303621014585528</v>
       </c>
       <c r="N147" t="n">
-        <v>0.0443884993781614</v>
+        <v>0.1713141204456339</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0634895667947314</v>
+        <v>0.06293260869337096</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.04441663162980609</v>
+        <v>0.0403060685348104</v>
       </c>
       <c r="G148" t="n">
+        <v>0.03819863833168746</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.04469267370140323</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06426382980442324</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.1114314858457466</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06384735729195212</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1830011996397195</v>
+        <v>0.1114230364566191</v>
       </c>
       <c r="M148" t="n">
-        <v>0.0637393216541448</v>
+        <v>0.06380494441592667</v>
       </c>
       <c r="N148" t="n">
-        <v>0.04441663162980609</v>
+        <v>0.1702868538055022</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06426382980442324</v>
+        <v>0.06370007953109499</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04444698095549419</v>
+        <v>0.04036960727648992</v>
       </c>
       <c r="G149" t="n">
+        <v>0.03865886288990056</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.04462980837155818</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.0650380928141151</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.111369263397375</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.06461660256052987</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1824685387207112</v>
+        <v>0.1107867344410511</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06450726528853208</v>
+        <v>0.06457367868599809</v>
       </c>
       <c r="N149" t="n">
-        <v>0.04444698095549419</v>
+        <v>0.1709694113376638</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0650380928141151</v>
+        <v>0.06446755036881903</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04398018325849946</v>
+        <v>0.04042957020398021</v>
       </c>
       <c r="G150" t="n">
+        <v>0.03911908744811366</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.04446767520009479</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06581235582380694</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.1109999311401223</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.0653858478291076</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1806253349882811</v>
+        <v>0.1109489915831753</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06527520892291937</v>
+        <v>0.06534241295606949</v>
       </c>
       <c r="N150" t="n">
-        <v>0.04398018325849946</v>
+        <v>0.1685648918465673</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06581235582380694</v>
+        <v>0.06523502120654306</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04381687444209571</v>
+        <v>0.04048588508919446</v>
       </c>
       <c r="G151" t="n">
+        <v>0.03957931200632676</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.04430674346790399</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.06658661883349878</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.111023936292071</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06615509309768534</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1803717166610944</v>
+        <v>0.1106105931731534</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06604315255730665</v>
+        <v>0.06611114722614089</v>
       </c>
       <c r="N151" t="n">
-        <v>0.04381687444209571</v>
+        <v>0.1692763941366618</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06658661883349878</v>
+        <v>0.0660024920442671</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04365769040955675</v>
+        <v>0.04053847970404596</v>
       </c>
       <c r="G152" t="n">
+        <v>0.04003953656453987</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.04414748245587675</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.06736088184319064</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.1097417260713035</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.06692433836626308</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1807078119578157</v>
+        <v>0.1106723245011469</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06681109619169394</v>
+        <v>0.0668798814962123</v>
       </c>
       <c r="N152" t="n">
-        <v>0.04365769040955675</v>
+        <v>0.167707017012396</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06736088184319064</v>
+        <v>0.06676996288199115</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04380326706415637</v>
+        <v>0.04058728182044791</v>
       </c>
       <c r="G153" t="n">
+        <v>0.04049976112275296</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.04379036144490403</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.06813514485288248</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.1096537476959022</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.06769358363484081</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1809337490971102</v>
+        <v>0.1094349708573172</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06757903982608122</v>
+        <v>0.06764861576628371</v>
       </c>
       <c r="N153" t="n">
-        <v>0.04380326706415637</v>
+        <v>0.1678598592782188</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06813514485288248</v>
+        <v>0.06753743371971517</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04365424030916837</v>
+        <v>0.04063221921031357</v>
       </c>
       <c r="G154" t="n">
+        <v>0.04095998568096607</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.04383584971587674</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.06890940786257432</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.1099604483839497</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.06846282890341855</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1795496562976429</v>
+        <v>0.1094993175318262</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06834698346046852</v>
+        <v>0.06841735003635512</v>
       </c>
       <c r="N154" t="n">
-        <v>0.04365424030916837</v>
+        <v>0.1656380197385792</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06890940786257432</v>
+        <v>0.06830490455743921</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04350954955227339</v>
+        <v>0.04067321964555617</v>
       </c>
       <c r="G155" t="n">
+        <v>0.04142021023917917</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.04368441654968587</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.06968367087226617</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.1085622753535284</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.06923207417199628</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1795556617780786</v>
+        <v>0.1091661498148351</v>
       </c>
       <c r="M155" t="n">
-        <v>0.0691149270948558</v>
+        <v>0.06918608430642652</v>
       </c>
       <c r="N155" t="n">
-        <v>0.04350954955227339</v>
+        <v>0.1659445971979258</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06968367087226617</v>
+        <v>0.06907237539516324</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04296366389351609</v>
+        <v>0.04071021089808895</v>
       </c>
       <c r="G156" t="n">
+        <v>0.04188043479739227</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.04363653122722237</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.07045793388195802</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.1092596758227205</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07000131944057401</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1792518937570824</v>
+        <v>0.1090362529965058</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0698828707292431</v>
+        <v>0.06995481857649792</v>
       </c>
       <c r="N156" t="n">
-        <v>0.04296366389351609</v>
+        <v>0.1650826904607076</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07045793388195802</v>
+        <v>0.06983984623288728</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04321615619174501</v>
+        <v>0.04074312073982517</v>
       </c>
       <c r="G157" t="n">
+        <v>0.04234065935560537</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.04319266302937716</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07123219689164988</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.1078530970096086</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07077056470915176</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1788384804533192</v>
+        <v>0.1091104123669996</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07065081436363037</v>
+        <v>0.07072355284656932</v>
       </c>
       <c r="N157" t="n">
-        <v>0.04321615619174501</v>
+        <v>0.1653553983313734</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07123219689164988</v>
+        <v>0.07060731707061131</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04276709375254022</v>
+        <v>0.04077187694267803</v>
       </c>
       <c r="G158" t="n">
+        <v>0.04280088391381848</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.04305124795722927</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07200645990134172</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.1075429861322752</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07153980997772949</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.178815550085454</v>
+        <v>0.1078831610979539</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07141875799801765</v>
+        <v>0.07149228711664074</v>
       </c>
       <c r="N158" t="n">
-        <v>0.04276709375254022</v>
+        <v>0.163956075628831</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07200645990134172</v>
+        <v>0.07137478790833535</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04281654388148171</v>
+        <v>0.04079640727856081</v>
       </c>
       <c r="G159" t="n">
+        <v>0.04326110847203157</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.04290909363478985</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07278072291103356</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.1069297904088027</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07230905524630722</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1779832308721517</v>
+        <v>0.1083441288063995</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07218670163240495</v>
+        <v>0.07226102138671213</v>
       </c>
       <c r="N159" t="n">
-        <v>0.04281654388148171</v>
+        <v>0.1633689271172142</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07278072291103356</v>
+        <v>0.07214225874605938</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04276457388414956</v>
+        <v>0.04081663951938672</v>
       </c>
       <c r="G160" t="n">
+        <v>0.04372133303024468</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.04286608212428489</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.0735549859207254</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.1067139570572735</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07307830051488497</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1782416510320774</v>
+        <v>0.1076934351423816</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07295464526679223</v>
+        <v>0.07302975565678355</v>
       </c>
       <c r="N160" t="n">
-        <v>0.04276457388414956</v>
+        <v>0.1625927101478963</v>
       </c>
       <c r="O160" t="n">
-        <v>0.0735549859207254</v>
+        <v>0.07290972958378343</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04261125106612382</v>
+        <v>0.04083250143706901</v>
       </c>
       <c r="G161" t="n">
+        <v>0.04418155758845779</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.04302214313851974</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07432924893041726</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.1064959332957701</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07384754578346271</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1773909387838959</v>
+        <v>0.1077313949068289</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07372258890117953</v>
+        <v>0.07379848992685495</v>
       </c>
       <c r="N161" t="n">
-        <v>0.04261125106612382</v>
+        <v>0.1626264417120127</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07432924893041726</v>
+        <v>0.07367720042150747</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04245664273298452</v>
+        <v>0.04084392080352092</v>
       </c>
       <c r="G162" t="n">
+        <v>0.04464178214667088</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.04287720639029981</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.0751035119401091</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.1058761663423748</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07461679105204044</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1770312223462723</v>
+        <v>0.1069583229006701</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07449053253556681</v>
+        <v>0.07456722419692637</v>
       </c>
       <c r="N162" t="n">
-        <v>0.04245664273298452</v>
+        <v>0.1624691388006987</v>
       </c>
       <c r="O162" t="n">
-        <v>0.0751035119401091</v>
+        <v>0.0744446712592315</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.04210081619031174</v>
+        <v>0.0408508253906557</v>
       </c>
       <c r="G163" t="n">
+        <v>0.04510200670488398</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.04233120159243046</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.07587777494980094</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.1053551034151702</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07538603632061819</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1766626299378715</v>
+        <v>0.106574533924834</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0752584761699541</v>
+        <v>0.07533595846699777</v>
       </c>
       <c r="N163" t="n">
-        <v>0.04210081619031174</v>
+        <v>0.1610198184050895</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07587777494980094</v>
+        <v>0.07521214209695554</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04214383874368549</v>
+        <v>0.04085314297038657</v>
       </c>
       <c r="G164" t="n">
+        <v>0.04556223126309709</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.04218405845771711</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.07665203795949278</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.1049331917322386</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.07615528158919592</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1749852897773584</v>
+        <v>0.1055803427802493</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07602641980434138</v>
+        <v>0.07610469273706917</v>
       </c>
       <c r="N164" t="n">
-        <v>0.04214383874368549</v>
+        <v>0.1608774975163204</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07665203795949278</v>
+        <v>0.07597961293467957</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04168577769868585</v>
+        <v>0.04085314297038656</v>
       </c>
       <c r="G165" t="n">
+        <v>0.04556223126309709</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.04233570669896512</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.07742630096918464</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.1054108785116625</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.07692452685777366</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.1753993300833981</v>
+        <v>0.1054760642678447</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07679436343872867</v>
+        <v>0.07687342700714057</v>
       </c>
       <c r="N165" t="n">
-        <v>0.04168577769868585</v>
+        <v>0.1605411931255267</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07742630096918464</v>
+        <v>0.07674708377240361</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04152670036089283</v>
+        <v>0.04013634457288616</v>
       </c>
       <c r="G166" t="n">
+        <v>0.04556196273463307</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.04228607602897991</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.07820056397887649</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.1048713854177016</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.0776937721263514</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.1752048790746555</v>
+        <v>0.1051620131885488</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07756230707311595</v>
+        <v>0.07764216127721198</v>
       </c>
       <c r="N166" t="n">
-        <v>0.04152670036089283</v>
+        <v>0.1586099222238438</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07820056397887649</v>
+        <v>0.07751455461012764</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.04146667403588652</v>
+        <v>0.03942771115706817</v>
       </c>
       <c r="G167" t="n">
+        <v>0.04556169420616905</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.04203509616056682</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.07897482698856834</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.1039863837684003</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.07846301739492913</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1748020649697956</v>
+        <v>0.1048385043432904</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07833025070750324</v>
+        <v>0.07841089554728338</v>
       </c>
       <c r="N167" t="n">
-        <v>0.04146667403588652</v>
+        <v>0.1591827018024068</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07897482698856834</v>
+        <v>0.07828202544785168</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04110576602924695</v>
+        <v>0.03872765972601054</v>
       </c>
       <c r="G168" t="n">
+        <v>0.04556142567770503</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.04178269680653124</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.07974908999826018</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.1033582064599299</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.07923226266350687</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1729910159874833</v>
+        <v>0.1041058525329982</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07909819434189053</v>
+        <v>0.07917962981735478</v>
       </c>
       <c r="N168" t="n">
-        <v>0.04110576602924695</v>
+        <v>0.1574585488523511</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07974908999826018</v>
+        <v>0.07904949628557571</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04134404364655414</v>
+        <v>0.03803660728272996</v>
       </c>
       <c r="G169" t="n">
+        <v>0.04556115714924101</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.04162880767967857</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08052335300795202</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.103089752741325</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.0800015079320846</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1731718603463837</v>
+        <v>0.1034643725586009</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07986613797627781</v>
+        <v>0.0799483640874262</v>
       </c>
       <c r="N169" t="n">
-        <v>0.04134404364655414</v>
+        <v>0.157736480364812</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08052335300795202</v>
+        <v>0.07981696712329975</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04098157419338817</v>
+        <v>0.0373549708303036</v>
       </c>
       <c r="G170" t="n">
+        <v>0.045560888620777</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.04167335849281421</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08129761601764386</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.1024839218616201</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08077075320066233</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.1727447262651615</v>
+        <v>0.1034143792210273</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0806340816106651</v>
+        <v>0.0807170983574976</v>
       </c>
       <c r="N170" t="n">
-        <v>0.04098157419338817</v>
+        <v>0.1580155133309247</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08129761601764386</v>
+        <v>0.08058443796102378</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.0407184249753291</v>
+        <v>0.03668316737174893</v>
       </c>
       <c r="G171" t="n">
+        <v>0.04556062009231298</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.04121627895874354</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08207187902733572</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.1020436130698495</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08153999846924008</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.1724097419624819</v>
+        <v>0.1028561873212059</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08140202524505238</v>
+        <v>0.08148583262756902</v>
       </c>
       <c r="N171" t="n">
-        <v>0.0407184249753291</v>
+        <v>0.1571946647418245</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08207187902733572</v>
+        <v>0.08135190879874782</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04065466329795693</v>
+        <v>0.03602161391014232</v>
       </c>
       <c r="G172" t="n">
+        <v>0.04556035156384897</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.04135749879027192</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08284614203702756</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.1014717256150479</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08230924373781781</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1722213750943858</v>
+        <v>0.1024901116600656</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08216996887943968</v>
+        <v>0.08225456689764041</v>
       </c>
       <c r="N172" t="n">
-        <v>0.04065466329795693</v>
+        <v>0.1559729515886468</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08284614203702756</v>
+        <v>0.08211937963647185</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04059035646685175</v>
+        <v>0.03537072744850209</v>
       </c>
       <c r="G173" t="n">
+        <v>0.04556008303538495</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.04119694770020475</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08362040504671941</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.1005711587462496</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08307848900639554</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.171078528617692</v>
+        <v>0.1021164670385351</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08293791251382696</v>
+        <v>0.08302330116771182</v>
       </c>
       <c r="N173" t="n">
-        <v>0.04059035646685175</v>
+        <v>0.1550493908625267</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08362040504671941</v>
+        <v>0.08288685047419589</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04032557178759358</v>
+        <v>0.03473092498990368</v>
       </c>
       <c r="G174" t="n">
+        <v>0.04555981450692093</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.04103455540134741</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.08439466805641126</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.09934481171248913</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08384773427497329</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1703859472612843</v>
+        <v>0.1020355682575429</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08370585614821426</v>
+        <v>0.08379203543778323</v>
       </c>
       <c r="N174" t="n">
-        <v>0.04032557178759358</v>
+        <v>0.1545229995545996</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08439466805641126</v>
+        <v>0.08365432131191992</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.04026037656576248</v>
+        <v>0.03410262353736636</v>
       </c>
       <c r="G175" t="n">
+        <v>0.04555954597845691</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.04067025160650529</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.0851689310661031</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.09919558376280108</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08461697954355102</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1686527425190543</v>
+        <v>0.101047730118018</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08447379978260154</v>
+        <v>0.08456076970785463</v>
       </c>
       <c r="N175" t="n">
-        <v>0.04026037656576248</v>
+        <v>0.1551927946560009</v>
       </c>
       <c r="O175" t="n">
-        <v>0.0851689310661031</v>
+        <v>0.08442179214964397</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04019483810693851</v>
+        <v>0.03348624009396461</v>
       </c>
       <c r="G176" t="n">
+        <v>0.0455592774499929</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.04050396602848379</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.08594319407579495</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.09782637414621986</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.08538622481212876</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1685880258848934</v>
+        <v>0.1008532674208888</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08524174341698881</v>
+        <v>0.08532950397792603</v>
       </c>
       <c r="N176" t="n">
-        <v>0.04019483810693851</v>
+        <v>0.1547577931578657</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08594319407579495</v>
+        <v>0.08518926298736801</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0397290237167017</v>
+        <v>0.03288219166271875</v>
       </c>
       <c r="G177" t="n">
+        <v>0.04555900892152888</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.0404356283800883</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.0867174570854868</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.09764008211177999</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.08615547008070649</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1655009088526929</v>
+        <v>0.1001524949670843</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08600968705137611</v>
+        <v>0.08609823824799745</v>
       </c>
       <c r="N177" t="n">
-        <v>0.0397290237167017</v>
+        <v>0.1542170120513293</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0867174570854868</v>
+        <v>0.08595673382509204</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03976300070063209</v>
+        <v>0.03229089524670214</v>
       </c>
       <c r="G178" t="n">
+        <v>0.04555874039306487</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.04036516837412416</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.08749172009517864</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.09623960690851591</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.08692471534928423</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1654005029163444</v>
+        <v>0.1001457275575331</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08677763068576339</v>
+        <v>0.08686697251806885</v>
       </c>
       <c r="N178" t="n">
-        <v>0.03976300070063209</v>
+        <v>0.1522694683275271</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08749172009517864</v>
+        <v>0.08672420466281608</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03969683636430975</v>
+        <v>0.0317127678489362</v>
       </c>
       <c r="G179" t="n">
+        <v>0.04555847186460085</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.0398925157233968</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.08826598310487048</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.09592784778546212</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.08769396061786197</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1629959195697391</v>
+        <v>0.09953327999316386</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08754557432015068</v>
+        <v>0.08763570678814026</v>
       </c>
       <c r="N179" t="n">
-        <v>0.03969683636430975</v>
+        <v>0.1523141789775943</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08826598310487048</v>
+        <v>0.08749167550054011</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03923059801331472</v>
+        <v>0.03114822647249323</v>
       </c>
       <c r="G180" t="n">
+        <v>0.04555820333613683</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.04001760014071158</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.08904024611456234</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.0954077039916531</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.0884632058864397</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1619962703067687</v>
+        <v>0.09911546707490526</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08831351795453797</v>
+        <v>0.08840444105821166</v>
       </c>
       <c r="N180" t="n">
-        <v>0.03923059801331472</v>
+        <v>0.1528501609926662</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08904024611456234</v>
+        <v>0.08825914633826415</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03916435295322704</v>
+        <v>0.03059768812039572</v>
       </c>
       <c r="G181" t="n">
+        <v>0.0455579348076728</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.03984035133887388</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.08981450912425419</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.09418207477612334</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.08923245115501743</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1594106666213245</v>
+        <v>0.09839260360368615</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08908146158892526</v>
+        <v>0.08917317532828306</v>
       </c>
       <c r="N181" t="n">
-        <v>0.03916435295322704</v>
+        <v>0.151876431363878</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08981450912425419</v>
+        <v>0.08902661717598818</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03879816848962676</v>
+        <v>0.03006156979571481</v>
       </c>
       <c r="G182" t="n">
+        <v>0.04555766627920879</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.0396606990306891</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09058877213394603</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.09295385938790737</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09000169642359518</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1591482200072979</v>
+        <v>0.09716500438043507</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08984940522331254</v>
+        <v>0.08994190959835448</v>
       </c>
       <c r="N182" t="n">
-        <v>0.03879816848962676</v>
+        <v>0.1500920070823652</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09058877213394603</v>
+        <v>0.08979408801371222</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03873211192809393</v>
+        <v>0.02954028850148545</v>
       </c>
       <c r="G183" t="n">
+        <v>0.04555739775074478</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.03947857292896265</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09136303514363787</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.09182595707603963</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09077094169217291</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1561180419585803</v>
+        <v>0.09703298420608095</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09061734885769983</v>
+        <v>0.09071064386842587</v>
       </c>
       <c r="N183" t="n">
-        <v>0.03873211192809393</v>
+        <v>0.1507959051392629</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09136303514363787</v>
+        <v>0.09056155885143626</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0384662505742086</v>
+        <v>0.0290342612407439</v>
       </c>
       <c r="G184" t="n">
+        <v>0.04555712922228076</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.03919390274649986</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09213729815332972</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.09210126708955457</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09154018696075066</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1553292439690632</v>
+        <v>0.09629685788155223</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09138529249208711</v>
+        <v>0.09147937813849728</v>
       </c>
       <c r="N184" t="n">
-        <v>0.0384662505742086</v>
+        <v>0.1497871425257065</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09213729815332972</v>
+        <v>0.09132902968916029</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0386006517335508</v>
+        <v>0.0285439050165593</v>
       </c>
       <c r="G185" t="n">
+        <v>0.04555686069381674</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.03870661819610617</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09291156116302156</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.09058268867748676</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09230943222932839</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.152690937532638</v>
+        <v>0.09565694020777785</v>
       </c>
       <c r="M185" t="n">
-        <v>0.0921532361264744</v>
+        <v>0.09224811240856869</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0386006517335508</v>
+        <v>0.1481647362328312</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09291156116302156</v>
+        <v>0.09209650052688433</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03823538271170061</v>
+        <v>0.02806963683195747</v>
       </c>
       <c r="G186" t="n">
+        <v>0.04555659216535272</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.03881664899058693</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09368582417271341</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.08957312108887064</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09307867749790612</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1502122341431961</v>
+        <v>0.09591354598568635</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09292117976086169</v>
+        <v>0.0930168466786401</v>
       </c>
       <c r="N186" t="n">
-        <v>0.03823538271170061</v>
+        <v>0.1481277032517723</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09368582417271341</v>
+        <v>0.09286397136460836</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03807051081423807</v>
+        <v>0.02761187369000612</v>
       </c>
       <c r="G187" t="n">
+        <v>0.04555632363688871</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.03862392484274753</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.09446008718240526</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.08927546357274066</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09384792276648386</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1487022452946291</v>
+        <v>0.09506699001620655</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09368912339524897</v>
+        <v>0.09378558094871151</v>
       </c>
       <c r="N187" t="n">
-        <v>0.03807051081423807</v>
+        <v>0.1483750605736651</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09446008718240526</v>
+        <v>0.0936314422023324</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03800610334674318</v>
+        <v>0.02717103259373246</v>
       </c>
       <c r="G188" t="n">
+        <v>0.04555605510842469</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.03822837546539337</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.0952343501920971</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.08869261537813142</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.09461716803506159</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.146570082480828</v>
+        <v>0.09471758710026712</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09445706702963626</v>
+        <v>0.09455431521878291</v>
       </c>
       <c r="N188" t="n">
-        <v>0.03800610334674318</v>
+        <v>0.1471058251896449</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0952343501920971</v>
+        <v>0.09439891304005643</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03774222761479605</v>
+        <v>0.02674753054620282</v>
       </c>
       <c r="G189" t="n">
+        <v>0.04555578657996068</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.03812993057132982</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.09600861320178895</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.08762747575407728</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.09538641330363933</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.1445248571956847</v>
+        <v>0.09386565203879671</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09522501066402354</v>
+        <v>0.09532304948885431</v>
       </c>
       <c r="N189" t="n">
-        <v>0.03774222761479605</v>
+        <v>0.145819014090847</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09600861320178895</v>
+        <v>0.09516638387778047</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03767890780885361</v>
+        <v>0.02634008178800351</v>
       </c>
       <c r="G190" t="n">
+        <v>0.04555551805149666</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.03792851987336227</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.0967828762114808</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.08628294394961278</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.09615565857221707</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.1425756809330904</v>
+        <v>0.09271149963272413</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09599295429841084</v>
+        <v>0.09609178375892573</v>
       </c>
       <c r="N190" t="n">
-        <v>0.03767890780885361</v>
+        <v>0.1462136442684067</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0967828762114808</v>
+        <v>0.09593385471550452</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0375159811918047</v>
+        <v>0.02593888674754503</v>
       </c>
       <c r="G191" t="n">
+        <v>0.04555524952303264</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.03752407308429612</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.09755713922117265</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.08666191921377239</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.0969249038407948</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.1413316651869366</v>
+        <v>0.09295544468297806</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09676089793279812</v>
+        <v>0.09686051802899712</v>
       </c>
       <c r="N191" t="n">
-        <v>0.0375159811918047</v>
+        <v>0.1451887327134592</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09755713922117265</v>
+        <v>0.09670132555322855</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.0372533510639806</v>
+        <v>0.02554265966541454</v>
       </c>
       <c r="G192" t="n">
+        <v>0.04555498099456862</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.03741651991693674</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.09833140223086449</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.08515436272532326</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.09769414910937253</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.1383019214511145</v>
+        <v>0.09219780199048719</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09752884156718541</v>
+        <v>0.09762925229906853</v>
       </c>
       <c r="N192" t="n">
-        <v>0.0372533510639806</v>
+        <v>0.1448432964171398</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09833140223086449</v>
+        <v>0.09746879639095259</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03719093295186711</v>
+        <v>0.02515181754467637</v>
       </c>
       <c r="G193" t="n">
+        <v>0.0455547124661046</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.03719738885542412</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.09910566524055633</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.08493124929730506</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.09846339437795028</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.1360955612195158</v>
+        <v>0.0920188032612865</v>
       </c>
       <c r="M193" t="n">
-        <v>0.0982967852015727</v>
+        <v>0.09839798656913994</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03719093295186711</v>
+        <v>0.1435609382080246</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09910566524055633</v>
+        <v>0.09823626722867662</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03702864238195001</v>
+        <v>0.02476677738836068</v>
       </c>
       <c r="G194" t="n">
+        <v>0.04555444393764058</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.03715743355288342</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.09987992825024818</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.0837931402547831</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.09923263964652801</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.1349216959860319</v>
+        <v>0.09099553721699918</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09906472883595997</v>
+        <v>0.09916672083921134</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03702864238195001</v>
+        <v>0.1429245997873778</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09987992825024818</v>
+        <v>0.09900373806640066</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03696639488071508</v>
+        <v>0.02438795619953131</v>
       </c>
       <c r="G195" t="n">
+        <v>0.04555417540917657</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.03669809904241278</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.10065419125994</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.08314199919097801</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.1000018849151058</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1332894372445541</v>
+        <v>0.09023114725937775</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09983267247034727</v>
+        <v>0.09993545510928276</v>
       </c>
       <c r="N195" t="n">
-        <v>0.03696639488071508</v>
+        <v>0.141037311131636</v>
       </c>
       <c r="O195" t="n">
-        <v>0.10065419125994</v>
+        <v>0.09977120890412468</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03680410597464809</v>
+        <v>0.02401577098121893</v>
       </c>
       <c r="G196" t="n">
+        <v>0.04555390688071255</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.03672085319721029</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1014284542696319</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.08197978969911024</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1007711301836835</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.1310078964889739</v>
+        <v>0.08892885296465025</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1006006161047345</v>
+        <v>0.1007041893793541</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03680410597464809</v>
+        <v>0.1402021451760314</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1014284542696319</v>
+        <v>0.1005386797418487</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03664169119023485</v>
+        <v>0.02365063873648683</v>
       </c>
       <c r="G197" t="n">
+        <v>0.04555363835224854</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.0363271638904742</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.1022027172793237</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.08160847537240049</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1015403754522612</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.1281861852131827</v>
+        <v>0.08849187390904492</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1013685597391218</v>
+        <v>0.1014729236494256</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03664169119023485</v>
+        <v>0.1388221748557965</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1022027172793237</v>
+        <v>0.1013061505795728</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.0362790660539611</v>
+        <v>0.02329297646837396</v>
       </c>
       <c r="G198" t="n">
+        <v>0.04555336982378452</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.03591849899540263</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1029769802890156</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.08133001980406931</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.102309620720839</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.126433414911072</v>
+        <v>0.08832342966878987</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1021365033735091</v>
+        <v>0.102241657919497</v>
       </c>
       <c r="N198" t="n">
-        <v>0.0362790660539611</v>
+        <v>0.1387004731061638</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1029769802890156</v>
+        <v>0.1020736214172968</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.0363161460923126</v>
+        <v>0.02294320117991991</v>
       </c>
       <c r="G199" t="n">
+        <v>0.0455531012953205</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.03569632638519379</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1037512432987074</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.07974638658733724</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1030788659894167</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.125328687070382</v>
+        <v>0.0868267398201133</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1029044470078964</v>
+        <v>0.1030103921895684</v>
       </c>
       <c r="N199" t="n">
-        <v>0.0363161460923126</v>
+        <v>0.1376401128623656</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1037512432987074</v>
+        <v>0.1028410922550208</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03595284683177519</v>
+        <v>0.022601729874187</v>
       </c>
       <c r="G200" t="n">
+        <v>0.04555283276685649</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.03526211393304583</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1045255063083993</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.07885953931542491</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1038481112579944</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.1227888986403046</v>
+        <v>0.0862050239392434</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1036723906422837</v>
+        <v>0.1037791264596398</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03595284683177519</v>
+        <v>0.1367441670596344</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1045255063083993</v>
+        <v>0.1036085630927449</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03608908379883458</v>
+        <v>0.02226897955420751</v>
       </c>
       <c r="G201" t="n">
+        <v>0.04555256423839247</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.03471732951215693</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1052997693180911</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.07897144158155289</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1046173565265722</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.1214117819623404</v>
+        <v>0.08546150160240829</v>
       </c>
       <c r="M201" t="n">
-        <v>0.104440334276671</v>
+        <v>0.1045478607297112</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03608908379883458</v>
+        <v>0.1354157086332025</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1052997693180911</v>
+        <v>0.1043760339304689</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03582477251997661</v>
+        <v>0.02194536722304304</v>
       </c>
       <c r="G202" t="n">
+        <v>0.04555229570992845</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.03456344099572527</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.106074032327783</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.07728405697894178</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1053866017951499</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.1189340210693131</v>
+        <v>0.08479939238583617</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1052082779110583</v>
+        <v>0.1053165949997826</v>
       </c>
       <c r="N202" t="n">
-        <v>0.03582477251997661</v>
+        <v>0.1345578105183024</v>
       </c>
       <c r="O202" t="n">
-        <v>0.106074032327783</v>
+        <v>0.1051435047681929</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03575982852168702</v>
+        <v>0.02163130988372663</v>
       </c>
       <c r="G203" t="n">
+        <v>0.04555202718146443</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.03430191625694901</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1068482953374748</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.07739934910081214</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1061558470637276</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.1177922999940468</v>
+        <v>0.0837219158657552</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1059762215454456</v>
+        <v>0.106085329269854</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03575982852168702</v>
+        <v>0.1331735456501664</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1068482953374748</v>
+        <v>0.105910975605917</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03519416733045162</v>
+        <v>0.02132722453931907</v>
       </c>
       <c r="G204" t="n">
+        <v>0.04555175865300042</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.03373422316902633</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1076225583471666</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.07581928154038453</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1069250923323054</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.1146233027693657</v>
+        <v>0.08273229161839354</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1067441651798328</v>
+        <v>0.1068540635399254</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03519416733045162</v>
+        <v>0.1310659869640271</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1076225583471666</v>
+        <v>0.106678446443641</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03522770447275615</v>
+        <v>0.02103352819285426</v>
       </c>
       <c r="G205" t="n">
+        <v>0.0455514901245364</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.0336618296051554</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1083968213568585</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.07524581789087961</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1076943376008831</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.1129637134280937</v>
+        <v>0.08153373921997939</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1075121088142201</v>
+        <v>0.1076227978099968</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03522770447275615</v>
+        <v>0.1314382073951167</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1083968213568585</v>
+        <v>0.107445917281365</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03516035547508643</v>
+        <v>0.02075063784739207</v>
       </c>
       <c r="G206" t="n">
+        <v>0.04555122159607238</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.0330862034385344</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1091710843665503</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.07408092174551792</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1084635828694609</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.1103502160030548</v>
+        <v>0.08132947824674089</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1082800524486074</v>
+        <v>0.1083915320800682</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03516035547508643</v>
+        <v>0.1295932798786678</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1091710843665503</v>
+        <v>0.1082133881190891</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03509203586392821</v>
+        <v>0.02047897050596734</v>
       </c>
       <c r="G207" t="n">
+        <v>0.04555095306760836</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.0328088125423615</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1099453473762422</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.07352655669752001</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.1092328281380386</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.1094194945270731</v>
+        <v>0.07982272827490619</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1090479960829947</v>
+        <v>0.1091602663501396</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03509203586392821</v>
+        <v>0.1285342773499127</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1099453473762422</v>
+        <v>0.1089808589568131</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03472266116576725</v>
+        <v>0.020218943171639</v>
       </c>
       <c r="G208" t="n">
+        <v>0.04555068453914435</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.03253112478983486</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.110719610385934</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.0733846863401065</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1100020734066163</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.1077082330329726</v>
+        <v>0.07911670888070343</v>
       </c>
       <c r="M208" t="n">
-        <v>0.109815939717382</v>
+        <v>0.109929000620211</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03472266116576725</v>
+        <v>0.1275642727440838</v>
       </c>
       <c r="O208" t="n">
-        <v>0.110719610385934</v>
+        <v>0.1097483297945371</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03435214690708938</v>
+        <v>0.01997097284744288</v>
       </c>
       <c r="G209" t="n">
+        <v>0.04555041601068033</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.03175460805415267</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1114938733956259</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.07295727426649801</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1107713186751941</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.1045531155535775</v>
+        <v>0.07891463964036091</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1105838833517693</v>
+        <v>0.1106977348902824</v>
       </c>
       <c r="N209" t="n">
-        <v>0.03435214690708938</v>
+        <v>0.1260863389964135</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1114938733956259</v>
+        <v>0.1105158006322612</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03418040861438033</v>
+        <v>0.01973547653643687</v>
       </c>
       <c r="G210" t="n">
+        <v>0.04555014748221631</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.0316807302085131</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1122681364053177</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.07154628406991503</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1115405639437718</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.1031908261217115</v>
+        <v>0.07741974013010666</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1113518269861566</v>
+        <v>0.1114664691603538</v>
       </c>
       <c r="N210" t="n">
-        <v>0.03418040861438033</v>
+        <v>0.1242035490421343</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1122681364053177</v>
+        <v>0.1112832714699852</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03410736181412594</v>
+        <v>0.01951287124165785</v>
       </c>
       <c r="G211" t="n">
+        <v>0.04554987895375229</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.03131095912611431</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.1130423994150096</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.0705536793435782</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1123098092123495</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.1029580487701988</v>
+        <v>0.07703522992616896</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1121197706205439</v>
+        <v>0.1122352034304252</v>
       </c>
       <c r="N211" t="n">
-        <v>0.03410736181412594</v>
+        <v>0.1238189758164787</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1130423994150096</v>
+        <v>0.1120507423077093</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.03413292203281189</v>
+        <v>0.01930357396616263</v>
       </c>
       <c r="G212" t="n">
+        <v>0.04554961042528828</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.03084676268015452</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1138166624247014</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.0703814236807081</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1130790544809273</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.1011914675318635</v>
+        <v>0.07526432860477583</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1128877142549311</v>
+        <v>0.1130039377004967</v>
       </c>
       <c r="N212" t="n">
-        <v>0.03413292203281189</v>
+        <v>0.1221356922546788</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1138166624247014</v>
+        <v>0.1128182131454333</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.03395709665725731</v>
+        <v>0.01910800171298924</v>
       </c>
       <c r="G213" t="n">
+        <v>0.04554934189682426</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.03028960874383184</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1145909254343933</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.06953148067452533</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.113848299749505</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.1006277664395296</v>
+        <v>0.07441025574215557</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1136556578893184</v>
+        <v>0.1137726719705681</v>
       </c>
       <c r="N213" t="n">
-        <v>0.03395709665725731</v>
+        <v>0.1209567712919672</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1145909254343933</v>
+        <v>0.1135856839831573</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.03368060310493316</v>
+        <v>0.01892657148519328</v>
       </c>
       <c r="G214" t="n">
+        <v>0.04554907336836025</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.03004096519034448</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1153651884440851</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.06920581391825043</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1146175450180827</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.09940362952602105</v>
+        <v>0.07447623091453631</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1144236015237057</v>
+        <v>0.1145414062406395</v>
       </c>
       <c r="N214" t="n">
-        <v>0.03368060310493316</v>
+        <v>0.1194852858635764</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1153651884440851</v>
+        <v>0.1143531548208814</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.03350360720718655</v>
+        <v>0.01892657148519328</v>
       </c>
       <c r="G215" t="n">
+        <v>0.04554907336836025</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02960229989289059</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.116139451453777</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.06890638700510404</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1153867902866605</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.09952227957477633</v>
+        <v>0.07356547369814617</v>
       </c>
       <c r="M215" t="n">
-        <v>0.115191545158093</v>
+        <v>0.1153101405107109</v>
       </c>
       <c r="N215" t="n">
-        <v>0.03350360720718655</v>
+        <v>0.1170243089047386</v>
       </c>
       <c r="O215" t="n">
-        <v>0.116139451453777</v>
+        <v>0.1151206256586054</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.03342610373026045</v>
+        <v>0.0184449693333795</v>
       </c>
       <c r="G216" t="n">
+        <v>0.04551892875323955</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02957508072466838</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1169137144634688</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.06823516352830669</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1161560355552382</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.09995117459067504</v>
+        <v>0.07208120366921339</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1159594887924803</v>
+        <v>0.1160788747807823</v>
       </c>
       <c r="N216" t="n">
-        <v>0.03342610373026045</v>
+        <v>0.1163769133506865</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1169137144634688</v>
+        <v>0.1158880964963294</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.03304808744039776</v>
+        <v>0.01796901136099471</v>
       </c>
       <c r="G217" t="n">
+        <v>0.04548878413811886</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.02916077555887596</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1176879774731606</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.06699410708107897</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.116925280823816</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.09888481175574398</v>
+        <v>0.0716266404039661</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1167274324268676</v>
+        <v>0.1168476090508537</v>
       </c>
       <c r="N217" t="n">
-        <v>0.03304808744039776</v>
+        <v>0.1158461721366522</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1176879774731606</v>
+        <v>0.1166555673340535</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.03316955310384143</v>
+        <v>0.01749904958756079</v>
       </c>
       <c r="G218" t="n">
+        <v>0.04545863952299817</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.02886085226871159</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1184622404828525</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.0668851812566415</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1176945260923937</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.09882313994344499</v>
+        <v>0.07110500347863247</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1174953760612549</v>
+        <v>0.1176163433209251</v>
       </c>
       <c r="N218" t="n">
-        <v>0.03316955310384143</v>
+        <v>0.1142351581978682</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1184622404828525</v>
+        <v>0.1174230381717775</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.03279049548683437</v>
+        <v>0.01703543603260001</v>
       </c>
       <c r="G219" t="n">
+        <v>0.04542849490787747</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.02847677872737336</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1192365034925443</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.06581034964821486</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.1184637713609714</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.09896610802724032</v>
+        <v>0.07031951246944068</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1182633196956421</v>
+        <v>0.1183850775909965</v>
       </c>
       <c r="N219" t="n">
-        <v>0.03279049548683437</v>
+        <v>0.1129469444695671</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1192365034925443</v>
+        <v>0.1181905090095016</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.03261090935561953</v>
+        <v>0.01657852271563423</v>
       </c>
       <c r="G220" t="n">
+        <v>0.04539835029275678</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.02841002280805952</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1200107665022362</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.06637157584901957</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1192330166295492</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.09831366488059179</v>
+        <v>0.06927338695261887</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1190312633300294</v>
+        <v>0.1191538118610679</v>
       </c>
       <c r="N220" t="n">
-        <v>0.03261090935561953</v>
+        <v>0.1115846038869811</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1200107665022362</v>
+        <v>0.1189579798472256</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.03223078947643984</v>
+        <v>0.01612866165618564</v>
       </c>
       <c r="G221" t="n">
+        <v>0.04536820567763609</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02806205238396817</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.120785029511928</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.06547082345227628</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1200022618981269</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.0996657593769617</v>
+        <v>0.06876984650439527</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1197992069644167</v>
+        <v>0.1199225461311393</v>
       </c>
       <c r="N221" t="n">
-        <v>0.03223078947643984</v>
+        <v>0.1111512093853427</v>
       </c>
       <c r="O221" t="n">
-        <v>0.120785029511928</v>
+        <v>0.1197254506849496</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.03225013061553822</v>
+        <v>0.01568620487377639</v>
       </c>
       <c r="G222" t="n">
+        <v>0.04533806106251539</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.02773433532829753</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1215592925216199</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.06560962751007082</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1207715071667046</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.09972234038981187</v>
+        <v>0.06861211070099793</v>
       </c>
       <c r="M222" t="n">
-        <v>0.120567150598804</v>
+        <v>0.1206912804012107</v>
       </c>
       <c r="N222" t="n">
-        <v>0.03225013061553822</v>
+        <v>0.1097498338998842</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1215592925216199</v>
+        <v>0.1204929215226737</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.03226892753915762</v>
+        <v>0.01525150438792838</v>
       </c>
       <c r="G223" t="n">
+        <v>0.0453079164473947</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.02752833951424576</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1223335555313117</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.06506413114789605</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1215407524352824</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.09938335679260429</v>
+        <v>0.06820339911865517</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1213350942331913</v>
+        <v>0.1214600146712821</v>
       </c>
       <c r="N223" t="n">
-        <v>0.03226892753915762</v>
+        <v>0.1083835503658382</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1223335555313117</v>
+        <v>0.1212603923603977</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.03208717501354096</v>
+        <v>0.01482491221816386</v>
       </c>
       <c r="G224" t="n">
+        <v>0.04527777183227401</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02724553281501102</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1231078185410036</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.06421995439520259</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.1223099977038601</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.09864875745880131</v>
+        <v>0.06714693133359498</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1221030378675786</v>
+        <v>0.1222287489413535</v>
       </c>
       <c r="N224" t="n">
-        <v>0.03208717501354096</v>
+        <v>0.107455431718437</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1231078185410036</v>
+        <v>0.1220278631981217</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.03170486780493115</v>
+        <v>0.01440678038400471</v>
       </c>
       <c r="G225" t="n">
+        <v>0.04524762721715331</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.0270873831037915</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.1238820815506954</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.06457744322490042</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1230792429724378</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.09801849126186457</v>
+        <v>0.06684592692204569</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1228709815019659</v>
+        <v>0.1229974832114249</v>
       </c>
       <c r="N225" t="n">
-        <v>0.03170486780493115</v>
+        <v>0.105968550892913</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1238820815506954</v>
+        <v>0.1227953340358458</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.03132200067957118</v>
+        <v>0.01399746090497312</v>
       </c>
       <c r="G226" t="n">
+        <v>0.04521748260203262</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02735535825378536</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1246563445603873</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.06413694360989947</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1238484882410156</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.09829250707525633</v>
+        <v>0.06690360546023538</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1236389251363532</v>
+        <v>0.1237662174814963</v>
       </c>
       <c r="N226" t="n">
-        <v>0.03132200067957118</v>
+        <v>0.1054259808244986</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1246563445603873</v>
+        <v>0.1235628048735698</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.0314385684037039</v>
+        <v>0.01359730580059122</v>
       </c>
       <c r="G227" t="n">
+        <v>0.04518733798691194</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.02705092613819081</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1254306075700791</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.06289880152310984</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1246177335095933</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.09897075377243852</v>
+        <v>0.0659231865243923</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1244068687707404</v>
+        <v>0.1245349517515677</v>
       </c>
       <c r="N227" t="n">
-        <v>0.0314385684037039</v>
+        <v>0.1043307944484264</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1254306075700791</v>
+        <v>0.1243302757112938</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.03115456574357228</v>
+        <v>0.01320666709038092</v>
       </c>
       <c r="G228" t="n">
+        <v>0.04515719337179123</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02687555463020598</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.126204870579771</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.0626633629374414</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1253869787781711</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.09885318022687328</v>
+        <v>0.06610788969074446</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1251748124051277</v>
+        <v>0.1253036860216391</v>
       </c>
       <c r="N228" t="n">
-        <v>0.03115456574357228</v>
+        <v>0.1031860646999285</v>
       </c>
       <c r="O228" t="n">
-        <v>0.126204870579771</v>
+        <v>0.1250977465490179</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0311699874654193</v>
+        <v>0.01282589679386439</v>
       </c>
       <c r="G229" t="n">
+        <v>0.04512704875667054</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.02713071160302906</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1269791335894628</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.06243097382580426</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1261562240467488</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.09773973531202251</v>
+        <v>0.06596093453552021</v>
       </c>
       <c r="M229" t="n">
-        <v>0.125942756039515</v>
+        <v>0.1260724202917106</v>
       </c>
       <c r="N229" t="n">
-        <v>0.0311699874654193</v>
+        <v>0.1025948645142375</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1269791335894628</v>
+        <v>0.1258652173867419</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.03078482833548782</v>
+        <v>0.01245534693056376</v>
       </c>
       <c r="G230" t="n">
+        <v>0.04509690414154986</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02671766656249892</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1277533965991547</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.06280198016110841</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1269254693153265</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.09873036790134826</v>
+        <v>0.0662851465614705</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1267106996739023</v>
+        <v>0.1268411545617819</v>
       </c>
       <c r="N230" t="n">
-        <v>0.03078482833548782</v>
+        <v>0.1032598939069653</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1277533965991547</v>
+        <v>0.1266326882244659</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.03079908312002079</v>
+        <v>0.01209536952000096</v>
       </c>
       <c r="G231" t="n">
+        <v>0.04506675952642916</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.0269176685808873</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1285276596088465</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.06217672791626383</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.1276947145839042</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.09702502686831266</v>
+        <v>0.06563956909468321</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1274786433082896</v>
+        <v>0.1276098888318533</v>
       </c>
       <c r="N231" t="n">
-        <v>0.03079908312002079</v>
+        <v>0.1012510706623714</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1285276596088465</v>
+        <v>0.12740015906219</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.03061274658526117</v>
+        <v>0.01174631658169822</v>
       </c>
       <c r="G232" t="n">
+        <v>0.04503661491130847</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.02671768045437548</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1293019226185383</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.06135556306418047</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.128463959852482</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.09682366108637763</v>
+        <v>0.06649514986809607</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1282465869426769</v>
+        <v>0.1283786231019247</v>
       </c>
       <c r="N232" t="n">
-        <v>0.03061274658526117</v>
+        <v>0.1001481583753078</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1293019226185383</v>
+        <v>0.128167629899914</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.03002581349745187</v>
+        <v>0.01140854013517744</v>
       </c>
       <c r="G233" t="n">
+        <v>0.04500647029618778</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.02681771106897698</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1300761856282302</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.06093883157776842</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1292332051210597</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.09792621942900531</v>
+        <v>0.06555190133073549</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1290145305770642</v>
+        <v>0.1291473573719962</v>
       </c>
       <c r="N233" t="n">
-        <v>0.03002581349745187</v>
+        <v>0.1011516165479316</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1300761856282302</v>
+        <v>0.1289351007376381</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.0301382786228358</v>
+        <v>0.01108239219996079</v>
       </c>
       <c r="G234" t="n">
+        <v>0.04497632568106708</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02671776931070542</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.130850448637922</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.06082687942993759</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1300024503896375</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.0966326507696576</v>
+        <v>0.06560983593162797</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1297824742114514</v>
+        <v>0.1299160916420676</v>
       </c>
       <c r="N234" t="n">
-        <v>0.0301382786228358</v>
+        <v>0.09936190468239997</v>
       </c>
       <c r="O234" t="n">
-        <v>0.130850448637922</v>
+        <v>0.1297025715753621</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02985013672765592</v>
+        <v>0.01076822479557039</v>
       </c>
       <c r="G235" t="n">
+        <v>0.04494618106594639</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.02671786406557439</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1316247116476139</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.06122005259359803</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1307716956582152</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.09834290398179668</v>
+        <v>0.0656689661198</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1305504178458387</v>
+        <v>0.130684825912139</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02985013672765592</v>
+        <v>0.09967948228087009</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1316247116476139</v>
+        <v>0.1304700424130861</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02966138257815515</v>
+        <v>0.01046638994152821</v>
       </c>
       <c r="G236" t="n">
+        <v>0.0449160364508257</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.02711800421959748</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1323989746573057</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.06071869704165969</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.1315409409267929</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.09765692793888442</v>
+        <v>0.06552930434427806</v>
       </c>
       <c r="M236" t="n">
-        <v>0.131318361480226</v>
+        <v>0.1314535601822104</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02966138257815515</v>
+        <v>0.09830480884549914</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1323989746573057</v>
+        <v>0.1312375132508102</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02927201094057644</v>
+        <v>0.01017723965735641</v>
       </c>
       <c r="G237" t="n">
+        <v>0.044885891835705</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.02691819865878826</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1331732376669976</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.06082315874703267</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1323101861953707</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.09787467151438289</v>
+        <v>0.06559086305408865</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1320863051146133</v>
+        <v>0.1322222944522818</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02927201094057644</v>
+        <v>0.09823834387844449</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1331732376669976</v>
+        <v>0.1320049840885342</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02918201658116269</v>
+        <v>0.009901125962576966</v>
       </c>
       <c r="G238" t="n">
+        <v>0.04485574722058431</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02691845626916037</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1339475006766894</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.0600337836826268</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1330794314639484</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.09689608358175433</v>
+        <v>0.06555365469825822</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1328542487490006</v>
+        <v>0.1329910287223532</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02918201658116269</v>
+        <v>0.09698054688186303</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1339475006766894</v>
+        <v>0.1327724549262582</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02909139426615684</v>
+        <v>0.009638400876712007</v>
       </c>
       <c r="G239" t="n">
+        <v>0.04482560260546362</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.02671878593672734</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.1347217636863813</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.05985091782135224</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1338486767325262</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.0967211130144604</v>
+        <v>0.06581769172581331</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1336221923833879</v>
+        <v>0.1337597629924246</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02909139426615684</v>
+        <v>0.09573187735791217</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1347217636863813</v>
+        <v>0.1335399257639823</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02890013876180184</v>
+        <v>0.009387979006235191</v>
       </c>
       <c r="G240" t="n">
+        <v>0.04479545799034292</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02711919654750279</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1354960266960731</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.05927490713611894</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1346179220011039</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.09734970868596354</v>
+        <v>0.06558298658578041</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1343901360177752</v>
+        <v>0.134528497262496</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02890013876180184</v>
+        <v>0.09469279480874904</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1354960266960731</v>
+        <v>0.1343073966017063</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02860824483434062</v>
+        <v>0.009141587892377727</v>
       </c>
       <c r="G241" t="n">
+        <v>0.04476531337522223</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.0270196969875003</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.136270289705765</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.05930609759983688</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1353871672696816</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.09618181946972537</v>
+        <v>0.06574955172718591</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1351580796521624</v>
+        <v>0.1352972315325674</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02860824483434062</v>
+        <v>0.09556375873653078</v>
       </c>
       <c r="O241" t="n">
-        <v>0.136270289705765</v>
+        <v>0.1350748674394303</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02841570725001609</v>
+        <v>0.008898142141613254</v>
       </c>
       <c r="G242" t="n">
+        <v>0.04473516876010154</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02682029614273349</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.1370445527154568</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.05894483518541607</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1361564125382594</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.09651739423920819</v>
+        <v>0.06581739959905641</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1359260232865497</v>
+        <v>0.1360659658026388</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02841570725001609</v>
+        <v>0.09424522864341467</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1370445527154568</v>
+        <v>0.1358423382771544</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02842252077507117</v>
+        <v>0.008657993773463914</v>
       </c>
       <c r="G243" t="n">
+        <v>0.04470502414498084</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.02682100289921588</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1378188157251486</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.05879146586576647</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1369256578068371</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.09715638186787401</v>
+        <v>0.06508654265041836</v>
       </c>
       <c r="M243" t="n">
-        <v>0.136693966920937</v>
+        <v>0.1368347000727102</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02842252077507117</v>
+        <v>0.0943376640315578</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1378188157251486</v>
+        <v>0.1366098091148784</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02822868017574884</v>
+        <v>0.008421494807451677</v>
       </c>
       <c r="G244" t="n">
+        <v>0.04467487952986015</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.02682182614296112</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1385930787348405</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.05824633561379811</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1376949030754148</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.09619873122918465</v>
+        <v>0.06595699333029822</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1374619105553243</v>
+        <v>0.1376034343427816</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02822868017574884</v>
+        <v>0.09234152440311744</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1385930787348405</v>
+        <v>0.1373772799526025</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02773418021829199</v>
+        <v>0.008188997263098713</v>
       </c>
       <c r="G245" t="n">
+        <v>0.04464473491473946</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.02672277475998278</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1393673417445323</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.05850979040242099</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1384641483439926</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.09604439119660252</v>
+        <v>0.06502876408772248</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1382298541897116</v>
+        <v>0.138372168612853</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02773418021829199</v>
+        <v>0.09205726926025076</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1393673417445323</v>
+        <v>0.1381447507903265</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02773901566894357</v>
+        <v>0.007960853159926985</v>
       </c>
       <c r="G246" t="n">
+        <v>0.04461459029961876</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.02692385763629443</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1401416047542242</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.05738217620454514</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1392333936125703</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.0957933106435892</v>
+        <v>0.06590186737171766</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1389977978240989</v>
+        <v>0.1391409028829244</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02773901566894357</v>
+        <v>0.09218535810511491</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1401416047542242</v>
+        <v>0.1389122216280505</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02734318129394651</v>
+        <v>0.007737414517458636</v>
       </c>
       <c r="G247" t="n">
+        <v>0.04458444568449807</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.02682508365790971</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.140915867763916</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.05756383899308049</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.140002638881148</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.09704543844360713</v>
+        <v>0.06597631563131023</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1397657414584862</v>
+        <v>0.1399096371529958</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02734318129394651</v>
+        <v>0.09072625043986704</v>
       </c>
       <c r="O247" t="n">
-        <v>0.140915867763916</v>
+        <v>0.1396796924657746</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02724667185954373</v>
+        <v>0.007519033355215768</v>
       </c>
       <c r="G248" t="n">
+        <v>0.04455430106937738</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.02672646171084216</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1416901307736079</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.05745512474093709</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.1407718841497258</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.09570072347011799</v>
+        <v>0.06505212131552668</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1405336850928735</v>
+        <v>0.1406783714230672</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02724667185954373</v>
+        <v>0.09098040576666444</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1416901307736079</v>
+        <v>0.1404471633034986</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02694948213197815</v>
+        <v>0.007306061692720356</v>
       </c>
       <c r="G249" t="n">
+        <v>0.04452415645425669</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.02692800068110537</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1424643937832998</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.05765637942102489</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1415411294183035</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.09745911459658407</v>
+        <v>0.06592929687339347</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1413016287272607</v>
+        <v>0.1414471056931386</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02694948213197815</v>
+        <v>0.08944828358766421</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1424643937832998</v>
+        <v>0.1412146341412226</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02715160687749274</v>
+        <v>0.007098851549494585</v>
       </c>
       <c r="G250" t="n">
+        <v>0.044494011839136</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.02702970945471296</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1432386567929916</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.05696794900625393</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1423103746868813</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.09732056069646738</v>
+        <v>0.06540785475393712</v>
       </c>
       <c r="M250" t="n">
-        <v>0.142069572361648</v>
+        <v>0.1422158399632101</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02715160687749274</v>
+        <v>0.09023034340502362</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1432386567929916</v>
+        <v>0.1419821049789467</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.0269530408623304</v>
+        <v>0.006897754945060418</v>
       </c>
       <c r="G251" t="n">
+        <v>0.0444638672240153</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.02673159691767851</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1440129198026834</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.05749017946953422</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.143079619955459</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.09588501064322974</v>
+        <v>0.06478780740618417</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1428375159960353</v>
+        <v>0.1429845742332815</v>
       </c>
       <c r="N251" t="n">
-        <v>0.0269530408623304</v>
+        <v>0.08982704472089981</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1440129198026834</v>
+        <v>0.1427495758166707</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02645377885273409</v>
+        <v>0.006703123898939983</v>
       </c>
       <c r="G252" t="n">
+        <v>0.04443372260889461</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.02673367195601561</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1447871828123753</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.05632341678377573</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1438488652240367</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.09685241331033334</v>
+        <v>0.06586916727916095</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1436054596304226</v>
+        <v>0.1437533085033529</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02645377885273409</v>
+        <v>0.08803884703744996</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1447871828123753</v>
+        <v>0.1435170466543947</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0261538156149467</v>
+        <v>0.006515310430655383</v>
       </c>
       <c r="G253" t="n">
+        <v>0.04440357799377392</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.02673594345573783</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1455614458220671</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.05696800692188844</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1446181104926144</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.09662271757124025</v>
+        <v>0.06575194682189409</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1443734032648099</v>
+        <v>0.1445220427734243</v>
       </c>
       <c r="N253" t="n">
-        <v>0.0261538156149467</v>
+        <v>0.08756620985683133</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1455614458220671</v>
+        <v>0.1442845174921188</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0261531459152112</v>
+        <v>0.006334666559728627</v>
       </c>
       <c r="G254" t="n">
+        <v>0.04437343337865322</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.02673842030285878</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1463357088317589</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.0560242958567824</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1453873557611922</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.09549587229941237</v>
+        <v>0.06503615848341002</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1451413468991972</v>
+        <v>0.1452907770434957</v>
       </c>
       <c r="N254" t="n">
-        <v>0.0261531459152112</v>
+        <v>0.08840959268120097</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1463357088317589</v>
+        <v>0.1450519883298428</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02615176451977048</v>
+        <v>0.006161544305681839</v>
       </c>
       <c r="G255" t="n">
+        <v>0.04434328876353253</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.02674111138339202</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1471099718414508</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.05639262956136756</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1461566010297699</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.09717182636831184</v>
+        <v>0.06542181471273517</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1459092905335845</v>
+        <v>0.1460595113135671</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02615176451977048</v>
+        <v>0.08696945501271619</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1471099718414508</v>
+        <v>0.1458194591675669</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02574966619486752</v>
+        <v>0.005996295688037036</v>
       </c>
       <c r="G256" t="n">
+        <v>0.04431314414841184</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.02684402558335118</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.1478842348511427</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.05607335400855396</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1469258462983477</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.09555052865140062</v>
+        <v>0.06550892795889618</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1466772341679718</v>
+        <v>0.1468282455836385</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02574966619486752</v>
+        <v>0.08714625635353407</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1478842348511427</v>
+        <v>0.1465869300052909</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.0255468457067452</v>
+        <v>0.005839272726316333</v>
       </c>
       <c r="G257" t="n">
+        <v>0.04428299953329114</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.02704717178874982</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1486584978608345</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.05566681517125158</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1476950915669254</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.09653192802214078</v>
+        <v>0.06479751067091941</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1474451778023591</v>
+        <v>0.1475969798537099</v>
       </c>
       <c r="N257" t="n">
-        <v>0.0255468457067452</v>
+        <v>0.08754045620581191</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1486584978608345</v>
+        <v>0.1473544008430149</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02514329782164651</v>
+        <v>0.005690827440041811</v>
       </c>
       <c r="G258" t="n">
+        <v>0.04425285491817046</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.02695055888560154</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1494327608705264</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.05627335902237041</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1484643368355031</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.09601597335399437</v>
+        <v>0.0656875752978314</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1482131214367463</v>
+        <v>0.1483657141237813</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02514329782164651</v>
+        <v>0.0859525140717069</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1494327608705264</v>
+        <v>0.148121871680739</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02533901730581434</v>
+        <v>0.005551311848735495</v>
       </c>
       <c r="G259" t="n">
+        <v>0.04422271030304976</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.02715419575991994</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1502070238802182</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.05549333153482039</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1492335821040809</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.09720261352042331</v>
+        <v>0.06547913428865859</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1489810650711336</v>
+        <v>0.1491344483938527</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02533901730581434</v>
+        <v>0.08508288945337611</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1502070238802182</v>
+        <v>0.148889342518463</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02513399892549162</v>
+        <v>0.005421077971919486</v>
       </c>
       <c r="G260" t="n">
+        <v>0.04419256568792906</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.02695809129771858</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1509812868899101</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.05642707868151162</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.1500028273726586</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.0971917973948897</v>
+        <v>0.06577220009242757</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1497490087055209</v>
+        <v>0.1499031826639241</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02513399892549162</v>
+        <v>0.08643204185297682</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1509812868899101</v>
+        <v>0.149656813356187</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02472823744692129</v>
+        <v>0.005300477829115878</v>
       </c>
       <c r="G261" t="n">
+        <v>0.04416242107280838</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.02676225438501108</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1517555498996019</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.05607494643535407</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1507720726412364</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.09668347385085563</v>
+        <v>0.06546678515816468</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1505169523399082</v>
+        <v>0.1506719169339955</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02472823744692129</v>
+        <v>0.08540043077266624</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1517555498996019</v>
+        <v>0.1504242841939111</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.0243217276363463</v>
+        <v>0.005189863439846697</v>
       </c>
       <c r="G262" t="n">
+        <v>0.04413227645768768</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.027066693907811</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1525298129092937</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.05573728076925777</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1515413179098141</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.09657759176178304</v>
+        <v>0.06466290193489652</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1512848959742955</v>
+        <v>0.1514406512040669</v>
       </c>
       <c r="N262" t="n">
-        <v>0.0243217276363463</v>
+        <v>0.08498851571460142</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1525298129092937</v>
+        <v>0.1511917550316351</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02451446426000954</v>
+        <v>0.005089586823634057</v>
       </c>
       <c r="G263" t="n">
+        <v>0.04410213184256699</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.02697141875213194</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1533040759189856</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.05531442765613259</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1523105631783918</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.09537410000113394</v>
+        <v>0.06546056287164953</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1520528396086828</v>
+        <v>0.1522093854741383</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02451446426000954</v>
+        <v>0.08409675618093965</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1533040759189856</v>
+        <v>0.1519592258693591</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02400644208415399</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.0440719872274463</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.02717643780398751</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1540783389286774</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.05540673306888863</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1530798084469696</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.09577294744237053</v>
+        <v>0.06485978041745016</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1528207832430701</v>
+        <v>0.1529781197442097</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02400644208415399</v>
+        <v>0.0841256116738382</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1540783389286774</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1527266967070832</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04405882933270946</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005532445361204695</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04405909786117347</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006061657293596222</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04405936638963749</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006587593947684767</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.0440596349181015</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007110213474026419</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04405990344656553</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.007629474023131667</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04406017197502954</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.008145333745556316</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04406044050349356</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.008657750791811129</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04406070903195757</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.009166683312451615</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04406097756042159</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.009672089457988843</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04406124608888561</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01017392737897804</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04406151461734963</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01067215522593055</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04406178314581364</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01116673114940128</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04406205167427766</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01165761329990194</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04406232020274168</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01214475982798707</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0440625887312057</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01262812888416873</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04406285725966971</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01310767861900113</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04406312578813373</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01358336718299664</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04406339431659775</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01405515272669894</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04406366284506176</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01452299340065137</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04406393137352578</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01498684735536681</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04406419990198979</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01544667274139865</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04406446843045381</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.0159024277092601</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04406473695891783</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.0163540704095042</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04406500548738185</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.0168015589926445</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04406527401584587</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01724502249455642</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04406554254430989</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01768544437769012</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.0440658110727739</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01812295367792066</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04406607960123792</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01855750854576224</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04406634812970193</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01898906713176697</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04406661665816596</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.0194175875864493</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04406688518662997</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01984302806036108</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04406715371509399</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02026534670401699</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.044067422243558</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02068450166795959</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04406769077202202</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02110045110273107</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04406795930048604</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02151315315884655</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04406822782895006</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0219225659868572</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04406849635741408</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02232864773727843</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04406876488587809</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02273135656066112</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04406903341434211</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02313065060752097</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04406930194280612</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02352648802840854</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04406957047127014</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02391882697383985</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04406983899973416</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02430762559436518</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04407010752819818</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02469284204050081</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04407037605666219</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.02507443446279674</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04407064458512621</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.02545236101176956</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04407091311359022</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.02582657983796896</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04407118164205424</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.02619704909191181</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04407145017051826</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.02656372692414752</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04407171869898228</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.0269265714851933</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.0440719872274463</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.02692657148519328</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04405882933270946</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.02730354119091495</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04408951100475818</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.02767671436038362</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04412019267680691</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.02804596567713717</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04415087434885564</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.02841116982471316</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.04418155602090437</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.02877220148664951</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04421223769295309</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.02912893534648377</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04424291936500182</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.02948124608775382</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04427360103705055</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.02982900839399727</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04430428270909927</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.03017209694875198</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.044334964381148</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03051038643555558</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04436564605319673</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03084375153794577</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04439632772524545</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03117206693946041</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.04442700939729418</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.0314952073236371</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04445769106934291</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03181304737401368</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04448837274139163</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03212546177412778</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04451905441344036</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.03243232520751724</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04454973608548909</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.03273351235771968</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04458041775753781</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.03302889790827292</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04461109942958654</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.03331835654271462</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04464178110163527</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.03360176294458257</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.04467246277368399</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.03387899179741451</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.04470314444573273</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.03414991778474805</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.04473382611778145</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.03441441559012108</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.04476450778983018</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.03467235989707118</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.0447951894618789</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.03492413709802383</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.04482587113392764</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.03517269212984224</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.04485655280597636</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.03541841138495182</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.04488723447802509</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.03566116954689023</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.04491791615007381</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.03590084129919527</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.04494859782212254</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.03613730132540466</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.04497927949417127</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.03637042430905604</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.04500996116622</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.03660008493368726</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.04504064283826872</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.03682615788283597</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.04507132451031745</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.03704851784003996</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.04510200618236618</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.03726703948883689</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0451326878544149</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.03748159751276459</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.04516336952646363</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.03769206659536066</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.04519405119851236</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.03789832142016297</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.04522473287056109</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.03810023667070915</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.04525541454260981</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.038297687030537</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.04528609621465854</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.03849054718318419</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.04531677788670727</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.03867869181218846</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.04534745955875599</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.03886199560108759</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.04537814123080473</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.03904033323341925</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.04540882290285345</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.03921357939272123</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.04543950457490218</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.03938160876253119</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.0454701862469509</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.03954429602638694</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.04550086791899963</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.03970151586782612</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.04553154959104835</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.03985314297038657</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.04556223126309709</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.03223542864692437</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.04556223126309709</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.03995233835512685</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.04703421091921238</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.04004474696004719</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.04850619057532768</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.04013060927940648</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.04997817023144297</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.04021016580746352</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05145014988755827</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.04028365703847721</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05292212954367356</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.04035132346670638</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.05439410919978886</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.04041340558640991</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.05586608885590415</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.04047014389184662</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.05733806851201945</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.04052177887727541</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.05881004816813475</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.0405685510369551</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06028202782425005</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.04061070086514454</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06175400748036534</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.0406484688561026</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06322598713648063</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.04068209550408813</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.06469796679259593</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.04071182130336</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.06616994644871123</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.04073788674817705</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.06764192610482653</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.04076053233279812</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.06911390576094183</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.04077999855148211</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07058588541705711</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.04079652589848784</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07205786507317241</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.04081035486807416</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.0735298447292877</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.04082172595449994</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.075001824385403</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.04083087965202403</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.0764738040415183</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.04083805645490528</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.07794578369763358</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.04084349685740256</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.07941776335374888</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.04084744135377473</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08088974300986418</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.0408501304382806</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.08236172266597948</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.04085180460517908</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.08383370232209478</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.04085270434872901</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.08530568197821008</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.0408530701631892</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.08677766163432538</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.04085314254281856</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.08824964129044066</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.04083652531274377</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.08972162094655596</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.04076848722431606</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09119360060267126</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.04065127700143778</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.09266558025878655</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.04048849605075189</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.09413755991490184</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.04028374577890141</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.09560953957101714</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.0400406275925293</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.09708151922713243</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.03976274289827857</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.09855349888324773</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.03945369310279219</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.100025478539363</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.03911707961271316</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1014974581954783</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.03875650383468447</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1029694378515936</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.03837556717534908</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1044414175077089</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.03797787104135003</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1059133971638242</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.03756701683933025</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1073853768199395</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.03714660597593278</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1088573564760548</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.03672023985780058</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1103293361321701</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.03629151989157665</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1118013157882854</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.03586404748390397</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1132732954444007</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.03544142404142553</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.114745275100516</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.03502725097078432</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1162172547566313</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.03462512967862336</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1176892344127466</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.03423866157158556</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1191612140688619</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.03387144805631399</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1206331937249772</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.03352709053945159</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1221051733810925</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.03319036861182006</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1235771530372077</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.03284328830057959</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1250491326933231</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.03248715553357384</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1265211123494384</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.03212328146097154</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1279930920055536</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.03175297723294139</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.129465071661669</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.03137755399965213</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1309370513177842</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.03099832291127247</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1324090309738995</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.03061659511797116</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1338810106300148</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03023368176991689</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1353529902861301</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02985089401727843</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1368249699422454</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.02946954301022443</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1382969495983607</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.0290909398989237</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.139768929254476</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02871639583354491</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1412409089105913</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02834722196425678</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1427128885667066</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02798472944122805</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1441848682228219</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02763022941462745</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1456568478789372</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02728503303462369</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1471288275350525</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.0269504514513855</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1486008071911678</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.0266277958150816</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02631837727588071</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1515447665033984</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02602350698395156</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1530167461595137</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02574449608946287</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.154488725815629</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02548265574258338</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1559607054717443</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02523929709348179</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1574326851278596</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02501502075643169</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1589046647839749</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02479803011769022</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1603766444400901</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02458398410687842</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1618486240962055</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02437322790044201</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1633206037523208</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02416610667482672</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1647925834084361</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02396296560647826</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1662645630645513</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.02376414987184237</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1677365427206667</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02357000464736476</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1692085223767819</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02338087510949117</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1706805020328972</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.0231971064346673</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1721524816890125</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02301904379933888</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1736244613451278</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02284703237995165</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1750964410012431</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.02268141735295132</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1765684206573584</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02252254389478361</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1780404003134737</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02237075718189425</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.179512379969589</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02222640239072896</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1809843596257043</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02208982469773347</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1824563392818196</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02196136927935348</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1839283189379349</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02184138131203475</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.1854002985940502</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02173020597222299</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.1868722782501655</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.0216281884363639</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.1883442579062808</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02153567388090323</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.1898162375623961</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.0214530074822867</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.1912882172185114</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1066.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1066.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.07723542864692438</v>
+        <v>0.07342854920846667</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02723542864692438</v>
+        <v>0.02342854920846666</v>
       </c>
       <c r="B65" t="n">
-        <v>0.005592231263097079</v>
+        <v>0.008128811734916775</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0001179314200558113</v>
+        <v>0.003240855514154373</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0004602245582131018</v>
+        <v>0.001623070453528479</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002999999999999996</v>
+        <v>0.007592891704554176</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007311585365853649</v>
+        <v>0.001637334605859452</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.01299999999999998</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0009963376284706229</v>
+        <v>0.001884429218003519</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01860581382100468</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007674708377240361</v>
+        <v>0.001809798357884568</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.000487478615513473</v>
+        <v>0.01111771432346219</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.0009204491164262037</v>
+        <v>0.002709603911638925</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005450185985215628</v>
+        <v>0.01390610098128744</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001548526019383693</v>
+        <v>0.003389188147695483</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01885287421723003</v>
+        <v>0.03732091796676135</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001537468540142812</v>
+        <v>0.003221261268052875</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03463397141365393</v>
+        <v>0.0621018058602244</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001534941675448072</v>
+        <v>0.003219011091365871</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.001132270989308314</v>
+        <v>0.01706884787203182</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.001380673674639306</v>
+        <v>0.004869211360585436</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.008418649336608491</v>
+        <v>0.0167804623890376</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002322789029075539</v>
+        <v>0.004912003817578356</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02658737736007533</v>
+        <v>0.05276984700537946</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002306202810214217</v>
+        <v>0.004831891902079312</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.04599999999999999</v>
+        <v>0.09381567341634345</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002057082121279928</v>
+        <v>0.005429395073653704</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.002075937944375661</v>
+        <v>0.02067761516015322</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.001840898232852407</v>
+        <v>0.006492281814113914</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01111811998964729</v>
+        <v>0.0191577272096822</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003097052038767385</v>
+        <v>0.006549338423437808</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03408701182643684</v>
+        <v>0.05889585479548851</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003074937080285623</v>
+        <v>0.005653287654010558</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.06032893791279725</v>
+        <v>0.09958207527766438</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003069883350896144</v>
+        <v>0.006438022182731743</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.005592231263097079</v>
+        <v>0.002709603911638925</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02723542864692438</v>
+        <v>0.01111771432346219</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.003342108883650857</v>
+        <v>0.02342854920846666</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.002301122791065509</v>
+        <v>0.008128811734916775</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.0132108705421228</v>
+        <v>0.02076125684071246</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003871315048459232</v>
+        <v>0.008186673029297259</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.04178459345839533</v>
+        <v>0.06794780460900812</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003843671350357029</v>
+        <v>0.008053153170132187</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.07185824979815797</v>
+        <v>0.1087338360010505</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003837354188620181</v>
+        <v>0.008047527728414678</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.004954413210069238</v>
+        <v>0.02259451474807088</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.002761347349278612</v>
+        <v>0.009738422721170871</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01555917359182586</v>
+        <v>0.02236275239787905</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004645578058151079</v>
+        <v>0.009824007635156713</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.04841293809803171</v>
+        <v>0.07376911288288152</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004612405620428434</v>
+        <v>0.009663783804158624</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.08202335652849341</v>
+        <v>0.1179238778708961</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004604825026344217</v>
+        <v>0.009657033274097615</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.00693648032656613</v>
+        <v>0.02365516339418124</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.003221571907491713</v>
+        <v>0.01136149317469935</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.0177253017365472</v>
+        <v>0.02397603617463352</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005419841067842925</v>
+        <v>0.01096737804878049</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.05290486158742677</v>
+        <v>0.07792790644631911</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005381139890499841</v>
+        <v>0.01127441443818506</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0886809658254003</v>
+        <v>0.1265144141027095</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005372295864068253</v>
+        <v>0.01126653881978055</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.009311939636076863</v>
+        <v>0.02759077910523836</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.003681796465704815</v>
+        <v>0.01298456362822783</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02007152757407765</v>
+        <v>0.02634619692426997</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006194104077534771</v>
+        <v>0.01309867684687562</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.05889585479548851</v>
+        <v>0.08236199695444246</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006425978653956135</v>
+        <v>0.0128850450722115</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.09381567341634345</v>
+        <v>0.1319676579119992</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.005972560630815571</v>
+        <v>0.01287604436546349</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01210442054153677</v>
+        <v>0.02840026838899568</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.004142021023917916</v>
+        <v>0.01460763408175631</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02166012370220799</v>
+        <v>0.02817592068813157</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.006968367087226618</v>
+        <v>0.01473601145273507</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.06037421024337214</v>
+        <v>0.08660919606237302</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006918608430642651</v>
+        <v>0.01449567570623794</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0977843321603023</v>
+        <v>0.1388458225142735</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006907237539516325</v>
+        <v>0.01448554991114642</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.0153375524458812</v>
+        <v>0.03108253775320664</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.004602245582131018</v>
+        <v>0.01623070453528479</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02315336271872905</v>
+        <v>0.02959161544983953</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007742630096918463</v>
+        <v>0.01637334605859452</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06269331315923146</v>
+        <v>0.09040731542523237</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007687342700714058</v>
+        <v>0.01610630634026437</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.100427114143092</v>
+        <v>0.144911121125041</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007674708377240361</v>
+        <v>0.01609505545682936</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01903496475204547</v>
+        <v>0.03463649370562476</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00506247014034412</v>
+        <v>0.01785377498881326</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02397603617463352</v>
+        <v>0.03157351716960438</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008318768801216162</v>
+        <v>0.01801068066445397</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06465901097173701</v>
+        <v>0.09259416669814197</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008456076970785464</v>
+        <v>0.01771693697429081</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.1047882138890759</v>
+        <v>0.1492257669598098</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008442179214964396</v>
+        <v>0.01770456100251229</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.02723542864692438</v>
+        <v>0.03406104275400343</v>
       </c>
       <c r="G77" t="n">
-        <v>0.005592231263097079</v>
+        <v>0.01947684544234174</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02508743976538684</v>
+        <v>0.03310186180763675</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009291156116302157</v>
+        <v>0.01964801527031343</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06657138662903292</v>
+        <v>0.09580756153622341</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009224811240856869</v>
+        <v>0.01932756760831725</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1080677252815481</v>
+        <v>0.1529519732340886</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009209650052688433</v>
+        <v>0.01931406654819523</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.0278870968443948</v>
+        <v>0.03735509140609616</v>
       </c>
       <c r="G78" t="n">
-        <v>0.005982919256770324</v>
+        <v>0.02109991589587022</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02593365705205503</v>
+        <v>0.03515688532414718</v>
       </c>
       <c r="K78" t="n">
-        <v>0.010065419125994</v>
+        <v>0.02128534987617288</v>
       </c>
       <c r="L78" t="n">
-        <v>0.06923052307926369</v>
+        <v>0.09868531159459812</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009993545510928275</v>
+        <v>0.02093819824234368</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1113657422038029</v>
+        <v>0.1563519531633855</v>
       </c>
       <c r="O78" t="n">
-        <v>0.009977120890412468</v>
+        <v>0.02092357209387816</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.02860068975351152</v>
+        <v>0.0375175461696564</v>
       </c>
       <c r="G79" t="n">
-        <v>0.006443143814983426</v>
+        <v>0.0227229863493987</v>
       </c>
       <c r="J79" t="n">
-        <v>0.02706333107021935</v>
+        <v>0.0366188236793463</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01083968213568585</v>
+        <v>0.02292268448203233</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07193650327057363</v>
+        <v>0.1000652285283877</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01076227978099968</v>
+        <v>0.02254882887637012</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1146823585391345</v>
+        <v>0.1605879199632093</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01074459172813651</v>
+        <v>0.0225330776395611</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02925831210884525</v>
+        <v>0.03754731355243759</v>
       </c>
       <c r="G80" t="n">
-        <v>0.006903368373196528</v>
+        <v>0.02434605680292718</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02787621876157695</v>
+        <v>0.03776791283344465</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01161394514537769</v>
+        <v>0.02456001908789178</v>
       </c>
       <c r="L80" t="n">
-        <v>0.07418941015110694</v>
+        <v>0.1017851239927136</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01153101405107109</v>
+        <v>0.02415945951039656</v>
       </c>
       <c r="N80" t="n">
-        <v>0.119017668170837</v>
+        <v>0.1637220868490681</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01151206256586054</v>
+        <v>0.02414258318524403</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02986260683225719</v>
+        <v>0.03644330006219323</v>
       </c>
       <c r="G81" t="n">
-        <v>0.00736359293140963</v>
+        <v>0.02596912725645566</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02877207706782492</v>
+        <v>0.03938438874665284</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01238820815506954</v>
+        <v>0.02619735369375123</v>
       </c>
       <c r="L81" t="n">
-        <v>0.07568932666900804</v>
+        <v>0.1035828096426974</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01229974832114249</v>
+        <v>0.025770090144423</v>
       </c>
       <c r="N81" t="n">
-        <v>0.1227717649822048</v>
+        <v>0.1661166670364703</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01227953340358458</v>
+        <v>0.02575208873092697</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.03041621684560858</v>
+        <v>0.03720441220667677</v>
       </c>
       <c r="G82" t="n">
-        <v>0.007823817489622732</v>
+        <v>0.02759219770998414</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02945066293066043</v>
+        <v>0.04054848737918146</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01316247116476139</v>
+        <v>0.02783468829961068</v>
       </c>
       <c r="L82" t="n">
-        <v>0.07803633577242125</v>
+        <v>0.1056078698844168</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0130684825912139</v>
+        <v>0.02738072077844943</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1252447428565321</v>
+        <v>0.1675632913189847</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01304700424130861</v>
+        <v>0.02736159427660991</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.0309217850707606</v>
+        <v>0.04182962831778571</v>
       </c>
       <c r="G83" t="n">
-        <v>0.008284042047835833</v>
+        <v>0.02921526816351262</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03021173329178053</v>
+        <v>0.04164044469124109</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01393673417445324</v>
+        <v>0.02947202290547014</v>
       </c>
       <c r="L83" t="n">
-        <v>0.07973052040949088</v>
+        <v>0.1064761678187089</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0138372168612853</v>
+        <v>0.02899135141247587</v>
       </c>
       <c r="N83" t="n">
-        <v>0.128936695677113</v>
+        <v>0.1704334964356204</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01381447507903265</v>
+        <v>0.02897109982229285</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.03138195442957448</v>
+        <v>0.03938391449000631</v>
       </c>
       <c r="G84" t="n">
-        <v>0.008744266606048936</v>
+        <v>0.0308383386170411</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03105504509288237</v>
+        <v>0.0421404966430423</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01471099718414508</v>
+        <v>0.03110935751132959</v>
       </c>
       <c r="L84" t="n">
-        <v>0.08117196352836126</v>
+        <v>0.107401758102675</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01460595113135671</v>
+        <v>0.03060198204650231</v>
       </c>
       <c r="N84" t="n">
-        <v>0.1319477173272419</v>
+        <v>0.1726340022273389</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01458194591675669</v>
+        <v>0.03058060536797578</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.03179936784391139</v>
+        <v>0.03892233173081326</v>
       </c>
       <c r="G85" t="n">
-        <v>0.009204491164262037</v>
+        <v>0.03246140907056957</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03198035527566309</v>
+        <v>0.04305101394285213</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01548526019383693</v>
+        <v>0.03274669211718904</v>
       </c>
       <c r="L85" t="n">
-        <v>0.08326074807717668</v>
+        <v>0.1093758649356021</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01537468540142812</v>
+        <v>0.03221261268052875</v>
       </c>
       <c r="N85" t="n">
-        <v>0.1340779016902129</v>
+        <v>0.1739508589259623</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01534941675448072</v>
+        <v>0.03219011091365871</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.03217666823563257</v>
+        <v>0.04144130754487717</v>
       </c>
       <c r="G86" t="n">
-        <v>0.00966471572247514</v>
+        <v>0.03408447952409804</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03268742078181978</v>
+        <v>0.04331662222247418</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01625952320352878</v>
+        <v>0.03438402672304849</v>
       </c>
       <c r="L86" t="n">
-        <v>0.08509695700408151</v>
+        <v>0.1098897125167769</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01614341967149952</v>
+        <v>0.03382324331455518</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1379273426493203</v>
+        <v>0.1752701167633125</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01611688759220476</v>
+        <v>0.03379961645934165</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0325164985265992</v>
+        <v>0.03993726943686868</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01012494028068824</v>
+        <v>0.03570754997762653</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03367599855304958</v>
+        <v>0.04396408312659444</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01703378621322062</v>
+        <v>0.03602136132890794</v>
       </c>
       <c r="L87" t="n">
-        <v>0.08728067325722008</v>
+        <v>0.1112345250454865</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01691215394157093</v>
+        <v>0.03543387394858162</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1398961340878582</v>
+        <v>0.1780778259712117</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01688435842992879</v>
+        <v>0.03540912200502459</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.03282150163867251</v>
+        <v>0.04440664491145849</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01058516483890134</v>
+        <v>0.037330620431155</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03434584553104958</v>
+        <v>0.04468964343656158</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01780804922291247</v>
+        <v>0.03765869593476739</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0886119797847367</v>
+        <v>0.1120015267210179</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01768088821164233</v>
+        <v>0.03704450458260806</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1416843698891209</v>
+        <v>0.180160036781482</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01765182926765283</v>
+        <v>0.03701862755070753</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.03309432049371366</v>
+        <v>0.04184586147331715</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01104538939711445</v>
+        <v>0.03895369088468349</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03519671865751692</v>
+        <v>0.04488954993372415</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01858231223260431</v>
+        <v>0.03929603054062685</v>
       </c>
       <c r="L89" t="n">
-        <v>0.09089095953477569</v>
+        <v>0.1136819417426579</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01844962248171374</v>
+        <v>0.0386551352166345</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1448921439364027</v>
+        <v>0.1815027994259453</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01841930010537687</v>
+        <v>0.03862813309639046</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.03333759801358389</v>
+        <v>0.04325134662711536</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01150561395532755</v>
+        <v>0.04057676133821196</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03582837487414872</v>
+        <v>0.04556004939943072</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01935657524229616</v>
+        <v>0.0409333651464863</v>
       </c>
       <c r="L90" t="n">
-        <v>0.09221769545548134</v>
+        <v>0.1140669943096934</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01921835675178514</v>
+        <v>0.04026576585066093</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1481195501129977</v>
+        <v>0.181692164136424</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0191867709431009</v>
+        <v>0.04023763864207339</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.03355397712014442</v>
+        <v>0.04361952787752371</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01196583851354065</v>
+        <v>0.04219983179174044</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0364405711226421</v>
+        <v>0.0459973886150299</v>
       </c>
       <c r="K91" t="n">
-        <v>0.020130838251988</v>
+        <v>0.04257069975234575</v>
       </c>
       <c r="L91" t="n">
-        <v>0.09399227049499803</v>
+        <v>0.1157479086214114</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01998709102185655</v>
+        <v>0.04187639648468737</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1499666823022002</v>
+        <v>0.18401418114474</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01995424178082494</v>
+        <v>0.04184714418775633</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03374610073525643</v>
+        <v>0.04394683272921288</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01242606307175375</v>
+        <v>0.04382290224526892</v>
       </c>
       <c r="J92" t="n">
-        <v>0.03723306434469416</v>
+        <v>0.04649781436187028</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02090510126167985</v>
+        <v>0.04420803435820521</v>
       </c>
       <c r="L92" t="n">
-        <v>0.09531476760147009</v>
+        <v>0.1157159088770987</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02075582529192796</v>
+        <v>0.04348702711871381</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1527336343873044</v>
+        <v>0.1851549006827154</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02072171261854897</v>
+        <v>0.04345664973343927</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03391661178078113</v>
+        <v>0.04522968868685348</v>
       </c>
       <c r="G93" t="n">
-        <v>0.01288628762996685</v>
+        <v>0.0454459726987974</v>
       </c>
       <c r="J93" t="n">
-        <v>0.03780561148200202</v>
+        <v>0.04655757342130043</v>
       </c>
       <c r="K93" t="n">
-        <v>0.0216793642713717</v>
+        <v>0.04584536896406466</v>
       </c>
       <c r="L93" t="n">
-        <v>0.09678526972304186</v>
+        <v>0.1163622192760424</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02152455956199936</v>
+        <v>0.04509765775274024</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1557205002516045</v>
+        <v>0.1858003729821723</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02148918345627301</v>
+        <v>0.0450661552791222</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03406815317857971</v>
+        <v>0.04646452325511619</v>
       </c>
       <c r="G94" t="n">
-        <v>0.01334651218817995</v>
+        <v>0.04706904315232587</v>
       </c>
       <c r="J94" t="n">
-        <v>0.03875796947626281</v>
+        <v>0.0470729125746689</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02245362728106355</v>
+        <v>0.04748270356992411</v>
       </c>
       <c r="L94" t="n">
-        <v>0.09880385980785752</v>
+        <v>0.1173780640175294</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02229329383207077</v>
+        <v>0.04670828838676668</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1575273737783947</v>
+        <v>0.1860366482749328</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02225665429399705</v>
+        <v>0.04667566082480514</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03420336785051341</v>
+        <v>0.04364776393867159</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01380673674639306</v>
+        <v>0.04869211360585435</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03938989526917366</v>
+        <v>0.04734007860332433</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02322789029075539</v>
+        <v>0.04912003817578357</v>
       </c>
       <c r="L95" t="n">
-        <v>0.09917062080406158</v>
+        <v>0.117791709590977</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02306202810214217</v>
+        <v>0.04831891902079312</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1596543488509693</v>
+        <v>0.187631346832687</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02302412513172108</v>
+        <v>0.04828516637048807</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03432489871844339</v>
+        <v>0.04577583824219035</v>
       </c>
       <c r="G96" t="n">
-        <v>0.01426696130460616</v>
+        <v>0.05031518405938283</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03970114580243167</v>
+        <v>0.04735531828861529</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02400215330044724</v>
+        <v>0.05075737278164302</v>
       </c>
       <c r="L96" t="n">
-        <v>0.1011856356597982</v>
+        <v>0.1177832533252806</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02383076237221358</v>
+        <v>0.04992954965481956</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1621015193526225</v>
+        <v>0.1862258087676529</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02379159596944512</v>
+        <v>0.04989467191617101</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03443538870423089</v>
+        <v>0.04685709841693332</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01472718586281926</v>
+        <v>0.05193825451291131</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04059147801773397</v>
+        <v>0.04751487841189037</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02477641631013908</v>
+        <v>0.05239470738750247</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1017489873232119</v>
+        <v>0.1166741943360126</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02459949664228498</v>
+        <v>0.05154018028884599</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1634689791666485</v>
+        <v>0.185893034844706</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02455906680716916</v>
+        <v>0.05150417746185394</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03453748072973711</v>
+        <v>0.04585473192732348</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01518741042103236</v>
+        <v>0.05356132496643978</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04106064885677765</v>
+        <v>0.04795207234926704</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02555067931983093</v>
+        <v>0.05403204199336192</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1033607587424469</v>
+        <v>0.1170857372913918</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02536823091235639</v>
+        <v>0.05315081092287242</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1650568221763416</v>
+        <v>0.1868387960177434</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02532653764489319</v>
+        <v>0.05311368300753688</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03463381771682326</v>
+        <v>0.0468274683720605</v>
       </c>
       <c r="G99" t="n">
-        <v>0.01564763497924546</v>
+        <v>0.05518439541996827</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04160841526125987</v>
+        <v>0.04785194709778716</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02632494232952278</v>
+        <v>0.05566937659922137</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1042210328656475</v>
+        <v>0.1166267671122186</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0261369651824278</v>
+        <v>0.05476144155689887</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1659651422649959</v>
+        <v>0.1871732462339541</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02609400848261723</v>
+        <v>0.05472318855321982</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03472704258735054</v>
+        <v>0.04477120733150908</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01610785953745857</v>
+        <v>0.05680746587349674</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04193453417287774</v>
+        <v>0.04793783464887807</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02709920533921462</v>
+        <v>0.05730671120508082</v>
       </c>
       <c r="L100" t="n">
-        <v>0.105629892640958</v>
+        <v>0.116601908898549</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0269056994524992</v>
+        <v>0.05637207219092531</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1679940333159057</v>
+        <v>0.1863037374234568</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02686147932034126</v>
+        <v>0.05633269409890276</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03481979826318016</v>
+        <v>0.0456878316137328</v>
       </c>
       <c r="G101" t="n">
-        <v>0.01656808409567167</v>
+        <v>0.05843053632702523</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04273876253332835</v>
+        <v>0.04769259419215467</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02787346834890647</v>
+        <v>0.05894404581094027</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1062874210165228</v>
+        <v>0.1167157877504386</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02767443372257061</v>
+        <v>0.05798270282495175</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1711435892123652</v>
+        <v>0.1855376215163704</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0276289501580653</v>
+        <v>0.05794219964458569</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03491472766617329</v>
+        <v>0.04457922402679534</v>
       </c>
       <c r="G102" t="n">
-        <v>0.01702830865388477</v>
+        <v>0.0600536067805537</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04292085728430885</v>
+        <v>0.04781826749860459</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02864773135859832</v>
+        <v>0.06058138041679973</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1080937009404863</v>
+        <v>0.1166730287679434</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02844316799264202</v>
+        <v>0.05959333345897818</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1725139038376687</v>
+        <v>0.1853822504428134</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02839642099578934</v>
+        <v>0.05955170519026862</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03501447371819116</v>
+        <v>0.04244726737876033</v>
       </c>
       <c r="G103" t="n">
-        <v>0.01748853321209787</v>
+        <v>0.06167667723408219</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04378057536751634</v>
+        <v>0.04741683262269396</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02942199436829016</v>
+        <v>0.06221871502265917</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1090488153609926</v>
+        <v>0.1156782570511194</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02921190226271342</v>
+        <v>0.06120396409300461</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1739050710751102</v>
+        <v>0.1839449761329049</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02916389183351337</v>
+        <v>0.06116121073595155</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.035121679341095</v>
+        <v>0.04629384447769136</v>
       </c>
       <c r="G104" t="n">
-        <v>0.01794875777031097</v>
+        <v>0.06329974768761067</v>
       </c>
       <c r="J104" t="n">
-        <v>0.04411767372464794</v>
+        <v>0.04749026761888885</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03019625737798201</v>
+        <v>0.06385604962851864</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1101528472261862</v>
+        <v>0.1153360977000221</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02998063653278482</v>
+        <v>0.06281459472703106</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1740171848079842</v>
+        <v>0.1834331505167633</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02993136267123741</v>
+        <v>0.06277071628163448</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03523898745674599</v>
+        <v>0.04212083813165207</v>
       </c>
       <c r="G105" t="n">
-        <v>0.01840898232852407</v>
+        <v>0.06492281814113915</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04463190929740078</v>
+        <v>0.04724055054165542</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03097052038767385</v>
+        <v>0.06549338423437807</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1105058794842114</v>
+        <v>0.1145511758147076</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03074937080285623</v>
+        <v>0.06442522536105749</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1769503389195847</v>
+        <v>0.1830541255245077</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03069883350896144</v>
+        <v>0.06438022182731742</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.03536904098700532</v>
+        <v>0.04393013114870609</v>
       </c>
       <c r="G106" t="n">
-        <v>0.01886920688673718</v>
+        <v>0.06654588859466762</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04472303902747199</v>
+        <v>0.04696965944545982</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0317447833973657</v>
+        <v>0.06713071884023754</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1117079950832124</v>
+        <v>0.1147281164952319</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03151810507292764</v>
+        <v>0.06603585599508394</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1773046272932061</v>
+        <v>0.1823152530862567</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03146630434668548</v>
+        <v>0.06598972737300036</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.03551357092771459</v>
+        <v>0.04272360633691706</v>
       </c>
       <c r="G107" t="n">
-        <v>0.01932943144495028</v>
+        <v>0.06816895904819609</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04499081985655864</v>
+        <v>0.04687957238476811</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03251904640705755</v>
+        <v>0.06876805344609699</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1120592769713337</v>
+        <v>0.1131715448416505</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03228683934299904</v>
+        <v>0.06764648662911037</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1776801438121426</v>
+        <v>0.181323885132129</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03223377518440951</v>
+        <v>0.06759923291868331</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03566152966845265</v>
+        <v>0.0445031465043486</v>
       </c>
       <c r="G108" t="n">
-        <v>0.01978965600316338</v>
+        <v>0.06979202950172458</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0453350087263579</v>
+        <v>0.04667226741404644</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03329330941674939</v>
+        <v>0.07040538805195644</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1131598080967195</v>
+        <v>0.1132860859540194</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03305557361307045</v>
+        <v>0.0692571172631368</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1790769823596882</v>
+        <v>0.1799873735922435</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03300124602213355</v>
+        <v>0.06920873846436623</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03580887394655867</v>
+        <v>0.0452706344590643</v>
       </c>
       <c r="G109" t="n">
-        <v>0.02024988056137648</v>
+        <v>0.07141509995525305</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04575536257856687</v>
+        <v>0.04634972258776095</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03406757242644124</v>
+        <v>0.07204272265781589</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1132096714075143</v>
+        <v>0.1127763649323945</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03382430788314186</v>
+        <v>0.07086774789716324</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1807952368191376</v>
+        <v>0.1784130703967191</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03376871685985759</v>
+        <v>0.07081824401004917</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03595553153394583</v>
+        <v>0.04202795300912784</v>
       </c>
       <c r="G110" t="n">
-        <v>0.02071010511958958</v>
+        <v>0.07303817040878154</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04625163835488263</v>
+        <v>0.04631391596037771</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03484183543613308</v>
+        <v>0.07368005726367535</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1136089498518622</v>
+        <v>0.1123470068768316</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03459304215321326</v>
+        <v>0.07247837853118967</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1814350010737845</v>
+        <v>0.1779083274756743</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03453618769758162</v>
+        <v>0.07242774955573211</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0361014302025274</v>
+        <v>0.04077698496260285</v>
       </c>
       <c r="G111" t="n">
-        <v>0.02117032967780268</v>
+        <v>0.07466124086231</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0464235929970024</v>
+        <v>0.04606682558636288</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03561609844582494</v>
+        <v>0.07531739186953479</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1148577263779076</v>
+        <v>0.1117026368873866</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03536177642328466</v>
+        <v>0.07408900916521612</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1825963690069233</v>
+        <v>0.1776804967592279</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03530365853530566</v>
+        <v>0.07403725510141505</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03624649772421665</v>
+        <v>0.04151961312755291</v>
       </c>
       <c r="G112" t="n">
-        <v>0.02163055423601579</v>
+        <v>0.0762843113158385</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04657098344662318</v>
+        <v>0.04551042952018257</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03639036145551678</v>
+        <v>0.07695472647539425</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1147560839337949</v>
+        <v>0.1102478800641153</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03613051069335606</v>
+        <v>0.07569963979924255</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1831794345018483</v>
+        <v>0.1761369301774988</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03607112937302969</v>
+        <v>0.07564676064709798</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.03639066187092675</v>
+        <v>0.04225772031204167</v>
       </c>
       <c r="G113" t="n">
-        <v>0.02209077879422889</v>
+        <v>0.07790738176936697</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04699356664544217</v>
+        <v>0.0454467058163029</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03716462446520863</v>
+        <v>0.0785920610812537</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1159041054676684</v>
+        <v>0.1101873615070735</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03689924496342747</v>
+        <v>0.07731027043326899</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1845842914418538</v>
+        <v>0.1751849796606058</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03683860021075373</v>
+        <v>0.07725626619278092</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.03653385041457101</v>
+        <v>0.04099318932413276</v>
       </c>
       <c r="G114" t="n">
-        <v>0.02255100335244199</v>
+        <v>0.07953045222289544</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04709109953515644</v>
+        <v>0.04507763252919</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03793888747490047</v>
+        <v>0.08022939568711315</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1161018739276724</v>
+        <v>0.1091257063163172</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03766797923349888</v>
+        <v>0.07892090106729543</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1836110337102338</v>
+        <v>0.1746319971386676</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03760607104847777</v>
+        <v>0.07886577173846385</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.0366759911270626</v>
+        <v>0.0397279029718898</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0230112279106551</v>
+        <v>0.08115352267642392</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04726333905746315</v>
+        <v>0.04480518771330998</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03871315048459232</v>
+        <v>0.0818667302929726</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1165494722619512</v>
+        <v>0.1085675395919022</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03843671350357029</v>
+        <v>0.08053153170132187</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1846597551902827</v>
+        <v>0.1731853345418028</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0383735418862018</v>
+        <v>0.08047527728414679</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.03681701178031482</v>
+        <v>0.04246374406337643</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0234714524688682</v>
+        <v>0.08277659312995241</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04731004215405939</v>
+        <v>0.04463134942312894</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03948741349428417</v>
+        <v>0.08350406489883207</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1165469834186491</v>
+        <v>0.1074164058875747</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03920544777364169</v>
+        <v>0.08214216233534831</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1857305497652946</v>
+        <v>0.171646958322605</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03914101272392584</v>
+        <v>0.08208478282982971</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.03695684014624087</v>
+        <v>0.04020259540665626</v>
       </c>
       <c r="G117" t="n">
-        <v>0.0239316770270813</v>
+        <v>0.08439966358348089</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0476309657666423</v>
+        <v>0.04415809571311304</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04026167650397601</v>
+        <v>0.0851413995046915</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1172944903459106</v>
+        <v>0.1069050253999309</v>
       </c>
       <c r="M117" t="n">
-        <v>0.0399741820437131</v>
+        <v>0.08375279296937474</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1860235113185638</v>
+        <v>0.170698451010994</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03990848356164987</v>
+        <v>0.08369428837551265</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.03709540399675403</v>
+        <v>0.0389227079815691</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0243919015852944</v>
+        <v>0.08602273403700936</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04772586683690896</v>
+        <v>0.04388740463772837</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04103593951366786</v>
+        <v>0.08677873411055097</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1165920759918798</v>
+        <v>0.1064020318370076</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04074291631378451</v>
+        <v>0.08536342360340118</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1864387337333845</v>
+        <v>0.1703066776992704</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04067595439937391</v>
+        <v>0.08530379392119559</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.03723263110376751</v>
+        <v>0.039605035142186</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0248521261435075</v>
+        <v>0.08764580449053784</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04749450230655655</v>
+        <v>0.04400842713386763</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04181020252335971</v>
+        <v>0.08841606871641042</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1173398233047012</v>
+        <v>0.1060224943276492</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04151165058385591</v>
+        <v>0.08697405423742761</v>
       </c>
       <c r="N119" t="n">
-        <v>0.186276310893051</v>
+        <v>0.1687955918545758</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04144342523709794</v>
+        <v>0.08691329946687854</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.03736844923919454</v>
+        <v>0.03925571125750826</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0253123507017206</v>
+        <v>0.08926887494406632</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04795207234926704</v>
+        <v>0.04329038351681576</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04258446553305155</v>
+        <v>0.09005340332226987</v>
       </c>
       <c r="L120" t="n">
-        <v>0.117637815232519</v>
+        <v>0.1040814820007001</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04228038485392731</v>
+        <v>0.08858468487145404</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1869363366808575</v>
+        <v>0.1671891469440518</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04221089607482199</v>
+        <v>0.08852280501256146</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.03750278617494836</v>
+        <v>0.03888087074126904</v>
       </c>
       <c r="G121" t="n">
-        <v>0.02577257525993371</v>
+        <v>0.09089194539759479</v>
       </c>
       <c r="J121" t="n">
-        <v>0.04765200421078285</v>
+        <v>0.04303768105886607</v>
       </c>
       <c r="K121" t="n">
-        <v>0.0433587285427434</v>
+        <v>0.09169073792812932</v>
       </c>
       <c r="L121" t="n">
-        <v>0.117791709590977</v>
+        <v>0.1038940639850044</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04304911912399872</v>
+        <v>0.09019531550548049</v>
       </c>
       <c r="N121" t="n">
-        <v>0.187631346832687</v>
+        <v>0.16531129643484</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04297836691254602</v>
+        <v>0.0901323105582444</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.03763556968294225</v>
+        <v>0.03848664800720156</v>
       </c>
       <c r="G122" t="n">
-        <v>0.02623279981814681</v>
+        <v>0.09251501585112328</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04754679567057915</v>
+        <v>0.04285676449791635</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04413299155243524</v>
+        <v>0.09332807253398878</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1177885426420821</v>
+        <v>0.1030753094094068</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04381785339407013</v>
+        <v>0.09180594613950692</v>
       </c>
       <c r="N122" t="n">
-        <v>0.186324639431286</v>
+        <v>0.1630859937940818</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04374583775027006</v>
+        <v>0.09174181610392734</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0377667275350894</v>
+        <v>0.04007917746903897</v>
       </c>
       <c r="G123" t="n">
-        <v>0.02669302437635991</v>
+        <v>0.09413808630465174</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04752961181553492</v>
+        <v>0.04225407857186445</v>
       </c>
       <c r="K123" t="n">
-        <v>0.0449072545621271</v>
+        <v>0.09496540713984822</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1171653393732248</v>
+        <v>0.1016402874027514</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04458658766414153</v>
+        <v>0.09341657677353336</v>
       </c>
       <c r="N123" t="n">
-        <v>0.187358879929705</v>
+        <v>0.162337192488919</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04451330858799409</v>
+        <v>0.09335132164961028</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.03789618750330308</v>
+        <v>0.03766459354051448</v>
       </c>
       <c r="G124" t="n">
-        <v>0.02715324893457301</v>
+        <v>0.09576115675818024</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04790095881570759</v>
+        <v>0.04183606801860811</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04568151757181894</v>
+        <v>0.09660274174570768</v>
       </c>
       <c r="L124" t="n">
-        <v>0.117720277717859</v>
+        <v>0.1002040670938826</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04535532193421293</v>
+        <v>0.09502720740755981</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1869254744891956</v>
+        <v>0.160088845986493</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04528077942571813</v>
+        <v>0.0949608271952932</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.03802387735949654</v>
+        <v>0.03724903063536125</v>
       </c>
       <c r="G125" t="n">
-        <v>0.02761347349278611</v>
+        <v>0.09738422721170871</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04776130595198816</v>
+        <v>0.04160917757604517</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04645578058151078</v>
+        <v>0.09824007635156713</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1169541429661463</v>
+        <v>0.09998171761164465</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04612405620428434</v>
+        <v>0.09663783804158624</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1856275219142067</v>
+        <v>0.1587649077539455</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04604825026344216</v>
+        <v>0.09657033274097614</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.03814972487558296</v>
+        <v>0.03983862316731246</v>
       </c>
       <c r="G126" t="n">
-        <v>0.02807369805099921</v>
+        <v>0.09900729766523719</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04781112250526755</v>
+        <v>0.04127985198207343</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04723004359120263</v>
+        <v>0.09987741095742658</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1166677204082484</v>
+        <v>0.09838830808488194</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04689279047435575</v>
+        <v>0.09824846867561268</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1862681210091873</v>
+        <v>0.1561893312584178</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0468157211011662</v>
+        <v>0.09817983828665908</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.03827365782347565</v>
+        <v>0.03943950555010133</v>
       </c>
       <c r="G127" t="n">
-        <v>0.02853392260921232</v>
+        <v>0.1006303681187657</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04765087775643674</v>
+        <v>0.0405545359745907</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04800430660089448</v>
+        <v>0.101514745563286</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1172617953343267</v>
+        <v>0.09753890764243894</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04766152474442716</v>
+        <v>0.09985909930963911</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1863503705785859</v>
+        <v>0.1548860699670517</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04758319193889023</v>
+        <v>0.09978934383234202</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.03839560397508782</v>
+        <v>0.036057812197461</v>
       </c>
       <c r="G128" t="n">
-        <v>0.02899414716742542</v>
+        <v>0.1022534385722941</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04768104098638665</v>
+        <v>0.04023967429149479</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04877856961058633</v>
+        <v>0.1031520801691455</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1168371530345428</v>
+        <v>0.09718236420649756</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04843025901449856</v>
+        <v>0.1014697299436656</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1855773694268518</v>
+        <v>0.1542500380445773</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04835066277661428</v>
+        <v>0.1013988493780249</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0385154911023327</v>
+        <v>0.03667578712408182</v>
       </c>
       <c r="G129" t="n">
-        <v>0.02945437172563852</v>
+        <v>0.1038765090258226</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04730208147600824</v>
+        <v>0.03964171167068349</v>
       </c>
       <c r="K129" t="n">
-        <v>0.04955283262027817</v>
+        <v>0.1047894147750049</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1162945787990583</v>
+        <v>0.09563773785702215</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04919899328456997</v>
+        <v>0.103080360577692</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1858522163584335</v>
+        <v>0.1518755589444515</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04911813361433831</v>
+        <v>0.1030083549237079</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.03863324697712354</v>
+        <v>0.03525826003087414</v>
       </c>
       <c r="G130" t="n">
-        <v>0.02991459628385162</v>
+        <v>0.1054995794793511</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04731446850619248</v>
+        <v>0.03935184577465051</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05032709562997001</v>
+        <v>0.1064267493808644</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1161348579180348</v>
+        <v>0.09492558065688453</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04996772755464138</v>
+        <v>0.1046909912117184</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1842780101777801</v>
+        <v>0.1498968954946497</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04988560445206234</v>
+        <v>0.1046178604693908</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.03874879937137357</v>
+        <v>0.03681314822059287</v>
       </c>
       <c r="G131" t="n">
-        <v>0.03037482084206472</v>
+        <v>0.1071226499328796</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04711867135783031</v>
+        <v>0.03902666829986598</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05110135863966186</v>
+        <v>0.1080640839867238</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1161587756816338</v>
+        <v>0.09296746406843984</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05073646182471278</v>
+        <v>0.1063016218457448</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1838578496893403</v>
+        <v>0.1477483370904023</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05065307528978638</v>
+        <v>0.1062273660150738</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.03886207605699604</v>
+        <v>0.03534923310829409</v>
       </c>
       <c r="G132" t="n">
-        <v>0.03083504540027783</v>
+        <v>0.1087457203864081</v>
       </c>
       <c r="J132" t="n">
-        <v>0.04711515931181265</v>
+        <v>0.03877121892299987</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05187562164935371</v>
+        <v>0.1097014185925833</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1156671173800169</v>
+        <v>0.09268495955404327</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05150519609478418</v>
+        <v>0.1079122524797713</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1825948336975631</v>
+        <v>0.1471641731269396</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05142054612751042</v>
+        <v>0.1078368715607567</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.0389730048059042</v>
+        <v>0.03587529610903399</v>
       </c>
       <c r="G133" t="n">
-        <v>0.03129526995849093</v>
+        <v>0.1103687908399365</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0470044016490305</v>
+        <v>0.03809472328824086</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05264988465904556</v>
+        <v>0.1113387531984427</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1154606683033456</v>
+        <v>0.0908996385760501</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05227393036485559</v>
+        <v>0.1095228831137977</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1827920610068972</v>
+        <v>0.1444786929994921</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05218801696523445</v>
+        <v>0.1094463771064396</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.03908151339001126</v>
+        <v>0.03640011863786863</v>
       </c>
       <c r="G134" t="n">
-        <v>0.03175549451670403</v>
+        <v>0.111991861293465</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04688686765037477</v>
+        <v>0.03760640703977765</v>
       </c>
       <c r="K134" t="n">
-        <v>0.0534241476687374</v>
+        <v>0.1129760878043022</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1156402137417816</v>
+        <v>0.08963307259681538</v>
       </c>
       <c r="M134" t="n">
-        <v>0.053042664634927</v>
+        <v>0.1111335137478242</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1817526304217916</v>
+        <v>0.1426261861032898</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05295548780295849</v>
+        <v>0.1110558826521226</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.03918752958123047</v>
+        <v>0.03393248210985421</v>
       </c>
       <c r="G135" t="n">
-        <v>0.03221571907491713</v>
+        <v>0.1136149317469935</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04686302659673644</v>
+        <v>0.03701549582179897</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05419841067842925</v>
+        <v>0.1146134224101616</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1155065389854863</v>
+        <v>0.08870683307869448</v>
       </c>
       <c r="M135" t="n">
-        <v>0.0538113989049984</v>
+        <v>0.1127441443818506</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1811796407466952</v>
+        <v>0.1404409418335635</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05372295864068252</v>
+        <v>0.1126653881978055</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.03929098115147509</v>
+        <v>0.03348116794004682</v>
       </c>
       <c r="G136" t="n">
-        <v>0.03267594363313023</v>
+        <v>0.115238002200522</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04663334776900645</v>
+        <v>0.03683121527849348</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05497267368812109</v>
+        <v>0.1162507570160211</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1157604293246214</v>
+        <v>0.08764249148404241</v>
       </c>
       <c r="M136" t="n">
-        <v>0.0545801331750698</v>
+        <v>0.114354775015877</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1810761907860567</v>
+        <v>0.1395572495855433</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05449042947840656</v>
+        <v>0.1142748937434884</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.03939179587265833</v>
+        <v>0.03105495754350261</v>
       </c>
       <c r="G137" t="n">
-        <v>0.03313616819134333</v>
+        <v>0.1168610726540505</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04649830044807575</v>
+        <v>0.03606279105404994</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05574693669781294</v>
+        <v>0.1178880916218805</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1153026700493484</v>
+        <v>0.08716161927521449</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05534886744514121</v>
+        <v>0.1159654056499035</v>
       </c>
       <c r="N137" t="n">
-        <v>0.179845379344325</v>
+        <v>0.1386093987544595</v>
       </c>
       <c r="O137" t="n">
-        <v>0.0552579003161306</v>
+        <v>0.1158843992891714</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03948990151669345</v>
+        <v>0.03366263233527773</v>
       </c>
       <c r="G138" t="n">
-        <v>0.03359639274955644</v>
+        <v>0.1184841431075789</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04625835391483532</v>
+        <v>0.03591944879265699</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05652119970750479</v>
+        <v>0.11952542622774</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1144340464498289</v>
+        <v>0.08598578791456585</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05611760171521262</v>
+        <v>0.1175760362839299</v>
       </c>
       <c r="N138" t="n">
-        <v>0.179090305225949</v>
+        <v>0.1368316787355427</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05602537115385463</v>
+        <v>0.1174939048348543</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.03958522585549369</v>
+        <v>0.03031297373042829</v>
       </c>
       <c r="G139" t="n">
-        <v>0.03405661730776954</v>
+        <v>0.1201072135611074</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04641397745017604</v>
+        <v>0.03521041413850334</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05729546271719663</v>
+        <v>0.1211627608335995</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1142553438162244</v>
+        <v>0.08533656886445171</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05688633598528403</v>
+        <v>0.1191866669179564</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1786140672353776</v>
+        <v>0.1350583789240231</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05679284199157867</v>
+        <v>0.1191034103805372</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03967769666097228</v>
+        <v>0.03001476314401043</v>
       </c>
       <c r="G140" t="n">
-        <v>0.03451684186598264</v>
+        <v>0.1217302840146359</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04616564033498892</v>
+        <v>0.03484491273577774</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05806972572688848</v>
+        <v>0.1228000954394589</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1138673474386965</v>
+        <v>0.08493553358722725</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05765507025535543</v>
+        <v>0.1207972975519828</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1777197641770596</v>
+        <v>0.1345237887151309</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05756031282930271</v>
+        <v>0.1207129159262202</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03976724170504246</v>
+        <v>0.02977678199108026</v>
       </c>
       <c r="G141" t="n">
-        <v>0.03497706642419574</v>
+        <v>0.1233533544681644</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04571381185016489</v>
+        <v>0.03483217022866883</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05884398873658032</v>
+        <v>0.1244374300453183</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1140708426074068</v>
+        <v>0.08450425354524765</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05842380452542684</v>
+        <v>0.1224079281860092</v>
       </c>
       <c r="N141" t="n">
-        <v>0.176410494855444</v>
+        <v>0.1331621975040967</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05832778366702674</v>
+        <v>0.1223224214719031</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03985378875961747</v>
+        <v>0.02960781168669396</v>
       </c>
       <c r="G142" t="n">
-        <v>0.03543729098240885</v>
+        <v>0.1249764249216928</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04585896127659492</v>
+        <v>0.03428141226136536</v>
       </c>
       <c r="K142" t="n">
-        <v>0.05961825174627217</v>
+        <v>0.1260747646511778</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1132666146125168</v>
+        <v>0.08316430020086815</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05919253879549825</v>
+        <v>0.1240185588200357</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1768893580749794</v>
+        <v>0.1340078946861508</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05909525450475078</v>
+        <v>0.123931927017586</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03993726559661055</v>
+        <v>0.03051663364590763</v>
       </c>
       <c r="G143" t="n">
-        <v>0.03589751554062195</v>
+        <v>0.1265994953752213</v>
       </c>
       <c r="J143" t="n">
-        <v>0.04580155789516993</v>
+        <v>0.034001864478056</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06039251475596402</v>
+        <v>0.1277120992570373</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1132554487441881</v>
+        <v>0.08382338881008719</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05996127306556964</v>
+        <v>0.1256291894540621</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1746594526401148</v>
+        <v>0.1330619419798729</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05986272534247481</v>
+        <v>0.125541432563269</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.04001759998793493</v>
+        <v>0.03250413909831122</v>
       </c>
       <c r="G144" t="n">
-        <v>0.03635774009883505</v>
+        <v>0.1282225658287498</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04534207098678089</v>
+        <v>0.03430275252292948</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06116677776565586</v>
+        <v>0.1293494338628967</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1132381302925823</v>
+        <v>0.08315162262027917</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06073000733564105</v>
+        <v>0.1272398200880885</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1735238773552992</v>
+        <v>0.134211112331065</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06063019618019885</v>
+        <v>0.1271509381089519</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.04009471970550389</v>
+        <v>0.03051643128656328</v>
       </c>
       <c r="G145" t="n">
-        <v>0.03681796465704815</v>
+        <v>0.1298456362822783</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04528096983231875</v>
+        <v>0.03428681465589856</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06194104077534771</v>
+        <v>0.1309867684687561</v>
       </c>
       <c r="L145" t="n">
-        <v>0.112915444547861</v>
+        <v>0.08361068395928994</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06149874160571246</v>
+        <v>0.128850450722115</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1738857310249812</v>
+        <v>0.1328091081668753</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06139766701792289</v>
+        <v>0.1287604436546348</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.04016855252123061</v>
+        <v>0.03354112491274244</v>
       </c>
       <c r="G146" t="n">
-        <v>0.03727818921526125</v>
+        <v>0.1314687067358068</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04501872371267447</v>
+        <v>0.0342989594647034</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06271530378503955</v>
+        <v>0.1326241030746156</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1124881768001856</v>
+        <v>0.08369898776392348</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06226747587578387</v>
+        <v>0.1304610813561414</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1726481124536098</v>
+        <v>0.1330534099150329</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06216513785564692</v>
+        <v>0.1303699492003178</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.04023902620702836</v>
+        <v>0.02957757472166915</v>
       </c>
       <c r="G147" t="n">
-        <v>0.03773841377347435</v>
+        <v>0.1330917771893352</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04475580190873897</v>
+        <v>0.03402404444645397</v>
       </c>
       <c r="K147" t="n">
-        <v>0.0634895667947314</v>
+        <v>0.1342614376804751</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1116571123397177</v>
+        <v>0.08381494897098371</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06303621014585528</v>
+        <v>0.1320717119901679</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1713141204456339</v>
+        <v>0.1346414980032669</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06293260869337096</v>
+        <v>0.1319794547460007</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0403060685348104</v>
+        <v>0.03162513545816389</v>
       </c>
       <c r="G148" t="n">
-        <v>0.03819863833168746</v>
+        <v>0.1347148476428637</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04469267370140323</v>
+        <v>0.03436139170417586</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06426382980442324</v>
+        <v>0.1358987722863345</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1114230364566191</v>
+        <v>0.08405698251727456</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06380494441592667</v>
+        <v>0.1336823426241943</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1702868538055022</v>
+        <v>0.1332708528593063</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06370007953109499</v>
+        <v>0.1335889602916837</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.04036960727648992</v>
+        <v>0.0296831618670471</v>
       </c>
       <c r="G149" t="n">
-        <v>0.03865886288990056</v>
+        <v>0.1363379180963922</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04462980837155818</v>
+        <v>0.03431032334089472</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0650380928141151</v>
+        <v>0.137536106892194</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1107867344410511</v>
+        <v>0.08422350333959996</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06457367868599809</v>
+        <v>0.1352929732582207</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1709694113376638</v>
+        <v>0.13443895491088</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06446755036881903</v>
+        <v>0.1351984658373666</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.04042957020398021</v>
+        <v>0.03075100869313928</v>
       </c>
       <c r="G150" t="n">
-        <v>0.03911908744811366</v>
+        <v>0.1379609885499207</v>
       </c>
       <c r="J150" t="n">
-        <v>0.04446767520009479</v>
+        <v>0.03447016145963615</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06581235582380694</v>
+        <v>0.1391734414980534</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1109489915831753</v>
+        <v>0.08441292637476386</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06534241295606949</v>
+        <v>0.1369036038922472</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1685648918465673</v>
+        <v>0.135343284585717</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06523502120654306</v>
+        <v>0.1368079713830495</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.04048588508919446</v>
+        <v>0.03182803068126085</v>
       </c>
       <c r="G151" t="n">
-        <v>0.03957931200632676</v>
+        <v>0.1395840590034492</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04430674346790399</v>
+        <v>0.03424022816342578</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06658661883349878</v>
+        <v>0.1408107761039129</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1106105931731534</v>
+        <v>0.08452366655957014</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06611114722614089</v>
+        <v>0.1385142345262736</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1692763941366618</v>
+        <v>0.1347813223115464</v>
       </c>
       <c r="O151" t="n">
-        <v>0.0660024920442671</v>
+        <v>0.1384174769287325</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.04053847970404596</v>
+        <v>0.03191358257623231</v>
       </c>
       <c r="G152" t="n">
-        <v>0.04003953656453987</v>
+        <v>0.1412071294569776</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04414748245587675</v>
+        <v>0.03441984555528924</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06736088184319064</v>
+        <v>0.1424481107097723</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1106723245011469</v>
+        <v>0.08535413883082282</v>
       </c>
       <c r="M152" t="n">
-        <v>0.0668798814962123</v>
+        <v>0.1401248651603001</v>
       </c>
       <c r="N152" t="n">
-        <v>0.167707017012396</v>
+        <v>0.1357505485160972</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06676996288199115</v>
+        <v>0.1400269824744154</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.04058728182044791</v>
+        <v>0.03200701912287411</v>
       </c>
       <c r="G153" t="n">
-        <v>0.04049976112275296</v>
+        <v>0.1428301999105061</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04379036144490403</v>
+        <v>0.03460833573825214</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06813514485288248</v>
+        <v>0.1440854453156318</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1094349708573172</v>
+        <v>0.08530275812532578</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06764861576628371</v>
+        <v>0.1417354957943265</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1678598592782188</v>
+        <v>0.1360484436270984</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06753743371971517</v>
+        <v>0.1416364880200983</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.04063221921031357</v>
+        <v>0.03010769506600673</v>
       </c>
       <c r="G154" t="n">
-        <v>0.04095998568096607</v>
+        <v>0.1444532703640346</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04383584971587674</v>
+        <v>0.03460502081534012</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06890940786257432</v>
+        <v>0.1457227799214912</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1094993175318262</v>
+        <v>0.08516793937988298</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06841735003635512</v>
+        <v>0.1433461264283529</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1656380197385792</v>
+        <v>0.1351724880722789</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06830490455743921</v>
+        <v>0.1432459935657813</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.04067321964555617</v>
+        <v>0.03121496515045062</v>
       </c>
       <c r="G155" t="n">
-        <v>0.04142021023917917</v>
+        <v>0.1460763408175631</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04368441654968587</v>
+        <v>0.03460922288957878</v>
       </c>
       <c r="K155" t="n">
-        <v>0.06968367087226617</v>
+        <v>0.1473601145273507</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1091661498148351</v>
+        <v>0.08545212906400215</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06918608430642652</v>
+        <v>0.1449567570623793</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1659445971979258</v>
+        <v>0.1363336544756947</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06907237539516324</v>
+        <v>0.1448554991114642</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.04071021089808895</v>
+        <v>0.03433445022838891</v>
       </c>
       <c r="G156" t="n">
-        <v>0.04188043479739227</v>
+        <v>0.1476994112710915</v>
       </c>
       <c r="J156" t="n">
-        <v>0.04363653122722237</v>
+        <v>0.03482026406399374</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07045793388195802</v>
+        <v>0.1489974491332101</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1090362529965058</v>
+        <v>0.08562544162648492</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06995481857649792</v>
+        <v>0.1465673876964058</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1650826904607076</v>
+        <v>0.1369193125350239</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06983984623288728</v>
+        <v>0.1464650046571472</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.04074312073982517</v>
+        <v>0.03454220019112796</v>
       </c>
       <c r="G157" t="n">
-        <v>0.04234065935560537</v>
+        <v>0.14932248172462</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04319266302937716</v>
+        <v>0.03514636416344954</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07123219689164988</v>
+        <v>0.1506347837390696</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1091104123669996</v>
+        <v>0.08704384900378734</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07072355284656932</v>
+        <v>0.1481780183304322</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1653553983313734</v>
+        <v>0.1386890966866117</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07060731707061131</v>
+        <v>0.1480745102028301</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.04077187694267803</v>
+        <v>0.03484560466814823</v>
       </c>
       <c r="G158" t="n">
-        <v>0.04280088391381848</v>
+        <v>0.1509455521781485</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04305124795722927</v>
+        <v>0.03536774896379993</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07200645990134172</v>
+        <v>0.152272118344929</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1078831610979539</v>
+        <v>0.08835950196370679</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07149228711664074</v>
+        <v>0.1497886489644587</v>
       </c>
       <c r="N158" t="n">
-        <v>0.163956075628831</v>
+        <v>0.140866947124801</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07137478790833535</v>
+        <v>0.149684015748513</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.04079640727856081</v>
+        <v>0.03422518496295845</v>
       </c>
       <c r="G159" t="n">
-        <v>0.04326110847203157</v>
+        <v>0.152568622631677</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04290909363478985</v>
+        <v>0.03538736351176033</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07278072291103356</v>
+        <v>0.1539094529507885</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1083441288063995</v>
+        <v>0.08872455127404041</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07226102138671213</v>
+        <v>0.1513992795984851</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1633689271172142</v>
+        <v>0.1408768040439351</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07214225874605938</v>
+        <v>0.151293521294196</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.04081663951938672</v>
+        <v>0.03466146237906736</v>
       </c>
       <c r="G160" t="n">
-        <v>0.04372133303024468</v>
+        <v>0.1541916930852054</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04286608212428489</v>
+        <v>0.0360847437338369</v>
       </c>
       <c r="K160" t="n">
-        <v>0.0735549859207254</v>
+        <v>0.155546787556648</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1076934351423816</v>
+        <v>0.08959114770258547</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07302975565678355</v>
+        <v>0.1530099102325115</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1625927101478963</v>
+        <v>0.1432426076383571</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07290972958378343</v>
+        <v>0.1529030268398789</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.04083250143706901</v>
+        <v>0.03313495821998368</v>
       </c>
       <c r="G161" t="n">
-        <v>0.04418155758845779</v>
+        <v>0.1558147635387339</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04302214313851974</v>
+        <v>0.03613942555653588</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07432924893041726</v>
+        <v>0.1571841221625074</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1077313949068289</v>
+        <v>0.09091144201713924</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07379848992685495</v>
+        <v>0.154620540866538</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1626264417120127</v>
+        <v>0.1448882981024103</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07367720042150747</v>
+        <v>0.1545125323855618</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.04084392080352092</v>
+        <v>0.03362619378921612</v>
       </c>
       <c r="G162" t="n">
-        <v>0.04464178214667088</v>
+        <v>0.1574378339922624</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04287720639029981</v>
+        <v>0.03683094490636347</v>
       </c>
       <c r="K162" t="n">
-        <v>0.0751035119401091</v>
+        <v>0.1588214567683669</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1069583229006701</v>
+        <v>0.0926375849854989</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07456722419692637</v>
+        <v>0.1562311715005644</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1624691388006987</v>
+        <v>0.1472378156304378</v>
       </c>
       <c r="O162" t="n">
-        <v>0.0744446712592315</v>
+        <v>0.1561220379312448</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0408508253906557</v>
+        <v>0.03311569039027343</v>
       </c>
       <c r="G163" t="n">
-        <v>0.04510200670488398</v>
+        <v>0.1590609044457909</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04233120159243046</v>
+        <v>0.03753883770982588</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07587777494980094</v>
+        <v>0.1604587913742263</v>
       </c>
       <c r="L163" t="n">
-        <v>0.106574533924834</v>
+        <v>0.09392172737546176</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07533595846699777</v>
+        <v>0.1578418021345909</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1610198184050895</v>
+        <v>0.1486151004167828</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07521214209695554</v>
+        <v>0.1577315434769277</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.04085314297038657</v>
+        <v>0.03458396932666431</v>
       </c>
       <c r="G164" t="n">
-        <v>0.04556223126309709</v>
+        <v>0.1606839748993194</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04218405845771711</v>
+        <v>0.03764263989342931</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07665203795949278</v>
+        <v>0.1620961259800857</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1055803427802493</v>
+        <v>0.09481601995482505</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07610469273706917</v>
+        <v>0.1594524327686173</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1608774975163204</v>
+        <v>0.1501440926557884</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07597961293467957</v>
+        <v>0.1593410490226106</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.04085314297038656</v>
+        <v>0.03701155190189753</v>
       </c>
       <c r="G165" t="n">
-        <v>0.04556223126309709</v>
+        <v>0.1623070453528478</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04233570669896512</v>
+        <v>0.03842188738367996</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07742630096918464</v>
+        <v>0.1637334605859452</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1054760642678447</v>
+        <v>0.09627261371631077</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07687342700714057</v>
+        <v>0.1610630634026437</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1605411931255267</v>
+        <v>0.1531493875283373</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07674708377240361</v>
+        <v>0.1609505545682936</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.04013634457288616</v>
+        <v>0.03438094729903192</v>
       </c>
       <c r="G166" t="n">
-        <v>0.04556196273463307</v>
+        <v>0.1639301158063763</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04228607602897991</v>
+        <v>0.03855611610708408</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07820056397887649</v>
+        <v>0.1653707951918047</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1051620131885488</v>
+        <v>0.09643360594290756</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07764216127721198</v>
+        <v>0.1626736940366702</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1586099222238438</v>
+        <v>0.1540175186326072</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07751455461012764</v>
+        <v>0.1625600601139765</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03942771115706817</v>
+        <v>0.03472394378061827</v>
       </c>
       <c r="G167" t="n">
-        <v>0.04556169420616905</v>
+        <v>0.1655531862599048</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04203509616056682</v>
+        <v>0.03903019536300147</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07897482698856834</v>
+        <v>0.1670081297976641</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1048385043432904</v>
+        <v>0.09797346467146881</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07841089554728338</v>
+        <v>0.1642843246706966</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1591827018024068</v>
+        <v>0.1543521983261759</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07828202544785168</v>
+        <v>0.1641695656596594</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03872765972601054</v>
+        <v>0.03705855686899882</v>
       </c>
       <c r="G168" t="n">
-        <v>0.04556142567770503</v>
+        <v>0.1671762567134333</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04178269680653124</v>
+        <v>0.03948293647255911</v>
       </c>
       <c r="K168" t="n">
-        <v>0.07974908999826018</v>
+        <v>0.1686454644035236</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1041058525329982</v>
+        <v>0.09809370782365581</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07917962981735478</v>
+        <v>0.165894955304723</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1574585488523511</v>
+        <v>0.1566558394550022</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07904949628557571</v>
+        <v>0.1657790712053424</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03803660728272996</v>
+        <v>0.03938540448705294</v>
       </c>
       <c r="G169" t="n">
-        <v>0.04556115714924101</v>
+        <v>0.1687993271669618</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04162880767967857</v>
+        <v>0.03982704741731799</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08052335300795202</v>
+        <v>0.170282799009383</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1034643725586009</v>
+        <v>0.09959585332112991</v>
       </c>
       <c r="M169" t="n">
-        <v>0.0799483640874262</v>
+        <v>0.1675055859387495</v>
       </c>
       <c r="N169" t="n">
-        <v>0.157736480364812</v>
+        <v>0.1574308548650452</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07981696712329975</v>
+        <v>0.1673885767510253</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.0373549708303036</v>
+        <v>0.03770510455765999</v>
       </c>
       <c r="G170" t="n">
-        <v>0.045560888620777</v>
+        <v>0.1704223976204902</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04167335849281421</v>
+        <v>0.04036317737928168</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08129761601764386</v>
+        <v>0.1719201336152425</v>
       </c>
       <c r="L170" t="n">
-        <v>0.1034143792210273</v>
+        <v>0.09988141908555231</v>
       </c>
       <c r="M170" t="n">
-        <v>0.0807170983574976</v>
+        <v>0.1691162165727759</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1580155133309247</v>
+        <v>0.1590796574022638</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08058443796102378</v>
+        <v>0.1689980822967082</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03668316737174893</v>
+        <v>0.03801827500369936</v>
       </c>
       <c r="G171" t="n">
-        <v>0.04556062009231298</v>
+        <v>0.1720454680740187</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04121627895874354</v>
+        <v>0.04029197554045388</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08207187902733572</v>
+        <v>0.1735574682211019</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1028561873212059</v>
+        <v>0.1003519230385845</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08148583262756902</v>
+        <v>0.1707268472068024</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1571946647418245</v>
+        <v>0.161104659912617</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08135190879874782</v>
+        <v>0.1706075878423912</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03602161391014232</v>
+        <v>0.03732553374805038</v>
       </c>
       <c r="G172" t="n">
-        <v>0.04556035156384897</v>
+        <v>0.1736685385275472</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04135749879027192</v>
+        <v>0.0407140910828382</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08284614203702756</v>
+        <v>0.1751948028269614</v>
       </c>
       <c r="L172" t="n">
-        <v>0.1024901116600656</v>
+        <v>0.1009088831018877</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08225456689764041</v>
+        <v>0.1723374778408288</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1559729515886468</v>
+        <v>0.1620082752420639</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08211937963647185</v>
+        <v>0.1722170933880741</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.03537072744850209</v>
+        <v>0.03862749871359245</v>
       </c>
       <c r="G173" t="n">
-        <v>0.04556008303538495</v>
+        <v>0.1752916089810757</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04119694770020475</v>
+        <v>0.04123017318843832</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08362040504671941</v>
+        <v>0.1768321374328208</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1021164670385351</v>
+        <v>0.1026538171971231</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08302330116771182</v>
+        <v>0.1739481084748552</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1550493908625267</v>
+        <v>0.1618929162365634</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08288685047419589</v>
+        <v>0.1738265989337571</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03473092498990368</v>
+        <v>0.03792478782320488</v>
       </c>
       <c r="G174" t="n">
-        <v>0.04555981450692093</v>
+        <v>0.1769146794346041</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04103455540134741</v>
+        <v>0.04164087103925791</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08439466805641126</v>
+        <v>0.1784694720386803</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1020355682575429</v>
+        <v>0.1026882432459522</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08379203543778323</v>
+        <v>0.1755587391088817</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1545229995545996</v>
+        <v>0.1647609957420745</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08365432131191992</v>
+        <v>0.17543610447944</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03410262353736636</v>
+        <v>0.0412180189997671</v>
       </c>
       <c r="G175" t="n">
-        <v>0.04555954597845691</v>
+        <v>0.1785377498881326</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04067025160650529</v>
+        <v>0.04194683381730063</v>
       </c>
       <c r="K175" t="n">
-        <v>0.0851689310661031</v>
+        <v>0.1801068066445397</v>
       </c>
       <c r="L175" t="n">
-        <v>0.101047730118018</v>
+        <v>0.1033136791700362</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08456076970785463</v>
+        <v>0.1771693697429081</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1551927946560009</v>
+        <v>0.1648149266045562</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08442179214964397</v>
+        <v>0.1770456100251229</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03348624009396461</v>
+        <v>0.03950781016615845</v>
       </c>
       <c r="G176" t="n">
-        <v>0.0455592774499929</v>
+        <v>0.1801608203416611</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04050396602848379</v>
+        <v>0.04194871070457011</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08594319407579495</v>
+        <v>0.1817441412503992</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1008532674208888</v>
+        <v>0.1037316428910364</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08532950397792603</v>
+        <v>0.1787800003769346</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1547577931578657</v>
+        <v>0.1658571216699675</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08518926298736801</v>
+        <v>0.1786551155708059</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03288219166271875</v>
+        <v>0.03879477924525829</v>
       </c>
       <c r="G177" t="n">
-        <v>0.04555900892152888</v>
+        <v>0.1817838907951896</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0404356283800883</v>
+        <v>0.04244715088307002</v>
       </c>
       <c r="K177" t="n">
-        <v>0.0867174570854868</v>
+        <v>0.1833814758562586</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1001524949670843</v>
+        <v>0.1048533115806676</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08609823824799745</v>
+        <v>0.180390631010961</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1542170120513293</v>
+        <v>0.1682088017599981</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08595673382509204</v>
+        <v>0.1802646211164888</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.03229089524670214</v>
+        <v>0.03908902756254927</v>
       </c>
       <c r="G178" t="n">
-        <v>0.04555874039306487</v>
+        <v>0.1834069612487181</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04036516837412416</v>
+        <v>0.0427430162584706</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08749172009517864</v>
+        <v>0.1850188104621181</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1001457275575331</v>
+        <v>0.1052168825766474</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08686697251806885</v>
+        <v>0.1820012616449874</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1522694683275271</v>
+        <v>0.1692276645595343</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08672420466281608</v>
+        <v>0.1818741266621717</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.0317127678489362</v>
+        <v>0.04239944628057406</v>
       </c>
       <c r="G179" t="n">
-        <v>0.04555847186460085</v>
+        <v>0.1850300317022466</v>
       </c>
       <c r="J179" t="n">
-        <v>0.0398925157233968</v>
+        <v>0.04285179187933627</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08826598310487048</v>
+        <v>0.1866561450679776</v>
       </c>
       <c r="L179" t="n">
-        <v>0.09953327999316386</v>
+        <v>0.1067036753454027</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08763570678814026</v>
+        <v>0.1836118922790138</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1523141789775943</v>
+        <v>0.1697809741159403</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08749167550054011</v>
+        <v>0.1834836322078547</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03114822647249323</v>
+        <v>0.04071562756713422</v>
       </c>
       <c r="G180" t="n">
-        <v>0.04555820333613683</v>
+        <v>0.186653102155775</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04001760014071158</v>
+        <v>0.04317482679489459</v>
       </c>
       <c r="K180" t="n">
-        <v>0.08904024611456234</v>
+        <v>0.188293479673837</v>
       </c>
       <c r="L180" t="n">
-        <v>0.09911546707490526</v>
+        <v>0.1067876146699938</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08840444105821166</v>
+        <v>0.1852225229130403</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1528501609926662</v>
+        <v>0.1712272819912456</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08825914633826415</v>
+        <v>0.1850931377535376</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03059768812039572</v>
+        <v>0.04302695659701032</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0455579348076728</v>
+        <v>0.1882761726093035</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03984035133887388</v>
+        <v>0.04350096920330342</v>
       </c>
       <c r="K181" t="n">
-        <v>0.08981450912425419</v>
+        <v>0.1899308142796964</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09839260360368615</v>
+        <v>0.1078426253334806</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08917317532828306</v>
+        <v>0.1868331535470667</v>
       </c>
       <c r="N181" t="n">
-        <v>0.151876431363878</v>
+        <v>0.1726251397474791</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08902661717598818</v>
+        <v>0.1867026432992206</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03006156979571481</v>
+        <v>0.04132281854498297</v>
       </c>
       <c r="G182" t="n">
-        <v>0.04555766627920879</v>
+        <v>0.189899243062832</v>
       </c>
       <c r="J182" t="n">
-        <v>0.0396606990306891</v>
+        <v>0.0441190673027206</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09058877213394603</v>
+        <v>0.1915681488855559</v>
       </c>
       <c r="L182" t="n">
-        <v>0.09716500438043507</v>
+        <v>0.1090426321189233</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08994190959835448</v>
+        <v>0.1884437841810932</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1500920070823652</v>
+        <v>0.17283309894667</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08979408801371222</v>
+        <v>0.1883121488449035</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02954028850148545</v>
+        <v>0.03959259858583271</v>
       </c>
       <c r="G183" t="n">
-        <v>0.04555739775074478</v>
+        <v>0.1915223135163605</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03947857292896265</v>
+        <v>0.04431796929130394</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09136303514363787</v>
+        <v>0.1932054834914154</v>
       </c>
       <c r="L183" t="n">
-        <v>0.09703298420608095</v>
+        <v>0.1093615598093821</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09071064386842587</v>
+        <v>0.1900544148151196</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1507959051392629</v>
+        <v>0.1741097111508477</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09056155885143626</v>
+        <v>0.1899216543905864</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.0290342612407439</v>
+        <v>0.0398256818943401</v>
       </c>
       <c r="G184" t="n">
-        <v>0.04555712922228076</v>
+        <v>0.193145383969889</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03919390274649986</v>
+        <v>0.04458652336721135</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09213729815332972</v>
+        <v>0.1948428180972748</v>
       </c>
       <c r="L184" t="n">
-        <v>0.09629685788155223</v>
+        <v>0.110473333187917</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09147937813849728</v>
+        <v>0.191665045449146</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1497871425257065</v>
+        <v>0.1743135279220412</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09132902968916029</v>
+        <v>0.1915311599362693</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0285439050165593</v>
+        <v>0.04401145364528575</v>
       </c>
       <c r="G185" t="n">
-        <v>0.04555686069381674</v>
+        <v>0.1947684544234174</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03870661819610617</v>
+        <v>0.04471357772860063</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09291156116302156</v>
+        <v>0.1964801527031343</v>
       </c>
       <c r="L185" t="n">
-        <v>0.09565694020777785</v>
+        <v>0.1099518770375881</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09224811240856869</v>
+        <v>0.1932756760831725</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1481647362328312</v>
+        <v>0.1764031008222797</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09209650052688433</v>
+        <v>0.1931406654819523</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02806963683195747</v>
+        <v>0.04014235583800335</v>
       </c>
       <c r="G186" t="n">
-        <v>0.04555659216535272</v>
+        <v>0.1963915248769459</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03881664899058693</v>
+        <v>0.04478798057362966</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09368582417271341</v>
+        <v>0.1981174873089937</v>
       </c>
       <c r="L186" t="n">
-        <v>0.09591354598568635</v>
+        <v>0.1104394017544057</v>
       </c>
       <c r="M186" t="n">
-        <v>0.0930168466786401</v>
+        <v>0.1948863067171989</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1481277032517723</v>
+        <v>0.1752594602585876</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09286397136460836</v>
+        <v>0.1947501710276352</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02761187369000612</v>
+        <v>0.04425640931998148</v>
       </c>
       <c r="G187" t="n">
-        <v>0.04555632363688871</v>
+        <v>0.1980145953304744</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03862392484274753</v>
+        <v>0.04491190048009734</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09446008718240526</v>
+        <v>0.1997548219148532</v>
       </c>
       <c r="L187" t="n">
-        <v>0.09506699001620655</v>
+        <v>0.1108202540661002</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09378558094871151</v>
+        <v>0.1964969373512254</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1483750605736651</v>
+        <v>0.1765059894993791</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0936314422023324</v>
+        <v>0.1963596765733182</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02717103259373246</v>
+        <v>0.04336798239778657</v>
       </c>
       <c r="G188" t="n">
-        <v>0.04555605510842469</v>
+        <v>0.1996376657840029</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03822837546539337</v>
+        <v>0.04512881028062021</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0952343501920971</v>
+        <v>0.2013921565207126</v>
       </c>
       <c r="L188" t="n">
-        <v>0.09471758710026712</v>
+        <v>0.1108949091591492</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09455431521878291</v>
+        <v>0.1981075679852518</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1471058251896449</v>
+        <v>0.1768426527178414</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09439891304005643</v>
+        <v>0.1979691821190011</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02674753054620282</v>
+        <v>0.04347703600742543</v>
       </c>
       <c r="G189" t="n">
-        <v>0.04555578657996068</v>
+        <v>0.2012607362375313</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03812993057132982</v>
+        <v>0.04514312339165173</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09600861320178895</v>
+        <v>0.2030294911265721</v>
       </c>
       <c r="L189" t="n">
-        <v>0.09386565203879671</v>
+        <v>0.1113632710732259</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09532304948885431</v>
+        <v>0.1997181986192782</v>
       </c>
       <c r="N189" t="n">
-        <v>0.145819014090847</v>
+        <v>0.1765692973781141</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09516638387778047</v>
+        <v>0.199578687664684</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02634008178800351</v>
+        <v>0.04358353108490491</v>
       </c>
       <c r="G190" t="n">
-        <v>0.04555551805149666</v>
+        <v>0.2028838066910598</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03792851987336227</v>
+        <v>0.04535479877305208</v>
       </c>
       <c r="K190" t="n">
-        <v>0.0967828762114808</v>
+        <v>0.2046668257324315</v>
       </c>
       <c r="L190" t="n">
-        <v>0.09271149963272413</v>
+        <v>0.1112252438480035</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09609178375892573</v>
+        <v>0.2013288292533046</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1462136442684067</v>
+        <v>0.1773857709443368</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09593385471550452</v>
+        <v>0.201188193210367</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02593888674754503</v>
+        <v>0.04368742856623183</v>
       </c>
       <c r="G191" t="n">
-        <v>0.04555524952303264</v>
+        <v>0.2045068771445883</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03752407308429612</v>
+        <v>0.04526379538468148</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09755713922117265</v>
+        <v>0.206304160338291</v>
       </c>
       <c r="L191" t="n">
-        <v>0.09295544468297806</v>
+        <v>0.1113807315231553</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09686051802899712</v>
+        <v>0.2029394598873311</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1451887327134592</v>
+        <v>0.1776919208806491</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09670132555322855</v>
+        <v>0.2027976987560499</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02554265966541454</v>
+        <v>0.04178868938741302</v>
       </c>
       <c r="G192" t="n">
-        <v>0.04555498099456862</v>
+        <v>0.2061299475981168</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03741651991693674</v>
+        <v>0.04547007218640008</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09833140223086449</v>
+        <v>0.2079414949441504</v>
       </c>
       <c r="L192" t="n">
-        <v>0.09219780199048719</v>
+        <v>0.1119296381383544</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09762925229906853</v>
+        <v>0.2045500905213575</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1448432964171398</v>
+        <v>0.1786875946511906</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09746879639095259</v>
+        <v>0.2044072043017328</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02515181754467637</v>
+        <v>0.04488727448445527</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0455547124661046</v>
+        <v>0.2077530180516453</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03719738885542412</v>
+        <v>0.04547358813806811</v>
       </c>
       <c r="K193" t="n">
-        <v>0.09910566524055633</v>
+        <v>0.2095788295500099</v>
       </c>
       <c r="L193" t="n">
-        <v>0.0920188032612865</v>
+        <v>0.1120718677332742</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09839798656913994</v>
+        <v>0.206160721155384</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1435609382080246</v>
+        <v>0.1798726397201008</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09823626722867662</v>
+        <v>0.2060167098474158</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02476677738836068</v>
+        <v>0.04498314479336545</v>
       </c>
       <c r="G194" t="n">
-        <v>0.04555444393764058</v>
+        <v>0.2093760885051737</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03715743355288342</v>
+        <v>0.04557430219954571</v>
       </c>
       <c r="K194" t="n">
-        <v>0.09987992825024818</v>
+        <v>0.2112161641558693</v>
       </c>
       <c r="L194" t="n">
-        <v>0.09099553721699918</v>
+        <v>0.1126073243475879</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09916672083921134</v>
+        <v>0.2077713517894104</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1429245997873778</v>
+        <v>0.1800469035515193</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09900373806640066</v>
+        <v>0.2076262153930987</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02438795619953131</v>
+        <v>0.04107626125015035</v>
       </c>
       <c r="G195" t="n">
-        <v>0.04555417540917657</v>
+        <v>0.2109991589587022</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03669809904241278</v>
+        <v>0.04607217333069313</v>
       </c>
       <c r="K195" t="n">
-        <v>0.10065419125994</v>
+        <v>0.2128534987617288</v>
       </c>
       <c r="L195" t="n">
-        <v>0.09023114725937775</v>
+        <v>0.1131359120209686</v>
       </c>
       <c r="M195" t="n">
-        <v>0.09993545510928276</v>
+        <v>0.2093819824234368</v>
       </c>
       <c r="N195" t="n">
-        <v>0.141037311131636</v>
+        <v>0.1794102336095857</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09977120890412468</v>
+        <v>0.2092357209387816</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02401577098121893</v>
+        <v>0.04316658479081684</v>
       </c>
       <c r="G196" t="n">
-        <v>0.04555390688071255</v>
+        <v>0.2126222294122307</v>
       </c>
       <c r="J196" t="n">
-        <v>0.03672085319721029</v>
+        <v>0.04596716049137053</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1014284542696319</v>
+        <v>0.2144908333675882</v>
       </c>
       <c r="L196" t="n">
-        <v>0.08892885296465025</v>
+        <v>0.1125575347930898</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1007041893793541</v>
+        <v>0.2109926130574633</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1402021451760314</v>
+        <v>0.1798624773584397</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1005386797418487</v>
+        <v>0.2108452264844646</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02365063873648683</v>
+        <v>0.0442540763513717</v>
       </c>
       <c r="G197" t="n">
-        <v>0.04555363835224854</v>
+        <v>0.2142452998657591</v>
       </c>
       <c r="J197" t="n">
-        <v>0.0363271638904742</v>
+        <v>0.04585922264143813</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1022027172793237</v>
+        <v>0.2161281679734477</v>
       </c>
       <c r="L197" t="n">
-        <v>0.08849187390904492</v>
+        <v>0.1131720967036245</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1014729236494256</v>
+        <v>0.2126032436914897</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1388221748557965</v>
+        <v>0.1809034822622208</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1013061505795728</v>
+        <v>0.2124547320301475</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02329297646837396</v>
+        <v>0.04133869686782178</v>
       </c>
       <c r="G198" t="n">
-        <v>0.04555336982378452</v>
+        <v>0.2158683703192876</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03591849899540263</v>
+        <v>0.04614831874075609</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1029769802890156</v>
+        <v>0.2177655025793071</v>
       </c>
       <c r="L198" t="n">
-        <v>0.08832342966878987</v>
+        <v>0.1136795017922461</v>
       </c>
       <c r="M198" t="n">
-        <v>0.102241657919497</v>
+        <v>0.2142138743255162</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1387004731061638</v>
+        <v>0.1807330957850685</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1020736214172968</v>
+        <v>0.2140642375758305</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02294320117991991</v>
+        <v>0.04242040727617392</v>
       </c>
       <c r="G199" t="n">
-        <v>0.0455531012953205</v>
+        <v>0.2174914407728161</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03569632638519379</v>
+        <v>0.04633440774918461</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1037512432987074</v>
+        <v>0.2194028371851666</v>
       </c>
       <c r="L199" t="n">
-        <v>0.0868267398201133</v>
+        <v>0.1131796540986277</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1030103921895684</v>
+        <v>0.2158245049595426</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1376401128623656</v>
+        <v>0.1818511653911226</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1028410922550208</v>
+        <v>0.2156737431215134</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.022601729874187</v>
+        <v>0.04449916851243492</v>
       </c>
       <c r="G200" t="n">
-        <v>0.04555283276685649</v>
+        <v>0.2191145112263446</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03526211393304583</v>
+        <v>0.0461174486265839</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1045255063083993</v>
+        <v>0.2210401717910261</v>
       </c>
       <c r="L200" t="n">
-        <v>0.0862050239392434</v>
+        <v>0.1134724576624427</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1037791264596398</v>
+        <v>0.217435135593569</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1367441670596344</v>
+        <v>0.1819575385445225</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1036085630927449</v>
+        <v>0.2172832486671963</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02226897955420751</v>
+        <v>0.0425749415126116</v>
       </c>
       <c r="G201" t="n">
-        <v>0.04555256423839247</v>
+        <v>0.2207375816798731</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03471732951215693</v>
+        <v>0.04639740033281413</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1052997693180911</v>
+        <v>0.2226775063968855</v>
       </c>
       <c r="L201" t="n">
-        <v>0.08546150160240829</v>
+        <v>0.1146578165233643</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1045478607297112</v>
+        <v>0.2190457662275955</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1354157086332025</v>
+        <v>0.1821520627094079</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1043760339304689</v>
+        <v>0.2188927542128793</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02194536722304304</v>
+        <v>0.04564768721271081</v>
       </c>
       <c r="G202" t="n">
-        <v>0.04555229570992845</v>
+        <v>0.2223606521334016</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03456344099572527</v>
+        <v>0.04657422182773552</v>
       </c>
       <c r="K202" t="n">
-        <v>0.106074032327783</v>
+        <v>0.2243148410027449</v>
       </c>
       <c r="L202" t="n">
-        <v>0.08479939238583617</v>
+        <v>0.1141356347210656</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1053165949997826</v>
+        <v>0.2206563968616219</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1345578105183024</v>
+        <v>0.1824345853499183</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1051435047681929</v>
+        <v>0.2205022597585622</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02163130988372663</v>
+        <v>0.04271736654873935</v>
       </c>
       <c r="G203" t="n">
-        <v>0.04555202718146443</v>
+        <v>0.2239837225869301</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03430191625694901</v>
+        <v>0.04634787207120823</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1068482953374748</v>
+        <v>0.2259521756086044</v>
       </c>
       <c r="L203" t="n">
-        <v>0.0837219158657552</v>
+        <v>0.11460581629522</v>
       </c>
       <c r="M203" t="n">
-        <v>0.106085329269854</v>
+        <v>0.2222670274956483</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1331735456501664</v>
+        <v>0.1823049539301934</v>
       </c>
       <c r="O203" t="n">
-        <v>0.105910975605917</v>
+        <v>0.2221117653042451</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02132722453931907</v>
+        <v>0.04478394045670409</v>
       </c>
       <c r="G204" t="n">
-        <v>0.04555175865300042</v>
+        <v>0.2256067930404585</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03373422316902633</v>
+        <v>0.04671831002309247</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1076225583471666</v>
+        <v>0.2275895102144638</v>
       </c>
       <c r="L204" t="n">
-        <v>0.08273229161839354</v>
+        <v>0.1140682652855007</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1068540635399254</v>
+        <v>0.2238776581296748</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1310659869640271</v>
+        <v>0.1829630159143726</v>
       </c>
       <c r="O204" t="n">
-        <v>0.106678446443641</v>
+        <v>0.2237212708499281</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02103352819285426</v>
+        <v>0.04184736987261183</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0455514901245364</v>
+        <v>0.227229863493987</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0336618296051554</v>
+        <v>0.04678549464324844</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1083968213568585</v>
+        <v>0.2292268448203233</v>
       </c>
       <c r="L205" t="n">
-        <v>0.08153373921997939</v>
+        <v>0.1143228857315809</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1076227978099968</v>
+        <v>0.2254882887637012</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1314382073951167</v>
+        <v>0.1821086187665957</v>
       </c>
       <c r="O205" t="n">
-        <v>0.107445917281365</v>
+        <v>0.225330776395611</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02075063784739207</v>
+        <v>0.04490761573246936</v>
       </c>
       <c r="G206" t="n">
-        <v>0.04555122159607238</v>
+        <v>0.2288529339475155</v>
       </c>
       <c r="J206" t="n">
-        <v>0.0330862034385344</v>
+        <v>0.04684938489153631</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1091710843665503</v>
+        <v>0.2308641794261828</v>
       </c>
       <c r="L206" t="n">
-        <v>0.08132947824674089</v>
+        <v>0.1154695816731339</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1083915320800682</v>
+        <v>0.2270989193977277</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1295932798786678</v>
+        <v>0.1822416099510022</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1082133881190891</v>
+        <v>0.226940281941294</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02047897050596734</v>
+        <v>0.04496463897228356</v>
       </c>
       <c r="G207" t="n">
-        <v>0.04555095306760836</v>
+        <v>0.230476004401044</v>
       </c>
       <c r="J207" t="n">
-        <v>0.0328088125423615</v>
+        <v>0.04700993972781629</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1099453473762422</v>
+        <v>0.2325015140320422</v>
       </c>
       <c r="L207" t="n">
-        <v>0.07982272827490619</v>
+        <v>0.1154082571498328</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1091602663501396</v>
+        <v>0.2287095500317541</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1285342773499127</v>
+        <v>0.1830618369317317</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1089808589568131</v>
+        <v>0.2285497874869769</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.020218943171639</v>
+        <v>0.04201840052806123</v>
       </c>
       <c r="G208" t="n">
-        <v>0.04555068453914435</v>
+        <v>0.2320990748545724</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03253112478983486</v>
+        <v>0.04696711811194858</v>
       </c>
       <c r="K208" t="n">
-        <v>0.110719610385934</v>
+        <v>0.2341388486379017</v>
       </c>
       <c r="L208" t="n">
-        <v>0.07911670888070343</v>
+        <v>0.1148388162013511</v>
       </c>
       <c r="M208" t="n">
-        <v>0.109929000620211</v>
+        <v>0.2303201806657805</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1275642727440838</v>
+        <v>0.1838691471729237</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1097483297945371</v>
+        <v>0.2301592930326598</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01997097284744288</v>
+        <v>0.0420688613358092</v>
       </c>
       <c r="G209" t="n">
-        <v>0.04555041601068033</v>
+        <v>0.2337221453081009</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03175460805415267</v>
+        <v>0.04702087900379333</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1114938733956259</v>
+        <v>0.2357761832437611</v>
       </c>
       <c r="L209" t="n">
-        <v>0.07891463964036091</v>
+        <v>0.1155611628673617</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1106977348902824</v>
+        <v>0.231930811299807</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1260863389964135</v>
+        <v>0.1837633881387178</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1105158006322612</v>
+        <v>0.2317687985783428</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01973547653643687</v>
+        <v>0.0431159823315343</v>
       </c>
       <c r="G210" t="n">
-        <v>0.04555014748221631</v>
+        <v>0.2353452157616294</v>
       </c>
       <c r="J210" t="n">
-        <v>0.0316807302085131</v>
+        <v>0.04707118136321077</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1122681364053177</v>
+        <v>0.2374135178496205</v>
       </c>
       <c r="L210" t="n">
-        <v>0.07741974013010666</v>
+        <v>0.1150752011875382</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1114664691603538</v>
+        <v>0.2335414419338334</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1242035490421343</v>
+        <v>0.1831444072932539</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1112832714699852</v>
+        <v>0.2333783041240257</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01951287124165785</v>
+        <v>0.04215972445124336</v>
       </c>
       <c r="G211" t="n">
-        <v>0.04554987895375229</v>
+        <v>0.2369682862151578</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03131095912611431</v>
+        <v>0.0469179841500611</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1130423994150096</v>
+        <v>0.23905085245548</v>
       </c>
       <c r="L211" t="n">
-        <v>0.07703522992616896</v>
+        <v>0.1157808352015536</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1122352034304252</v>
+        <v>0.2351520725678599</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1238189758164787</v>
+        <v>0.1844120521006711</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1120507423077093</v>
+        <v>0.2349878096697086</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01930357396616263</v>
+        <v>0.04320004863094319</v>
       </c>
       <c r="G212" t="n">
-        <v>0.04554961042528828</v>
+        <v>0.2385913566686863</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03084676268015452</v>
+        <v>0.04696124632420448</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1138166624247014</v>
+        <v>0.2406881870613395</v>
       </c>
       <c r="L212" t="n">
-        <v>0.07526432860477583</v>
+        <v>0.1156779689490811</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1130039377004967</v>
+        <v>0.2367627032018863</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1221356922546788</v>
+        <v>0.1837661700251093</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1128182131454333</v>
+        <v>0.2365973152153916</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01910800171298924</v>
+        <v>0.04323691580664063</v>
       </c>
       <c r="G213" t="n">
-        <v>0.04554934189682426</v>
+        <v>0.2402144271222148</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03028960874383184</v>
+        <v>0.04730092684550112</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1145909254343933</v>
+        <v>0.2423255216671989</v>
       </c>
       <c r="L213" t="n">
-        <v>0.07441025574215557</v>
+        <v>0.1160665064697942</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1137726719705681</v>
+        <v>0.2383733338359127</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1209567712919672</v>
+        <v>0.184006608530708</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1135856839831573</v>
+        <v>0.2382068207610745</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01892657148519328</v>
+        <v>0.04327028691434251</v>
       </c>
       <c r="G214" t="n">
-        <v>0.04554907336836025</v>
+        <v>0.2418374975757433</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03004096519034448</v>
+        <v>0.0473369846738112</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1153651884440851</v>
+        <v>0.2439628562730584</v>
       </c>
       <c r="L214" t="n">
-        <v>0.07447623091453631</v>
+        <v>0.115246351803366</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1145414062406395</v>
+        <v>0.2399839644699392</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1194852858635764</v>
+        <v>0.1836332150816069</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1143531548208814</v>
+        <v>0.2398163263067574</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01892657148519328</v>
+        <v>0.04530012289005564</v>
       </c>
       <c r="G215" t="n">
-        <v>0.04554907336836025</v>
+        <v>0.2434605680292718</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02960229989289059</v>
+        <v>0.04696937876899493</v>
       </c>
       <c r="K215" t="n">
-        <v>0.116139451453777</v>
+        <v>0.2456001908789178</v>
       </c>
       <c r="L215" t="n">
-        <v>0.07356547369814617</v>
+        <v>0.1164174089894696</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1153101405107109</v>
+        <v>0.2415945951039656</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1170243089047386</v>
+        <v>0.1843458371419454</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1151206256586054</v>
+        <v>0.2414258318524403</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.0184449693333795</v>
+        <v>0.04532638466978685</v>
       </c>
       <c r="G216" t="n">
-        <v>0.04551892875323955</v>
+        <v>0.2450836384828003</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02957508072466838</v>
+        <v>0.04729806809091248</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1169137144634688</v>
+        <v>0.2472375254847773</v>
       </c>
       <c r="L216" t="n">
-        <v>0.07208120366921339</v>
+        <v>0.1161795820677785</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1160788747807823</v>
+        <v>0.2432052257379921</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1163769133506865</v>
+        <v>0.1839443221758632</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1158880964963294</v>
+        <v>0.2430353373981233</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01796901136099471</v>
+        <v>0.04634903318954298</v>
       </c>
       <c r="G217" t="n">
-        <v>0.04548878413811886</v>
+        <v>0.2467067089363288</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02916077555887596</v>
+        <v>0.04712301159942409</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1176879774731606</v>
+        <v>0.2488748600906367</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0716266404039661</v>
+        <v>0.1156327750779657</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1168476090508537</v>
+        <v>0.2448158563720184</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1158461721366522</v>
+        <v>0.1843285176474998</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1166555673340535</v>
+        <v>0.2446448429438062</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01749904958756079</v>
+        <v>0.04436802938533083</v>
       </c>
       <c r="G218" t="n">
-        <v>0.04545863952299817</v>
+        <v>0.2483297793898572</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02886085226871159</v>
+        <v>0.04734416825438988</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1184622404828525</v>
+        <v>0.2505121946964962</v>
       </c>
       <c r="L218" t="n">
-        <v>0.07110500347863247</v>
+        <v>0.1157768920597045</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1176163433209251</v>
+        <v>0.2464264870060449</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1142351581978682</v>
+        <v>0.1847982710209949</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1174230381717775</v>
+        <v>0.2462543484894892</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01703543603260001</v>
+        <v>0.04238333419315723</v>
       </c>
       <c r="G219" t="n">
-        <v>0.04542849490787747</v>
+        <v>0.2499528498433857</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02847677872737336</v>
+        <v>0.04746149701567011</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1192365034925443</v>
+        <v>0.2521495293023556</v>
       </c>
       <c r="L219" t="n">
-        <v>0.07031951246944068</v>
+        <v>0.1156118370526684</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1183850775909965</v>
+        <v>0.2480371176400714</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1129469444695671</v>
+        <v>0.1839534297604881</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1181905090095016</v>
+        <v>0.2478638540351721</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01657852271563423</v>
+        <v>0.04639490854902906</v>
       </c>
       <c r="G220" t="n">
-        <v>0.04539835029275678</v>
+        <v>0.2515759202969142</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02841002280805952</v>
+        <v>0.04737495684312493</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1200107665022362</v>
+        <v>0.2537868639082151</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06927338695261887</v>
+        <v>0.1163375140965303</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1191538118610679</v>
+        <v>0.2496477482740978</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1115846038869811</v>
+        <v>0.1844938413301189</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1189579798472256</v>
+        <v>0.249473359580855</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01612866165618564</v>
+        <v>0.04640271338895306</v>
       </c>
       <c r="G221" t="n">
-        <v>0.04536820567763609</v>
+        <v>0.2531989907504427</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02806205238396817</v>
+        <v>0.04738450669661454</v>
       </c>
       <c r="K221" t="n">
-        <v>0.120785029511928</v>
+        <v>0.2554241985140746</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06876984650439527</v>
+        <v>0.1159538272309636</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1199225461311393</v>
+        <v>0.2512583789081242</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1111512093853427</v>
+        <v>0.1855193531940269</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1197254506849496</v>
+        <v>0.2510828651265379</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01568620487377639</v>
+        <v>0.04240670964893611</v>
       </c>
       <c r="G222" t="n">
-        <v>0.04533806106251539</v>
+        <v>0.2548220612039711</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02773433532829753</v>
+        <v>0.04729010553599913</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1215592925216199</v>
+        <v>0.257061533119934</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06861211070099793</v>
+        <v>0.1165606804956414</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1206912804012107</v>
+        <v>0.2528690095421506</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1097498338998842</v>
+        <v>0.1841298128163517</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1204929215226737</v>
+        <v>0.2526923706722209</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01525150438792838</v>
+        <v>0.04239445167844659</v>
       </c>
       <c r="G223" t="n">
-        <v>0.0453079164473947</v>
+        <v>0.2564451316574996</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02752833951424576</v>
+        <v>0.04729109767890664</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1223335555313117</v>
+        <v>0.2586988677257935</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06820339911865517</v>
+        <v>0.1154707707435315</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1214600146712821</v>
+        <v>0.2544796401761771</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1083835503658382</v>
+        <v>0.1853759345860791</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1212603923603977</v>
+        <v>0.2543018762179038</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01482491221816386</v>
+        <v>0.04328291584370388</v>
       </c>
       <c r="G224" t="n">
-        <v>0.04527777183227401</v>
+        <v>0.2580682021110281</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02724553281501102</v>
+        <v>0.04721744129389797</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1231078185410036</v>
+        <v>0.2603362023316529</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06714693133359498</v>
+        <v>0.1155082459810025</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1222287489413535</v>
+        <v>0.2560902708102035</v>
       </c>
       <c r="N224" t="n">
-        <v>0.107455431718437</v>
+        <v>0.1834869643729196</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1220278631981217</v>
+        <v>0.2559113817635867</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01440678038400471</v>
+        <v>0.04506675016096651</v>
       </c>
       <c r="G225" t="n">
-        <v>0.04524762721715331</v>
+        <v>0.2596912725645566</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0270873831037915</v>
+        <v>0.04693036137922149</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1238820815506954</v>
+        <v>0.2619735369375123</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06684592692204569</v>
+        <v>0.1144959558888796</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1229974832114249</v>
+        <v>0.25770090144423</v>
       </c>
       <c r="N225" t="n">
-        <v>0.105968550892913</v>
+        <v>0.1830020262336458</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1227953340358458</v>
+        <v>0.2575208873092697</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01399746090497312</v>
+        <v>0.04375813257160074</v>
       </c>
       <c r="G226" t="n">
-        <v>0.04521748260203262</v>
+        <v>0.261314343018085</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02735535825378536</v>
+        <v>0.04664265192687944</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1246563445603873</v>
+        <v>0.2636108715433718</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06690360546023538</v>
+        <v>0.1145638154640136</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1237662174814963</v>
+        <v>0.2593115320782564</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1054259808244986</v>
+        <v>0.1825686722133363</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1235628048735698</v>
+        <v>0.2591303928549527</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01359730580059122</v>
+        <v>0.04336924101697294</v>
       </c>
       <c r="G227" t="n">
-        <v>0.04518733798691194</v>
+        <v>0.2629374134716135</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02705092613819081</v>
+        <v>0.04626710692887405</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1254306075700791</v>
+        <v>0.2652482061492312</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0659231865243923</v>
+        <v>0.1133417397032548</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1245349517515677</v>
+        <v>0.2609221627122828</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1043307944484264</v>
+        <v>0.1795344543570696</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1243302757112938</v>
+        <v>0.2607398984006356</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01320666709038092</v>
+        <v>0.04191225343844941</v>
       </c>
       <c r="G228" t="n">
-        <v>0.04515719337179123</v>
+        <v>0.264560483925142</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02687555463020598</v>
+        <v>0.04611652037720756</v>
       </c>
       <c r="K228" t="n">
-        <v>0.126204870579771</v>
+        <v>0.2668855407550907</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06610788969074446</v>
+        <v>0.1121596436034539</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1253036860216391</v>
+        <v>0.2625327933463093</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1031860646999285</v>
+        <v>0.1786469247099239</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1250977465490179</v>
+        <v>0.2623494039463185</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01282589679386439</v>
+        <v>0.04039934777739648</v>
       </c>
       <c r="G229" t="n">
-        <v>0.04512704875667054</v>
+        <v>0.2661835543786705</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02713071160302906</v>
+        <v>0.04520368626388226</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1269791335894628</v>
+        <v>0.2685228753609502</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06596093453552021</v>
+        <v>0.1110474421614614</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1260724202917106</v>
+        <v>0.2641434239803357</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1025948645142375</v>
+        <v>0.1757536353169779</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1258652173867419</v>
+        <v>0.2639589094920015</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01245534693056376</v>
+        <v>0.04184270197518047</v>
       </c>
       <c r="G230" t="n">
-        <v>0.04509690414154986</v>
+        <v>0.267806624832199</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02671766656249892</v>
+        <v>0.04504139858090035</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1277533965991547</v>
+        <v>0.2701602099668096</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0662851465614705</v>
+        <v>0.1090350503741277</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1268411545617819</v>
+        <v>0.2657540546143621</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1032598939069653</v>
+        <v>0.17400213822331</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1266326882244659</v>
+        <v>0.2655684150376844</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01209536952000096</v>
+        <v>0.04325449397316769</v>
       </c>
       <c r="G231" t="n">
-        <v>0.04506675952642916</v>
+        <v>0.2694296952857275</v>
       </c>
       <c r="J231" t="n">
-        <v>0.0269176685808873</v>
+        <v>0.04444245132026409</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1285276596088465</v>
+        <v>0.2717975445726691</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06563956909468321</v>
+        <v>0.1078523832383034</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1276098888318533</v>
+        <v>0.2673646852483886</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1012510706623714</v>
+        <v>0.1714399854739986</v>
       </c>
       <c r="O231" t="n">
-        <v>0.12740015906219</v>
+        <v>0.2671779205833673</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01174631658169822</v>
+        <v>0.04164690171272446</v>
       </c>
       <c r="G232" t="n">
-        <v>0.04503661491130847</v>
+        <v>0.2710527657392559</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02671768045437548</v>
+        <v>0.04351963847397575</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1293019226185383</v>
+        <v>0.2734348791785285</v>
       </c>
       <c r="L232" t="n">
-        <v>0.06649514986809607</v>
+        <v>0.1062293557508391</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1283786231019247</v>
+        <v>0.268975315882415</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1001481583753078</v>
+        <v>0.1687147291141221</v>
       </c>
       <c r="O232" t="n">
-        <v>0.128167629899914</v>
+        <v>0.2687874261290503</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01140854013517744</v>
+        <v>0.04203210313521716</v>
       </c>
       <c r="G233" t="n">
-        <v>0.04500647029618778</v>
+        <v>0.2726758361927843</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02681771106897698</v>
+        <v>0.04278575403403752</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1300761856282302</v>
+        <v>0.275072213784388</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06555190133073549</v>
+        <v>0.1044958829085852</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1291473573719962</v>
+        <v>0.2705859465164415</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1011516165479316</v>
+        <v>0.1666739211887591</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1289351007376381</v>
+        <v>0.2703969316747332</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01108239219996079</v>
+        <v>0.03942227618201202</v>
       </c>
       <c r="G234" t="n">
-        <v>0.04497632568106708</v>
+        <v>0.2742989066463128</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02671776931070542</v>
+        <v>0.04245359199245168</v>
       </c>
       <c r="K234" t="n">
-        <v>0.130850448637922</v>
+        <v>0.2767095483902474</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06560983593162797</v>
+        <v>0.1035818797083923</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1299160916420676</v>
+        <v>0.2721965771504679</v>
       </c>
       <c r="N234" t="n">
-        <v>0.09936190468239997</v>
+        <v>0.1637651137429881</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1297025715753621</v>
+        <v>0.2720064372204161</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01076822479557039</v>
+        <v>0.04082959879447542</v>
       </c>
       <c r="G235" t="n">
-        <v>0.04494618106594639</v>
+        <v>0.2759219770998413</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02671786406557439</v>
+        <v>0.04153594634122046</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1316247116476139</v>
+        <v>0.2783468829961069</v>
       </c>
       <c r="L235" t="n">
-        <v>0.0656689661198</v>
+        <v>0.1015172611471108</v>
       </c>
       <c r="M235" t="n">
-        <v>0.130684825912139</v>
+        <v>0.2738072077844944</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09967948228087009</v>
+        <v>0.1629358588218873</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1304700424130861</v>
+        <v>0.2736159427660991</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01046638994152821</v>
+        <v>0.03826624891397366</v>
       </c>
       <c r="G236" t="n">
-        <v>0.0449160364508257</v>
+        <v>0.2775450475533698</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02711800421959748</v>
+        <v>0.0411456110723461</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1323989746573057</v>
+        <v>0.2799842176019663</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06552930434427806</v>
+        <v>0.1009319422215914</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1314535601822104</v>
+        <v>0.2754178384185208</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09830480884549914</v>
+        <v>0.1602337084705353</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1312375132508102</v>
+        <v>0.275225448311782</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01017723965735641</v>
+        <v>0.03974440448187308</v>
       </c>
       <c r="G237" t="n">
-        <v>0.044885891835705</v>
+        <v>0.2791681180068983</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02691819865878826</v>
+        <v>0.04039538017783088</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1331732376669976</v>
+        <v>0.2816215522078258</v>
       </c>
       <c r="L237" t="n">
-        <v>0.06559086305408865</v>
+        <v>0.09905583792868455</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1322222944522818</v>
+        <v>0.2770284690525472</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09823834387844449</v>
+        <v>0.1574062147340106</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1320049840885342</v>
+        <v>0.2768349538574649</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.009901125962576966</v>
+        <v>0.03526014259758922</v>
       </c>
       <c r="G238" t="n">
-        <v>0.04485574722058431</v>
+        <v>0.2807911884604268</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02691845626916037</v>
+        <v>0.04019046622078826</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1339475006766894</v>
+        <v>0.2832588868136852</v>
       </c>
       <c r="L238" t="n">
-        <v>0.06555365469825822</v>
+        <v>0.09735209413309559</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1329910287223532</v>
+        <v>0.2786390996865736</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09698054688186303</v>
+        <v>0.154990240641184</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1327724549262582</v>
+        <v>0.2784444594031479</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.009638400876712007</v>
+        <v>0.03877631025375466</v>
       </c>
       <c r="G239" t="n">
-        <v>0.04482560260546362</v>
+        <v>0.2824142589139553</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02671878593672734</v>
+        <v>0.03969139557488835</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1347217636863813</v>
+        <v>0.2848962214195447</v>
       </c>
       <c r="L239" t="n">
-        <v>0.06581769172581331</v>
+        <v>0.09694424725703718</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1337597629924246</v>
+        <v>0.2802497303206001</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09573187735791217</v>
+        <v>0.1531674678491532</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1335399257639823</v>
+        <v>0.2800539649488308</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.009387979006235191</v>
+        <v>0.03529064678271877</v>
       </c>
       <c r="G240" t="n">
-        <v>0.04479545799034292</v>
+        <v>0.2840373293674837</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02711919654750279</v>
+        <v>0.03929042453047026</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1354960266960731</v>
+        <v>0.2865335560254041</v>
       </c>
       <c r="L240" t="n">
-        <v>0.06558298658578041</v>
+        <v>0.09503185380853046</v>
       </c>
       <c r="M240" t="n">
-        <v>0.134528497262496</v>
+        <v>0.2818603609546265</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09469279480874904</v>
+        <v>0.1521374609316752</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1343073966017063</v>
+        <v>0.2816634704945137</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.009141587892377727</v>
+        <v>0.03580312333448682</v>
       </c>
       <c r="G241" t="n">
-        <v>0.04476531337522223</v>
+        <v>0.2856603998210122</v>
       </c>
       <c r="J241" t="n">
-        <v>0.0270196969875003</v>
+        <v>0.03838752277809246</v>
       </c>
       <c r="K241" t="n">
-        <v>0.136270289705765</v>
+        <v>0.2881708906312636</v>
       </c>
       <c r="L241" t="n">
-        <v>0.06574955172718591</v>
+        <v>0.09381484291783851</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1352972315325674</v>
+        <v>0.283470991588653</v>
       </c>
       <c r="N241" t="n">
-        <v>0.09556375873653078</v>
+        <v>0.1509001072361922</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1350748674394303</v>
+        <v>0.2832729760401967</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.008898142141613254</v>
+        <v>0.03331371105906412</v>
       </c>
       <c r="G242" t="n">
-        <v>0.04473516876010154</v>
+        <v>0.2872834702745407</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02682029614273349</v>
+        <v>0.03818266000831345</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1370445527154568</v>
+        <v>0.289808225237123</v>
       </c>
       <c r="L242" t="n">
-        <v>0.06581739959905641</v>
+        <v>0.09339314371522447</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1360659658026388</v>
+        <v>0.2850816222226794</v>
       </c>
       <c r="N242" t="n">
-        <v>0.09424522864341467</v>
+        <v>0.1488552941101458</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1358423382771544</v>
+        <v>0.2848824815858796</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.008657993773463914</v>
+        <v>0.036822381106456</v>
       </c>
       <c r="G243" t="n">
-        <v>0.04470502414498084</v>
+        <v>0.2889065407280691</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02682100289921588</v>
+        <v>0.03747580591169174</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1378188157251486</v>
+        <v>0.2914455598429825</v>
       </c>
       <c r="L243" t="n">
-        <v>0.06508654265041836</v>
+        <v>0.09216668533095138</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1368347000727102</v>
+        <v>0.2866922528567059</v>
       </c>
       <c r="N243" t="n">
-        <v>0.0943376640315578</v>
+        <v>0.1462029089009778</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1366098091148784</v>
+        <v>0.2864919871315625</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.008421494807451677</v>
+        <v>0.03532910462666772</v>
       </c>
       <c r="G244" t="n">
-        <v>0.04467487952986015</v>
+        <v>0.2905296111815976</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02682182614296112</v>
+        <v>0.03726693017878585</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1385930787348405</v>
+        <v>0.2930828944488419</v>
       </c>
       <c r="L244" t="n">
-        <v>0.06595699333029822</v>
+        <v>0.09043539689528238</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1376034343427816</v>
+        <v>0.2883028834907323</v>
       </c>
       <c r="N244" t="n">
-        <v>0.09234152440311744</v>
+        <v>0.1444428389561302</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1373772799526025</v>
+        <v>0.2881014926772455</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.008188997263098713</v>
+        <v>0.03283385276970463</v>
       </c>
       <c r="G245" t="n">
-        <v>0.04464473491473946</v>
+        <v>0.2921526816351261</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02672277475998278</v>
+        <v>0.03655600250015426</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1393673417445323</v>
+        <v>0.2947202290547014</v>
       </c>
       <c r="L245" t="n">
-        <v>0.06502876408772248</v>
+        <v>0.08979920753848067</v>
       </c>
       <c r="M245" t="n">
-        <v>0.138372168612853</v>
+        <v>0.2899135141247587</v>
       </c>
       <c r="N245" t="n">
-        <v>0.09205726926025076</v>
+        <v>0.1430749716230446</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1381447507903265</v>
+        <v>0.2897109982229285</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.007960853159926985</v>
+        <v>0.03333659668557197</v>
       </c>
       <c r="G246" t="n">
-        <v>0.04461459029961876</v>
+        <v>0.2937757520886546</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02692385763629443</v>
+        <v>0.03614299256635546</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1401416047542242</v>
+        <v>0.2963575636605609</v>
       </c>
       <c r="L246" t="n">
-        <v>0.06590186737171766</v>
+        <v>0.0882580463908092</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1391409028829244</v>
+        <v>0.2915241447587851</v>
       </c>
       <c r="N246" t="n">
-        <v>0.09218535810511491</v>
+        <v>0.1404991942491629</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1389122216280505</v>
+        <v>0.2913205037686113</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.007737414517458636</v>
+        <v>0.03283730752427513</v>
       </c>
       <c r="G247" t="n">
-        <v>0.04458444568449807</v>
+        <v>0.2953988225421831</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02682508365790971</v>
+        <v>0.03542787006794798</v>
       </c>
       <c r="K247" t="n">
-        <v>0.140915867763916</v>
+        <v>0.2979948982664203</v>
       </c>
       <c r="L247" t="n">
-        <v>0.06597631563131023</v>
+        <v>0.08731184258253116</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1399096371529958</v>
+        <v>0.2931347753928116</v>
       </c>
       <c r="N247" t="n">
-        <v>0.09072625043986704</v>
+        <v>0.1381153941819268</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1396796924657746</v>
+        <v>0.2929300093142943</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.007519033355215768</v>
+        <v>0.03033595643581932</v>
       </c>
       <c r="G248" t="n">
-        <v>0.04455430106937738</v>
+        <v>0.2970218929957116</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02672646171084216</v>
+        <v>0.03521060469549032</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1416901307736079</v>
+        <v>0.2996322328722797</v>
       </c>
       <c r="L248" t="n">
-        <v>0.06505212131552668</v>
+        <v>0.08506052524390967</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1406783714230672</v>
+        <v>0.294745406026838</v>
       </c>
       <c r="N248" t="n">
-        <v>0.09098040576666444</v>
+        <v>0.1371234587687783</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1404471633034986</v>
+        <v>0.2945395148599773</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.007306061692720356</v>
+        <v>0.03383251457020992</v>
       </c>
       <c r="G249" t="n">
-        <v>0.04452415645425669</v>
+        <v>0.29864496344924</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02692800068110537</v>
+        <v>0.03429116613954096</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1424643937832998</v>
+        <v>0.3012695674781392</v>
       </c>
       <c r="L249" t="n">
-        <v>0.06592929687339347</v>
+        <v>0.0848040235052078</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1414471056931386</v>
+        <v>0.2963560366608645</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08944828358766421</v>
+        <v>0.1349232753571591</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1412146341412226</v>
+        <v>0.2961490204056602</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.007098851549494585</v>
+        <v>0.03132695307745217</v>
       </c>
       <c r="G250" t="n">
-        <v>0.044494011839136</v>
+        <v>0.3002680339027685</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02702970945471296</v>
+        <v>0.03376952409065841</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1432386567929916</v>
+        <v>0.3029069020839986</v>
       </c>
       <c r="L250" t="n">
-        <v>0.06540785475393712</v>
+        <v>0.08354226649668872</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1422158399632101</v>
+        <v>0.2979666672948909</v>
       </c>
       <c r="N250" t="n">
-        <v>0.09023034340502362</v>
+        <v>0.1332147312945111</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1419821049789467</v>
+        <v>0.2977585259513431</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.006897754945060418</v>
+        <v>0.03281924310755142</v>
       </c>
       <c r="G251" t="n">
-        <v>0.0444638672240153</v>
+        <v>0.301891104356297</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02673159691767851</v>
+        <v>0.03354564823940116</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1440129198026834</v>
+        <v>0.3045442366898581</v>
       </c>
       <c r="L251" t="n">
-        <v>0.06478780740618417</v>
+        <v>0.0817751833486155</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1429845742332815</v>
+        <v>0.2995772979289174</v>
       </c>
       <c r="N251" t="n">
-        <v>0.08982704472089981</v>
+        <v>0.130997713928276</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1427495758166707</v>
+        <v>0.2993680314970261</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.006703123898939983</v>
+        <v>0.03130935581051295</v>
       </c>
       <c r="G252" t="n">
-        <v>0.04443372260889461</v>
+        <v>0.3035141748098255</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02673367195601561</v>
+        <v>0.03271950827632772</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1447871828123753</v>
+        <v>0.3061815712957175</v>
       </c>
       <c r="L252" t="n">
-        <v>0.06586916727916095</v>
+        <v>0.08110270319125124</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1437533085033529</v>
+        <v>0.3011879285629437</v>
       </c>
       <c r="N252" t="n">
-        <v>0.08803884703744996</v>
+        <v>0.1275721106058957</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1435170466543947</v>
+        <v>0.300977537042709</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.006515310430655383</v>
+        <v>0.02979726233634207</v>
       </c>
       <c r="G253" t="n">
-        <v>0.04440357799377392</v>
+        <v>0.305137245263354</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02673594345573783</v>
+        <v>0.03229107389199661</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1455614458220671</v>
+        <v>0.307818905901577</v>
       </c>
       <c r="L253" t="n">
-        <v>0.06575194682189409</v>
+        <v>0.07912475515485903</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1445220427734243</v>
+        <v>0.3027985591969702</v>
       </c>
       <c r="N253" t="n">
-        <v>0.08756620985683133</v>
+        <v>0.126037808674812</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1442845174921188</v>
+        <v>0.3025870425883919</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.006334666559728627</v>
+        <v>0.02928293383504409</v>
       </c>
       <c r="G254" t="n">
-        <v>0.04437343337865322</v>
+        <v>0.3067603157168824</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02673842030285878</v>
+        <v>0.03166031477696629</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1463357088317589</v>
+        <v>0.3094562405074365</v>
       </c>
       <c r="L254" t="n">
-        <v>0.06503615848341002</v>
+        <v>0.07744126836970205</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1452907770434957</v>
+        <v>0.3044091898309967</v>
       </c>
       <c r="N254" t="n">
-        <v>0.08840959268120097</v>
+        <v>0.1237946954824666</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1450519883298428</v>
+        <v>0.3041965481340749</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.006161544305681839</v>
+        <v>0.03076634145662428</v>
       </c>
       <c r="G255" t="n">
-        <v>0.04434328876353253</v>
+        <v>0.3083833861704109</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02674111138339202</v>
+        <v>0.0314272006217953</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1471099718414508</v>
+        <v>0.3110935751132959</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06542181471273517</v>
+        <v>0.07675217196604334</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1460595113135671</v>
+        <v>0.3060198204650231</v>
       </c>
       <c r="N255" t="n">
-        <v>0.08696945501271619</v>
+        <v>0.1221426583763015</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1458194591675669</v>
+        <v>0.3058060536797578</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.005996295688037036</v>
+        <v>0.03024745635108797</v>
       </c>
       <c r="G256" t="n">
-        <v>0.04431314414841184</v>
+        <v>0.3100064566239394</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02684402558335118</v>
+        <v>0.03099170111704212</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1478842348511427</v>
+        <v>0.3127309097191553</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06550892795889618</v>
+        <v>0.07595739507414603</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1468282455836385</v>
+        <v>0.3076304510990495</v>
       </c>
       <c r="N256" t="n">
-        <v>0.08714625635353407</v>
+        <v>0.1196815847037584</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1465869300052909</v>
+        <v>0.3074155592254407</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.005839272726316333</v>
+        <v>0.02972624966844047</v>
       </c>
       <c r="G257" t="n">
-        <v>0.04428299953329114</v>
+        <v>0.3116295270774679</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02704717178874982</v>
+        <v>0.03045378595326527</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1486584978608345</v>
+        <v>0.3143682443250148</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06479751067091941</v>
+        <v>0.07425686682427327</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1475969798537099</v>
+        <v>0.309241081733076</v>
       </c>
       <c r="N257" t="n">
-        <v>0.08754045620581191</v>
+        <v>0.1177113618122792</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1473544008430149</v>
+        <v>0.3090250647711237</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.005690827440041811</v>
+        <v>0.02920269255868706</v>
       </c>
       <c r="G258" t="n">
-        <v>0.04425285491817046</v>
+        <v>0.3132525975309964</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02695055888560154</v>
+        <v>0.02951342482102322</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1494327608705264</v>
+        <v>0.3160055789308743</v>
       </c>
       <c r="L258" t="n">
-        <v>0.0656875752978314</v>
+        <v>0.0725505163466881</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1483657141237813</v>
+        <v>0.3108517123671024</v>
       </c>
       <c r="N258" t="n">
-        <v>0.0859525140717069</v>
+        <v>0.1164318770493057</v>
       </c>
       <c r="O258" t="n">
-        <v>0.148121871680739</v>
+        <v>0.3106345703168066</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.005551311848735495</v>
+        <v>0.02667675617183306</v>
       </c>
       <c r="G259" t="n">
-        <v>0.04422271030304976</v>
+        <v>0.3148756679845248</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02715419575991994</v>
+        <v>0.02937058741087448</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1502070238802182</v>
+        <v>0.3176429135367337</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06547913428865859</v>
+        <v>0.07183827277165367</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1491344483938527</v>
+        <v>0.3124623430011289</v>
       </c>
       <c r="N259" t="n">
-        <v>0.08508288945337611</v>
+        <v>0.1129430177622796</v>
       </c>
       <c r="O259" t="n">
-        <v>0.148889342518463</v>
+        <v>0.3122440758624895</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005421077971919486</v>
+        <v>0.02414841165788376</v>
       </c>
       <c r="G260" t="n">
-        <v>0.04419256568792906</v>
+        <v>0.3164987384380533</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02695809129771858</v>
+        <v>0.02882524341337757</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1509812868899101</v>
+        <v>0.3192802481425931</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06577220009242757</v>
+        <v>0.06972006522943311</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1499031826639241</v>
+        <v>0.3140729736351552</v>
       </c>
       <c r="N260" t="n">
-        <v>0.08643204185297682</v>
+        <v>0.1123446712986427</v>
       </c>
       <c r="O260" t="n">
-        <v>0.149656813356187</v>
+        <v>0.3138535814081724</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005300477829115878</v>
+        <v>0.02761763016684447</v>
       </c>
       <c r="G261" t="n">
-        <v>0.04416242107280838</v>
+        <v>0.3181218088915818</v>
       </c>
       <c r="J261" t="n">
-        <v>0.02676225438501108</v>
+        <v>0.02787736251909098</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1517555498996019</v>
+        <v>0.3209175827484526</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06546678515816468</v>
+        <v>0.06899582285028946</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1506719169339955</v>
+        <v>0.3156836042691817</v>
       </c>
       <c r="N261" t="n">
-        <v>0.08540043077266624</v>
+        <v>0.1093367250058371</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1504242841939111</v>
+        <v>0.3154630869538554</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005189863439846697</v>
+        <v>0.0250843828487205</v>
       </c>
       <c r="G262" t="n">
-        <v>0.04413227645768768</v>
+        <v>0.3197448793451103</v>
       </c>
       <c r="J262" t="n">
-        <v>0.027066693907811</v>
+        <v>0.0274269144185732</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1525298129092937</v>
+        <v>0.3225549173543121</v>
       </c>
       <c r="L262" t="n">
-        <v>0.06466290193489652</v>
+        <v>0.06696547476448589</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1514406512040669</v>
+        <v>0.3172942349032082</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08498851571460142</v>
+        <v>0.1084190662313043</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1511917550316351</v>
+        <v>0.3170725924995383</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005089586823634057</v>
+        <v>0.02554864085351714</v>
       </c>
       <c r="G263" t="n">
-        <v>0.04410213184256699</v>
+        <v>0.3213679497986388</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02697141875213194</v>
+        <v>0.02687386880238278</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1533040759189856</v>
+        <v>0.3241922519601715</v>
       </c>
       <c r="L263" t="n">
-        <v>0.06546056287164953</v>
+        <v>0.0664289501022855</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1522093854741383</v>
+        <v>0.3189048655372346</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08409675618093965</v>
+        <v>0.1062915823224861</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1519592258693591</v>
+        <v>0.3186820980452212</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.0250103753312397</v>
       </c>
       <c r="G264" t="n">
-        <v>0.0440719872274463</v>
+        <v>0.3229910202521672</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02717643780398751</v>
+        <v>0.02651819536107813</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1540783389286774</v>
+        <v>0.3258295865660309</v>
       </c>
       <c r="L264" t="n">
-        <v>0.06485978041745016</v>
+        <v>0.06488617799395135</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1529781197442097</v>
+        <v>0.320515496171261</v>
       </c>
       <c r="N264" t="n">
-        <v>0.0841256116738382</v>
+        <v>0.1039541606268246</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1527266967070832</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.04405882933270946</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005532445361204695</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.04405909786117347</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006061657293596222</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.04405936638963749</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006587593947684767</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.0440596349181015</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007110213474026419</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.04405990344656553</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.007629474023131667</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.04406017197502954</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.008145333745556316</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.04406044050349356</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.008657750791811129</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.04406070903195757</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.009166683312451615</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.04406097756042159</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.009672089457988843</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.04406124608888561</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01017392737897804</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.04406151461734963</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01067215522593055</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.04406178314581364</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01116673114940128</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.04406205167427766</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01165761329990194</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.04406232020274168</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01214475982798707</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.0440625887312057</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01262812888416873</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.04406285725966971</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01310767861900113</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.04406312578813373</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01358336718299664</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.04406339431659775</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01405515272669894</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.04406366284506176</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01452299340065137</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.04406393137352578</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01498684735536681</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.04406419990198979</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01544667274139865</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.04406446843045381</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.0159024277092601</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.04406473695891783</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.0163540704095042</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.04406500548738185</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.0168015589926445</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.04406527401584587</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.01724502249455642</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.04406554254430989</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.01768544437769012</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.0440658110727739</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.01812295367792066</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.04406607960123792</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.01855750854576224</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.04406634812970193</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.01898906713176697</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.04406661665816596</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.0194175875864493</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.04406688518662997</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.01984302806036108</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.04406715371509399</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02026534670401699</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.044067422243558</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02068450166795959</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.04406769077202202</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02110045110273107</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.04406795930048604</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02151315315884655</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.04406822782895006</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.0219225659868572</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.04406849635741408</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02232864773727843</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.04406876488587809</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02273135656066112</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.04406903341434211</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02313065060752097</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.04406930194280612</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02352648802840854</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.04406957047127014</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02391882697383985</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.04406983899973416</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02430762559436518</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.04407010752819818</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02469284204050081</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.04407037605666219</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.02507443446279674</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.04407064458512621</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.02545236101176956</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.04407091311359022</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.02582657983796896</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.04407118164205424</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.02619704909191181</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.04407145017051826</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.02656372692414752</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.04407171869898228</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.0269265714851933</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.0440719872274463</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.02692657148519328</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.04405882933270946</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.02730354119091495</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.04408951100475818</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.02767671436038362</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.04412019267680691</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.02804596567713717</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.04415087434885564</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.02841116982471316</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.04418155602090437</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.02877220148664951</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.04421223769295309</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.02912893534648377</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.04424291936500182</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.02948124608775382</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.04427360103705055</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.02982900839399727</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.04430428270909927</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.03017209694875198</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.044334964381148</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03051038643555558</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.04436564605319673</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03084375153794577</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.04439632772524545</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03117206693946041</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.04442700939729418</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.0314952073236371</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.04445769106934291</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03181304737401368</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.04448837274139163</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03212546177412778</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.04451905441344036</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.03243232520751724</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.04454973608548909</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.03273351235771968</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.04458041775753781</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.03302889790827292</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.04461109942958654</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.03331835654271462</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.04464178110163527</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.03360176294458257</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.04467246277368399</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.03387899179741451</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.04470314444573273</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.03414991778474805</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.04473382611778145</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.03441441559012108</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.04476450778983018</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.03467235989707118</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.0447951894618789</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.03492413709802383</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.04482587113392764</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.03517269212984224</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.04485655280597636</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.03541841138495182</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.04488723447802509</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.03566116954689023</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.04491791615007381</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.03590084129919527</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.04494859782212254</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.03613730132540466</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.04497927949417127</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.03637042430905604</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.04500996116622</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.03660008493368726</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.04504064283826872</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.03682615788283597</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.04507132451031745</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.03704851784003996</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.04510200618236618</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.03726703948883689</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.0451326878544149</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.03748159751276459</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.04516336952646363</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.03769206659536066</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.04519405119851236</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.03789832142016297</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.04522473287056109</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.03810023667070915</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.04525541454260981</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.038297687030537</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.04528609621465854</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.03849054718318419</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.04531677788670727</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.03867869181218846</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.04534745955875599</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.03886199560108759</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.04537814123080473</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.03904033323341925</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.04540882290285345</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.03921357939272123</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.04543950457490218</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.03938160876253119</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.0454701862469509</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.03954429602638694</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.04550086791899963</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.03970151586782612</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.04553154959104835</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.03985314297038657</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.04556223126309709</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.03223542864692437</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.04556223126309709</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.03995233835512685</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.04703421091921238</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.04004474696004719</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.04850619057532768</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.04013060927940648</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.04997817023144297</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.04021016580746352</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.05145014988755827</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.04028365703847721</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.05292212954367356</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.04035132346670638</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.05439410919978886</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.04041340558640991</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.05586608885590415</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.04047014389184662</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.05733806851201945</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.04052177887727541</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.05881004816813475</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.0405685510369551</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.06028202782425005</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.04061070086514454</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.06175400748036534</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.0406484688561026</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.06322598713648063</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.04068209550408813</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.06469796679259593</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.04071182130336</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.06616994644871123</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.04073788674817705</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.06764192610482653</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.04076053233279812</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.06911390576094183</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.04077999855148211</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.07058588541705711</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.04079652589848784</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.07205786507317241</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.04081035486807416</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.0735298447292877</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.04082172595449994</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.075001824385403</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.04083087965202403</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.0764738040415183</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.04083805645490528</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.07794578369763358</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.04084349685740256</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.07941776335374888</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.04084744135377473</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.08088974300986418</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.0408501304382806</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.08236172266597948</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.04085180460517908</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.08383370232209478</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.04085270434872901</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.08530568197821008</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.0408530701631892</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.08677766163432538</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.04085314254281856</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.08824964129044066</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.04083652531274377</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.08972162094655596</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.04076848722431606</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.09119360060267126</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.04065127700143778</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.09266558025878655</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.04048849605075189</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.09413755991490184</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.04028374577890141</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.09560953957101714</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.0400406275925293</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.09708151922713243</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.03976274289827857</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.09855349888324773</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.03945369310279219</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.100025478539363</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.03911707961271316</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1014974581954783</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.03875650383468447</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1029694378515936</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.03837556717534908</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1044414175077089</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.03797787104135003</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1059133971638242</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.03756701683933025</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1073853768199395</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.03714660597593278</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.1088573564760548</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.03672023985780058</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1103293361321701</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.03629151989157665</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1118013157882854</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.03586404748390397</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1132732954444007</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.03544142404142553</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.114745275100516</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.03502725097078432</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1162172547566313</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.03462512967862336</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1176892344127466</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.03423866157158556</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1191612140688619</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.03387144805631399</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1206331937249772</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.03352709053945159</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1221051733810925</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.03319036861182006</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1235771530372077</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.03284328830057959</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.1250491326933231</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.03248715553357384</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1265211123494384</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.03212328146097154</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1279930920055536</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.03175297723294139</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.129465071661669</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.03137755399965213</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.1309370513177842</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.03099832291127247</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.1324090309738995</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.03061659511797116</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.1338810106300148</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03023368176991689</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.1353529902861301</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.02985089401727843</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.1368249699422454</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.02946954301022443</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.1382969495983607</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.0290909398989237</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.139768929254476</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.02871639583354491</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.1412409089105913</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.02834722196425678</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.1427128885667066</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.02798472944122805</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.1441848682228219</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.02763022941462745</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.1456568478789372</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.02728503303462369</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.1471288275350525</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.0269504514513855</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.1486008071911678</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.0266277958150816</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.02631837727588071</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.1515447665033984</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.02602350698395156</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.1530167461595137</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.02574449608946287</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.154488725815629</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.02548265574258338</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.1559607054717443</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.02523929709348179</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.1574326851278596</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.02501502075643169</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.1589046647839749</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.02479803011769022</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.1603766444400901</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.02458398410687842</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.1618486240962055</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.02437322790044201</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.1633206037523208</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.02416610667482672</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.1647925834084361</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.02396296560647826</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.1662645630645513</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.02376414987184237</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.1677365427206667</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.02357000464736476</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.1692085223767819</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.02338087510949117</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.1706805020328972</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.0231971064346673</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.1721524816890125</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.02301904379933888</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.1736244613451278</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.02284703237995165</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.1750964410012431</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.02268141735295132</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.1765684206573584</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.02252254389478361</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.1780404003134737</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.02237075718189425</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.179512379969589</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.02222640239072896</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.1809843596257043</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.02208982469773347</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.1824563392818196</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.02196136927935348</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.1839283189379349</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.02184138131203475</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.1854002985940502</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.02173020597222299</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.1868722782501655</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.0216281884363639</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.1883442579062808</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.02153567388090323</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.1898162375623961</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.0214530074822867</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.1912882172185114</v>
-      </c>
-    </row>
+        <v>0.3202916035909042</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1066.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1066.xlsx
@@ -2487,7 +2487,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2607,7 +2607,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -2959,7 +2959,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3074,7 +3074,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3431,7 +3431,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -3540,7 +3540,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4113,7 +4113,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4223,7 +4223,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>None</a:t>
+              <a:t/>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF564"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9275,31 +9275,15 @@
         <f>A70</f>
         <v/>
       </c>
-      <c r="F65" s="170" t="n">
-        <v>0</v>
-      </c>
-      <c r="G65" s="171" t="n">
-        <v>0</v>
-      </c>
+      <c r="F65" s="170" t="n"/>
+      <c r="G65" s="171" t="n"/>
       <c r="H65" s="171" t="n"/>
-      <c r="J65" s="170" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" s="171" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" s="172" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" s="170" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="171" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" s="172" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" s="170" t="n"/>
+      <c r="K65" s="171" t="n"/>
+      <c r="L65" s="172" t="n"/>
+      <c r="M65" s="170" t="n"/>
+      <c r="N65" s="171" t="n"/>
+      <c r="O65" s="172" t="n"/>
       <c r="Q65" s="151" t="inlineStr">
         <is>
           <t>&lt; 0</t>
@@ -9317,31 +9301,15 @@
           <t>ind</t>
         </is>
       </c>
-      <c r="F66" s="170" t="n">
-        <v>0.003240855514154373</v>
-      </c>
-      <c r="G66" s="171" t="n">
-        <v>0.001623070453528479</v>
-      </c>
+      <c r="F66" s="170" t="n"/>
+      <c r="G66" s="171" t="n"/>
       <c r="H66" s="171" t="n"/>
-      <c r="J66" s="170" t="n">
-        <v>0.007592891704554176</v>
-      </c>
-      <c r="K66" s="171" t="n">
-        <v>0.001637334605859452</v>
-      </c>
-      <c r="L66" s="172" t="n">
-        <v>0.02249999999999999</v>
-      </c>
-      <c r="M66" s="170" t="n">
-        <v>0.001884429218003519</v>
-      </c>
-      <c r="N66" s="171" t="n">
-        <v>0.03749999999999998</v>
-      </c>
-      <c r="O66" s="172" t="n">
-        <v>0.001809798357884568</v>
-      </c>
+      <c r="J66" s="170" t="n"/>
+      <c r="K66" s="171" t="n"/>
+      <c r="L66" s="172" t="n"/>
+      <c r="M66" s="170" t="n"/>
+      <c r="N66" s="171" t="n"/>
+      <c r="O66" s="172" t="n"/>
       <c r="Q66" s="151" t="inlineStr">
         <is>
           <t>0-0,25</t>
@@ -9357,31 +9325,15 @@
       <c r="A67" s="151" t="n">
         <v>2</v>
       </c>
-      <c r="F67" s="170" t="n">
-        <v>0.01111771432346219</v>
-      </c>
-      <c r="G67" s="171" t="n">
-        <v>0.002709603911638925</v>
-      </c>
+      <c r="F67" s="170" t="n"/>
+      <c r="G67" s="171" t="n"/>
       <c r="H67" s="171" t="n"/>
-      <c r="J67" s="170" t="n">
-        <v>0.01390610098128744</v>
-      </c>
-      <c r="K67" s="171" t="n">
-        <v>0.003389188147695483</v>
-      </c>
-      <c r="L67" s="172" t="n">
-        <v>0.03732091796676135</v>
-      </c>
-      <c r="M67" s="170" t="n">
-        <v>0.003221261268052875</v>
-      </c>
-      <c r="N67" s="171" t="n">
-        <v>0.0621018058602244</v>
-      </c>
-      <c r="O67" s="172" t="n">
-        <v>0.003219011091365871</v>
-      </c>
+      <c r="J67" s="170" t="n"/>
+      <c r="K67" s="171" t="n"/>
+      <c r="L67" s="172" t="n"/>
+      <c r="M67" s="170" t="n"/>
+      <c r="N67" s="171" t="n"/>
+      <c r="O67" s="172" t="n"/>
       <c r="Q67" s="151" t="inlineStr">
         <is>
           <t>0,25&lt;</t>
@@ -9399,31 +9351,15 @@
           <t>E0</t>
         </is>
       </c>
-      <c r="F68" s="170" t="n">
-        <v>0.01706884787203182</v>
-      </c>
-      <c r="G68" s="171" t="n">
-        <v>0.004869211360585436</v>
-      </c>
+      <c r="F68" s="170" t="n"/>
+      <c r="G68" s="171" t="n"/>
       <c r="H68" s="171" t="n"/>
-      <c r="J68" s="170" t="n">
-        <v>0.0167804623890376</v>
-      </c>
-      <c r="K68" s="171" t="n">
-        <v>0.004912003817578356</v>
-      </c>
-      <c r="L68" s="172" t="n">
-        <v>0.05276984700537946</v>
-      </c>
-      <c r="M68" s="170" t="n">
-        <v>0.004831891902079312</v>
-      </c>
-      <c r="N68" s="171" t="n">
-        <v>0.09381567341634345</v>
-      </c>
-      <c r="O68" s="172" t="n">
-        <v>0.005429395073653704</v>
-      </c>
+      <c r="J68" s="170" t="n"/>
+      <c r="K68" s="171" t="n"/>
+      <c r="L68" s="172" t="n"/>
+      <c r="M68" s="170" t="n"/>
+      <c r="N68" s="171" t="n"/>
+      <c r="O68" s="172" t="n"/>
       <c r="Q68" s="151" t="inlineStr">
         <is>
           <t>Суглинки</t>
@@ -9446,31 +9382,15 @@
           <t>devE0</t>
         </is>
       </c>
-      <c r="F69" s="170" t="n">
-        <v>0.02067761516015322</v>
-      </c>
-      <c r="G69" s="171" t="n">
-        <v>0.006492281814113914</v>
-      </c>
+      <c r="F69" s="170" t="n"/>
+      <c r="G69" s="171" t="n"/>
       <c r="H69" s="171" t="n"/>
-      <c r="J69" s="170" t="n">
-        <v>0.0191577272096822</v>
-      </c>
-      <c r="K69" s="171" t="n">
-        <v>0.006549338423437808</v>
-      </c>
-      <c r="L69" s="172" t="n">
-        <v>0.05889585479548851</v>
-      </c>
-      <c r="M69" s="170" t="n">
-        <v>0.005653287654010558</v>
-      </c>
-      <c r="N69" s="171" t="n">
-        <v>0.09958207527766438</v>
-      </c>
-      <c r="O69" s="172" t="n">
-        <v>0.006438022182731743</v>
-      </c>
+      <c r="J69" s="170" t="n"/>
+      <c r="K69" s="171" t="n"/>
+      <c r="L69" s="172" t="n"/>
+      <c r="M69" s="170" t="n"/>
+      <c r="N69" s="171" t="n"/>
+      <c r="O69" s="172" t="n"/>
       <c r="Q69" s="151" t="inlineStr">
         <is>
           <t xml:space="preserve">Пески и супеси </t>
@@ -9489,58 +9409,26 @@
       <c r="B70" t="n">
         <v>0.01111771432346219</v>
       </c>
-      <c r="F70" s="170" t="n">
-        <v>0.02342854920846666</v>
-      </c>
-      <c r="G70" s="171" t="n">
-        <v>0.008128811734916775</v>
-      </c>
+      <c r="F70" s="170" t="n"/>
+      <c r="G70" s="171" t="n"/>
       <c r="H70" s="171" t="n"/>
-      <c r="J70" s="170" t="n">
-        <v>0.02076125684071246</v>
-      </c>
-      <c r="K70" s="171" t="n">
-        <v>0.008186673029297259</v>
-      </c>
-      <c r="L70" s="172" t="n">
-        <v>0.06794780460900812</v>
-      </c>
-      <c r="M70" s="170" t="n">
-        <v>0.008053153170132187</v>
-      </c>
-      <c r="N70" s="171" t="n">
-        <v>0.1087338360010505</v>
-      </c>
-      <c r="O70" s="172" t="n">
-        <v>0.008047527728414678</v>
-      </c>
+      <c r="J70" s="170" t="n"/>
+      <c r="K70" s="171" t="n"/>
+      <c r="L70" s="172" t="n"/>
+      <c r="M70" s="170" t="n"/>
+      <c r="N70" s="171" t="n"/>
+      <c r="O70" s="172" t="n"/>
     </row>
     <row r="71">
-      <c r="F71" s="170" t="n">
-        <v>0.02259451474807088</v>
-      </c>
-      <c r="G71" s="171" t="n">
-        <v>0.009738422721170871</v>
-      </c>
+      <c r="F71" s="170" t="n"/>
+      <c r="G71" s="171" t="n"/>
       <c r="H71" s="171" t="n"/>
-      <c r="J71" s="170" t="n">
-        <v>0.02236275239787905</v>
-      </c>
-      <c r="K71" s="171" t="n">
-        <v>0.009824007635156713</v>
-      </c>
-      <c r="L71" s="172" t="n">
-        <v>0.07376911288288152</v>
-      </c>
-      <c r="M71" s="170" t="n">
-        <v>0.009663783804158624</v>
-      </c>
-      <c r="N71" s="171" t="n">
-        <v>0.1179238778708961</v>
-      </c>
-      <c r="O71" s="172" t="n">
-        <v>0.009657033274097615</v>
-      </c>
+      <c r="J71" s="170" t="n"/>
+      <c r="K71" s="171" t="n"/>
+      <c r="L71" s="172" t="n"/>
+      <c r="M71" s="170" t="n"/>
+      <c r="N71" s="171" t="n"/>
+      <c r="O71" s="172" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="151" t="inlineStr">
@@ -9553,31 +9441,15 @@
           <t>График E</t>
         </is>
       </c>
-      <c r="F72" s="170" t="n">
-        <v>0.02365516339418124</v>
-      </c>
-      <c r="G72" s="171" t="n">
-        <v>0.01136149317469935</v>
-      </c>
+      <c r="F72" s="170" t="n"/>
+      <c r="G72" s="171" t="n"/>
       <c r="H72" s="171" t="n"/>
-      <c r="J72" s="170" t="n">
-        <v>0.02397603617463352</v>
-      </c>
-      <c r="K72" s="171" t="n">
-        <v>0.01096737804878049</v>
-      </c>
-      <c r="L72" s="172" t="n">
-        <v>0.07792790644631911</v>
-      </c>
-      <c r="M72" s="170" t="n">
-        <v>0.01127441443818506</v>
-      </c>
-      <c r="N72" s="171" t="n">
-        <v>0.1265144141027095</v>
-      </c>
-      <c r="O72" s="172" t="n">
-        <v>0.01126653881978055</v>
-      </c>
+      <c r="J72" s="170" t="n"/>
+      <c r="K72" s="171" t="n"/>
+      <c r="L72" s="172" t="n"/>
+      <c r="M72" s="170" t="n"/>
+      <c r="N72" s="171" t="n"/>
+      <c r="O72" s="172" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="139" t="inlineStr">
@@ -9599,31 +9471,15 @@
         <f>B70</f>
         <v/>
       </c>
-      <c r="F73" s="170" t="n">
-        <v>0.02759077910523836</v>
-      </c>
-      <c r="G73" s="171" t="n">
-        <v>0.01298456362822783</v>
-      </c>
+      <c r="F73" s="170" t="n"/>
+      <c r="G73" s="171" t="n"/>
       <c r="H73" s="171" t="n"/>
-      <c r="J73" s="170" t="n">
-        <v>0.02634619692426997</v>
-      </c>
-      <c r="K73" s="171" t="n">
-        <v>0.01309867684687562</v>
-      </c>
-      <c r="L73" s="172" t="n">
-        <v>0.08236199695444246</v>
-      </c>
-      <c r="M73" s="170" t="n">
-        <v>0.0128850450722115</v>
-      </c>
-      <c r="N73" s="171" t="n">
-        <v>0.1319676579119992</v>
-      </c>
-      <c r="O73" s="172" t="n">
-        <v>0.01287604436546349</v>
-      </c>
+      <c r="J73" s="170" t="n"/>
+      <c r="K73" s="171" t="n"/>
+      <c r="L73" s="172" t="n"/>
+      <c r="M73" s="170" t="n"/>
+      <c r="N73" s="171" t="n"/>
+      <c r="O73" s="172" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="151" t="inlineStr">
@@ -9636,31 +9492,15 @@
           <t>Касательная</t>
         </is>
       </c>
-      <c r="F74" s="170" t="n">
-        <v>0.02840026838899568</v>
-      </c>
-      <c r="G74" s="171" t="n">
-        <v>0.01460763408175631</v>
-      </c>
+      <c r="F74" s="170" t="n"/>
+      <c r="G74" s="171" t="n"/>
       <c r="H74" s="171" t="n"/>
-      <c r="J74" s="170" t="n">
-        <v>0.02817592068813157</v>
-      </c>
-      <c r="K74" s="171" t="n">
-        <v>0.01473601145273507</v>
-      </c>
-      <c r="L74" s="172" t="n">
-        <v>0.08660919606237302</v>
-      </c>
-      <c r="M74" s="170" t="n">
-        <v>0.01449567570623794</v>
-      </c>
-      <c r="N74" s="171" t="n">
-        <v>0.1388458225142735</v>
-      </c>
-      <c r="O74" s="172" t="n">
-        <v>0.01448554991114642</v>
-      </c>
+      <c r="J74" s="170" t="n"/>
+      <c r="K74" s="171" t="n"/>
+      <c r="L74" s="172" t="n"/>
+      <c r="M74" s="170" t="n"/>
+      <c r="N74" s="171" t="n"/>
+      <c r="O74" s="172" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="151" t="n">
@@ -9680,31 +9520,15 @@
           <t>b</t>
         </is>
       </c>
-      <c r="F75" s="170" t="n">
-        <v>0.03108253775320664</v>
-      </c>
-      <c r="G75" s="171" t="n">
-        <v>0.01623070453528479</v>
-      </c>
+      <c r="F75" s="170" t="n"/>
+      <c r="G75" s="171" t="n"/>
       <c r="H75" s="171" t="n"/>
-      <c r="J75" s="170" t="n">
-        <v>0.02959161544983953</v>
-      </c>
-      <c r="K75" s="171" t="n">
-        <v>0.01637334605859452</v>
-      </c>
-      <c r="L75" s="172" t="n">
-        <v>0.09040731542523237</v>
-      </c>
-      <c r="M75" s="170" t="n">
-        <v>0.01610630634026437</v>
-      </c>
-      <c r="N75" s="171" t="n">
-        <v>0.144911121125041</v>
-      </c>
-      <c r="O75" s="172" t="n">
-        <v>0.01609505545682936</v>
-      </c>
+      <c r="J75" s="170" t="n"/>
+      <c r="K75" s="171" t="n"/>
+      <c r="L75" s="172" t="n"/>
+      <c r="M75" s="170" t="n"/>
+      <c r="N75" s="171" t="n"/>
+      <c r="O75" s="172" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="173">
@@ -9722,31 +9546,15 @@
       <c r="D76" s="151" t="n">
         <v>0</v>
       </c>
-      <c r="F76" s="170" t="n">
-        <v>0.03463649370562476</v>
-      </c>
-      <c r="G76" s="171" t="n">
-        <v>0.01785377498881326</v>
-      </c>
+      <c r="F76" s="170" t="n"/>
+      <c r="G76" s="171" t="n"/>
       <c r="H76" s="171" t="n"/>
-      <c r="J76" s="170" t="n">
-        <v>0.03157351716960438</v>
-      </c>
-      <c r="K76" s="171" t="n">
-        <v>0.01801068066445397</v>
-      </c>
-      <c r="L76" s="172" t="n">
-        <v>0.09259416669814197</v>
-      </c>
-      <c r="M76" s="170" t="n">
-        <v>0.01771693697429081</v>
-      </c>
-      <c r="N76" s="171" t="n">
-        <v>0.1492257669598098</v>
-      </c>
-      <c r="O76" s="172" t="n">
-        <v>0.01770456100251229</v>
-      </c>
+      <c r="J76" s="170" t="n"/>
+      <c r="K76" s="171" t="n"/>
+      <c r="L76" s="172" t="n"/>
+      <c r="M76" s="170" t="n"/>
+      <c r="N76" s="171" t="n"/>
+      <c r="O76" s="172" t="n"/>
     </row>
     <row r="77" ht="15" customHeight="1">
       <c r="A77" s="151" t="inlineStr">
@@ -9758,30 +9566,6 @@
         <is>
           <t>p1 и p2</t>
         </is>
-      </c>
-      <c r="F77" t="n">
-        <v>0.03406104275400343</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0.01947684544234174</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.03310186180763675</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.01964801527031343</v>
-      </c>
-      <c r="L77" t="n">
-        <v>0.09580756153622341</v>
-      </c>
-      <c r="M77" t="n">
-        <v>0.01932756760831725</v>
-      </c>
-      <c r="N77" t="n">
-        <v>0.1529519732340886</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0.01931406654819523</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9799,30 +9583,6 @@
         <f>D76</f>
         <v/>
       </c>
-      <c r="F78" t="n">
-        <v>0.03735509140609616</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0.02109991589587022</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.03515688532414718</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.02128534987617288</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0.09868531159459812</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.02093819824234368</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0.1563519531633855</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0.02092357209387816</v>
-      </c>
     </row>
     <row r="79" ht="15" customHeight="1">
       <c r="A79" s="173">
@@ -9841,60 +9601,12 @@
         <f>B89+0.2*B89</f>
         <v/>
       </c>
-      <c r="F79" t="n">
-        <v>0.0375175461696564</v>
-      </c>
-      <c r="G79" t="n">
-        <v>0.0227229863493987</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.0366188236793463</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.02292268448203233</v>
-      </c>
-      <c r="L79" t="n">
-        <v>0.1000652285283877</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.02254882887637012</v>
-      </c>
-      <c r="N79" t="n">
-        <v>0.1605879199632093</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0.0225330776395611</v>
-      </c>
     </row>
     <row r="80" ht="15" customHeight="1">
       <c r="A80" s="151" t="inlineStr">
         <is>
           <t>Касательная линия E50</t>
         </is>
-      </c>
-      <c r="F80" t="n">
-        <v>0.03754731355243759</v>
-      </c>
-      <c r="G80" t="n">
-        <v>0.02434605680292718</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.03776791283344465</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.02456001908789178</v>
-      </c>
-      <c r="L80" t="n">
-        <v>0.1017851239927136</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.02415945951039656</v>
-      </c>
-      <c r="N80" t="n">
-        <v>0.1637220868490681</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0.02414258318524403</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9909,30 +9621,6 @@
           <t>Горизонтальная 1</t>
         </is>
       </c>
-      <c r="F81" t="n">
-        <v>0.03644330006219323</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0.02596912725645566</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.03938438874665284</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.02619735369375123</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.1035828096426974</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.025770090144423</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.1661166670364703</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.02575208873092697</v>
-      </c>
     </row>
     <row r="82" ht="15" customHeight="1">
       <c r="A82" s="173">
@@ -9943,30 +9631,6 @@
         <f>B79+(B86-B79)*0.8</f>
         <v/>
       </c>
-      <c r="F82" t="n">
-        <v>0.03720441220667677</v>
-      </c>
-      <c r="G82" t="n">
-        <v>0.02759219770998414</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.04054848737918146</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.02783468829961068</v>
-      </c>
-      <c r="L82" t="n">
-        <v>0.1056078698844168</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.02738072077844943</v>
-      </c>
-      <c r="N82" t="n">
-        <v>0.1675632913189847</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0.02736159427660991</v>
-      </c>
     </row>
     <row r="83" ht="15" customHeight="1">
       <c r="A83" s="151" t="inlineStr">
@@ -9974,30 +9638,6 @@
           <t>Горизонтальная линия qкр</t>
         </is>
       </c>
-      <c r="F83" t="n">
-        <v>0.04182962831778571</v>
-      </c>
-      <c r="G83" t="n">
-        <v>0.02921526816351262</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.04164044469124109</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.02947202290547014</v>
-      </c>
-      <c r="L83" t="n">
-        <v>0.1064761678187089</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.02899135141247587</v>
-      </c>
-      <c r="N83" t="n">
-        <v>0.1704334964356204</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0.02897109982229285</v>
-      </c>
     </row>
     <row r="84" ht="15" customHeight="1">
       <c r="A84" s="151" t="inlineStr">
@@ -10009,30 +9649,6 @@
         <is>
           <t>Горизонтальная 2</t>
         </is>
-      </c>
-      <c r="F84" t="n">
-        <v>0.03938391449000631</v>
-      </c>
-      <c r="G84" t="n">
-        <v>0.0308383386170411</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.0421404966430423</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.03110935751132959</v>
-      </c>
-      <c r="L84" t="n">
-        <v>0.107401758102675</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.03060198204650231</v>
-      </c>
-      <c r="N84" t="n">
-        <v>0.1726340022273389</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0.03058060536797578</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10050,30 +9666,6 @@
         <f>D73</f>
         <v/>
       </c>
-      <c r="F85" t="n">
-        <v>0.03892233173081326</v>
-      </c>
-      <c r="G85" t="n">
-        <v>0.03246140907056957</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.04305101394285213</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.03274669211718904</v>
-      </c>
-      <c r="L85" t="n">
-        <v>0.1093758649356021</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.03221261268052875</v>
-      </c>
-      <c r="N85" t="n">
-        <v>0.1739508589259623</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0.03219011091365871</v>
-      </c>
     </row>
     <row r="86" ht="15" customHeight="1">
       <c r="A86" s="172">
@@ -10092,60 +9684,12 @@
         <f>D73</f>
         <v/>
       </c>
-      <c r="F86" t="n">
-        <v>0.04144130754487717</v>
-      </c>
-      <c r="G86" t="n">
-        <v>0.03408447952409804</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.04331662222247418</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.03438402672304849</v>
-      </c>
-      <c r="L86" t="n">
-        <v>0.1098897125167769</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.03382324331455518</v>
-      </c>
-      <c r="N86" t="n">
-        <v>0.1752701167633125</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0.03379961645934165</v>
-      </c>
     </row>
     <row r="87" ht="15" customHeight="1">
       <c r="A87" s="151" t="inlineStr">
         <is>
           <t>Вертикальная линия q</t>
         </is>
-      </c>
-      <c r="F87" t="n">
-        <v>0.03993726943686868</v>
-      </c>
-      <c r="G87" t="n">
-        <v>0.03570754997762653</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.04396408312659444</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.03602136132890794</v>
-      </c>
-      <c r="L87" t="n">
-        <v>0.1112345250454865</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.03543387394858162</v>
-      </c>
-      <c r="N87" t="n">
-        <v>0.1780778259712117</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0.03540912200502459</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10158,30 +9702,6 @@
       </c>
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
-      <c r="F88" t="n">
-        <v>0.04440664491145849</v>
-      </c>
-      <c r="G88" t="n">
-        <v>0.037330620431155</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.04468964343656158</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.03765869593476739</v>
-      </c>
-      <c r="L88" t="n">
-        <v>0.1120015267210179</v>
-      </c>
-      <c r="M88" t="n">
-        <v>0.03704450458260806</v>
-      </c>
-      <c r="N88" t="n">
-        <v>0.180160036781482</v>
-      </c>
-      <c r="O88" t="n">
-        <v>0.03701862755070753</v>
-      </c>
     </row>
     <row r="89" ht="15" customHeight="1">
       <c r="A89" s="172">
@@ -10192,4581 +9712,182 @@
         <f>B86</f>
         <v/>
       </c>
-      <c r="F89" t="n">
-        <v>0.04184586147331715</v>
-      </c>
-      <c r="G89" t="n">
-        <v>0.03895369088468349</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0.04488954993372415</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.03929603054062685</v>
-      </c>
-      <c r="L89" t="n">
-        <v>0.1136819417426579</v>
-      </c>
-      <c r="M89" t="n">
-        <v>0.0386551352166345</v>
-      </c>
-      <c r="N89" t="n">
-        <v>0.1815027994259453</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0.03862813309639046</v>
-      </c>
     </row>
-    <row r="90" ht="15" customHeight="1">
-      <c r="F90" t="n">
-        <v>0.04325134662711536</v>
-      </c>
-      <c r="G90" t="n">
-        <v>0.04057676133821196</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.04556004939943072</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.0409333651464863</v>
-      </c>
-      <c r="L90" t="n">
-        <v>0.1140669943096934</v>
-      </c>
-      <c r="M90" t="n">
-        <v>0.04026576585066093</v>
-      </c>
-      <c r="N90" t="n">
-        <v>0.181692164136424</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0.04023763864207339</v>
-      </c>
-    </row>
-    <row r="91" ht="15" customHeight="1">
-      <c r="F91" t="n">
-        <v>0.04361952787752371</v>
-      </c>
-      <c r="G91" t="n">
-        <v>0.04219983179174044</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.0459973886150299</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.04257069975234575</v>
-      </c>
-      <c r="L91" t="n">
-        <v>0.1157479086214114</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.04187639648468737</v>
-      </c>
-      <c r="N91" t="n">
-        <v>0.18401418114474</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0.04184714418775633</v>
-      </c>
-    </row>
-    <row r="92" ht="15" customHeight="1">
-      <c r="F92" t="n">
-        <v>0.04394683272921288</v>
-      </c>
-      <c r="G92" t="n">
-        <v>0.04382290224526892</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.04649781436187028</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.04420803435820521</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.1157159088770987</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.04348702711871381</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.1851549006827154</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.04345664973343927</v>
-      </c>
-    </row>
-    <row r="93" ht="15" customHeight="1">
-      <c r="F93" t="n">
-        <v>0.04522968868685348</v>
-      </c>
-      <c r="G93" t="n">
-        <v>0.0454459726987974</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.04655757342130043</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.04584536896406466</v>
-      </c>
-      <c r="L93" t="n">
-        <v>0.1163622192760424</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.04509765775274024</v>
-      </c>
-      <c r="N93" t="n">
-        <v>0.1858003729821723</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0.0450661552791222</v>
-      </c>
-    </row>
-    <row r="94" ht="15" customHeight="1">
-      <c r="F94" t="n">
-        <v>0.04646452325511619</v>
-      </c>
-      <c r="G94" t="n">
-        <v>0.04706904315232587</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.0470729125746689</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.04748270356992411</v>
-      </c>
-      <c r="L94" t="n">
-        <v>0.1173780640175294</v>
-      </c>
-      <c r="M94" t="n">
-        <v>0.04670828838676668</v>
-      </c>
-      <c r="N94" t="n">
-        <v>0.1860366482749328</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0.04667566082480514</v>
-      </c>
-    </row>
-    <row r="95" ht="15" customHeight="1">
-      <c r="F95" t="n">
-        <v>0.04364776393867159</v>
-      </c>
-      <c r="G95" t="n">
-        <v>0.04869211360585435</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.04734007860332433</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.04912003817578357</v>
-      </c>
-      <c r="L95" t="n">
-        <v>0.117791709590977</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.04831891902079312</v>
-      </c>
-      <c r="N95" t="n">
-        <v>0.187631346832687</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0.04828516637048807</v>
-      </c>
-    </row>
-    <row r="96" ht="15" customHeight="1">
-      <c r="F96" t="n">
-        <v>0.04577583824219035</v>
-      </c>
-      <c r="G96" t="n">
-        <v>0.05031518405938283</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.04735531828861529</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.05075737278164302</v>
-      </c>
-      <c r="L96" t="n">
-        <v>0.1177832533252806</v>
-      </c>
-      <c r="M96" t="n">
-        <v>0.04992954965481956</v>
-      </c>
-      <c r="N96" t="n">
-        <v>0.1862258087676529</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0.04989467191617101</v>
-      </c>
-    </row>
-    <row r="97" ht="15" customHeight="1">
-      <c r="F97" t="n">
-        <v>0.04685709841693332</v>
-      </c>
-      <c r="G97" t="n">
-        <v>0.05193825451291131</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.04751487841189037</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.05239470738750247</v>
-      </c>
-      <c r="L97" t="n">
-        <v>0.1166741943360126</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.05154018028884599</v>
-      </c>
-      <c r="N97" t="n">
-        <v>0.185893034844706</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0.05150417746185394</v>
-      </c>
-    </row>
-    <row r="98" ht="15" customHeight="1">
-      <c r="F98" t="n">
-        <v>0.04585473192732348</v>
-      </c>
-      <c r="G98" t="n">
-        <v>0.05356132496643978</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.04795207234926704</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.05403204199336192</v>
-      </c>
-      <c r="L98" t="n">
-        <v>0.1170857372913918</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.05315081092287242</v>
-      </c>
-      <c r="N98" t="n">
-        <v>0.1868387960177434</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0.05311368300753688</v>
-      </c>
-    </row>
-    <row r="99" ht="15" customHeight="1">
-      <c r="F99" t="n">
-        <v>0.0468274683720605</v>
-      </c>
-      <c r="G99" t="n">
-        <v>0.05518439541996827</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.04785194709778716</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.05566937659922137</v>
-      </c>
-      <c r="L99" t="n">
-        <v>0.1166267671122186</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.05476144155689887</v>
-      </c>
-      <c r="N99" t="n">
-        <v>0.1871732462339541</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0.05472318855321982</v>
-      </c>
-    </row>
-    <row r="100" ht="15" customHeight="1">
-      <c r="F100" t="n">
-        <v>0.04477120733150908</v>
-      </c>
-      <c r="G100" t="n">
-        <v>0.05680746587349674</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.04793783464887807</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.05730671120508082</v>
-      </c>
-      <c r="L100" t="n">
-        <v>0.116601908898549</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.05637207219092531</v>
-      </c>
-      <c r="N100" t="n">
-        <v>0.1863037374234568</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0.05633269409890276</v>
-      </c>
-    </row>
-    <row r="101" ht="15" customHeight="1">
-      <c r="F101" t="n">
-        <v>0.0456878316137328</v>
-      </c>
-      <c r="G101" t="n">
-        <v>0.05843053632702523</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.04769259419215467</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.05894404581094027</v>
-      </c>
-      <c r="L101" t="n">
-        <v>0.1167157877504386</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.05798270282495175</v>
-      </c>
-      <c r="N101" t="n">
-        <v>0.1855376215163704</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0.05794219964458569</v>
-      </c>
-    </row>
-    <row r="102" ht="15" customHeight="1">
-      <c r="F102" t="n">
-        <v>0.04457922402679534</v>
-      </c>
-      <c r="G102" t="n">
-        <v>0.0600536067805537</v>
-      </c>
-      <c r="J102" t="n">
-        <v>0.04781826749860459</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.06058138041679973</v>
-      </c>
-      <c r="L102" t="n">
-        <v>0.1166730287679434</v>
-      </c>
-      <c r="M102" t="n">
-        <v>0.05959333345897818</v>
-      </c>
-      <c r="N102" t="n">
-        <v>0.1853822504428134</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0.05955170519026862</v>
-      </c>
-    </row>
-    <row r="103" ht="15" customHeight="1">
-      <c r="F103" t="n">
-        <v>0.04244726737876033</v>
-      </c>
-      <c r="G103" t="n">
-        <v>0.06167667723408219</v>
-      </c>
-      <c r="J103" t="n">
-        <v>0.04741683262269396</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.06221871502265917</v>
-      </c>
-      <c r="L103" t="n">
-        <v>0.1156782570511194</v>
-      </c>
-      <c r="M103" t="n">
-        <v>0.06120396409300461</v>
-      </c>
-      <c r="N103" t="n">
-        <v>0.1839449761329049</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0.06116121073595155</v>
-      </c>
-    </row>
-    <row r="104" ht="15" customHeight="1">
-      <c r="F104" t="n">
-        <v>0.04629384447769136</v>
-      </c>
-      <c r="G104" t="n">
-        <v>0.06329974768761067</v>
-      </c>
-      <c r="J104" t="n">
-        <v>0.04749026761888885</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.06385604962851864</v>
-      </c>
-      <c r="L104" t="n">
-        <v>0.1153360977000221</v>
-      </c>
-      <c r="M104" t="n">
-        <v>0.06281459472703106</v>
-      </c>
-      <c r="N104" t="n">
-        <v>0.1834331505167633</v>
-      </c>
-      <c r="O104" t="n">
-        <v>0.06277071628163448</v>
-      </c>
-    </row>
-    <row r="105" ht="15" customHeight="1">
-      <c r="F105" t="n">
-        <v>0.04212083813165207</v>
-      </c>
-      <c r="G105" t="n">
-        <v>0.06492281814113915</v>
-      </c>
-      <c r="J105" t="n">
-        <v>0.04724055054165542</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.06549338423437807</v>
-      </c>
-      <c r="L105" t="n">
-        <v>0.1145511758147076</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0.06442522536105749</v>
-      </c>
-      <c r="N105" t="n">
-        <v>0.1830541255245077</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0.06438022182731742</v>
-      </c>
-    </row>
-    <row r="106" ht="15" customHeight="1">
-      <c r="F106" t="n">
-        <v>0.04393013114870609</v>
-      </c>
-      <c r="G106" t="n">
-        <v>0.06654588859466762</v>
-      </c>
-      <c r="J106" t="n">
-        <v>0.04696965944545982</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.06713071884023754</v>
-      </c>
-      <c r="L106" t="n">
-        <v>0.1147281164952319</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0.06603585599508394</v>
-      </c>
-      <c r="N106" t="n">
-        <v>0.1823152530862567</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0.06598972737300036</v>
-      </c>
-    </row>
-    <row r="107" ht="15" customHeight="1">
-      <c r="F107" t="n">
-        <v>0.04272360633691706</v>
-      </c>
-      <c r="G107" t="n">
-        <v>0.06816895904819609</v>
-      </c>
-      <c r="J107" t="n">
-        <v>0.04687957238476811</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.06876805344609699</v>
-      </c>
-      <c r="L107" t="n">
-        <v>0.1131715448416505</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0.06764648662911037</v>
-      </c>
-      <c r="N107" t="n">
-        <v>0.181323885132129</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0.06759923291868331</v>
-      </c>
-    </row>
-    <row r="108" ht="15" customHeight="1">
-      <c r="F108" t="n">
-        <v>0.0445031465043486</v>
-      </c>
-      <c r="G108" t="n">
-        <v>0.06979202950172458</v>
-      </c>
-      <c r="J108" t="n">
-        <v>0.04667226741404644</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.07040538805195644</v>
-      </c>
-      <c r="L108" t="n">
-        <v>0.1132860859540194</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.0692571172631368</v>
-      </c>
-      <c r="N108" t="n">
-        <v>0.1799873735922435</v>
-      </c>
-      <c r="O108" t="n">
-        <v>0.06920873846436623</v>
-      </c>
-    </row>
-    <row r="109" ht="15" customHeight="1">
-      <c r="F109" t="n">
-        <v>0.0452706344590643</v>
-      </c>
-      <c r="G109" t="n">
-        <v>0.07141509995525305</v>
-      </c>
-      <c r="J109" t="n">
-        <v>0.04634972258776095</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.07204272265781589</v>
-      </c>
-      <c r="L109" t="n">
-        <v>0.1127763649323945</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0.07086774789716324</v>
-      </c>
-      <c r="N109" t="n">
-        <v>0.1784130703967191</v>
-      </c>
-      <c r="O109" t="n">
-        <v>0.07081824401004917</v>
-      </c>
-    </row>
-    <row r="110" ht="15" customHeight="1">
-      <c r="F110" t="n">
-        <v>0.04202795300912784</v>
-      </c>
-      <c r="G110" t="n">
-        <v>0.07303817040878154</v>
-      </c>
-      <c r="J110" t="n">
-        <v>0.04631391596037771</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.07368005726367535</v>
-      </c>
-      <c r="L110" t="n">
-        <v>0.1123470068768316</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0.07247837853118967</v>
-      </c>
-      <c r="N110" t="n">
-        <v>0.1779083274756743</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0.07242774955573211</v>
-      </c>
-    </row>
-    <row r="111" ht="15" customHeight="1">
-      <c r="F111" t="n">
-        <v>0.04077698496260285</v>
-      </c>
-      <c r="G111" t="n">
-        <v>0.07466124086231</v>
-      </c>
-      <c r="J111" t="n">
-        <v>0.04606682558636288</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.07531739186953479</v>
-      </c>
-      <c r="L111" t="n">
-        <v>0.1117026368873866</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.07408900916521612</v>
-      </c>
-      <c r="N111" t="n">
-        <v>0.1776804967592279</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0.07403725510141505</v>
-      </c>
-    </row>
-    <row r="112" ht="15" customHeight="1">
-      <c r="F112" t="n">
-        <v>0.04151961312755291</v>
-      </c>
-      <c r="G112" t="n">
-        <v>0.0762843113158385</v>
-      </c>
-      <c r="J112" t="n">
-        <v>0.04551042952018257</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.07695472647539425</v>
-      </c>
-      <c r="L112" t="n">
-        <v>0.1102478800641153</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0.07569963979924255</v>
-      </c>
-      <c r="N112" t="n">
-        <v>0.1761369301774988</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0.07564676064709798</v>
-      </c>
-    </row>
-    <row r="113" ht="15" customHeight="1">
-      <c r="F113" t="n">
-        <v>0.04225772031204167</v>
-      </c>
-      <c r="G113" t="n">
-        <v>0.07790738176936697</v>
-      </c>
-      <c r="J113" t="n">
-        <v>0.0454467058163029</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.0785920610812537</v>
-      </c>
-      <c r="L113" t="n">
-        <v>0.1101873615070735</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0.07731027043326899</v>
-      </c>
-      <c r="N113" t="n">
-        <v>0.1751849796606058</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0.07725626619278092</v>
-      </c>
-    </row>
-    <row r="114" ht="15" customHeight="1">
-      <c r="F114" t="n">
-        <v>0.04099318932413276</v>
-      </c>
-      <c r="G114" t="n">
-        <v>0.07953045222289544</v>
-      </c>
-      <c r="J114" t="n">
-        <v>0.04507763252919</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.08022939568711315</v>
-      </c>
-      <c r="L114" t="n">
-        <v>0.1091257063163172</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0.07892090106729543</v>
-      </c>
-      <c r="N114" t="n">
-        <v>0.1746319971386676</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0.07886577173846385</v>
-      </c>
-    </row>
-    <row r="115" ht="15" customHeight="1">
-      <c r="F115" t="n">
-        <v>0.0397279029718898</v>
-      </c>
-      <c r="G115" t="n">
-        <v>0.08115352267642392</v>
-      </c>
-      <c r="J115" t="n">
-        <v>0.04480518771330998</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.0818667302929726</v>
-      </c>
-      <c r="L115" t="n">
-        <v>0.1085675395919022</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0.08053153170132187</v>
-      </c>
-      <c r="N115" t="n">
-        <v>0.1731853345418028</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0.08047527728414679</v>
-      </c>
-    </row>
-    <row r="116" ht="15" customHeight="1">
-      <c r="F116" t="n">
-        <v>0.04246374406337643</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0.08277659312995241</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0.04463134942312894</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.08350406489883207</v>
-      </c>
-      <c r="L116" t="n">
-        <v>0.1074164058875747</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0.08214216233534831</v>
-      </c>
-      <c r="N116" t="n">
-        <v>0.171646958322605</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0.08208478282982971</v>
-      </c>
-    </row>
-    <row r="117" ht="15" customHeight="1">
-      <c r="F117" t="n">
-        <v>0.04020259540665626</v>
-      </c>
-      <c r="G117" t="n">
-        <v>0.08439966358348089</v>
-      </c>
-      <c r="J117" t="n">
-        <v>0.04415809571311304</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.0851413995046915</v>
-      </c>
-      <c r="L117" t="n">
-        <v>0.1069050253999309</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0.08375279296937474</v>
-      </c>
-      <c r="N117" t="n">
-        <v>0.170698451010994</v>
-      </c>
-      <c r="O117" t="n">
-        <v>0.08369428837551265</v>
-      </c>
-    </row>
-    <row r="118" ht="15" customHeight="1">
-      <c r="F118" t="n">
-        <v>0.0389227079815691</v>
-      </c>
-      <c r="G118" t="n">
-        <v>0.08602273403700936</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0.04388740463772837</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0.08677873411055097</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0.1064020318370076</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0.08536342360340118</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.1703066776992704</v>
-      </c>
-      <c r="O118" t="n">
-        <v>0.08530379392119559</v>
-      </c>
-    </row>
-    <row r="119" ht="15" customHeight="1">
-      <c r="F119" t="n">
-        <v>0.039605035142186</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0.08764580449053784</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0.04400842713386763</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.08841606871641042</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0.1060224943276492</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0.08697405423742761</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0.1687955918545758</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0.08691329946687854</v>
-      </c>
-    </row>
-    <row r="120" ht="15" customHeight="1">
-      <c r="F120" t="n">
-        <v>0.03925571125750826</v>
-      </c>
-      <c r="G120" t="n">
-        <v>0.08926887494406632</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.04329038351681576</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.09005340332226987</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.1040814820007001</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0.08858468487145404</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0.1671891469440518</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0.08852280501256146</v>
-      </c>
-    </row>
-    <row r="121" ht="15" customHeight="1">
-      <c r="F121" t="n">
-        <v>0.03888087074126904</v>
-      </c>
-      <c r="G121" t="n">
-        <v>0.09089194539759479</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.04303768105886607</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.09169073792812932</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.1038940639850044</v>
-      </c>
-      <c r="M121" t="n">
-        <v>0.09019531550548049</v>
-      </c>
-      <c r="N121" t="n">
-        <v>0.16531129643484</v>
-      </c>
-      <c r="O121" t="n">
-        <v>0.0901323105582444</v>
-      </c>
-    </row>
-    <row r="122" ht="15" customHeight="1">
-      <c r="F122" t="n">
-        <v>0.03848664800720156</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.09251501585112328</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.04285676449791635</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.09332807253398878</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0.1030753094094068</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0.09180594613950692</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0.1630859937940818</v>
-      </c>
-      <c r="O122" t="n">
-        <v>0.09174181610392734</v>
-      </c>
-    </row>
-    <row r="123" ht="15" customHeight="1">
-      <c r="F123" t="n">
-        <v>0.04007917746903897</v>
-      </c>
-      <c r="G123" t="n">
-        <v>0.09413808630465174</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.04225407857186445</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.09496540713984822</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0.1016402874027514</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0.09341657677353336</v>
-      </c>
-      <c r="N123" t="n">
-        <v>0.162337192488919</v>
-      </c>
-      <c r="O123" t="n">
-        <v>0.09335132164961028</v>
-      </c>
-    </row>
-    <row r="124" ht="15" customHeight="1">
-      <c r="F124" t="n">
-        <v>0.03766459354051448</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.09576115675818024</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.04183606801860811</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.09660274174570768</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0.1002040670938826</v>
-      </c>
-      <c r="M124" t="n">
-        <v>0.09502720740755981</v>
-      </c>
-      <c r="N124" t="n">
-        <v>0.160088845986493</v>
-      </c>
-      <c r="O124" t="n">
-        <v>0.0949608271952932</v>
-      </c>
-    </row>
-    <row r="125" ht="15" customHeight="1">
-      <c r="F125" t="n">
-        <v>0.03724903063536125</v>
-      </c>
-      <c r="G125" t="n">
-        <v>0.09738422721170871</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.04160917757604517</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.09824007635156713</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0.09998171761164465</v>
-      </c>
-      <c r="M125" t="n">
-        <v>0.09663783804158624</v>
-      </c>
-      <c r="N125" t="n">
-        <v>0.1587649077539455</v>
-      </c>
-      <c r="O125" t="n">
-        <v>0.09657033274097614</v>
-      </c>
-    </row>
-    <row r="126" ht="15" customHeight="1">
-      <c r="F126" t="n">
-        <v>0.03983862316731246</v>
-      </c>
-      <c r="G126" t="n">
-        <v>0.09900729766523719</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.04127985198207343</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.09987741095742658</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0.09838830808488194</v>
-      </c>
-      <c r="M126" t="n">
-        <v>0.09824846867561268</v>
-      </c>
-      <c r="N126" t="n">
-        <v>0.1561893312584178</v>
-      </c>
-      <c r="O126" t="n">
-        <v>0.09817983828665908</v>
-      </c>
-    </row>
-    <row r="127" ht="15" customHeight="1">
-      <c r="F127" t="n">
-        <v>0.03943950555010133</v>
-      </c>
-      <c r="G127" t="n">
-        <v>0.1006303681187657</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.0405545359745907</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.101514745563286</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.09753890764243894</v>
-      </c>
-      <c r="M127" t="n">
-        <v>0.09985909930963911</v>
-      </c>
-      <c r="N127" t="n">
-        <v>0.1548860699670517</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0.09978934383234202</v>
-      </c>
-    </row>
-    <row r="128" ht="15" customHeight="1">
-      <c r="F128" t="n">
-        <v>0.036057812197461</v>
-      </c>
-      <c r="G128" t="n">
-        <v>0.1022534385722941</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.04023967429149479</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.1031520801691455</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0.09718236420649756</v>
-      </c>
-      <c r="M128" t="n">
-        <v>0.1014697299436656</v>
-      </c>
-      <c r="N128" t="n">
-        <v>0.1542500380445773</v>
-      </c>
-      <c r="O128" t="n">
-        <v>0.1013988493780249</v>
-      </c>
-    </row>
-    <row r="129" ht="15" customHeight="1">
-      <c r="F129" t="n">
-        <v>0.03667578712408182</v>
-      </c>
-      <c r="G129" t="n">
-        <v>0.1038765090258226</v>
-      </c>
-      <c r="J129" t="n">
-        <v>0.03964171167068349</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.1047894147750049</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0.09563773785702215</v>
-      </c>
-      <c r="M129" t="n">
-        <v>0.103080360577692</v>
-      </c>
-      <c r="N129" t="n">
-        <v>0.1518755589444515</v>
-      </c>
-      <c r="O129" t="n">
-        <v>0.1030083549237079</v>
-      </c>
-    </row>
-    <row r="130" ht="15" customHeight="1">
-      <c r="F130" t="n">
-        <v>0.03525826003087414</v>
-      </c>
-      <c r="G130" t="n">
-        <v>0.1054995794793511</v>
-      </c>
-      <c r="J130" t="n">
-        <v>0.03935184577465051</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.1064267493808644</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0.09492558065688453</v>
-      </c>
-      <c r="M130" t="n">
-        <v>0.1046909912117184</v>
-      </c>
-      <c r="N130" t="n">
-        <v>0.1498968954946497</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0.1046178604693908</v>
-      </c>
-    </row>
-    <row r="131" ht="15" customHeight="1">
-      <c r="F131" t="n">
-        <v>0.03681314822059287</v>
-      </c>
-      <c r="G131" t="n">
-        <v>0.1071226499328796</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.03902666829986598</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.1080640839867238</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0.09296746406843984</v>
-      </c>
-      <c r="M131" t="n">
-        <v>0.1063016218457448</v>
-      </c>
-      <c r="N131" t="n">
-        <v>0.1477483370904023</v>
-      </c>
-      <c r="O131" t="n">
-        <v>0.1062273660150738</v>
-      </c>
-    </row>
-    <row r="132" ht="15" customHeight="1">
-      <c r="F132" t="n">
-        <v>0.03534923310829409</v>
-      </c>
-      <c r="G132" t="n">
-        <v>0.1087457203864081</v>
-      </c>
-      <c r="J132" t="n">
-        <v>0.03877121892299987</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.1097014185925833</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0.09268495955404327</v>
-      </c>
-      <c r="M132" t="n">
-        <v>0.1079122524797713</v>
-      </c>
-      <c r="N132" t="n">
-        <v>0.1471641731269396</v>
-      </c>
-      <c r="O132" t="n">
-        <v>0.1078368715607567</v>
-      </c>
-    </row>
-    <row r="133" ht="15" customHeight="1">
-      <c r="F133" t="n">
-        <v>0.03587529610903399</v>
-      </c>
-      <c r="G133" t="n">
-        <v>0.1103687908399365</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.03809472328824086</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.1113387531984427</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0.0908996385760501</v>
-      </c>
-      <c r="M133" t="n">
-        <v>0.1095228831137977</v>
-      </c>
-      <c r="N133" t="n">
-        <v>0.1444786929994921</v>
-      </c>
-      <c r="O133" t="n">
-        <v>0.1094463771064396</v>
-      </c>
-    </row>
-    <row r="134" ht="15" customHeight="1">
-      <c r="F134" t="n">
-        <v>0.03640011863786863</v>
-      </c>
-      <c r="G134" t="n">
-        <v>0.111991861293465</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.03760640703977765</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.1129760878043022</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0.08963307259681538</v>
-      </c>
-      <c r="M134" t="n">
-        <v>0.1111335137478242</v>
-      </c>
-      <c r="N134" t="n">
-        <v>0.1426261861032898</v>
-      </c>
-      <c r="O134" t="n">
-        <v>0.1110558826521226</v>
-      </c>
-    </row>
-    <row r="135" ht="15" customHeight="1">
-      <c r="F135" t="n">
-        <v>0.03393248210985421</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0.1136149317469935</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.03701549582179897</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.1146134224101616</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0.08870683307869448</v>
-      </c>
-      <c r="M135" t="n">
-        <v>0.1127441443818506</v>
-      </c>
-      <c r="N135" t="n">
-        <v>0.1404409418335635</v>
-      </c>
-      <c r="O135" t="n">
-        <v>0.1126653881978055</v>
-      </c>
-    </row>
-    <row r="136" ht="15" customHeight="1">
-      <c r="F136" t="n">
-        <v>0.03348116794004682</v>
-      </c>
-      <c r="G136" t="n">
-        <v>0.115238002200522</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.03683121527849348</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.1162507570160211</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0.08764249148404241</v>
-      </c>
-      <c r="M136" t="n">
-        <v>0.114354775015877</v>
-      </c>
-      <c r="N136" t="n">
-        <v>0.1395572495855433</v>
-      </c>
-      <c r="O136" t="n">
-        <v>0.1142748937434884</v>
-      </c>
-    </row>
-    <row r="137" ht="15" customHeight="1">
-      <c r="F137" t="n">
-        <v>0.03105495754350261</v>
-      </c>
-      <c r="G137" t="n">
-        <v>0.1168610726540505</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.03606279105404994</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.1178880916218805</v>
-      </c>
-      <c r="L137" t="n">
-        <v>0.08716161927521449</v>
-      </c>
-      <c r="M137" t="n">
-        <v>0.1159654056499035</v>
-      </c>
-      <c r="N137" t="n">
-        <v>0.1386093987544595</v>
-      </c>
-      <c r="O137" t="n">
-        <v>0.1158843992891714</v>
-      </c>
-    </row>
-    <row r="138" ht="15" customHeight="1">
-      <c r="F138" t="n">
-        <v>0.03366263233527773</v>
-      </c>
-      <c r="G138" t="n">
-        <v>0.1184841431075789</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.03591944879265699</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.11952542622774</v>
-      </c>
-      <c r="L138" t="n">
-        <v>0.08598578791456585</v>
-      </c>
-      <c r="M138" t="n">
-        <v>0.1175760362839299</v>
-      </c>
-      <c r="N138" t="n">
-        <v>0.1368316787355427</v>
-      </c>
-      <c r="O138" t="n">
-        <v>0.1174939048348543</v>
-      </c>
-    </row>
-    <row r="139" ht="15" customHeight="1">
-      <c r="F139" t="n">
-        <v>0.03031297373042829</v>
-      </c>
-      <c r="G139" t="n">
-        <v>0.1201072135611074</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.03521041413850334</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.1211627608335995</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0.08533656886445171</v>
-      </c>
-      <c r="M139" t="n">
-        <v>0.1191866669179564</v>
-      </c>
-      <c r="N139" t="n">
-        <v>0.1350583789240231</v>
-      </c>
-      <c r="O139" t="n">
-        <v>0.1191034103805372</v>
-      </c>
-    </row>
-    <row r="140" ht="15" customHeight="1">
-      <c r="F140" t="n">
-        <v>0.03001476314401043</v>
-      </c>
-      <c r="G140" t="n">
-        <v>0.1217302840146359</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.03484491273577774</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.1228000954394589</v>
-      </c>
-      <c r="L140" t="n">
-        <v>0.08493553358722725</v>
-      </c>
-      <c r="M140" t="n">
-        <v>0.1207972975519828</v>
-      </c>
-      <c r="N140" t="n">
-        <v>0.1345237887151309</v>
-      </c>
-      <c r="O140" t="n">
-        <v>0.1207129159262202</v>
-      </c>
-    </row>
-    <row r="141" ht="15" customHeight="1">
-      <c r="F141" t="n">
-        <v>0.02977678199108026</v>
-      </c>
-      <c r="G141" t="n">
-        <v>0.1233533544681644</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.03483217022866883</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.1244374300453183</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0.08450425354524765</v>
-      </c>
-      <c r="M141" t="n">
-        <v>0.1224079281860092</v>
-      </c>
-      <c r="N141" t="n">
-        <v>0.1331621975040967</v>
-      </c>
-      <c r="O141" t="n">
-        <v>0.1223224214719031</v>
-      </c>
-    </row>
-    <row r="142" ht="15" customHeight="1">
-      <c r="F142" t="n">
-        <v>0.02960781168669396</v>
-      </c>
-      <c r="G142" t="n">
-        <v>0.1249764249216928</v>
-      </c>
-      <c r="J142" t="n">
-        <v>0.03428141226136536</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.1260747646511778</v>
-      </c>
-      <c r="L142" t="n">
-        <v>0.08316430020086815</v>
-      </c>
-      <c r="M142" t="n">
-        <v>0.1240185588200357</v>
-      </c>
-      <c r="N142" t="n">
-        <v>0.1340078946861508</v>
-      </c>
-      <c r="O142" t="n">
-        <v>0.123931927017586</v>
-      </c>
-    </row>
-    <row r="143" ht="15" customHeight="1">
-      <c r="F143" t="n">
-        <v>0.03051663364590763</v>
-      </c>
-      <c r="G143" t="n">
-        <v>0.1265994953752213</v>
-      </c>
-      <c r="J143" t="n">
-        <v>0.034001864478056</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.1277120992570373</v>
-      </c>
-      <c r="L143" t="n">
-        <v>0.08382338881008719</v>
-      </c>
-      <c r="M143" t="n">
-        <v>0.1256291894540621</v>
-      </c>
-      <c r="N143" t="n">
-        <v>0.1330619419798729</v>
-      </c>
-      <c r="O143" t="n">
-        <v>0.125541432563269</v>
-      </c>
-    </row>
-    <row r="144" ht="15" customHeight="1">
-      <c r="F144" t="n">
-        <v>0.03250413909831122</v>
-      </c>
-      <c r="G144" t="n">
-        <v>0.1282225658287498</v>
-      </c>
-      <c r="J144" t="n">
-        <v>0.03430275252292948</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.1293494338628967</v>
-      </c>
-      <c r="L144" t="n">
-        <v>0.08315162262027917</v>
-      </c>
-      <c r="M144" t="n">
-        <v>0.1272398200880885</v>
-      </c>
-      <c r="N144" t="n">
-        <v>0.134211112331065</v>
-      </c>
-      <c r="O144" t="n">
-        <v>0.1271509381089519</v>
-      </c>
-    </row>
-    <row r="145" ht="15" customHeight="1">
-      <c r="F145" t="n">
-        <v>0.03051643128656328</v>
-      </c>
-      <c r="G145" t="n">
-        <v>0.1298456362822783</v>
-      </c>
-      <c r="J145" t="n">
-        <v>0.03428681465589856</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.1309867684687561</v>
-      </c>
-      <c r="L145" t="n">
-        <v>0.08361068395928994</v>
-      </c>
-      <c r="M145" t="n">
-        <v>0.128850450722115</v>
-      </c>
-      <c r="N145" t="n">
-        <v>0.1328091081668753</v>
-      </c>
-      <c r="O145" t="n">
-        <v>0.1287604436546348</v>
-      </c>
-    </row>
-    <row r="146" ht="15" customHeight="1">
-      <c r="F146" t="n">
-        <v>0.03354112491274244</v>
-      </c>
-      <c r="G146" t="n">
-        <v>0.1314687067358068</v>
-      </c>
-      <c r="J146" t="n">
-        <v>0.0342989594647034</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.1326241030746156</v>
-      </c>
-      <c r="L146" t="n">
-        <v>0.08369898776392348</v>
-      </c>
-      <c r="M146" t="n">
-        <v>0.1304610813561414</v>
-      </c>
-      <c r="N146" t="n">
-        <v>0.1330534099150329</v>
-      </c>
-      <c r="O146" t="n">
-        <v>0.1303699492003178</v>
-      </c>
-    </row>
-    <row r="147" ht="15" customHeight="1">
-      <c r="F147" t="n">
-        <v>0.02957757472166915</v>
-      </c>
-      <c r="G147" t="n">
-        <v>0.1330917771893352</v>
-      </c>
-      <c r="J147" t="n">
-        <v>0.03402404444645397</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.1342614376804751</v>
-      </c>
-      <c r="L147" t="n">
-        <v>0.08381494897098371</v>
-      </c>
-      <c r="M147" t="n">
-        <v>0.1320717119901679</v>
-      </c>
-      <c r="N147" t="n">
-        <v>0.1346414980032669</v>
-      </c>
-      <c r="O147" t="n">
-        <v>0.1319794547460007</v>
-      </c>
-    </row>
-    <row r="148" ht="15" customHeight="1">
-      <c r="F148" t="n">
-        <v>0.03162513545816389</v>
-      </c>
-      <c r="G148" t="n">
-        <v>0.1347148476428637</v>
-      </c>
-      <c r="J148" t="n">
-        <v>0.03436139170417586</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.1358987722863345</v>
-      </c>
-      <c r="L148" t="n">
-        <v>0.08405698251727456</v>
-      </c>
-      <c r="M148" t="n">
-        <v>0.1336823426241943</v>
-      </c>
-      <c r="N148" t="n">
-        <v>0.1332708528593063</v>
-      </c>
-      <c r="O148" t="n">
-        <v>0.1335889602916837</v>
-      </c>
-    </row>
-    <row r="149" ht="15" customHeight="1">
-      <c r="F149" t="n">
-        <v>0.0296831618670471</v>
-      </c>
-      <c r="G149" t="n">
-        <v>0.1363379180963922</v>
-      </c>
-      <c r="J149" t="n">
-        <v>0.03431032334089472</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.137536106892194</v>
-      </c>
-      <c r="L149" t="n">
-        <v>0.08422350333959996</v>
-      </c>
-      <c r="M149" t="n">
-        <v>0.1352929732582207</v>
-      </c>
-      <c r="N149" t="n">
-        <v>0.13443895491088</v>
-      </c>
-      <c r="O149" t="n">
-        <v>0.1351984658373666</v>
-      </c>
-    </row>
-    <row r="150" ht="15" customHeight="1">
-      <c r="F150" t="n">
-        <v>0.03075100869313928</v>
-      </c>
-      <c r="G150" t="n">
-        <v>0.1379609885499207</v>
-      </c>
-      <c r="J150" t="n">
-        <v>0.03447016145963615</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.1391734414980534</v>
-      </c>
-      <c r="L150" t="n">
-        <v>0.08441292637476386</v>
-      </c>
-      <c r="M150" t="n">
-        <v>0.1369036038922472</v>
-      </c>
-      <c r="N150" t="n">
-        <v>0.135343284585717</v>
-      </c>
-      <c r="O150" t="n">
-        <v>0.1368079713830495</v>
-      </c>
-    </row>
-    <row r="151" ht="15" customHeight="1">
-      <c r="F151" t="n">
-        <v>0.03182803068126085</v>
-      </c>
-      <c r="G151" t="n">
-        <v>0.1395840590034492</v>
-      </c>
-      <c r="J151" t="n">
-        <v>0.03424022816342578</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.1408107761039129</v>
-      </c>
-      <c r="L151" t="n">
-        <v>0.08452366655957014</v>
-      </c>
-      <c r="M151" t="n">
-        <v>0.1385142345262736</v>
-      </c>
-      <c r="N151" t="n">
-        <v>0.1347813223115464</v>
-      </c>
-      <c r="O151" t="n">
-        <v>0.1384174769287325</v>
-      </c>
-    </row>
-    <row r="152" ht="15" customHeight="1">
-      <c r="F152" t="n">
-        <v>0.03191358257623231</v>
-      </c>
-      <c r="G152" t="n">
-        <v>0.1412071294569776</v>
-      </c>
-      <c r="J152" t="n">
-        <v>0.03441984555528924</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.1424481107097723</v>
-      </c>
-      <c r="L152" t="n">
-        <v>0.08535413883082282</v>
-      </c>
-      <c r="M152" t="n">
-        <v>0.1401248651603001</v>
-      </c>
-      <c r="N152" t="n">
-        <v>0.1357505485160972</v>
-      </c>
-      <c r="O152" t="n">
-        <v>0.1400269824744154</v>
-      </c>
-    </row>
-    <row r="153" ht="15" customHeight="1">
-      <c r="F153" t="n">
-        <v>0.03200701912287411</v>
-      </c>
-      <c r="G153" t="n">
-        <v>0.1428301999105061</v>
-      </c>
-      <c r="J153" t="n">
-        <v>0.03460833573825214</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.1440854453156318</v>
-      </c>
-      <c r="L153" t="n">
-        <v>0.08530275812532578</v>
-      </c>
-      <c r="M153" t="n">
-        <v>0.1417354957943265</v>
-      </c>
-      <c r="N153" t="n">
-        <v>0.1360484436270984</v>
-      </c>
-      <c r="O153" t="n">
-        <v>0.1416364880200983</v>
-      </c>
-    </row>
-    <row r="154" ht="15" customHeight="1">
-      <c r="F154" t="n">
-        <v>0.03010769506600673</v>
-      </c>
-      <c r="G154" t="n">
-        <v>0.1444532703640346</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0.03460502081534012</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.1457227799214912</v>
-      </c>
-      <c r="L154" t="n">
-        <v>0.08516793937988298</v>
-      </c>
-      <c r="M154" t="n">
-        <v>0.1433461264283529</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0.1351724880722789</v>
-      </c>
-      <c r="O154" t="n">
-        <v>0.1432459935657813</v>
-      </c>
-    </row>
-    <row r="155" ht="15" customHeight="1">
-      <c r="F155" t="n">
-        <v>0.03121496515045062</v>
-      </c>
-      <c r="G155" t="n">
-        <v>0.1460763408175631</v>
-      </c>
-      <c r="J155" t="n">
-        <v>0.03460922288957878</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.1473601145273507</v>
-      </c>
-      <c r="L155" t="n">
-        <v>0.08545212906400215</v>
-      </c>
-      <c r="M155" t="n">
-        <v>0.1449567570623793</v>
-      </c>
-      <c r="N155" t="n">
-        <v>0.1363336544756947</v>
-      </c>
-      <c r="O155" t="n">
-        <v>0.1448554991114642</v>
-      </c>
-    </row>
-    <row r="156" ht="15" customHeight="1">
-      <c r="F156" t="n">
-        <v>0.03433445022838891</v>
-      </c>
-      <c r="G156" t="n">
-        <v>0.1476994112710915</v>
-      </c>
-      <c r="J156" t="n">
-        <v>0.03482026406399374</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.1489974491332101</v>
-      </c>
-      <c r="L156" t="n">
-        <v>0.08562544162648492</v>
-      </c>
-      <c r="M156" t="n">
-        <v>0.1465673876964058</v>
-      </c>
-      <c r="N156" t="n">
-        <v>0.1369193125350239</v>
-      </c>
-      <c r="O156" t="n">
-        <v>0.1464650046571472</v>
-      </c>
-    </row>
-    <row r="157" ht="15" customHeight="1">
-      <c r="F157" t="n">
-        <v>0.03454220019112796</v>
-      </c>
-      <c r="G157" t="n">
-        <v>0.14932248172462</v>
-      </c>
-      <c r="J157" t="n">
-        <v>0.03514636416344954</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.1506347837390696</v>
-      </c>
-      <c r="L157" t="n">
-        <v>0.08704384900378734</v>
-      </c>
-      <c r="M157" t="n">
-        <v>0.1481780183304322</v>
-      </c>
-      <c r="N157" t="n">
-        <v>0.1386890966866117</v>
-      </c>
-      <c r="O157" t="n">
-        <v>0.1480745102028301</v>
-      </c>
-    </row>
-    <row r="158" ht="15" customHeight="1">
-      <c r="F158" t="n">
-        <v>0.03484560466814823</v>
-      </c>
-      <c r="G158" t="n">
-        <v>0.1509455521781485</v>
-      </c>
-      <c r="J158" t="n">
-        <v>0.03536774896379993</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.152272118344929</v>
-      </c>
-      <c r="L158" t="n">
-        <v>0.08835950196370679</v>
-      </c>
-      <c r="M158" t="n">
-        <v>0.1497886489644587</v>
-      </c>
-      <c r="N158" t="n">
-        <v>0.140866947124801</v>
-      </c>
-      <c r="O158" t="n">
-        <v>0.149684015748513</v>
-      </c>
-    </row>
-    <row r="159" ht="15" customHeight="1">
-      <c r="F159" t="n">
-        <v>0.03422518496295845</v>
-      </c>
-      <c r="G159" t="n">
-        <v>0.152568622631677</v>
-      </c>
-      <c r="J159" t="n">
-        <v>0.03538736351176033</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.1539094529507885</v>
-      </c>
-      <c r="L159" t="n">
-        <v>0.08872455127404041</v>
-      </c>
-      <c r="M159" t="n">
-        <v>0.1513992795984851</v>
-      </c>
-      <c r="N159" t="n">
-        <v>0.1408768040439351</v>
-      </c>
-      <c r="O159" t="n">
-        <v>0.151293521294196</v>
-      </c>
-    </row>
-    <row r="160" ht="15" customHeight="1">
-      <c r="F160" t="n">
-        <v>0.03466146237906736</v>
-      </c>
-      <c r="G160" t="n">
-        <v>0.1541916930852054</v>
-      </c>
-      <c r="J160" t="n">
-        <v>0.0360847437338369</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.155546787556648</v>
-      </c>
-      <c r="L160" t="n">
-        <v>0.08959114770258547</v>
-      </c>
-      <c r="M160" t="n">
-        <v>0.1530099102325115</v>
-      </c>
-      <c r="N160" t="n">
-        <v>0.1432426076383571</v>
-      </c>
-      <c r="O160" t="n">
-        <v>0.1529030268398789</v>
-      </c>
-    </row>
-    <row r="161" ht="15" customHeight="1">
-      <c r="F161" t="n">
-        <v>0.03313495821998368</v>
-      </c>
-      <c r="G161" t="n">
-        <v>0.1558147635387339</v>
-      </c>
-      <c r="J161" t="n">
-        <v>0.03613942555653588</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.1571841221625074</v>
-      </c>
-      <c r="L161" t="n">
-        <v>0.09091144201713924</v>
-      </c>
-      <c r="M161" t="n">
-        <v>0.154620540866538</v>
-      </c>
-      <c r="N161" t="n">
-        <v>0.1448882981024103</v>
-      </c>
-      <c r="O161" t="n">
-        <v>0.1545125323855618</v>
-      </c>
-    </row>
-    <row r="162" ht="15" customHeight="1">
-      <c r="F162" t="n">
-        <v>0.03362619378921612</v>
-      </c>
-      <c r="G162" t="n">
-        <v>0.1574378339922624</v>
-      </c>
-      <c r="J162" t="n">
-        <v>0.03683094490636347</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.1588214567683669</v>
-      </c>
-      <c r="L162" t="n">
-        <v>0.0926375849854989</v>
-      </c>
-      <c r="M162" t="n">
-        <v>0.1562311715005644</v>
-      </c>
-      <c r="N162" t="n">
-        <v>0.1472378156304378</v>
-      </c>
-      <c r="O162" t="n">
-        <v>0.1561220379312448</v>
-      </c>
-    </row>
-    <row r="163" ht="15" customHeight="1">
-      <c r="F163" t="n">
-        <v>0.03311569039027343</v>
-      </c>
-      <c r="G163" t="n">
-        <v>0.1590609044457909</v>
-      </c>
-      <c r="J163" t="n">
-        <v>0.03753883770982588</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.1604587913742263</v>
-      </c>
-      <c r="L163" t="n">
-        <v>0.09392172737546176</v>
-      </c>
-      <c r="M163" t="n">
-        <v>0.1578418021345909</v>
-      </c>
-      <c r="N163" t="n">
-        <v>0.1486151004167828</v>
-      </c>
-      <c r="O163" t="n">
-        <v>0.1577315434769277</v>
-      </c>
-    </row>
-    <row r="164" ht="15" customHeight="1">
-      <c r="F164" t="n">
-        <v>0.03458396932666431</v>
-      </c>
-      <c r="G164" t="n">
-        <v>0.1606839748993194</v>
-      </c>
-      <c r="J164" t="n">
-        <v>0.03764263989342931</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.1620961259800857</v>
-      </c>
-      <c r="L164" t="n">
-        <v>0.09481601995482505</v>
-      </c>
-      <c r="M164" t="n">
-        <v>0.1594524327686173</v>
-      </c>
-      <c r="N164" t="n">
-        <v>0.1501440926557884</v>
-      </c>
-      <c r="O164" t="n">
-        <v>0.1593410490226106</v>
-      </c>
-    </row>
-    <row r="165" ht="15" customHeight="1">
-      <c r="F165" t="n">
-        <v>0.03701155190189753</v>
-      </c>
-      <c r="G165" t="n">
-        <v>0.1623070453528478</v>
-      </c>
-      <c r="J165" t="n">
-        <v>0.03842188738367996</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.1637334605859452</v>
-      </c>
-      <c r="L165" t="n">
-        <v>0.09627261371631077</v>
-      </c>
-      <c r="M165" t="n">
-        <v>0.1610630634026437</v>
-      </c>
-      <c r="N165" t="n">
-        <v>0.1531493875283373</v>
-      </c>
-      <c r="O165" t="n">
-        <v>0.1609505545682936</v>
-      </c>
-    </row>
-    <row r="166" ht="15" customHeight="1">
-      <c r="F166" t="n">
-        <v>0.03438094729903192</v>
-      </c>
-      <c r="G166" t="n">
-        <v>0.1639301158063763</v>
-      </c>
-      <c r="J166" t="n">
-        <v>0.03855611610708408</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.1653707951918047</v>
-      </c>
-      <c r="L166" t="n">
-        <v>0.09643360594290756</v>
-      </c>
-      <c r="M166" t="n">
-        <v>0.1626736940366702</v>
-      </c>
-      <c r="N166" t="n">
-        <v>0.1540175186326072</v>
-      </c>
-      <c r="O166" t="n">
-        <v>0.1625600601139765</v>
-      </c>
-    </row>
-    <row r="167" ht="15" customHeight="1">
-      <c r="F167" t="n">
-        <v>0.03472394378061827</v>
-      </c>
-      <c r="G167" t="n">
-        <v>0.1655531862599048</v>
-      </c>
-      <c r="J167" t="n">
-        <v>0.03903019536300147</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.1670081297976641</v>
-      </c>
-      <c r="L167" t="n">
-        <v>0.09797346467146881</v>
-      </c>
-      <c r="M167" t="n">
-        <v>0.1642843246706966</v>
-      </c>
-      <c r="N167" t="n">
-        <v>0.1543521983261759</v>
-      </c>
-      <c r="O167" t="n">
-        <v>0.1641695656596594</v>
-      </c>
-    </row>
-    <row r="168" ht="15" customHeight="1">
-      <c r="F168" t="n">
-        <v>0.03705855686899882</v>
-      </c>
-      <c r="G168" t="n">
-        <v>0.1671762567134333</v>
-      </c>
-      <c r="J168" t="n">
-        <v>0.03948293647255911</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.1686454644035236</v>
-      </c>
-      <c r="L168" t="n">
-        <v>0.09809370782365581</v>
-      </c>
-      <c r="M168" t="n">
-        <v>0.165894955304723</v>
-      </c>
-      <c r="N168" t="n">
-        <v>0.1566558394550022</v>
-      </c>
-      <c r="O168" t="n">
-        <v>0.1657790712053424</v>
-      </c>
-    </row>
-    <row r="169" ht="15" customHeight="1">
-      <c r="F169" t="n">
-        <v>0.03938540448705294</v>
-      </c>
-      <c r="G169" t="n">
-        <v>0.1687993271669618</v>
-      </c>
-      <c r="J169" t="n">
-        <v>0.03982704741731799</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.170282799009383</v>
-      </c>
-      <c r="L169" t="n">
-        <v>0.09959585332112991</v>
-      </c>
-      <c r="M169" t="n">
-        <v>0.1675055859387495</v>
-      </c>
-      <c r="N169" t="n">
-        <v>0.1574308548650452</v>
-      </c>
-      <c r="O169" t="n">
-        <v>0.1673885767510253</v>
-      </c>
-    </row>
-    <row r="170" ht="15" customHeight="1">
-      <c r="F170" t="n">
-        <v>0.03770510455765999</v>
-      </c>
-      <c r="G170" t="n">
-        <v>0.1704223976204902</v>
-      </c>
-      <c r="J170" t="n">
-        <v>0.04036317737928168</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.1719201336152425</v>
-      </c>
-      <c r="L170" t="n">
-        <v>0.09988141908555231</v>
-      </c>
-      <c r="M170" t="n">
-        <v>0.1691162165727759</v>
-      </c>
-      <c r="N170" t="n">
-        <v>0.1590796574022638</v>
-      </c>
-      <c r="O170" t="n">
-        <v>0.1689980822967082</v>
-      </c>
-    </row>
-    <row r="171" ht="15" customHeight="1">
-      <c r="F171" t="n">
-        <v>0.03801827500369936</v>
-      </c>
-      <c r="G171" t="n">
-        <v>0.1720454680740187</v>
-      </c>
-      <c r="J171" t="n">
-        <v>0.04029197554045388</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.1735574682211019</v>
-      </c>
-      <c r="L171" t="n">
-        <v>0.1003519230385845</v>
-      </c>
-      <c r="M171" t="n">
-        <v>0.1707268472068024</v>
-      </c>
-      <c r="N171" t="n">
-        <v>0.161104659912617</v>
-      </c>
-      <c r="O171" t="n">
-        <v>0.1706075878423912</v>
-      </c>
-    </row>
-    <row r="172" ht="15" customHeight="1">
-      <c r="F172" t="n">
-        <v>0.03732553374805038</v>
-      </c>
-      <c r="G172" t="n">
-        <v>0.1736685385275472</v>
-      </c>
-      <c r="J172" t="n">
-        <v>0.0407140910828382</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.1751948028269614</v>
-      </c>
-      <c r="L172" t="n">
-        <v>0.1009088831018877</v>
-      </c>
-      <c r="M172" t="n">
-        <v>0.1723374778408288</v>
-      </c>
-      <c r="N172" t="n">
-        <v>0.1620082752420639</v>
-      </c>
-      <c r="O172" t="n">
-        <v>0.1722170933880741</v>
-      </c>
-    </row>
-    <row r="173" ht="15" customHeight="1">
-      <c r="F173" t="n">
-        <v>0.03862749871359245</v>
-      </c>
-      <c r="G173" t="n">
-        <v>0.1752916089810757</v>
-      </c>
-      <c r="J173" t="n">
-        <v>0.04123017318843832</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.1768321374328208</v>
-      </c>
-      <c r="L173" t="n">
-        <v>0.1026538171971231</v>
-      </c>
-      <c r="M173" t="n">
-        <v>0.1739481084748552</v>
-      </c>
-      <c r="N173" t="n">
-        <v>0.1618929162365634</v>
-      </c>
-      <c r="O173" t="n">
-        <v>0.1738265989337571</v>
-      </c>
-    </row>
-    <row r="174" ht="15" customHeight="1">
-      <c r="F174" t="n">
-        <v>0.03792478782320488</v>
-      </c>
-      <c r="G174" t="n">
-        <v>0.1769146794346041</v>
-      </c>
-      <c r="J174" t="n">
-        <v>0.04164087103925791</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.1784694720386803</v>
-      </c>
-      <c r="L174" t="n">
-        <v>0.1026882432459522</v>
-      </c>
-      <c r="M174" t="n">
-        <v>0.1755587391088817</v>
-      </c>
-      <c r="N174" t="n">
-        <v>0.1647609957420745</v>
-      </c>
-      <c r="O174" t="n">
-        <v>0.17543610447944</v>
-      </c>
-    </row>
-    <row r="175" ht="15" customHeight="1">
-      <c r="F175" t="n">
-        <v>0.0412180189997671</v>
-      </c>
-      <c r="G175" t="n">
-        <v>0.1785377498881326</v>
-      </c>
-      <c r="J175" t="n">
-        <v>0.04194683381730063</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.1801068066445397</v>
-      </c>
-      <c r="L175" t="n">
-        <v>0.1033136791700362</v>
-      </c>
-      <c r="M175" t="n">
-        <v>0.1771693697429081</v>
-      </c>
-      <c r="N175" t="n">
-        <v>0.1648149266045562</v>
-      </c>
-      <c r="O175" t="n">
-        <v>0.1770456100251229</v>
-      </c>
-    </row>
-    <row r="176" ht="15" customHeight="1">
-      <c r="F176" t="n">
-        <v>0.03950781016615845</v>
-      </c>
-      <c r="G176" t="n">
-        <v>0.1801608203416611</v>
-      </c>
-      <c r="J176" t="n">
-        <v>0.04194871070457011</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.1817441412503992</v>
-      </c>
-      <c r="L176" t="n">
-        <v>0.1037316428910364</v>
-      </c>
-      <c r="M176" t="n">
-        <v>0.1787800003769346</v>
-      </c>
-      <c r="N176" t="n">
-        <v>0.1658571216699675</v>
-      </c>
-      <c r="O176" t="n">
-        <v>0.1786551155708059</v>
-      </c>
-    </row>
-    <row r="177" ht="15" customHeight="1">
-      <c r="F177" t="n">
-        <v>0.03879477924525829</v>
-      </c>
-      <c r="G177" t="n">
-        <v>0.1817838907951896</v>
-      </c>
-      <c r="J177" t="n">
-        <v>0.04244715088307002</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.1833814758562586</v>
-      </c>
-      <c r="L177" t="n">
-        <v>0.1048533115806676</v>
-      </c>
-      <c r="M177" t="n">
-        <v>0.180390631010961</v>
-      </c>
-      <c r="N177" t="n">
-        <v>0.1682088017599981</v>
-      </c>
-      <c r="O177" t="n">
-        <v>0.1802646211164888</v>
-      </c>
-    </row>
-    <row r="178" ht="15" customHeight="1">
-      <c r="F178" t="n">
-        <v>0.03908902756254927</v>
-      </c>
-      <c r="G178" t="n">
-        <v>0.1834069612487181</v>
-      </c>
-      <c r="J178" t="n">
-        <v>0.0427430162584706</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.1850188104621181</v>
-      </c>
-      <c r="L178" t="n">
-        <v>0.1052168825766474</v>
-      </c>
-      <c r="M178" t="n">
-        <v>0.1820012616449874</v>
-      </c>
-      <c r="N178" t="n">
-        <v>0.1692276645595343</v>
-      </c>
-      <c r="O178" t="n">
-        <v>0.1818741266621717</v>
-      </c>
-    </row>
-    <row r="179" ht="15" customHeight="1">
-      <c r="F179" t="n">
-        <v>0.04239944628057406</v>
-      </c>
-      <c r="G179" t="n">
-        <v>0.1850300317022466</v>
-      </c>
-      <c r="J179" t="n">
-        <v>0.04285179187933627</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.1866561450679776</v>
-      </c>
-      <c r="L179" t="n">
-        <v>0.1067036753454027</v>
-      </c>
-      <c r="M179" t="n">
-        <v>0.1836118922790138</v>
-      </c>
-      <c r="N179" t="n">
-        <v>0.1697809741159403</v>
-      </c>
-      <c r="O179" t="n">
-        <v>0.1834836322078547</v>
-      </c>
-    </row>
-    <row r="180" ht="15" customHeight="1">
-      <c r="F180" t="n">
-        <v>0.04071562756713422</v>
-      </c>
-      <c r="G180" t="n">
-        <v>0.186653102155775</v>
-      </c>
-      <c r="J180" t="n">
-        <v>0.04317482679489459</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.188293479673837</v>
-      </c>
-      <c r="L180" t="n">
-        <v>0.1067876146699938</v>
-      </c>
-      <c r="M180" t="n">
-        <v>0.1852225229130403</v>
-      </c>
-      <c r="N180" t="n">
-        <v>0.1712272819912456</v>
-      </c>
-      <c r="O180" t="n">
-        <v>0.1850931377535376</v>
-      </c>
-    </row>
-    <row r="181" ht="15" customHeight="1">
-      <c r="F181" t="n">
-        <v>0.04302695659701032</v>
-      </c>
-      <c r="G181" t="n">
-        <v>0.1882761726093035</v>
-      </c>
-      <c r="J181" t="n">
-        <v>0.04350096920330342</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.1899308142796964</v>
-      </c>
-      <c r="L181" t="n">
-        <v>0.1078426253334806</v>
-      </c>
-      <c r="M181" t="n">
-        <v>0.1868331535470667</v>
-      </c>
-      <c r="N181" t="n">
-        <v>0.1726251397474791</v>
-      </c>
-      <c r="O181" t="n">
-        <v>0.1867026432992206</v>
-      </c>
-    </row>
-    <row r="182" ht="15" customHeight="1">
-      <c r="F182" t="n">
-        <v>0.04132281854498297</v>
-      </c>
-      <c r="G182" t="n">
-        <v>0.189899243062832</v>
-      </c>
-      <c r="J182" t="n">
-        <v>0.0441190673027206</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.1915681488855559</v>
-      </c>
-      <c r="L182" t="n">
-        <v>0.1090426321189233</v>
-      </c>
-      <c r="M182" t="n">
-        <v>0.1884437841810932</v>
-      </c>
-      <c r="N182" t="n">
-        <v>0.17283309894667</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0.1883121488449035</v>
-      </c>
-    </row>
-    <row r="183" ht="15" customHeight="1">
-      <c r="F183" t="n">
-        <v>0.03959259858583271</v>
-      </c>
-      <c r="G183" t="n">
-        <v>0.1915223135163605</v>
-      </c>
-      <c r="J183" t="n">
-        <v>0.04431796929130394</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.1932054834914154</v>
-      </c>
-      <c r="L183" t="n">
-        <v>0.1093615598093821</v>
-      </c>
-      <c r="M183" t="n">
-        <v>0.1900544148151196</v>
-      </c>
-      <c r="N183" t="n">
-        <v>0.1741097111508477</v>
-      </c>
-      <c r="O183" t="n">
-        <v>0.1899216543905864</v>
-      </c>
-    </row>
-    <row r="184" ht="15" customHeight="1">
-      <c r="F184" t="n">
-        <v>0.0398256818943401</v>
-      </c>
-      <c r="G184" t="n">
-        <v>0.193145383969889</v>
-      </c>
-      <c r="J184" t="n">
-        <v>0.04458652336721135</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.1948428180972748</v>
-      </c>
-      <c r="L184" t="n">
-        <v>0.110473333187917</v>
-      </c>
-      <c r="M184" t="n">
-        <v>0.191665045449146</v>
-      </c>
-      <c r="N184" t="n">
-        <v>0.1743135279220412</v>
-      </c>
-      <c r="O184" t="n">
-        <v>0.1915311599362693</v>
-      </c>
-    </row>
-    <row r="185" ht="15" customHeight="1">
-      <c r="F185" t="n">
-        <v>0.04401145364528575</v>
-      </c>
-      <c r="G185" t="n">
-        <v>0.1947684544234174</v>
-      </c>
-      <c r="J185" t="n">
-        <v>0.04471357772860063</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.1964801527031343</v>
-      </c>
-      <c r="L185" t="n">
-        <v>0.1099518770375881</v>
-      </c>
-      <c r="M185" t="n">
-        <v>0.1932756760831725</v>
-      </c>
-      <c r="N185" t="n">
-        <v>0.1764031008222797</v>
-      </c>
-      <c r="O185" t="n">
-        <v>0.1931406654819523</v>
-      </c>
-    </row>
-    <row r="186" ht="15" customHeight="1">
-      <c r="F186" t="n">
-        <v>0.04014235583800335</v>
-      </c>
-      <c r="G186" t="n">
-        <v>0.1963915248769459</v>
-      </c>
-      <c r="J186" t="n">
-        <v>0.04478798057362966</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.1981174873089937</v>
-      </c>
-      <c r="L186" t="n">
-        <v>0.1104394017544057</v>
-      </c>
-      <c r="M186" t="n">
-        <v>0.1948863067171989</v>
-      </c>
-      <c r="N186" t="n">
-        <v>0.1752594602585876</v>
-      </c>
-      <c r="O186" t="n">
-        <v>0.1947501710276352</v>
-      </c>
-    </row>
-    <row r="187" ht="15" customHeight="1">
-      <c r="F187" t="n">
-        <v>0.04425640931998148</v>
-      </c>
-      <c r="G187" t="n">
-        <v>0.1980145953304744</v>
-      </c>
-      <c r="J187" t="n">
-        <v>0.04491190048009734</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.1997548219148532</v>
-      </c>
-      <c r="L187" t="n">
-        <v>0.1108202540661002</v>
-      </c>
-      <c r="M187" t="n">
-        <v>0.1964969373512254</v>
-      </c>
-      <c r="N187" t="n">
-        <v>0.1765059894993791</v>
-      </c>
-      <c r="O187" t="n">
-        <v>0.1963596765733182</v>
-      </c>
-    </row>
-    <row r="188" ht="15" customHeight="1">
-      <c r="F188" t="n">
-        <v>0.04336798239778657</v>
-      </c>
-      <c r="G188" t="n">
-        <v>0.1996376657840029</v>
-      </c>
-      <c r="J188" t="n">
-        <v>0.04512881028062021</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.2013921565207126</v>
-      </c>
-      <c r="L188" t="n">
-        <v>0.1108949091591492</v>
-      </c>
-      <c r="M188" t="n">
-        <v>0.1981075679852518</v>
-      </c>
-      <c r="N188" t="n">
-        <v>0.1768426527178414</v>
-      </c>
-      <c r="O188" t="n">
-        <v>0.1979691821190011</v>
-      </c>
-    </row>
-    <row r="189" ht="15" customHeight="1">
-      <c r="F189" t="n">
-        <v>0.04347703600742543</v>
-      </c>
-      <c r="G189" t="n">
-        <v>0.2012607362375313</v>
-      </c>
-      <c r="J189" t="n">
-        <v>0.04514312339165173</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.2030294911265721</v>
-      </c>
-      <c r="L189" t="n">
-        <v>0.1113632710732259</v>
-      </c>
-      <c r="M189" t="n">
-        <v>0.1997181986192782</v>
-      </c>
-      <c r="N189" t="n">
-        <v>0.1765692973781141</v>
-      </c>
-      <c r="O189" t="n">
-        <v>0.199578687664684</v>
-      </c>
-    </row>
-    <row r="190" ht="15" customHeight="1">
-      <c r="F190" t="n">
-        <v>0.04358353108490491</v>
-      </c>
-      <c r="G190" t="n">
-        <v>0.2028838066910598</v>
-      </c>
-      <c r="J190" t="n">
-        <v>0.04535479877305208</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.2046668257324315</v>
-      </c>
-      <c r="L190" t="n">
-        <v>0.1112252438480035</v>
-      </c>
-      <c r="M190" t="n">
-        <v>0.2013288292533046</v>
-      </c>
-      <c r="N190" t="n">
-        <v>0.1773857709443368</v>
-      </c>
-      <c r="O190" t="n">
-        <v>0.201188193210367</v>
-      </c>
-    </row>
-    <row r="191" ht="15" customHeight="1">
-      <c r="F191" t="n">
-        <v>0.04368742856623183</v>
-      </c>
-      <c r="G191" t="n">
-        <v>0.2045068771445883</v>
-      </c>
-      <c r="J191" t="n">
-        <v>0.04526379538468148</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.206304160338291</v>
-      </c>
-      <c r="L191" t="n">
-        <v>0.1113807315231553</v>
-      </c>
-      <c r="M191" t="n">
-        <v>0.2029394598873311</v>
-      </c>
-      <c r="N191" t="n">
-        <v>0.1776919208806491</v>
-      </c>
-      <c r="O191" t="n">
-        <v>0.2027976987560499</v>
-      </c>
-    </row>
-    <row r="192" ht="15" customHeight="1">
-      <c r="F192" t="n">
-        <v>0.04178868938741302</v>
-      </c>
-      <c r="G192" t="n">
-        <v>0.2061299475981168</v>
-      </c>
-      <c r="J192" t="n">
-        <v>0.04547007218640008</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.2079414949441504</v>
-      </c>
-      <c r="L192" t="n">
-        <v>0.1119296381383544</v>
-      </c>
-      <c r="M192" t="n">
-        <v>0.2045500905213575</v>
-      </c>
-      <c r="N192" t="n">
-        <v>0.1786875946511906</v>
-      </c>
-      <c r="O192" t="n">
-        <v>0.2044072043017328</v>
-      </c>
-    </row>
-    <row r="193" ht="15" customHeight="1">
-      <c r="F193" t="n">
-        <v>0.04488727448445527</v>
-      </c>
-      <c r="G193" t="n">
-        <v>0.2077530180516453</v>
-      </c>
-      <c r="J193" t="n">
-        <v>0.04547358813806811</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.2095788295500099</v>
-      </c>
-      <c r="L193" t="n">
-        <v>0.1120718677332742</v>
-      </c>
-      <c r="M193" t="n">
-        <v>0.206160721155384</v>
-      </c>
-      <c r="N193" t="n">
-        <v>0.1798726397201008</v>
-      </c>
-      <c r="O193" t="n">
-        <v>0.2060167098474158</v>
-      </c>
-    </row>
-    <row r="194" ht="15" customHeight="1">
-      <c r="F194" t="n">
-        <v>0.04498314479336545</v>
-      </c>
-      <c r="G194" t="n">
-        <v>0.2093760885051737</v>
-      </c>
-      <c r="J194" t="n">
-        <v>0.04557430219954571</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.2112161641558693</v>
-      </c>
-      <c r="L194" t="n">
-        <v>0.1126073243475879</v>
-      </c>
-      <c r="M194" t="n">
-        <v>0.2077713517894104</v>
-      </c>
-      <c r="N194" t="n">
-        <v>0.1800469035515193</v>
-      </c>
-      <c r="O194" t="n">
-        <v>0.2076262153930987</v>
-      </c>
-    </row>
-    <row r="195" ht="15" customHeight="1">
-      <c r="F195" t="n">
-        <v>0.04107626125015035</v>
-      </c>
-      <c r="G195" t="n">
-        <v>0.2109991589587022</v>
-      </c>
-      <c r="J195" t="n">
-        <v>0.04607217333069313</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.2128534987617288</v>
-      </c>
-      <c r="L195" t="n">
-        <v>0.1131359120209686</v>
-      </c>
-      <c r="M195" t="n">
-        <v>0.2093819824234368</v>
-      </c>
-      <c r="N195" t="n">
-        <v>0.1794102336095857</v>
-      </c>
-      <c r="O195" t="n">
-        <v>0.2092357209387816</v>
-      </c>
-    </row>
-    <row r="196" ht="15" customHeight="1">
-      <c r="F196" t="n">
-        <v>0.04316658479081684</v>
-      </c>
-      <c r="G196" t="n">
-        <v>0.2126222294122307</v>
-      </c>
-      <c r="J196" t="n">
-        <v>0.04596716049137053</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.2144908333675882</v>
-      </c>
-      <c r="L196" t="n">
-        <v>0.1125575347930898</v>
-      </c>
-      <c r="M196" t="n">
-        <v>0.2109926130574633</v>
-      </c>
-      <c r="N196" t="n">
-        <v>0.1798624773584397</v>
-      </c>
-      <c r="O196" t="n">
-        <v>0.2108452264844646</v>
-      </c>
-    </row>
-    <row r="197" ht="15" customHeight="1">
-      <c r="F197" t="n">
-        <v>0.0442540763513717</v>
-      </c>
-      <c r="G197" t="n">
-        <v>0.2142452998657591</v>
-      </c>
-      <c r="J197" t="n">
-        <v>0.04585922264143813</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.2161281679734477</v>
-      </c>
-      <c r="L197" t="n">
-        <v>0.1131720967036245</v>
-      </c>
-      <c r="M197" t="n">
-        <v>0.2126032436914897</v>
-      </c>
-      <c r="N197" t="n">
-        <v>0.1809034822622208</v>
-      </c>
-      <c r="O197" t="n">
-        <v>0.2124547320301475</v>
-      </c>
-    </row>
-    <row r="198" ht="15" customHeight="1">
-      <c r="F198" t="n">
-        <v>0.04133869686782178</v>
-      </c>
-      <c r="G198" t="n">
-        <v>0.2158683703192876</v>
-      </c>
-      <c r="J198" t="n">
-        <v>0.04614831874075609</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.2177655025793071</v>
-      </c>
-      <c r="L198" t="n">
-        <v>0.1136795017922461</v>
-      </c>
-      <c r="M198" t="n">
-        <v>0.2142138743255162</v>
-      </c>
-      <c r="N198" t="n">
-        <v>0.1807330957850685</v>
-      </c>
-      <c r="O198" t="n">
-        <v>0.2140642375758305</v>
-      </c>
-    </row>
-    <row r="199" ht="15" customHeight="1">
-      <c r="F199" t="n">
-        <v>0.04242040727617392</v>
-      </c>
-      <c r="G199" t="n">
-        <v>0.2174914407728161</v>
-      </c>
-      <c r="J199" t="n">
-        <v>0.04633440774918461</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.2194028371851666</v>
-      </c>
-      <c r="L199" t="n">
-        <v>0.1131796540986277</v>
-      </c>
-      <c r="M199" t="n">
-        <v>0.2158245049595426</v>
-      </c>
-      <c r="N199" t="n">
-        <v>0.1818511653911226</v>
-      </c>
-      <c r="O199" t="n">
-        <v>0.2156737431215134</v>
-      </c>
-    </row>
-    <row r="200" ht="15" customHeight="1">
-      <c r="F200" t="n">
-        <v>0.04449916851243492</v>
-      </c>
-      <c r="G200" t="n">
-        <v>0.2191145112263446</v>
-      </c>
-      <c r="J200" t="n">
-        <v>0.0461174486265839</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.2210401717910261</v>
-      </c>
-      <c r="L200" t="n">
-        <v>0.1134724576624427</v>
-      </c>
-      <c r="M200" t="n">
-        <v>0.217435135593569</v>
-      </c>
-      <c r="N200" t="n">
-        <v>0.1819575385445225</v>
-      </c>
-      <c r="O200" t="n">
-        <v>0.2172832486671963</v>
-      </c>
-    </row>
-    <row r="201" ht="15" customHeight="1">
-      <c r="F201" t="n">
-        <v>0.0425749415126116</v>
-      </c>
-      <c r="G201" t="n">
-        <v>0.2207375816798731</v>
-      </c>
-      <c r="J201" t="n">
-        <v>0.04639740033281413</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.2226775063968855</v>
-      </c>
-      <c r="L201" t="n">
-        <v>0.1146578165233643</v>
-      </c>
-      <c r="M201" t="n">
-        <v>0.2190457662275955</v>
-      </c>
-      <c r="N201" t="n">
-        <v>0.1821520627094079</v>
-      </c>
-      <c r="O201" t="n">
-        <v>0.2188927542128793</v>
-      </c>
-    </row>
-    <row r="202" ht="15" customHeight="1">
-      <c r="F202" t="n">
-        <v>0.04564768721271081</v>
-      </c>
-      <c r="G202" t="n">
-        <v>0.2223606521334016</v>
-      </c>
-      <c r="J202" t="n">
-        <v>0.04657422182773552</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.2243148410027449</v>
-      </c>
-      <c r="L202" t="n">
-        <v>0.1141356347210656</v>
-      </c>
-      <c r="M202" t="n">
-        <v>0.2206563968616219</v>
-      </c>
-      <c r="N202" t="n">
-        <v>0.1824345853499183</v>
-      </c>
-      <c r="O202" t="n">
-        <v>0.2205022597585622</v>
-      </c>
-    </row>
-    <row r="203" ht="15" customHeight="1">
-      <c r="F203" t="n">
-        <v>0.04271736654873935</v>
-      </c>
-      <c r="G203" t="n">
-        <v>0.2239837225869301</v>
-      </c>
-      <c r="J203" t="n">
-        <v>0.04634787207120823</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.2259521756086044</v>
-      </c>
-      <c r="L203" t="n">
-        <v>0.11460581629522</v>
-      </c>
-      <c r="M203" t="n">
-        <v>0.2222670274956483</v>
-      </c>
-      <c r="N203" t="n">
-        <v>0.1823049539301934</v>
-      </c>
-      <c r="O203" t="n">
-        <v>0.2221117653042451</v>
-      </c>
-    </row>
-    <row r="204" ht="15" customHeight="1">
-      <c r="F204" t="n">
-        <v>0.04478394045670409</v>
-      </c>
-      <c r="G204" t="n">
-        <v>0.2256067930404585</v>
-      </c>
-      <c r="J204" t="n">
-        <v>0.04671831002309247</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.2275895102144638</v>
-      </c>
-      <c r="L204" t="n">
-        <v>0.1140682652855007</v>
-      </c>
-      <c r="M204" t="n">
-        <v>0.2238776581296748</v>
-      </c>
-      <c r="N204" t="n">
-        <v>0.1829630159143726</v>
-      </c>
-      <c r="O204" t="n">
-        <v>0.2237212708499281</v>
-      </c>
-    </row>
-    <row r="205" ht="15" customHeight="1">
-      <c r="F205" t="n">
-        <v>0.04184736987261183</v>
-      </c>
-      <c r="G205" t="n">
-        <v>0.227229863493987</v>
-      </c>
-      <c r="J205" t="n">
-        <v>0.04678549464324844</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.2292268448203233</v>
-      </c>
-      <c r="L205" t="n">
-        <v>0.1143228857315809</v>
-      </c>
-      <c r="M205" t="n">
-        <v>0.2254882887637012</v>
-      </c>
-      <c r="N205" t="n">
-        <v>0.1821086187665957</v>
-      </c>
-      <c r="O205" t="n">
-        <v>0.225330776395611</v>
-      </c>
-    </row>
-    <row r="206" ht="15" customHeight="1">
-      <c r="F206" t="n">
-        <v>0.04490761573246936</v>
-      </c>
-      <c r="G206" t="n">
-        <v>0.2288529339475155</v>
-      </c>
-      <c r="J206" t="n">
-        <v>0.04684938489153631</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.2308641794261828</v>
-      </c>
-      <c r="L206" t="n">
-        <v>0.1154695816731339</v>
-      </c>
-      <c r="M206" t="n">
-        <v>0.2270989193977277</v>
-      </c>
-      <c r="N206" t="n">
-        <v>0.1822416099510022</v>
-      </c>
-      <c r="O206" t="n">
-        <v>0.226940281941294</v>
-      </c>
-    </row>
-    <row r="207" ht="15" customHeight="1">
-      <c r="F207" t="n">
-        <v>0.04496463897228356</v>
-      </c>
-      <c r="G207" t="n">
-        <v>0.230476004401044</v>
-      </c>
-      <c r="J207" t="n">
-        <v>0.04700993972781629</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.2325015140320422</v>
-      </c>
-      <c r="L207" t="n">
-        <v>0.1154082571498328</v>
-      </c>
-      <c r="M207" t="n">
-        <v>0.2287095500317541</v>
-      </c>
-      <c r="N207" t="n">
-        <v>0.1830618369317317</v>
-      </c>
-      <c r="O207" t="n">
-        <v>0.2285497874869769</v>
-      </c>
-    </row>
-    <row r="208" ht="15" customHeight="1">
-      <c r="F208" t="n">
-        <v>0.04201840052806123</v>
-      </c>
-      <c r="G208" t="n">
-        <v>0.2320990748545724</v>
-      </c>
-      <c r="J208" t="n">
-        <v>0.04696711811194858</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.2341388486379017</v>
-      </c>
-      <c r="L208" t="n">
-        <v>0.1148388162013511</v>
-      </c>
-      <c r="M208" t="n">
-        <v>0.2303201806657805</v>
-      </c>
-      <c r="N208" t="n">
-        <v>0.1838691471729237</v>
-      </c>
-      <c r="O208" t="n">
-        <v>0.2301592930326598</v>
-      </c>
-    </row>
-    <row r="209" ht="15" customHeight="1">
-      <c r="F209" t="n">
-        <v>0.0420688613358092</v>
-      </c>
-      <c r="G209" t="n">
-        <v>0.2337221453081009</v>
-      </c>
-      <c r="J209" t="n">
-        <v>0.04702087900379333</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.2357761832437611</v>
-      </c>
-      <c r="L209" t="n">
-        <v>0.1155611628673617</v>
-      </c>
-      <c r="M209" t="n">
-        <v>0.231930811299807</v>
-      </c>
-      <c r="N209" t="n">
-        <v>0.1837633881387178</v>
-      </c>
-      <c r="O209" t="n">
-        <v>0.2317687985783428</v>
-      </c>
-    </row>
-    <row r="210" ht="15" customHeight="1">
-      <c r="F210" t="n">
-        <v>0.0431159823315343</v>
-      </c>
-      <c r="G210" t="n">
-        <v>0.2353452157616294</v>
-      </c>
-      <c r="J210" t="n">
-        <v>0.04707118136321077</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.2374135178496205</v>
-      </c>
-      <c r="L210" t="n">
-        <v>0.1150752011875382</v>
-      </c>
-      <c r="M210" t="n">
-        <v>0.2335414419338334</v>
-      </c>
-      <c r="N210" t="n">
-        <v>0.1831444072932539</v>
-      </c>
-      <c r="O210" t="n">
-        <v>0.2333783041240257</v>
-      </c>
-    </row>
-    <row r="211" ht="15" customHeight="1">
-      <c r="F211" t="n">
-        <v>0.04215972445124336</v>
-      </c>
-      <c r="G211" t="n">
-        <v>0.2369682862151578</v>
-      </c>
-      <c r="J211" t="n">
-        <v>0.0469179841500611</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.23905085245548</v>
-      </c>
-      <c r="L211" t="n">
-        <v>0.1157808352015536</v>
-      </c>
-      <c r="M211" t="n">
-        <v>0.2351520725678599</v>
-      </c>
-      <c r="N211" t="n">
-        <v>0.1844120521006711</v>
-      </c>
-      <c r="O211" t="n">
-        <v>0.2349878096697086</v>
-      </c>
-    </row>
-    <row r="212" ht="15" customHeight="1">
-      <c r="F212" t="n">
-        <v>0.04320004863094319</v>
-      </c>
-      <c r="G212" t="n">
-        <v>0.2385913566686863</v>
-      </c>
-      <c r="J212" t="n">
-        <v>0.04696124632420448</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.2406881870613395</v>
-      </c>
-      <c r="L212" t="n">
-        <v>0.1156779689490811</v>
-      </c>
-      <c r="M212" t="n">
-        <v>0.2367627032018863</v>
-      </c>
-      <c r="N212" t="n">
-        <v>0.1837661700251093</v>
-      </c>
-      <c r="O212" t="n">
-        <v>0.2365973152153916</v>
-      </c>
-    </row>
-    <row r="213" ht="15" customHeight="1">
-      <c r="F213" t="n">
-        <v>0.04323691580664063</v>
-      </c>
-      <c r="G213" t="n">
-        <v>0.2402144271222148</v>
-      </c>
-      <c r="J213" t="n">
-        <v>0.04730092684550112</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.2423255216671989</v>
-      </c>
-      <c r="L213" t="n">
-        <v>0.1160665064697942</v>
-      </c>
-      <c r="M213" t="n">
-        <v>0.2383733338359127</v>
-      </c>
-      <c r="N213" t="n">
-        <v>0.184006608530708</v>
-      </c>
-      <c r="O213" t="n">
-        <v>0.2382068207610745</v>
-      </c>
-    </row>
-    <row r="214" ht="15" customHeight="1">
-      <c r="F214" t="n">
-        <v>0.04327028691434251</v>
-      </c>
-      <c r="G214" t="n">
-        <v>0.2418374975757433</v>
-      </c>
-      <c r="J214" t="n">
-        <v>0.0473369846738112</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.2439628562730584</v>
-      </c>
-      <c r="L214" t="n">
-        <v>0.115246351803366</v>
-      </c>
-      <c r="M214" t="n">
-        <v>0.2399839644699392</v>
-      </c>
-      <c r="N214" t="n">
-        <v>0.1836332150816069</v>
-      </c>
-      <c r="O214" t="n">
-        <v>0.2398163263067574</v>
-      </c>
-    </row>
-    <row r="215" ht="15" customHeight="1">
-      <c r="F215" t="n">
-        <v>0.04530012289005564</v>
-      </c>
-      <c r="G215" t="n">
-        <v>0.2434605680292718</v>
-      </c>
-      <c r="J215" t="n">
-        <v>0.04696937876899493</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.2456001908789178</v>
-      </c>
-      <c r="L215" t="n">
-        <v>0.1164174089894696</v>
-      </c>
-      <c r="M215" t="n">
-        <v>0.2415945951039656</v>
-      </c>
-      <c r="N215" t="n">
-        <v>0.1843458371419454</v>
-      </c>
-      <c r="O215" t="n">
-        <v>0.2414258318524403</v>
-      </c>
-    </row>
-    <row r="216" ht="15" customHeight="1">
-      <c r="F216" t="n">
-        <v>0.04532638466978685</v>
-      </c>
-      <c r="G216" t="n">
-        <v>0.2450836384828003</v>
-      </c>
-      <c r="J216" t="n">
-        <v>0.04729806809091248</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.2472375254847773</v>
-      </c>
-      <c r="L216" t="n">
-        <v>0.1161795820677785</v>
-      </c>
-      <c r="M216" t="n">
-        <v>0.2432052257379921</v>
-      </c>
-      <c r="N216" t="n">
-        <v>0.1839443221758632</v>
-      </c>
-      <c r="O216" t="n">
-        <v>0.2430353373981233</v>
-      </c>
-    </row>
-    <row r="217" ht="15" customHeight="1">
-      <c r="F217" t="n">
-        <v>0.04634903318954298</v>
-      </c>
-      <c r="G217" t="n">
-        <v>0.2467067089363288</v>
-      </c>
-      <c r="J217" t="n">
-        <v>0.04712301159942409</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.2488748600906367</v>
-      </c>
-      <c r="L217" t="n">
-        <v>0.1156327750779657</v>
-      </c>
-      <c r="M217" t="n">
-        <v>0.2448158563720184</v>
-      </c>
-      <c r="N217" t="n">
-        <v>0.1843285176474998</v>
-      </c>
-      <c r="O217" t="n">
-        <v>0.2446448429438062</v>
-      </c>
-    </row>
-    <row r="218" ht="15" customHeight="1">
-      <c r="F218" t="n">
-        <v>0.04436802938533083</v>
-      </c>
-      <c r="G218" t="n">
-        <v>0.2483297793898572</v>
-      </c>
-      <c r="J218" t="n">
-        <v>0.04734416825438988</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.2505121946964962</v>
-      </c>
-      <c r="L218" t="n">
-        <v>0.1157768920597045</v>
-      </c>
-      <c r="M218" t="n">
-        <v>0.2464264870060449</v>
-      </c>
-      <c r="N218" t="n">
-        <v>0.1847982710209949</v>
-      </c>
-      <c r="O218" t="n">
-        <v>0.2462543484894892</v>
-      </c>
-    </row>
-    <row r="219" ht="15" customHeight="1">
-      <c r="F219" t="n">
-        <v>0.04238333419315723</v>
-      </c>
-      <c r="G219" t="n">
-        <v>0.2499528498433857</v>
-      </c>
-      <c r="J219" t="n">
-        <v>0.04746149701567011</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.2521495293023556</v>
-      </c>
-      <c r="L219" t="n">
-        <v>0.1156118370526684</v>
-      </c>
-      <c r="M219" t="n">
-        <v>0.2480371176400714</v>
-      </c>
-      <c r="N219" t="n">
-        <v>0.1839534297604881</v>
-      </c>
-      <c r="O219" t="n">
-        <v>0.2478638540351721</v>
-      </c>
-    </row>
-    <row r="220" ht="15" customHeight="1">
-      <c r="F220" t="n">
-        <v>0.04639490854902906</v>
-      </c>
-      <c r="G220" t="n">
-        <v>0.2515759202969142</v>
-      </c>
-      <c r="J220" t="n">
-        <v>0.04737495684312493</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.2537868639082151</v>
-      </c>
-      <c r="L220" t="n">
-        <v>0.1163375140965303</v>
-      </c>
-      <c r="M220" t="n">
-        <v>0.2496477482740978</v>
-      </c>
-      <c r="N220" t="n">
-        <v>0.1844938413301189</v>
-      </c>
-      <c r="O220" t="n">
-        <v>0.249473359580855</v>
-      </c>
-    </row>
-    <row r="221" ht="15" customHeight="1">
-      <c r="F221" t="n">
-        <v>0.04640271338895306</v>
-      </c>
-      <c r="G221" t="n">
-        <v>0.2531989907504427</v>
-      </c>
-      <c r="J221" t="n">
-        <v>0.04738450669661454</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.2554241985140746</v>
-      </c>
-      <c r="L221" t="n">
-        <v>0.1159538272309636</v>
-      </c>
-      <c r="M221" t="n">
-        <v>0.2512583789081242</v>
-      </c>
-      <c r="N221" t="n">
-        <v>0.1855193531940269</v>
-      </c>
-      <c r="O221" t="n">
-        <v>0.2510828651265379</v>
-      </c>
-    </row>
-    <row r="222" ht="15" customHeight="1">
-      <c r="F222" t="n">
-        <v>0.04240670964893611</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0.2548220612039711</v>
-      </c>
-      <c r="J222" t="n">
-        <v>0.04729010553599913</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.257061533119934</v>
-      </c>
-      <c r="L222" t="n">
-        <v>0.1165606804956414</v>
-      </c>
-      <c r="M222" t="n">
-        <v>0.2528690095421506</v>
-      </c>
-      <c r="N222" t="n">
-        <v>0.1841298128163517</v>
-      </c>
-      <c r="O222" t="n">
-        <v>0.2526923706722209</v>
-      </c>
-    </row>
-    <row r="223" ht="15" customHeight="1">
-      <c r="F223" t="n">
-        <v>0.04239445167844659</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.2564451316574996</v>
-      </c>
-      <c r="J223" t="n">
-        <v>0.04729109767890664</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.2586988677257935</v>
-      </c>
-      <c r="L223" t="n">
-        <v>0.1154707707435315</v>
-      </c>
-      <c r="M223" t="n">
-        <v>0.2544796401761771</v>
-      </c>
-      <c r="N223" t="n">
-        <v>0.1853759345860791</v>
-      </c>
-      <c r="O223" t="n">
-        <v>0.2543018762179038</v>
-      </c>
-    </row>
-    <row r="224" ht="15" customHeight="1">
-      <c r="F224" t="n">
-        <v>0.04328291584370388</v>
-      </c>
-      <c r="G224" t="n">
-        <v>0.2580682021110281</v>
-      </c>
-      <c r="J224" t="n">
-        <v>0.04721744129389797</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.2603362023316529</v>
-      </c>
-      <c r="L224" t="n">
-        <v>0.1155082459810025</v>
-      </c>
-      <c r="M224" t="n">
-        <v>0.2560902708102035</v>
-      </c>
-      <c r="N224" t="n">
-        <v>0.1834869643729196</v>
-      </c>
-      <c r="O224" t="n">
-        <v>0.2559113817635867</v>
-      </c>
-    </row>
-    <row r="225" ht="15" customHeight="1">
-      <c r="F225" t="n">
-        <v>0.04506675016096651</v>
-      </c>
-      <c r="G225" t="n">
-        <v>0.2596912725645566</v>
-      </c>
-      <c r="J225" t="n">
-        <v>0.04693036137922149</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.2619735369375123</v>
-      </c>
-      <c r="L225" t="n">
-        <v>0.1144959558888796</v>
-      </c>
-      <c r="M225" t="n">
-        <v>0.25770090144423</v>
-      </c>
-      <c r="N225" t="n">
-        <v>0.1830020262336458</v>
-      </c>
-      <c r="O225" t="n">
-        <v>0.2575208873092697</v>
-      </c>
-    </row>
-    <row r="226" ht="15" customHeight="1">
-      <c r="F226" t="n">
-        <v>0.04375813257160074</v>
-      </c>
-      <c r="G226" t="n">
-        <v>0.261314343018085</v>
-      </c>
-      <c r="J226" t="n">
-        <v>0.04664265192687944</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.2636108715433718</v>
-      </c>
-      <c r="L226" t="n">
-        <v>0.1145638154640136</v>
-      </c>
-      <c r="M226" t="n">
-        <v>0.2593115320782564</v>
-      </c>
-      <c r="N226" t="n">
-        <v>0.1825686722133363</v>
-      </c>
-      <c r="O226" t="n">
-        <v>0.2591303928549527</v>
-      </c>
-    </row>
-    <row r="227" ht="15" customHeight="1">
-      <c r="F227" t="n">
-        <v>0.04336924101697294</v>
-      </c>
-      <c r="G227" t="n">
-        <v>0.2629374134716135</v>
-      </c>
-      <c r="J227" t="n">
-        <v>0.04626710692887405</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.2652482061492312</v>
-      </c>
-      <c r="L227" t="n">
-        <v>0.1133417397032548</v>
-      </c>
-      <c r="M227" t="n">
-        <v>0.2609221627122828</v>
-      </c>
-      <c r="N227" t="n">
-        <v>0.1795344543570696</v>
-      </c>
-      <c r="O227" t="n">
-        <v>0.2607398984006356</v>
-      </c>
-    </row>
-    <row r="228" ht="15" customHeight="1">
-      <c r="F228" t="n">
-        <v>0.04191225343844941</v>
-      </c>
-      <c r="G228" t="n">
-        <v>0.264560483925142</v>
-      </c>
-      <c r="J228" t="n">
-        <v>0.04611652037720756</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.2668855407550907</v>
-      </c>
-      <c r="L228" t="n">
-        <v>0.1121596436034539</v>
-      </c>
-      <c r="M228" t="n">
-        <v>0.2625327933463093</v>
-      </c>
-      <c r="N228" t="n">
-        <v>0.1786469247099239</v>
-      </c>
-      <c r="O228" t="n">
-        <v>0.2623494039463185</v>
-      </c>
-    </row>
-    <row r="229" ht="15" customHeight="1">
-      <c r="F229" t="n">
-        <v>0.04039934777739648</v>
-      </c>
-      <c r="G229" t="n">
-        <v>0.2661835543786705</v>
-      </c>
-      <c r="J229" t="n">
-        <v>0.04520368626388226</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.2685228753609502</v>
-      </c>
-      <c r="L229" t="n">
-        <v>0.1110474421614614</v>
-      </c>
-      <c r="M229" t="n">
-        <v>0.2641434239803357</v>
-      </c>
-      <c r="N229" t="n">
-        <v>0.1757536353169779</v>
-      </c>
-      <c r="O229" t="n">
-        <v>0.2639589094920015</v>
-      </c>
-    </row>
-    <row r="230" ht="15" customHeight="1">
-      <c r="F230" t="n">
-        <v>0.04184270197518047</v>
-      </c>
-      <c r="G230" t="n">
-        <v>0.267806624832199</v>
-      </c>
-      <c r="J230" t="n">
-        <v>0.04504139858090035</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.2701602099668096</v>
-      </c>
-      <c r="L230" t="n">
-        <v>0.1090350503741277</v>
-      </c>
-      <c r="M230" t="n">
-        <v>0.2657540546143621</v>
-      </c>
-      <c r="N230" t="n">
-        <v>0.17400213822331</v>
-      </c>
-      <c r="O230" t="n">
-        <v>0.2655684150376844</v>
-      </c>
-    </row>
-    <row r="231" ht="15" customHeight="1">
-      <c r="F231" t="n">
-        <v>0.04325449397316769</v>
-      </c>
-      <c r="G231" t="n">
-        <v>0.2694296952857275</v>
-      </c>
-      <c r="J231" t="n">
-        <v>0.04444245132026409</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.2717975445726691</v>
-      </c>
-      <c r="L231" t="n">
-        <v>0.1078523832383034</v>
-      </c>
-      <c r="M231" t="n">
-        <v>0.2673646852483886</v>
-      </c>
-      <c r="N231" t="n">
-        <v>0.1714399854739986</v>
-      </c>
-      <c r="O231" t="n">
-        <v>0.2671779205833673</v>
-      </c>
-    </row>
-    <row r="232" ht="15" customHeight="1">
-      <c r="F232" t="n">
-        <v>0.04164690171272446</v>
-      </c>
-      <c r="G232" t="n">
-        <v>0.2710527657392559</v>
-      </c>
-      <c r="J232" t="n">
-        <v>0.04351963847397575</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.2734348791785285</v>
-      </c>
-      <c r="L232" t="n">
-        <v>0.1062293557508391</v>
-      </c>
-      <c r="M232" t="n">
-        <v>0.268975315882415</v>
-      </c>
-      <c r="N232" t="n">
-        <v>0.1687147291141221</v>
-      </c>
-      <c r="O232" t="n">
-        <v>0.2687874261290503</v>
-      </c>
-    </row>
-    <row r="233" ht="15" customHeight="1">
-      <c r="F233" t="n">
-        <v>0.04203210313521716</v>
-      </c>
-      <c r="G233" t="n">
-        <v>0.2726758361927843</v>
-      </c>
-      <c r="J233" t="n">
-        <v>0.04278575403403752</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.275072213784388</v>
-      </c>
-      <c r="L233" t="n">
-        <v>0.1044958829085852</v>
-      </c>
-      <c r="M233" t="n">
-        <v>0.2705859465164415</v>
-      </c>
-      <c r="N233" t="n">
-        <v>0.1666739211887591</v>
-      </c>
-      <c r="O233" t="n">
-        <v>0.2703969316747332</v>
-      </c>
-    </row>
-    <row r="234" ht="15" customHeight="1">
-      <c r="F234" t="n">
-        <v>0.03942227618201202</v>
-      </c>
-      <c r="G234" t="n">
-        <v>0.2742989066463128</v>
-      </c>
-      <c r="J234" t="n">
-        <v>0.04245359199245168</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.2767095483902474</v>
-      </c>
-      <c r="L234" t="n">
-        <v>0.1035818797083923</v>
-      </c>
-      <c r="M234" t="n">
-        <v>0.2721965771504679</v>
-      </c>
-      <c r="N234" t="n">
-        <v>0.1637651137429881</v>
-      </c>
-      <c r="O234" t="n">
-        <v>0.2720064372204161</v>
-      </c>
-    </row>
-    <row r="235" ht="15" customHeight="1">
-      <c r="F235" t="n">
-        <v>0.04082959879447542</v>
-      </c>
-      <c r="G235" t="n">
-        <v>0.2759219770998413</v>
-      </c>
-      <c r="J235" t="n">
-        <v>0.04153594634122046</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.2783468829961069</v>
-      </c>
-      <c r="L235" t="n">
-        <v>0.1015172611471108</v>
-      </c>
-      <c r="M235" t="n">
-        <v>0.2738072077844944</v>
-      </c>
-      <c r="N235" t="n">
-        <v>0.1629358588218873</v>
-      </c>
-      <c r="O235" t="n">
-        <v>0.2736159427660991</v>
-      </c>
-    </row>
-    <row r="236" ht="15" customHeight="1">
-      <c r="F236" t="n">
-        <v>0.03826624891397366</v>
-      </c>
-      <c r="G236" t="n">
-        <v>0.2775450475533698</v>
-      </c>
-      <c r="J236" t="n">
-        <v>0.0411456110723461</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.2799842176019663</v>
-      </c>
-      <c r="L236" t="n">
-        <v>0.1009319422215914</v>
-      </c>
-      <c r="M236" t="n">
-        <v>0.2754178384185208</v>
-      </c>
-      <c r="N236" t="n">
-        <v>0.1602337084705353</v>
-      </c>
-      <c r="O236" t="n">
-        <v>0.275225448311782</v>
-      </c>
-    </row>
-    <row r="237" ht="15" customHeight="1">
-      <c r="F237" t="n">
-        <v>0.03974440448187308</v>
-      </c>
-      <c r="G237" t="n">
-        <v>0.2791681180068983</v>
-      </c>
-      <c r="J237" t="n">
-        <v>0.04039538017783088</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.2816215522078258</v>
-      </c>
-      <c r="L237" t="n">
-        <v>0.09905583792868455</v>
-      </c>
-      <c r="M237" t="n">
-        <v>0.2770284690525472</v>
-      </c>
-      <c r="N237" t="n">
-        <v>0.1574062147340106</v>
-      </c>
-      <c r="O237" t="n">
-        <v>0.2768349538574649</v>
-      </c>
-    </row>
-    <row r="238" ht="15" customHeight="1">
-      <c r="F238" t="n">
-        <v>0.03526014259758922</v>
-      </c>
-      <c r="G238" t="n">
-        <v>0.2807911884604268</v>
-      </c>
-      <c r="J238" t="n">
-        <v>0.04019046622078826</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.2832588868136852</v>
-      </c>
-      <c r="L238" t="n">
-        <v>0.09735209413309559</v>
-      </c>
-      <c r="M238" t="n">
-        <v>0.2786390996865736</v>
-      </c>
-      <c r="N238" t="n">
-        <v>0.154990240641184</v>
-      </c>
-      <c r="O238" t="n">
-        <v>0.2784444594031479</v>
-      </c>
-    </row>
-    <row r="239" ht="15" customHeight="1">
-      <c r="F239" t="n">
-        <v>0.03877631025375466</v>
-      </c>
-      <c r="G239" t="n">
-        <v>0.2824142589139553</v>
-      </c>
-      <c r="J239" t="n">
-        <v>0.03969139557488835</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.2848962214195447</v>
-      </c>
-      <c r="L239" t="n">
-        <v>0.09694424725703718</v>
-      </c>
-      <c r="M239" t="n">
-        <v>0.2802497303206001</v>
-      </c>
-      <c r="N239" t="n">
-        <v>0.1531674678491532</v>
-      </c>
-      <c r="O239" t="n">
-        <v>0.2800539649488308</v>
-      </c>
-    </row>
-    <row r="240" ht="15" customHeight="1">
-      <c r="F240" t="n">
-        <v>0.03529064678271877</v>
-      </c>
-      <c r="G240" t="n">
-        <v>0.2840373293674837</v>
-      </c>
-      <c r="J240" t="n">
-        <v>0.03929042453047026</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.2865335560254041</v>
-      </c>
-      <c r="L240" t="n">
-        <v>0.09503185380853046</v>
-      </c>
-      <c r="M240" t="n">
-        <v>0.2818603609546265</v>
-      </c>
-      <c r="N240" t="n">
-        <v>0.1521374609316752</v>
-      </c>
-      <c r="O240" t="n">
-        <v>0.2816634704945137</v>
-      </c>
-    </row>
-    <row r="241" ht="15" customHeight="1">
-      <c r="F241" t="n">
-        <v>0.03580312333448682</v>
-      </c>
-      <c r="G241" t="n">
-        <v>0.2856603998210122</v>
-      </c>
-      <c r="J241" t="n">
-        <v>0.03838752277809246</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.2881708906312636</v>
-      </c>
-      <c r="L241" t="n">
-        <v>0.09381484291783851</v>
-      </c>
-      <c r="M241" t="n">
-        <v>0.283470991588653</v>
-      </c>
-      <c r="N241" t="n">
-        <v>0.1509001072361922</v>
-      </c>
-      <c r="O241" t="n">
-        <v>0.2832729760401967</v>
-      </c>
-    </row>
-    <row r="242" ht="15" customHeight="1">
-      <c r="F242" t="n">
-        <v>0.03331371105906412</v>
-      </c>
-      <c r="G242" t="n">
-        <v>0.2872834702745407</v>
-      </c>
-      <c r="J242" t="n">
-        <v>0.03818266000831345</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.289808225237123</v>
-      </c>
-      <c r="L242" t="n">
-        <v>0.09339314371522447</v>
-      </c>
-      <c r="M242" t="n">
-        <v>0.2850816222226794</v>
-      </c>
-      <c r="N242" t="n">
-        <v>0.1488552941101458</v>
-      </c>
-      <c r="O242" t="n">
-        <v>0.2848824815858796</v>
-      </c>
-    </row>
-    <row r="243" ht="15" customHeight="1">
-      <c r="F243" t="n">
-        <v>0.036822381106456</v>
-      </c>
-      <c r="G243" t="n">
-        <v>0.2889065407280691</v>
-      </c>
-      <c r="J243" t="n">
-        <v>0.03747580591169174</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.2914455598429825</v>
-      </c>
-      <c r="L243" t="n">
-        <v>0.09216668533095138</v>
-      </c>
-      <c r="M243" t="n">
-        <v>0.2866922528567059</v>
-      </c>
-      <c r="N243" t="n">
-        <v>0.1462029089009778</v>
-      </c>
-      <c r="O243" t="n">
-        <v>0.2864919871315625</v>
-      </c>
-    </row>
-    <row r="244" ht="15" customHeight="1">
-      <c r="F244" t="n">
-        <v>0.03532910462666772</v>
-      </c>
-      <c r="G244" t="n">
-        <v>0.2905296111815976</v>
-      </c>
-      <c r="J244" t="n">
-        <v>0.03726693017878585</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.2930828944488419</v>
-      </c>
-      <c r="L244" t="n">
-        <v>0.09043539689528238</v>
-      </c>
-      <c r="M244" t="n">
-        <v>0.2883028834907323</v>
-      </c>
-      <c r="N244" t="n">
-        <v>0.1444428389561302</v>
-      </c>
-      <c r="O244" t="n">
-        <v>0.2881014926772455</v>
-      </c>
-    </row>
-    <row r="245" ht="15" customHeight="1">
-      <c r="F245" t="n">
-        <v>0.03283385276970463</v>
-      </c>
-      <c r="G245" t="n">
-        <v>0.2921526816351261</v>
-      </c>
-      <c r="J245" t="n">
-        <v>0.03655600250015426</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.2947202290547014</v>
-      </c>
-      <c r="L245" t="n">
-        <v>0.08979920753848067</v>
-      </c>
-      <c r="M245" t="n">
-        <v>0.2899135141247587</v>
-      </c>
-      <c r="N245" t="n">
-        <v>0.1430749716230446</v>
-      </c>
-      <c r="O245" t="n">
-        <v>0.2897109982229285</v>
-      </c>
-    </row>
-    <row r="246" ht="15" customHeight="1">
-      <c r="F246" t="n">
-        <v>0.03333659668557197</v>
-      </c>
-      <c r="G246" t="n">
-        <v>0.2937757520886546</v>
-      </c>
-      <c r="J246" t="n">
-        <v>0.03614299256635546</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.2963575636605609</v>
-      </c>
-      <c r="L246" t="n">
-        <v>0.0882580463908092</v>
-      </c>
-      <c r="M246" t="n">
-        <v>0.2915241447587851</v>
-      </c>
-      <c r="N246" t="n">
-        <v>0.1404991942491629</v>
-      </c>
-      <c r="O246" t="n">
-        <v>0.2913205037686113</v>
-      </c>
-    </row>
-    <row r="247" ht="15" customHeight="1">
-      <c r="F247" t="n">
-        <v>0.03283730752427513</v>
-      </c>
-      <c r="G247" t="n">
-        <v>0.2953988225421831</v>
-      </c>
-      <c r="J247" t="n">
-        <v>0.03542787006794798</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.2979948982664203</v>
-      </c>
-      <c r="L247" t="n">
-        <v>0.08731184258253116</v>
-      </c>
-      <c r="M247" t="n">
-        <v>0.2931347753928116</v>
-      </c>
-      <c r="N247" t="n">
-        <v>0.1381153941819268</v>
-      </c>
-      <c r="O247" t="n">
-        <v>0.2929300093142943</v>
-      </c>
-    </row>
-    <row r="248" ht="15" customHeight="1">
-      <c r="F248" t="n">
-        <v>0.03033595643581932</v>
-      </c>
-      <c r="G248" t="n">
-        <v>0.2970218929957116</v>
-      </c>
-      <c r="J248" t="n">
-        <v>0.03521060469549032</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.2996322328722797</v>
-      </c>
-      <c r="L248" t="n">
-        <v>0.08506052524390967</v>
-      </c>
-      <c r="M248" t="n">
-        <v>0.294745406026838</v>
-      </c>
-      <c r="N248" t="n">
-        <v>0.1371234587687783</v>
-      </c>
-      <c r="O248" t="n">
-        <v>0.2945395148599773</v>
-      </c>
-    </row>
-    <row r="249" ht="15" customHeight="1">
-      <c r="F249" t="n">
-        <v>0.03383251457020992</v>
-      </c>
-      <c r="G249" t="n">
-        <v>0.29864496344924</v>
-      </c>
-      <c r="J249" t="n">
-        <v>0.03429116613954096</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.3012695674781392</v>
-      </c>
-      <c r="L249" t="n">
-        <v>0.0848040235052078</v>
-      </c>
-      <c r="M249" t="n">
-        <v>0.2963560366608645</v>
-      </c>
-      <c r="N249" t="n">
-        <v>0.1349232753571591</v>
-      </c>
-      <c r="O249" t="n">
-        <v>0.2961490204056602</v>
-      </c>
-    </row>
-    <row r="250" ht="15" customHeight="1">
-      <c r="F250" t="n">
-        <v>0.03132695307745217</v>
-      </c>
-      <c r="G250" t="n">
-        <v>0.3002680339027685</v>
-      </c>
-      <c r="J250" t="n">
-        <v>0.03376952409065841</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.3029069020839986</v>
-      </c>
-      <c r="L250" t="n">
-        <v>0.08354226649668872</v>
-      </c>
-      <c r="M250" t="n">
-        <v>0.2979666672948909</v>
-      </c>
-      <c r="N250" t="n">
-        <v>0.1332147312945111</v>
-      </c>
-      <c r="O250" t="n">
-        <v>0.2977585259513431</v>
-      </c>
-    </row>
-    <row r="251" ht="15" customHeight="1">
-      <c r="F251" t="n">
-        <v>0.03281924310755142</v>
-      </c>
-      <c r="G251" t="n">
-        <v>0.301891104356297</v>
-      </c>
-      <c r="J251" t="n">
-        <v>0.03354564823940116</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.3045442366898581</v>
-      </c>
-      <c r="L251" t="n">
-        <v>0.0817751833486155</v>
-      </c>
-      <c r="M251" t="n">
-        <v>0.2995772979289174</v>
-      </c>
-      <c r="N251" t="n">
-        <v>0.130997713928276</v>
-      </c>
-      <c r="O251" t="n">
-        <v>0.2993680314970261</v>
-      </c>
-    </row>
-    <row r="252" ht="15" customHeight="1">
-      <c r="F252" t="n">
-        <v>0.03130935581051295</v>
-      </c>
-      <c r="G252" t="n">
-        <v>0.3035141748098255</v>
-      </c>
-      <c r="J252" t="n">
-        <v>0.03271950827632772</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.3061815712957175</v>
-      </c>
-      <c r="L252" t="n">
-        <v>0.08110270319125124</v>
-      </c>
-      <c r="M252" t="n">
-        <v>0.3011879285629437</v>
-      </c>
-      <c r="N252" t="n">
-        <v>0.1275721106058957</v>
-      </c>
-      <c r="O252" t="n">
-        <v>0.300977537042709</v>
-      </c>
-    </row>
-    <row r="253" ht="15" customHeight="1">
-      <c r="F253" t="n">
-        <v>0.02979726233634207</v>
-      </c>
-      <c r="G253" t="n">
-        <v>0.305137245263354</v>
-      </c>
-      <c r="J253" t="n">
-        <v>0.03229107389199661</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.307818905901577</v>
-      </c>
-      <c r="L253" t="n">
-        <v>0.07912475515485903</v>
-      </c>
-      <c r="M253" t="n">
-        <v>0.3027985591969702</v>
-      </c>
-      <c r="N253" t="n">
-        <v>0.126037808674812</v>
-      </c>
-      <c r="O253" t="n">
-        <v>0.3025870425883919</v>
-      </c>
-    </row>
-    <row r="254" ht="15" customHeight="1">
-      <c r="F254" t="n">
-        <v>0.02928293383504409</v>
-      </c>
-      <c r="G254" t="n">
-        <v>0.3067603157168824</v>
-      </c>
-      <c r="J254" t="n">
-        <v>0.03166031477696629</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.3094562405074365</v>
-      </c>
-      <c r="L254" t="n">
-        <v>0.07744126836970205</v>
-      </c>
-      <c r="M254" t="n">
-        <v>0.3044091898309967</v>
-      </c>
-      <c r="N254" t="n">
-        <v>0.1237946954824666</v>
-      </c>
-      <c r="O254" t="n">
-        <v>0.3041965481340749</v>
-      </c>
-    </row>
-    <row r="255" ht="15" customHeight="1">
-      <c r="F255" t="n">
-        <v>0.03076634145662428</v>
-      </c>
-      <c r="G255" t="n">
-        <v>0.3083833861704109</v>
-      </c>
-      <c r="J255" t="n">
-        <v>0.0314272006217953</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.3110935751132959</v>
-      </c>
-      <c r="L255" t="n">
-        <v>0.07675217196604334</v>
-      </c>
-      <c r="M255" t="n">
-        <v>0.3060198204650231</v>
-      </c>
-      <c r="N255" t="n">
-        <v>0.1221426583763015</v>
-      </c>
-      <c r="O255" t="n">
-        <v>0.3058060536797578</v>
-      </c>
-    </row>
-    <row r="256" ht="15" customHeight="1">
-      <c r="F256" t="n">
-        <v>0.03024745635108797</v>
-      </c>
-      <c r="G256" t="n">
-        <v>0.3100064566239394</v>
-      </c>
-      <c r="J256" t="n">
-        <v>0.03099170111704212</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.3127309097191553</v>
-      </c>
-      <c r="L256" t="n">
-        <v>0.07595739507414603</v>
-      </c>
-      <c r="M256" t="n">
-        <v>0.3076304510990495</v>
-      </c>
-      <c r="N256" t="n">
-        <v>0.1196815847037584</v>
-      </c>
-      <c r="O256" t="n">
-        <v>0.3074155592254407</v>
-      </c>
-    </row>
-    <row r="257" ht="15" customHeight="1">
-      <c r="F257" t="n">
-        <v>0.02972624966844047</v>
-      </c>
-      <c r="G257" t="n">
-        <v>0.3116295270774679</v>
-      </c>
-      <c r="J257" t="n">
-        <v>0.03045378595326527</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.3143682443250148</v>
-      </c>
-      <c r="L257" t="n">
-        <v>0.07425686682427327</v>
-      </c>
-      <c r="M257" t="n">
-        <v>0.309241081733076</v>
-      </c>
-      <c r="N257" t="n">
-        <v>0.1177113618122792</v>
-      </c>
-      <c r="O257" t="n">
-        <v>0.3090250647711237</v>
-      </c>
-    </row>
-    <row r="258" ht="15" customHeight="1">
-      <c r="F258" t="n">
-        <v>0.02920269255868706</v>
-      </c>
-      <c r="G258" t="n">
-        <v>0.3132525975309964</v>
-      </c>
-      <c r="J258" t="n">
-        <v>0.02951342482102322</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.3160055789308743</v>
-      </c>
-      <c r="L258" t="n">
-        <v>0.0725505163466881</v>
-      </c>
-      <c r="M258" t="n">
-        <v>0.3108517123671024</v>
-      </c>
-      <c r="N258" t="n">
-        <v>0.1164318770493057</v>
-      </c>
-      <c r="O258" t="n">
-        <v>0.3106345703168066</v>
-      </c>
-    </row>
-    <row r="259" ht="15" customHeight="1">
-      <c r="F259" t="n">
-        <v>0.02667675617183306</v>
-      </c>
-      <c r="G259" t="n">
-        <v>0.3148756679845248</v>
-      </c>
-      <c r="J259" t="n">
-        <v>0.02937058741087448</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.3176429135367337</v>
-      </c>
-      <c r="L259" t="n">
-        <v>0.07183827277165367</v>
-      </c>
-      <c r="M259" t="n">
-        <v>0.3124623430011289</v>
-      </c>
-      <c r="N259" t="n">
-        <v>0.1129430177622796</v>
-      </c>
-      <c r="O259" t="n">
-        <v>0.3122440758624895</v>
-      </c>
-    </row>
-    <row r="260" ht="15" customHeight="1">
-      <c r="F260" t="n">
-        <v>0.02414841165788376</v>
-      </c>
-      <c r="G260" t="n">
-        <v>0.3164987384380533</v>
-      </c>
-      <c r="J260" t="n">
-        <v>0.02882524341337757</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.3192802481425931</v>
-      </c>
-      <c r="L260" t="n">
-        <v>0.06972006522943311</v>
-      </c>
-      <c r="M260" t="n">
-        <v>0.3140729736351552</v>
-      </c>
-      <c r="N260" t="n">
-        <v>0.1123446712986427</v>
-      </c>
-      <c r="O260" t="n">
-        <v>0.3138535814081724</v>
-      </c>
-    </row>
-    <row r="261" ht="15" customHeight="1">
-      <c r="F261" t="n">
-        <v>0.02761763016684447</v>
-      </c>
-      <c r="G261" t="n">
-        <v>0.3181218088915818</v>
-      </c>
-      <c r="J261" t="n">
-        <v>0.02787736251909098</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.3209175827484526</v>
-      </c>
-      <c r="L261" t="n">
-        <v>0.06899582285028946</v>
-      </c>
-      <c r="M261" t="n">
-        <v>0.3156836042691817</v>
-      </c>
-      <c r="N261" t="n">
-        <v>0.1093367250058371</v>
-      </c>
-      <c r="O261" t="n">
-        <v>0.3154630869538554</v>
-      </c>
-    </row>
-    <row r="262" ht="15" customHeight="1">
-      <c r="F262" t="n">
-        <v>0.0250843828487205</v>
-      </c>
-      <c r="G262" t="n">
-        <v>0.3197448793451103</v>
-      </c>
-      <c r="J262" t="n">
-        <v>0.0274269144185732</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.3225549173543121</v>
-      </c>
-      <c r="L262" t="n">
-        <v>0.06696547476448589</v>
-      </c>
-      <c r="M262" t="n">
-        <v>0.3172942349032082</v>
-      </c>
-      <c r="N262" t="n">
-        <v>0.1084190662313043</v>
-      </c>
-      <c r="O262" t="n">
-        <v>0.3170725924995383</v>
-      </c>
-    </row>
-    <row r="263" ht="15" customHeight="1">
-      <c r="F263" t="n">
-        <v>0.02554864085351714</v>
-      </c>
-      <c r="G263" t="n">
-        <v>0.3213679497986388</v>
-      </c>
-      <c r="J263" t="n">
-        <v>0.02687386880238278</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.3241922519601715</v>
-      </c>
-      <c r="L263" t="n">
-        <v>0.0664289501022855</v>
-      </c>
-      <c r="M263" t="n">
-        <v>0.3189048655372346</v>
-      </c>
-      <c r="N263" t="n">
-        <v>0.1062915823224861</v>
-      </c>
-      <c r="O263" t="n">
-        <v>0.3186820980452212</v>
-      </c>
-    </row>
-    <row r="264" ht="15" customHeight="1">
-      <c r="F264" t="n">
-        <v>0.0250103753312397</v>
-      </c>
-      <c r="G264" t="n">
-        <v>0.3229910202521672</v>
-      </c>
-      <c r="J264" t="n">
-        <v>0.02651819536107813</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.3258295865660309</v>
-      </c>
-      <c r="L264" t="n">
-        <v>0.06488617799395135</v>
-      </c>
-      <c r="M264" t="n">
-        <v>0.320515496171261</v>
-      </c>
-      <c r="N264" t="n">
-        <v>0.1039541606268246</v>
-      </c>
-      <c r="O264" t="n">
-        <v>0.3202916035909042</v>
-      </c>
-    </row>
+    <row r="90" ht="15" customHeight="1"/>
+    <row r="91" ht="15" customHeight="1"/>
+    <row r="92" ht="15" customHeight="1"/>
+    <row r="93" ht="15" customHeight="1"/>
+    <row r="94" ht="15" customHeight="1"/>
+    <row r="95" ht="15" customHeight="1"/>
+    <row r="96" ht="15" customHeight="1"/>
+    <row r="97" ht="15" customHeight="1"/>
+    <row r="98" ht="15" customHeight="1"/>
+    <row r="99" ht="15" customHeight="1"/>
+    <row r="100" ht="15" customHeight="1"/>
+    <row r="101" ht="15" customHeight="1"/>
+    <row r="102" ht="15" customHeight="1"/>
+    <row r="103" ht="15" customHeight="1"/>
+    <row r="104" ht="15" customHeight="1"/>
+    <row r="105" ht="15" customHeight="1"/>
+    <row r="106" ht="15" customHeight="1"/>
+    <row r="107" ht="15" customHeight="1"/>
+    <row r="108" ht="15" customHeight="1"/>
+    <row r="109" ht="15" customHeight="1"/>
+    <row r="110" ht="15" customHeight="1"/>
+    <row r="111" ht="15" customHeight="1"/>
+    <row r="112" ht="15" customHeight="1"/>
+    <row r="113" ht="15" customHeight="1"/>
+    <row r="114" ht="15" customHeight="1"/>
+    <row r="115" ht="15" customHeight="1"/>
+    <row r="116" ht="15" customHeight="1"/>
+    <row r="117" ht="15" customHeight="1"/>
+    <row r="118" ht="15" customHeight="1"/>
+    <row r="119" ht="15" customHeight="1"/>
+    <row r="120" ht="15" customHeight="1"/>
+    <row r="121" ht="15" customHeight="1"/>
+    <row r="122" ht="15" customHeight="1"/>
+    <row r="123" ht="15" customHeight="1"/>
+    <row r="124" ht="15" customHeight="1"/>
+    <row r="125" ht="15" customHeight="1"/>
+    <row r="126" ht="15" customHeight="1"/>
+    <row r="127" ht="15" customHeight="1"/>
+    <row r="128" ht="15" customHeight="1"/>
+    <row r="129" ht="15" customHeight="1"/>
+    <row r="130" ht="15" customHeight="1"/>
+    <row r="131" ht="15" customHeight="1"/>
+    <row r="132" ht="15" customHeight="1"/>
+    <row r="133" ht="15" customHeight="1"/>
+    <row r="134" ht="15" customHeight="1"/>
+    <row r="135" ht="15" customHeight="1"/>
+    <row r="136" ht="15" customHeight="1"/>
+    <row r="137" ht="15" customHeight="1"/>
+    <row r="138" ht="15" customHeight="1"/>
+    <row r="139" ht="15" customHeight="1"/>
+    <row r="140" ht="15" customHeight="1"/>
+    <row r="141" ht="15" customHeight="1"/>
+    <row r="142" ht="15" customHeight="1"/>
+    <row r="143" ht="15" customHeight="1"/>
+    <row r="144" ht="15" customHeight="1"/>
+    <row r="145" ht="15" customHeight="1"/>
+    <row r="146" ht="15" customHeight="1"/>
+    <row r="147" ht="15" customHeight="1"/>
+    <row r="148" ht="15" customHeight="1"/>
+    <row r="149" ht="15" customHeight="1"/>
+    <row r="150" ht="15" customHeight="1"/>
+    <row r="151" ht="15" customHeight="1"/>
+    <row r="152" ht="15" customHeight="1"/>
+    <row r="153" ht="15" customHeight="1"/>
+    <row r="154" ht="15" customHeight="1"/>
+    <row r="155" ht="15" customHeight="1"/>
+    <row r="156" ht="15" customHeight="1"/>
+    <row r="157" ht="15" customHeight="1"/>
+    <row r="158" ht="15" customHeight="1"/>
+    <row r="159" ht="15" customHeight="1"/>
+    <row r="160" ht="15" customHeight="1"/>
+    <row r="161" ht="15" customHeight="1"/>
+    <row r="162" ht="15" customHeight="1"/>
+    <row r="163" ht="15" customHeight="1"/>
+    <row r="164" ht="15" customHeight="1"/>
+    <row r="165" ht="15" customHeight="1"/>
+    <row r="166" ht="15" customHeight="1"/>
+    <row r="167" ht="15" customHeight="1"/>
+    <row r="168" ht="15" customHeight="1"/>
+    <row r="169" ht="15" customHeight="1"/>
+    <row r="170" ht="15" customHeight="1"/>
+    <row r="171" ht="15" customHeight="1"/>
+    <row r="172" ht="15" customHeight="1"/>
+    <row r="173" ht="15" customHeight="1"/>
+    <row r="174" ht="15" customHeight="1"/>
+    <row r="175" ht="15" customHeight="1"/>
+    <row r="176" ht="15" customHeight="1"/>
+    <row r="177" ht="15" customHeight="1"/>
+    <row r="178" ht="15" customHeight="1"/>
+    <row r="179" ht="15" customHeight="1"/>
+    <row r="180" ht="15" customHeight="1"/>
+    <row r="181" ht="15" customHeight="1"/>
+    <row r="182" ht="15" customHeight="1"/>
+    <row r="183" ht="15" customHeight="1"/>
+    <row r="184" ht="15" customHeight="1"/>
+    <row r="185" ht="15" customHeight="1"/>
+    <row r="186" ht="15" customHeight="1"/>
+    <row r="187" ht="15" customHeight="1"/>
+    <row r="188" ht="15" customHeight="1"/>
+    <row r="189" ht="15" customHeight="1"/>
+    <row r="190" ht="15" customHeight="1"/>
+    <row r="191" ht="15" customHeight="1"/>
+    <row r="192" ht="15" customHeight="1"/>
+    <row r="193" ht="15" customHeight="1"/>
+    <row r="194" ht="15" customHeight="1"/>
+    <row r="195" ht="15" customHeight="1"/>
+    <row r="196" ht="15" customHeight="1"/>
+    <row r="197" ht="15" customHeight="1"/>
+    <row r="198" ht="15" customHeight="1"/>
+    <row r="199" ht="15" customHeight="1"/>
+    <row r="200" ht="15" customHeight="1"/>
+    <row r="201" ht="15" customHeight="1"/>
+    <row r="202" ht="15" customHeight="1"/>
+    <row r="203" ht="15" customHeight="1"/>
+    <row r="204" ht="15" customHeight="1"/>
+    <row r="205" ht="15" customHeight="1"/>
+    <row r="206" ht="15" customHeight="1"/>
+    <row r="207" ht="15" customHeight="1"/>
+    <row r="208" ht="15" customHeight="1"/>
+    <row r="209" ht="15" customHeight="1"/>
+    <row r="210" ht="15" customHeight="1"/>
+    <row r="211" ht="15" customHeight="1"/>
+    <row r="212" ht="15" customHeight="1"/>
+    <row r="213" ht="15" customHeight="1"/>
+    <row r="214" ht="15" customHeight="1"/>
+    <row r="215" ht="15" customHeight="1"/>
+    <row r="216" ht="15" customHeight="1"/>
+    <row r="217" ht="15" customHeight="1"/>
+    <row r="218" ht="15" customHeight="1"/>
+    <row r="219" ht="15" customHeight="1"/>
+    <row r="220" ht="15" customHeight="1"/>
+    <row r="221" ht="15" customHeight="1"/>
+    <row r="222" ht="15" customHeight="1"/>
+    <row r="223" ht="15" customHeight="1"/>
+    <row r="224" ht="15" customHeight="1"/>
+    <row r="225" ht="15" customHeight="1"/>
+    <row r="226" ht="15" customHeight="1"/>
+    <row r="227" ht="15" customHeight="1"/>
+    <row r="228" ht="15" customHeight="1"/>
+    <row r="229" ht="15" customHeight="1"/>
+    <row r="230" ht="15" customHeight="1"/>
+    <row r="231" ht="15" customHeight="1"/>
+    <row r="232" ht="15" customHeight="1"/>
+    <row r="233" ht="15" customHeight="1"/>
+    <row r="234" ht="15" customHeight="1"/>
+    <row r="235" ht="15" customHeight="1"/>
+    <row r="236" ht="15" customHeight="1"/>
+    <row r="237" ht="15" customHeight="1"/>
+    <row r="238" ht="15" customHeight="1"/>
+    <row r="239" ht="15" customHeight="1"/>
+    <row r="240" ht="15" customHeight="1"/>
+    <row r="241" ht="15" customHeight="1"/>
+    <row r="242" ht="15" customHeight="1"/>
+    <row r="243" ht="15" customHeight="1"/>
+    <row r="244" ht="15" customHeight="1"/>
+    <row r="245" ht="15" customHeight="1"/>
+    <row r="246" ht="15" customHeight="1"/>
+    <row r="247" ht="15" customHeight="1"/>
+    <row r="248" ht="15" customHeight="1"/>
+    <row r="249" ht="15" customHeight="1"/>
+    <row r="250" ht="15" customHeight="1"/>
+    <row r="251" ht="15" customHeight="1"/>
+    <row r="252" ht="15" customHeight="1"/>
+    <row r="253" ht="15" customHeight="1"/>
+    <row r="254" ht="15" customHeight="1"/>
+    <row r="255" ht="15" customHeight="1"/>
+    <row r="256" ht="15" customHeight="1"/>
+    <row r="257" ht="15" customHeight="1"/>
+    <row r="258" ht="15" customHeight="1"/>
+    <row r="259" ht="15" customHeight="1"/>
+    <row r="260" ht="15" customHeight="1"/>
+    <row r="261" ht="15" customHeight="1"/>
+    <row r="262" ht="15" customHeight="1"/>
+    <row r="263" ht="15" customHeight="1"/>
+    <row r="264" ht="15" customHeight="1"/>
     <row r="265" ht="15" customHeight="1"/>
     <row r="266" ht="15" customHeight="1"/>
     <row r="267" ht="15" customHeight="1"/>
